--- a/data/02_intermediate/cleaned_Gaël_Faye_songs.xlsx
+++ b/data/02_intermediate/cleaned_Gaël_Faye_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gahugu gatoyi Gahugu kaniniya Warapfunywe ntiwapfuye Waragowe ntiwagoka Gahugu gatoyi Gahugu kaniniya Une feuille et un stylo apaisent mes délires d'insomniaque Loin dans mon exil, petit pays d'Afrique des Grands Lacs Remémorer ma vie naguère avant la guerre Trimant pour me rappeler mes sensations sans rapatriement Petit pays je t'envoie cette carte postale Ma rose, mon pétale, mon cristal, ma terre natale Ça fait longtemps les jardins de bougainvilliers Souvenirs renfermés dans la poussière d'un bouquin plié Sous le soleil, les toits de tôles scintillent Les paysans défrichent la terre en mettant l'feu sur des brindilles Voyez mon existence avait bien commencé J'aimerais recommencer depuis l'début, mais tu sais comment c'est Et nous voilà perdus dans les rues de Saint-Denis Avant qu'on soit séniles on ira vivre à Gisenyi On fera trembler le sol comme les grondements de nos volcans Alors petit pays, loin de la guerre on s'envole quand ? You might also like Petit bout d'Afrique perché en altitude Je doute de mes amours, tu resteras ma certitude Réputation recouverte d'un linceul Petit pays, pendant trois mois, tout l'monde t'a laissé seul J'avoue j'ai plaidé coupable de vous haïr Quand tous les projecteurs étaient tournés vers le Zaïre Il fallait reconstruire mon p'tit pays sur des ossements Des fosses communes et puis nos cauchemars incessants Petit pays te faire sourire sera ma rédemption Je t'offrirai ma vie, à commencer par cette chanson L'écriture m'a soigné quand je partais en vrille Seulement laisse-moi pleurer quand arrivera ce maudit mois d'avril Tu m'as appris le pardon pour que je fasse peau neuve Petit pays dans l'ombre le diable continue ses manuvres Tu veux vivre malgré les cauchemars qui te hantent Je suis semence d'exil d'un résidu d'étoile filante Un soir d'amertume, entre le suicide et le meurtre J'ai gribouillé ces quelques phrases de la pointe neutre de mon feutre J'ai passé l'âge des pamphlets quand on s'encanaille J'connais qu'l'amour et la crainte que celui-ci s'en aille J'ai rêvé trop longtemps d'silence et d'aurore boréale À force d'être trop sage j'me suis pendu avec mon auréole J'ai gribouillé des textes pour m'expliquer mes peines Bujumbura, t'es ma luciole dans mon errance européenne Je suis né y'a longtemps un mois d'août Et depuis dans ma tête c'est tous les jours la saison des doutes Je me navre et je cherche un havre de paix Quand l'Afrique se transforme en cadavre Les époques ça meurt comme les amours Man j'ai plus de sommeil et je veille comme un zamu Laissez-moi vivre, parole de misanthrope Citez m'en un seul de rêve qui soit allé jusqu'au bout du sien propre Petit pays Quand tu pleures, je pleure Quand tu ris, je ris Quand tu meurs, je meurs Quand tu vis, je vis Petit pays, je saigne de tes blessures Petit pays, je t'aime, ça j'en suis sûr 4</t>
+          <t>Gahugu gatoyi Gahugu kaniniya Warapfunywe ntiwapfuye Waragowe ntiwagoka Gahugu gatoyi Gahugu kaniniya Une feuille et un stylo apaisent mes délires d'insomniaque Loin dans mon exil, petit pays d'Afrique des Grands Lacs Remémorer ma vie naguère avant la guerre Trimant pour me rappeler mes sensations sans rapatriement Petit pays je t'envoie cette carte postale Ma rose, mon pétale, mon cristal, ma terre natale Ça fait longtemps les jardins de bougainvilliers Souvenirs renfermés dans la poussière d'un bouquin plié Sous le soleil, les toits de tôles scintillent Les paysans défrichent la terre en mettant l'feu sur des brindilles Voyez mon existence avait bien commencé J'aimerais recommencer depuis l'début, mais tu sais comment c'est Et nous voilà perdus dans les rues de Saint-Denis Avant qu'on soit séniles on ira vivre à Gisenyi On fera trembler le sol comme les grondements de nos volcans Alors petit pays, loin de la guerre on s'envole quand ? Petit bout d'Afrique perché en altitude Je doute de mes amours, tu resteras ma certitude Réputation recouverte d'un linceul Petit pays, pendant trois mois, tout l'monde t'a laissé seul J'avoue j'ai plaidé coupable de vous haïr Quand tous les projecteurs étaient tournés vers le Zaïre Il fallait reconstruire mon p'tit pays sur des ossements Des fosses communes et puis nos cauchemars incessants Petit pays te faire sourire sera ma rédemption Je t'offrirai ma vie, à commencer par cette chanson L'écriture m'a soigné quand je partais en vrille Seulement laisse-moi pleurer quand arrivera ce maudit mois d'avril Tu m'as appris le pardon pour que je fasse peau neuve Petit pays dans l'ombre le diable continue ses manuvres Tu veux vivre malgré les cauchemars qui te hantent Je suis semence d'exil d'un résidu d'étoile filante Un soir d'amertume, entre le suicide et le meurtre J'ai gribouillé ces quelques phrases de la pointe neutre de mon feutre J'ai passé l'âge des pamphlets quand on s'encanaille J'connais qu'l'amour et la crainte que celui-ci s'en aille J'ai rêvé trop longtemps d'silence et d'aurore boréale À force d'être trop sage j'me suis pendu avec mon auréole J'ai gribouillé des textes pour m'expliquer mes peines Bujumbura, t'es ma luciole dans mon errance européenne Je suis né y'a longtemps un mois d'août Et depuis dans ma tête c'est tous les jours la saison des doutes Je me navre et je cherche un havre de paix Quand l'Afrique se transforme en cadavre Les époques ça meurt comme les amours Man j'ai plus de sommeil et je veille comme un zamu Laissez-moi vivre, parole de misanthrope Citez m'en un seul de rêve qui soit allé jusqu'au bout du sien propre Petit pays Quand tu pleures, je pleure Quand tu ris, je ris Quand tu meurs, je meurs Quand tu vis, je vis Petit pays, je saigne de tes blessures Petit pays, je t'aime, ça j'en suis sûr 4</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ma femme c'est une bombe, une hécatombe Quand elle passe dans ton monde tous les gars tombent Ma femme c'est de la came, c'est de la coke en kilogrammes Elle est au top du palmarès elle a fait péter vos diagrammes A côté, les autres, elles ont des tronches de gorilles Y'a les femmes et y'a la mienne allégorie hors-catégorie C'est pas la peine d'essayer de la guer-dra Elle en a rien à faire du vermicelle derrière ta guette-bra Accro, je suis à cran, c'est la muse de mes écrits Elle a transpercé l'écran c'est un diamant dans son écrin Une femme, une vraie de vraie regarde comme elle est gaulée J'aime pas la voir partir, mais j'adore la voir s'en aller Je l'entoure de mes bras, ma beauté, ma seule princesse Jusqu'au bout du monde je me battrai pour que jamais l'étreinte cesse Regarde sa cambrure, ses seins qui foutent le faya Je l'épouserai Baie de tous les Saints, Salvador de Bahia De tous les dons du Ciel, c'est le cadeau du plus offrant Ma femme elle est trop belle, regarde sa peau couleur safran Ma femme elle déclenche les ambulances et leurs sirènes Si le monde était beauté, tu vivrais sous son règne Son parfum est une ivresse qui te rend saoul l'ami Elle est classe comme une négresse et dangereuse comme un tsunami Indépendante est ma femme, l'intelligence incarnée C'est la reine de Saba, c'est Cléopâtre réincarnée Ma femme c'est de la foudre, l'orage, les cataclysmes C'est ta foi, ta religion, l'abjuration des hommes d'église C'est la belle-fille, que je présente à ma Mama J'en suis sûr que c'est la bonne, dans les artères coule le magma Je lui ferai des gosses, des bambins, une floppée de mômes Parce qu'il y'a la guerre sur la Terre, on va repeupler le monde Ma femme j'en ferai des disques, des films et des bouquins C'est la goutte de sang dans l'océan qui rend fous les requins Je sais qu'elle traumatise donc tise ton verre ou termine ton spliff C'est pas des révolvers dans ses yeux verts y'a des .22 Long Rifle 1, 2, 3, 4, 5, elle est simple, une beauté qui s'ignore C'est une femme en or, à ses côtés, je deviens seigneur Cette femme elle fout en l'air, c'est le requiem du rêve Elixir du nectar des dieux, j'ai la cuillère aux lèvres Elle est belle comme le pêché, une séquelle, un vrai scandale Je suis le prêtre avec les clefs du temple, et je deviens vandale Cette femme c'est pas de la lette-zou ou de la lollipop C'est du pe-ra Brooklyn zoo, du Rock'n'roll et du Hip-hop Je succombe à sa démarche, cette langueur qui se pavane Avec les cheveux dans le soleil, elle danse, rue de la Havane On a mis le cap vers cette plage du Cap-Vert Au piano y'aura Ruben, au micro Ibrahim Ferrer Au creux de son oreille, j'irai glisser ndagukunda Je t'aime dans toutes les langues du monde, UMUGWANEZA ! You might also likeParoles rédigées et expliquées par la communauté RapGenius France4</t>
+          <t>Ma femme c'est une bombe, une hécatombe Quand elle passe dans ton monde tous les gars tombent Ma femme c'est de la came, c'est de la coke en kilogrammes Elle est au top du palmarès elle a fait péter vos diagrammes A côté, les autres, elles ont des tronches de gorilles Y'a les femmes et y'a la mienne allégorie hors-catégorie C'est pas la peine d'essayer de la guer-dra Elle en a rien à faire du vermicelle derrière ta guette-bra Accro, je suis à cran, c'est la muse de mes écrits Elle a transpercé l'écran c'est un diamant dans son écrin Une femme, une vraie de vraie regarde comme elle est gaulée J'aime pas la voir partir, mais j'adore la voir s'en aller Je l'entoure de mes bras, ma beauté, ma seule princesse Jusqu'au bout du monde je me battrai pour que jamais l'étreinte cesse Regarde sa cambrure, ses seins qui foutent le faya Je l'épouserai Baie de tous les Saints, Salvador de Bahia De tous les dons du Ciel, c'est le cadeau du plus offrant Ma femme elle est trop belle, regarde sa peau couleur safran Ma femme elle déclenche les ambulances et leurs sirènes Si le monde était beauté, tu vivrais sous son règne Son parfum est une ivresse qui te rend saoul l'ami Elle est classe comme une négresse et dangereuse comme un tsunami Indépendante est ma femme, l'intelligence incarnée C'est la reine de Saba, c'est Cléopâtre réincarnée Ma femme c'est de la foudre, l'orage, les cataclysmes C'est ta foi, ta religion, l'abjuration des hommes d'église C'est la belle-fille, que je présente à ma Mama J'en suis sûr que c'est la bonne, dans les artères coule le magma Je lui ferai des gosses, des bambins, une floppée de mômes Parce qu'il y'a la guerre sur la Terre, on va repeupler le monde Ma femme j'en ferai des disques, des films et des bouquins C'est la goutte de sang dans l'océan qui rend fous les requins Je sais qu'elle traumatise donc tise ton verre ou termine ton spliff C'est pas des révolvers dans ses yeux verts y'a des .22 Long Rifle 1, 2, 3, 4, 5, elle est simple, une beauté qui s'ignore C'est une femme en or, à ses côtés, je deviens seigneur Cette femme elle fout en l'air, c'est le requiem du rêve Elixir du nectar des dieux, j'ai la cuillère aux lèvres Elle est belle comme le pêché, une séquelle, un vrai scandale Je suis le prêtre avec les clefs du temple, et je deviens vandale Cette femme c'est pas de la lette-zou ou de la lollipop C'est du pe-ra Brooklyn zoo, du Rock'n'roll et du Hip-hop Je succombe à sa démarche, cette langueur qui se pavane Avec les cheveux dans le soleil, elle danse, rue de la Havane On a mis le cap vers cette plage du Cap-Vert Au piano y'aura Ruben, au micro Ibrahim Ferrer Au creux de son oreille, j'irai glisser ndagukunda Je t'aime dans toutes les langues du monde, UMUGWANEZA ! Paroles rédigées et expliquées par la communauté RapGenius France4</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Well, its early in the morn in the morning, baby When I rise, Lordy mama Well, its early every morning a-baby When I rise well-a well-a Its early in the morning, baby When I rise, Lordy baby You have-, its I have misery, Berta Wa, in my right side Respire les effluves, les parfums d'Orient Sous l'étuve les fumées d'encens Brûle tes poumons dans les torpeurs enivrantes Hume les fleurs, leurs senteurs navrantes Laisse loin la rumeur des villes Si ta vie est tracée dévie! Prends des routes incertaines, trouve des soleils nouveaux Enfile des semelles de vent, deviens voleur de feu Défie Dieu comme un fou, refais surface loin des foules Affine forces et faiblesses, fais de ta vie un poème Sois ouragan, encre rebelles, houngan! Empereur de brigands, Mackandal, Bois-Caïman Écris des récits où te cogner à des récifs Une feuille blanche est encore vierge pour accueillir tes hérésies Lis entre les vies, écris la vie entre les lignes Fuis l'ennui des villes livides si ton cur lui aussi sabîme You might also like Well-a, it's-a, Lordy Ro-Lordy-Berta Well, it's Lord you keep a-talkin', babe Well, it's Lord, Ro-Lordy-Rosie Well, it's, o Lord, Gal, well-a Well-rocks n gravel make -a Make a solid road Well-a takes a-rocka gravel make a To make a solid road, well-a Un jour, un jour, un jour j'me barre, hasta la vista Je reste pas sur place, j'attends pas le visa J'vais parcourir l'espace, pas rester planté là Attendant que j'trépasse et parte vers l'au-delà Mourir sous les étoiles, pas dans de petits draps J'vais soulever des montagnes avec mes petits bras Traverser des campagnes, des patelins, des trous à rats M'échapper de ce bagne, trouver un sens à tout ça J'vais rallumer la flamme, recommencer l'combat Affûter ma lame pour replonger en moi Un fantôme se pavane dans son anonymat Rêve d'un pays d'Cocagne où l'on m'attendrait là-bas Car dans la ville je meurs à nager dans des yeux Des regards transparents qui me noient à petit feu La zone est de mépris, la vague est d'indifférence La foule est un zombie et je vogue à contresens... Well-rocks n gravel make -a Make a solid road Well-a takes a-rock a gravel make a To make a solid road, well-a Entendre le son des vagues lorsqu'elles s'aggripent à la terre ferme Cultiver le silence, tout est calme, plus rien n'interfère Rechercher la lumière, un jour peut-être trouver la clarté En nous le bout du monde, faire de son cur une île à peupler Ouvrir de grands yeux clairs au bord d'immenses lacs émeraudes Se laisser émouvoir tôt le matin quand pousse l'aube Aux premières heures du jour tout est possible Si l'on veut reprendre dès le début, redéfinir la règle du jeu Briser les chaines, fissurer la dalle Inventer la lune, que tous la voient Devenir vent de nuit, pousser la voile Et s'enfuir vers des rives là-bas...3</t>
+          <t>Well, its early in the morn in the morning, baby When I rise, Lordy mama Well, its early every morning a-baby When I rise well-a well-a Its early in the morning, baby When I rise, Lordy baby You have-, its I have misery, Berta Wa, in my right side Respire les effluves, les parfums d'Orient Sous l'étuve les fumées d'encens Brûle tes poumons dans les torpeurs enivrantes Hume les fleurs, leurs senteurs navrantes Laisse loin la rumeur des villes Si ta vie est tracée dévie! Prends des routes incertaines, trouve des soleils nouveaux Enfile des semelles de vent, deviens voleur de feu Défie Dieu comme un fou, refais surface loin des foules Affine forces et faiblesses, fais de ta vie un poème Sois ouragan, encre rebelles, houngan! Empereur de brigands, Mackandal, Bois-Caïman Écris des récits où te cogner à des récifs Une feuille blanche est encore vierge pour accueillir tes hérésies Lis entre les vies, écris la vie entre les lignes Fuis l'ennui des villes livides si ton cur lui aussi sabîme Well-a, it's-a, Lordy Ro-Lordy-Berta Well, it's Lord you keep a-talkin', babe Well, it's Lord, Ro-Lordy-Rosie Well, it's, o Lord, Gal, well-a Well-rocks n gravel make -a Make a solid road Well-a takes a-rocka gravel make a To make a solid road, well-a Un jour, un jour, un jour j'me barre, hasta la vista Je reste pas sur place, j'attends pas le visa J'vais parcourir l'espace, pas rester planté là Attendant que j'trépasse et parte vers l'au-delà Mourir sous les étoiles, pas dans de petits draps J'vais soulever des montagnes avec mes petits bras Traverser des campagnes, des patelins, des trous à rats M'échapper de ce bagne, trouver un sens à tout ça J'vais rallumer la flamme, recommencer l'combat Affûter ma lame pour replonger en moi Un fantôme se pavane dans son anonymat Rêve d'un pays d'Cocagne où l'on m'attendrait là-bas Car dans la ville je meurs à nager dans des yeux Des regards transparents qui me noient à petit feu La zone est de mépris, la vague est d'indifférence La foule est un zombie et je vogue à contresens... Well-rocks n gravel make -a Make a solid road Well-a takes a-rock a gravel make a To make a solid road, well-a Entendre le son des vagues lorsqu'elles s'aggripent à la terre ferme Cultiver le silence, tout est calme, plus rien n'interfère Rechercher la lumière, un jour peut-être trouver la clarté En nous le bout du monde, faire de son cur une île à peupler Ouvrir de grands yeux clairs au bord d'immenses lacs émeraudes Se laisser émouvoir tôt le matin quand pousse l'aube Aux premières heures du jour tout est possible Si l'on veut reprendre dès le début, redéfinir la règle du jeu Briser les chaines, fissurer la dalle Inventer la lune, que tous la voient Devenir vent de nuit, pousser la voile Et s'enfuir vers des rives là-bas...3</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ok Tout est prêt pour mon départ Mon passeport, mon poster de Falcor et mon guide du retard Mon baril de Biafine, mon cadran solaire à piles Mes bottes à talons d'Achille, et des ufs de poisson d'avril Mon aspirateur de nuages gris, mon orgue de barbarie Un shampoing anti-poux en cas de tachycardie Mon bâton d'pluie pour rafraîchir mes tympans Ma poudre de Fée du Logis pour nettoyer mon tapis volant Mes mots-fléchés, mon jeu d'échecs et mon Scrabble Mon carnet d'santé, mon éthylotest en forme de poupée gonflable Mon bananier, mon détecteur de métaux pour retrouver mon moral d'acier Mon maillot, mon déo', mon réchaud, mes Lego pour bâtir des châteaux où mes vilains défauts pourront se cacher Un sac poubelle en guise de linceul Pour répondre au silence sans réfléchir, un smiley clin d'il Mon matelas futon, mes stylos sans capuchon En clair, je fourre le strict nécessaire dans mon baluchon x2 C'est simple, je suis un mec serein Pour mon bien-être, j'n'ai b'soin de presque rien Des fesses rebondies, une jolie paire de seins Quelques babioles, beaucoup d'alcool, des kilomètres de joints Tout part à vau-l'eau, ainsi va la vie, je lève les voiles pour m'en aller voguer J'emporte avec moi un tas de bricoles, cahiers spirales de mes rimes frivoles Mon charabia, mon Picabia, mon Picasso et mon pote pique-assiette Et, dans mon sac, un souk de cassettes de zouk, de ziks de types à casquettes J'emmène loin mon Ghetto-Blaster sur des plages de sable fin Mes mots cassés dans mes calepins, boubou d'Bazin et mocassins Et des lapins sous mon chapeau pour les poser où j'viendrai pas Aux rendez-vous des Pôles Emplois quand j's'rai sur l'île de Koh-Lanta J'prends ma canne à garder la pêche pour attraper des poissons clowns Et des casquettes ratons-laveurs, et toutes mes chaussettes assez cools Des bretzels peace and love et mes patins à glace à la vanille Des visas à vie pour des paysages sans vis-à-vis J'me fais la malle pour une femelle, je suis un chat, j'voyage léché J'prends mes sandales sans leur semelle car j'veux mettre le vent à mes pieds J'oublie pas ma couscoussière, demain, hasta la vista Dans mon sac de mec serein, c'est simple, j'ai presque nada You might also like x2 C'est simple, je suis un mec serein Pour mon bien-être, j'n'ai b'soin de presque rien Des fesses rebondies, une jolie paire de seins Quelques babioles, beaucoup d'alcool, des kilomètres de joints1</t>
+          <t>Ok Tout est prêt pour mon départ Mon passeport, mon poster de Falcor et mon guide du retard Mon baril de Biafine, mon cadran solaire à piles Mes bottes à talons d'Achille, et des ufs de poisson d'avril Mon aspirateur de nuages gris, mon orgue de barbarie Un shampoing anti-poux en cas de tachycardie Mon bâton d'pluie pour rafraîchir mes tympans Ma poudre de Fée du Logis pour nettoyer mon tapis volant Mes mots-fléchés, mon jeu d'échecs et mon Scrabble Mon carnet d'santé, mon éthylotest en forme de poupée gonflable Mon bananier, mon détecteur de métaux pour retrouver mon moral d'acier Mon maillot, mon déo', mon réchaud, mes Lego pour bâtir des châteaux où mes vilains défauts pourront se cacher Un sac poubelle en guise de linceul Pour répondre au silence sans réfléchir, un smiley clin d'il Mon matelas futon, mes stylos sans capuchon En clair, je fourre le strict nécessaire dans mon baluchon x2 C'est simple, je suis un mec serein Pour mon bien-être, j'n'ai b'soin de presque rien Des fesses rebondies, une jolie paire de seins Quelques babioles, beaucoup d'alcool, des kilomètres de joints Tout part à vau-l'eau, ainsi va la vie, je lève les voiles pour m'en aller voguer J'emporte avec moi un tas de bricoles, cahiers spirales de mes rimes frivoles Mon charabia, mon Picabia, mon Picasso et mon pote pique-assiette Et, dans mon sac, un souk de cassettes de zouk, de ziks de types à casquettes J'emmène loin mon Ghetto-Blaster sur des plages de sable fin Mes mots cassés dans mes calepins, boubou d'Bazin et mocassins Et des lapins sous mon chapeau pour les poser où j'viendrai pas Aux rendez-vous des Pôles Emplois quand j's'rai sur l'île de Koh-Lanta J'prends ma canne à garder la pêche pour attraper des poissons clowns Et des casquettes ratons-laveurs, et toutes mes chaussettes assez cools Des bretzels peace and love et mes patins à glace à la vanille Des visas à vie pour des paysages sans vis-à-vis J'me fais la malle pour une femelle, je suis un chat, j'voyage léché J'prends mes sandales sans leur semelle car j'veux mettre le vent à mes pieds J'oublie pas ma couscoussière, demain, hasta la vista Dans mon sac de mec serein, c'est simple, j'ai presque nada x2 C'est simple, je suis un mec serein Pour mon bien-être, j'n'ai b'soin de presque rien Des fesses rebondies, une jolie paire de seins Quelques babioles, beaucoup d'alcool, des kilomètres de joints1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>On sort en trombe, en nombre, on se déverse en plaine En centaines, en millions, en milliards ou en millièmes De quelques simples gouttes à des marées humaines Des jaillissements d'aurore pour éclairer des emblèmes Des lanternes dans la tête, si l'on plonge dans les ténèbres On nous appelle PD, blancos, bougnoules ou bien nègres On vit dans la riposte, on réfléchit après-coup On vit extra-muros, donc on arrive par vos égouts Nous sommes des cargaisons de femmes voilées, des youyous stridents Des rastas, des casquettes tournées, des voyous prudents Des espoirs accrochés, des paradis assassinés Des parents épuisés enfantant des gosses méprisés De la marmaille bruyante, des petits morveux frisés Engraissés d'allocations qui donnent des prétextes à voter Trouver des bouc-émissaires, les égorger pour l'Aïd Mourir dans une clairière sans treilli pour ce pays L'affiche est couleur sang, et Manouchian vient pas d'Auvergne Le tirailleur t'emmerde, il a fécondé ta grand-mère On investit Brongniart, le dos au mur comme Jean-Pierre Thorn On s'en fout du grand soir parce que la nuit, c'est bien trop morne On veut même pas de soleil mais des éclipses pour faire l'amour Pour que l'instant soit bref, intense comme un fruit qu'on savoure Aux armes miraculeuses on a lu Césaire et Prévert On viendra vous faire la guerre avec la parole poudrière On n'désigne plus l'ennemi, parce qu'il est partout même en nous On va mourir debout parce qu'on a vécu à genoux On est sourds aux slogans élimés par trop de manifs On devient arrogants on veut rimer comme des canifs On n'a plus 20 ans mais on n'en aura jamais 60 Car on bouffe du bisphénol à l'heure d'une planète suffocante On fait de nous des enfants pour nous interdire des luttes Donc nous on pend Peter-Pan, on va redevenir adultes On a coincé nos rages entre le mérite et l'héritage Et les puissants confisquent ce que les pauvres se partagent À leurs chaises musicales, personne ne joue, personne sassoit On occupe du terrain, être indigné ça va de soi Angela ké fend'tchou aw pendant que ton papa est bien là On va ouvrir les portes de Soledad ou Attica Pharmaco-dépendants des OGM pour nous doper J'ai recraché l'assiette, monté le cheval et galopé Braqué un RER-dilligence l'Apache de Belleville Viendra crier vengeance comme Balavoine arrive en ville Ils veulent nous assigner des places, et nous faire saigner Les amoureux aux bancs publics n'arrêteront jamais de s'aimer Depuis que nos checks ressemblent à des poignées de mains de Montoire On ne laissera personne parler au nom de nos espoirs On n'est pas des victimes, encore moins des condamnés On arrivera de l'aube en irruption spontanée...You might also like1</t>
+          <t>On sort en trombe, en nombre, on se déverse en plaine En centaines, en millions, en milliards ou en millièmes De quelques simples gouttes à des marées humaines Des jaillissements d'aurore pour éclairer des emblèmes Des lanternes dans la tête, si l'on plonge dans les ténèbres On nous appelle PD, blancos, bougnoules ou bien nègres On vit dans la riposte, on réfléchit après-coup On vit extra-muros, donc on arrive par vos égouts Nous sommes des cargaisons de femmes voilées, des youyous stridents Des rastas, des casquettes tournées, des voyous prudents Des espoirs accrochés, des paradis assassinés Des parents épuisés enfantant des gosses méprisés De la marmaille bruyante, des petits morveux frisés Engraissés d'allocations qui donnent des prétextes à voter Trouver des bouc-émissaires, les égorger pour l'Aïd Mourir dans une clairière sans treilli pour ce pays L'affiche est couleur sang, et Manouchian vient pas d'Auvergne Le tirailleur t'emmerde, il a fécondé ta grand-mère On investit Brongniart, le dos au mur comme Jean-Pierre Thorn On s'en fout du grand soir parce que la nuit, c'est bien trop morne On veut même pas de soleil mais des éclipses pour faire l'amour Pour que l'instant soit bref, intense comme un fruit qu'on savoure Aux armes miraculeuses on a lu Césaire et Prévert On viendra vous faire la guerre avec la parole poudrière On n'désigne plus l'ennemi, parce qu'il est partout même en nous On va mourir debout parce qu'on a vécu à genoux On est sourds aux slogans élimés par trop de manifs On devient arrogants on veut rimer comme des canifs On n'a plus 20 ans mais on n'en aura jamais 60 Car on bouffe du bisphénol à l'heure d'une planète suffocante On fait de nous des enfants pour nous interdire des luttes Donc nous on pend Peter-Pan, on va redevenir adultes On a coincé nos rages entre le mérite et l'héritage Et les puissants confisquent ce que les pauvres se partagent À leurs chaises musicales, personne ne joue, personne sassoit On occupe du terrain, être indigné ça va de soi Angela ké fend'tchou aw pendant que ton papa est bien là On va ouvrir les portes de Soledad ou Attica Pharmaco-dépendants des OGM pour nous doper J'ai recraché l'assiette, monté le cheval et galopé Braqué un RER-dilligence l'Apache de Belleville Viendra crier vengeance comme Balavoine arrive en ville Ils veulent nous assigner des places, et nous faire saigner Les amoureux aux bancs publics n'arrêteront jamais de s'aimer Depuis que nos checks ressemblent à des poignées de mains de Montoire On ne laissera personne parler au nom de nos espoirs On n'est pas des victimes, encore moins des condamnés On arrivera de l'aube en irruption spontanée...1</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Time is but a position on a circular piece of mechanic architecture It's running out So grab your pen and pad so I can start to lecture Have you read the chapters assigned? Made for you to expand your mind Refined a voice of fine wine Collected from a bleeding vine Overflowing with, All-knowing gifts Designed to stretch imagination I have in me the ignition key Gentlemen start your patience Guarding patrons of the sidewalk junkies Eradicate immediately, Those who haven't faced their fate expediently A demon in me Tries to escape through written pages Rippin' stages to shreds bringin' base to heads Unlockin cages with thread Now that's a task with a difficulty rating of Five Expectin myself to survive Has always been in the purpose of my rhyme I've always wanted to be Considered one of the dopest in my field And it'll happen, If we're not rappin I'll focus when I build A lot of kids In the industry already fell off They just don't know it yet So until they get the gall to face reality They won't know regret I have no regrets, That on the track of life I kept steppin Coverin up the pain From the lessons I could only learn from Gretchen Thinkin green, Thinking up scenes of life to wallow in Hopin' I'm dope enough My footsteps someone will want to follow in I swallow in depth, Chewable artists That wanted to spark this match Stop heatin me, Before my eggs of thought start to hatch A heart attack is commin, Smarter raps are runnin rampant And you, catchin them Is like havin a table with no legs and tryin to stand it You might also like Your defense was down, So just I walked in Yet your still talk-ing, You need to live For you I've given all that I can give Take this rib and be merry Be a woman if you wanna Cause your actin feminine Dissin' society that your blendin in. x2 To be perfectly honest would be impossible because I'm human Only half-truths and partial realities can leap from my tongue The saliva soaked chunk of flesh that I posses is the key to life rumors Divine state which activates the piercing poison of its venom Exists in all who breathe Those waitin' to exhale might suffocate The un-life's in a bag Just take a bite And gag on your fate That's why I wait for news to break So I grab the screwdrivers and vice-grips So you get the picture, I can plant 35 millimeters in each eye-lid And every, blink is a snap shot For secession I hide under that rock Life's an investment If you invest in bad stock Shouldn't be shocked when it drops But it seems, Sense isn't common anymore, Only few hold it Others don't think,They just gotta deliver next tech Before they load it And spit blanks Thinking they spittin shells I'm mendin' heaven and rippin' hell In life's scenes, I'm chasin' dreams While ya'll chase your tails I'll tell a vision, With improvision, Improvisin', Intro time Accelerate What you half baked, Go fishin in Thought's Lake I thought, Faith was in the Christian But I see faith is in the man With no legs Claimin' to stand steadfast and straight up on god's land I saw the plans For your mansion in paradise You already got your cake Started to eat it too And can't even share a slice? I said it twice, and I'll, say it a third I'm better with words Twist and bend fractions, Create brain curves, And blend actions With reality backdrops, With camouflage slap-shots Stop props from actin, Like you know yourself Shed the noteless flesh your borne To disguise your imperfections Replicate thoughts that hibernate To hatch in all perceptions What you hear is what you perceive Take it in stride and continue to be As a sheet of loose leaf in a hurricane Free. X2 Unfortunately life isn't equipped with white out and correctional tape Instead it come with lies to hide truth, tryin' to correct fate Let your mind inhale And intake lakes of thought project-tile And if you wanna talk ish, At least perfect bowel Movements and motions As I build with the pen I'm tryin to stagnate destiny And simultaneously rush adrenaline Since existence is ambiguous you may take what you can And leave what you will In other words Take a stand and leave what you killed And if its an old self then become new, Become you, Become truth Personify dichotomy and become two Come on, play your part Cause time's a stage And life's the play Theres no need to lock the cage now Since the beast already escaped So grab the tranquilizers Hunt it down and get it tame Then according to them, You need to find a style and get a name That's the only way to success According to big brother and company To surpass that I'm expectin' Alien entities to come for me To relieve stress I reflect how my heart rests In the hands of an African angel Pain Strangled in five days in a week From misery Deliver me Find purpose Cause a man with out purpose is worthless Next time, Try to keep an open mind When common sense freely disperses Concentrate My voice inoculates You wait for the serum Purified venom spit, When you emit oxymoronic symptoms You are what you've become When you blend with righteousness While writtin' this the crosshair is one your consciousness It's up to you if I hit or miss I use the canvas of time To paint lifelines And create masterpieces So while the brick layer rests I continue to build on my thesis They say perfection is only achieved in death And my words must not exist I exist and I am words So I must be verbally flawless. x2 Shed the noteless flesh your borne To disguise your imperfections Replicate thoughts that hibernate To hatch in all perceptions What you hear is what you percieve Take it in stride and continue to be As a sheet of loose leaf in a windy day Your defense was down So just I walked in Yet your still talk-ing You need to live For you I've given All that I can give Take this rib and be merry Be a woman if you wanna Cause your actin feminine Dissin' society that your blendin in</t>
+          <t>Time is but a position on a circular piece of mechanic architecture It's running out So grab your pen and pad so I can start to lecture Have you read the chapters assigned? Made for you to expand your mind Refined a voice of fine wine Collected from a bleeding vine Overflowing with, All-knowing gifts Designed to stretch imagination I have in me the ignition key Gentlemen start your patience Guarding patrons of the sidewalk junkies Eradicate immediately, Those who haven't faced their fate expediently A demon in me Tries to escape through written pages Rippin' stages to shreds bringin' base to heads Unlockin cages with thread Now that's a task with a difficulty rating of Five Expectin myself to survive Has always been in the purpose of my rhyme I've always wanted to be Considered one of the dopest in my field And it'll happen, If we're not rappin I'll focus when I build A lot of kids In the industry already fell off They just don't know it yet So until they get the gall to face reality They won't know regret I have no regrets, That on the track of life I kept steppin Coverin up the pain From the lessons I could only learn from Gretchen Thinkin green, Thinking up scenes of life to wallow in Hopin' I'm dope enough My footsteps someone will want to follow in I swallow in depth, Chewable artists That wanted to spark this match Stop heatin me, Before my eggs of thought start to hatch A heart attack is commin, Smarter raps are runnin rampant And you, catchin them Is like havin a table with no legs and tryin to stand it Your defense was down, So just I walked in Yet your still talk-ing, You need to live For you I've given all that I can give Take this rib and be merry Be a woman if you wanna Cause your actin feminine Dissin' society that your blendin in. x2 To be perfectly honest would be impossible because I'm human Only half-truths and partial realities can leap from my tongue The saliva soaked chunk of flesh that I posses is the key to life rumors Divine state which activates the piercing poison of its venom Exists in all who breathe Those waitin' to exhale might suffocate The un-life's in a bag Just take a bite And gag on your fate That's why I wait for news to break So I grab the screwdrivers and vice-grips So you get the picture, I can plant 35 millimeters in each eye-lid And every, blink is a snap shot For secession I hide under that rock Life's an investment If you invest in bad stock Shouldn't be shocked when it drops But it seems, Sense isn't common anymore, Only few hold it Others don't think,They just gotta deliver next tech Before they load it And spit blanks Thinking they spittin shells I'm mendin' heaven and rippin' hell In life's scenes, I'm chasin' dreams While ya'll chase your tails I'll tell a vision, With improvision, Improvisin', Intro time Accelerate What you half baked, Go fishin in Thought's Lake I thought, Faith was in the Christian But I see faith is in the man With no legs Claimin' to stand steadfast and straight up on god's land I saw the plans For your mansion in paradise You already got your cake Started to eat it too And can't even share a slice? I said it twice, and I'll, say it a third I'm better with words Twist and bend fractions, Create brain curves, And blend actions With reality backdrops, With camouflage slap-shots Stop props from actin, Like you know yourself Shed the noteless flesh your borne To disguise your imperfections Replicate thoughts that hibernate To hatch in all perceptions What you hear is what you perceive Take it in stride and continue to be As a sheet of loose leaf in a hurricane Free. X2 Unfortunately life isn't equipped with white out and correctional tape Instead it come with lies to hide truth, tryin' to correct fate Let your mind inhale And intake lakes of thought project-tile And if you wanna talk ish, At least perfect bowel Movements and motions As I build with the pen I'm tryin to stagnate destiny And simultaneously rush adrenaline Since existence is ambiguous you may take what you can And leave what you will In other words Take a stand and leave what you killed And if its an old self then become new, Become you, Become truth Personify dichotomy and become two Come on, play your part Cause time's a stage And life's the play Theres no need to lock the cage now Since the beast already escaped So grab the tranquilizers Hunt it down and get it tame Then according to them, You need to find a style and get a name That's the only way to success According to big brother and company To surpass that I'm expectin' Alien entities to come for me To relieve stress I reflect how my heart rests In the hands of an African angel Pain Strangled in five days in a week From misery Deliver me Find purpose Cause a man with out purpose is worthless Next time, Try to keep an open mind When common sense freely disperses Concentrate My voice inoculates You wait for the serum Purified venom spit, When you emit oxymoronic symptoms You are what you've become When you blend with righteousness While writtin' this the crosshair is one your consciousness It's up to you if I hit or miss I use the canvas of time To paint lifelines And create masterpieces So while the brick layer rests I continue to build on my thesis They say perfection is only achieved in death And my words must not exist I exist and I am words So I must be verbally flawless. x2 Shed the noteless flesh your borne To disguise your imperfections Replicate thoughts that hibernate To hatch in all perceptions What you hear is what you percieve Take it in stride and continue to be As a sheet of loose leaf in a windy day Your defense was down So just I walked in Yet your still talk-ing You need to live For you I've given All that I can give Take this rib and be merry Be a woman if you wanna Cause your actin feminine Dissin' society that your blendin in</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Depuis mes sources du Nil jusqu'en haut de la tour Eiffel J'aurais tout fait jusqu'à m'en étouffer J'aurais tout jeté, mes refrains, mes couplets, écoutez Le studio je l'aurais fermé, le micro je l'aurais coupé, j'ai douté J'avance sur des chemins cahoteux Venez goûter mes vérités dans les bouquins de Jean-Paul Gouteux Dégoûté d'avoir une vie non méritée Regardez je suis brillant mais je reflète l'obscurité Identité de porcelaine, j'ai fait ce morceau-là Pour assembler le puzzle d'un humain morcelé Jamais à ma place, des frontières j'effaçais Mais frais comme Damas mon sentiment de race Blanc et noir, quand le sang dans mes veines se détraque Je suis debout aux confluents du fleuve et du lac Mon métissage c'est pas l'avenir de l'humanité Mon métissage, c'est de la boue en vérité Quand deux fleuves se rencontrent, ils nen forment plus quun et par fusion nos cultures deviennent indistinctes Elles simbriquent et sencastrent pour ne former quun bloc dhumanité debout sur un socle Et quand deux fleuves se rencontrent, ils nen forment plus quun et par fusion nos cultures deviennent indistinctes Elles simbriquent et sencastrent pour ne former quun bloc dhumanité Un beau bordel chromosomique, demande à Benetton, mais laisse béton On aura beau se mélanger on restera des cons La race humaine un clébard marquant son territoire Gueulant l'appartenance à son département, ni blanc ni noir J'étais en recherche chromatique Mais le métis n'a pas sa place dans un monde dichotomique Donc c'est dit c'est dit je suis noir dans ce pays C'est pas moi qui l'ai voulu je l'ai vu dans le regard d'autrui C'est comme ça, laisse-les chanter nos mélanges de couleur Laisse-les parler de diversité, de France black, blanc, beur On serait tous métis, le reste c'est de la bêtise Voilà que j'ironise sur ce que les artisans de la paix disent J'ai pas de frontière, j'ai pas de race Je suis chez moi partout sans être jamais à ma vraie place Mon seul pays c'est moi, mon seul amour c'est toi Toi l'autre différent mais au fond si proche de moi You might also like Métissé, prisé ou méprisé, j'ai dû m'adapter Ballotté entre deux cultures ça commence à dater Adolescent, complexé toujours en quête d'identité Y avait le blanc y avait le noir, j'étais celui qui hésitait J'évitais de choisir à l'âge où l'on veut faire partie Endossant la faute de tous les camps je devenais martyr On m'a dit 5050 mais j'y ai pas trouvé mon compte Car le glacier fusionne à l'océan à la saison des fontes Je soupire, ça transpire, la connerie, ça s'empire Quand on m'appelle le sang-mêlé, sous-entendu, issu de sang pur Je vois bien ces questions ne nous mènent à rien L'humanité est colorée donc, soyons daltoniens Je vous parle d'amour, vu qu'il expire dans un mouroir Je suis mulâtre, ébène albâtre voulant abattre le miroir Et comme l'Afrique est en instance de sang entre ciel et Terre J'ai le cul entre deux chaises, j'ai décidé de m'asseoir par terre ! en dialecte Dioula Kouma chaman fôla Ota fôla a kélé yé Kouma chaman fôla Ota fôla hèrè yé1</t>
+          <t>Depuis mes sources du Nil jusqu'en haut de la tour Eiffel J'aurais tout fait jusqu'à m'en étouffer J'aurais tout jeté, mes refrains, mes couplets, écoutez Le studio je l'aurais fermé, le micro je l'aurais coupé, j'ai douté J'avance sur des chemins cahoteux Venez goûter mes vérités dans les bouquins de Jean-Paul Gouteux Dégoûté d'avoir une vie non méritée Regardez je suis brillant mais je reflète l'obscurité Identité de porcelaine, j'ai fait ce morceau-là Pour assembler le puzzle d'un humain morcelé Jamais à ma place, des frontières j'effaçais Mais frais comme Damas mon sentiment de race Blanc et noir, quand le sang dans mes veines se détraque Je suis debout aux confluents du fleuve et du lac Mon métissage c'est pas l'avenir de l'humanité Mon métissage, c'est de la boue en vérité Quand deux fleuves se rencontrent, ils nen forment plus quun et par fusion nos cultures deviennent indistinctes Elles simbriquent et sencastrent pour ne former quun bloc dhumanité debout sur un socle Et quand deux fleuves se rencontrent, ils nen forment plus quun et par fusion nos cultures deviennent indistinctes Elles simbriquent et sencastrent pour ne former quun bloc dhumanité Un beau bordel chromosomique, demande à Benetton, mais laisse béton On aura beau se mélanger on restera des cons La race humaine un clébard marquant son territoire Gueulant l'appartenance à son département, ni blanc ni noir J'étais en recherche chromatique Mais le métis n'a pas sa place dans un monde dichotomique Donc c'est dit c'est dit je suis noir dans ce pays C'est pas moi qui l'ai voulu je l'ai vu dans le regard d'autrui C'est comme ça, laisse-les chanter nos mélanges de couleur Laisse-les parler de diversité, de France black, blanc, beur On serait tous métis, le reste c'est de la bêtise Voilà que j'ironise sur ce que les artisans de la paix disent J'ai pas de frontière, j'ai pas de race Je suis chez moi partout sans être jamais à ma vraie place Mon seul pays c'est moi, mon seul amour c'est toi Toi l'autre différent mais au fond si proche de moi Métissé, prisé ou méprisé, j'ai dû m'adapter Ballotté entre deux cultures ça commence à dater Adolescent, complexé toujours en quête d'identité Y avait le blanc y avait le noir, j'étais celui qui hésitait J'évitais de choisir à l'âge où l'on veut faire partie Endossant la faute de tous les camps je devenais martyr On m'a dit 5050 mais j'y ai pas trouvé mon compte Car le glacier fusionne à l'océan à la saison des fontes Je soupire, ça transpire, la connerie, ça s'empire Quand on m'appelle le sang-mêlé, sous-entendu, issu de sang pur Je vois bien ces questions ne nous mènent à rien L'humanité est colorée donc, soyons daltoniens Je vous parle d'amour, vu qu'il expire dans un mouroir Je suis mulâtre, ébène albâtre voulant abattre le miroir Et comme l'Afrique est en instance de sang entre ciel et Terre J'ai le cul entre deux chaises, j'ai décidé de m'asseoir par terre ! en dialecte Dioula Kouma chaman fôla Ota fôla a kélé yé Kouma chaman fôla Ota fôla hèrè yé1</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J'ai débarqué Paris d'un monde où l'on te rêve J'ai fui les périls, les déserts où l'on crève Tu m'as ouvert tes bras, toi ma Vénus de Milo Tu brillais trop pour moi, je n'ai vu que ton halo C'est pour ça que je l'ouvre, ma gueule est un musée Je vis loin du feutré et des lumières tamisées Dans tes ruelles cruelles ou tes boulevards à flics Dans la musique truelle des silences chaophoniques Paris ma belle beauté, tes prétendants se bousculent Dans le brouillard épais de tes fines particules Moi pour te mériter, je t'écrirai des poèmes Que je chanterai la nuit tombée debout sur la scène Paris s'éveille sous un ciel océanique L'accent titi se mêle à l'Asie, l'Amérique, l'Afrique Je suis une fleur craintive dans les craquelures du béton A gagner deux sous, à dormir dessous les ponts Paris bohème, Paris métèque, Paris d'ancre et d'exil Je piaffe l'amour médite une chinoise à Belleville Leonardo da Vinci se casse le dos sur un chantier Je vois la vie en rose dans ces bras pakistanais Il tourne le gyrophare, petit cheval de carrousel Galope après les tirailleurs qui rétrécissent la tour Eiffel D'un squat, d'un bidonville, d'une chambre de bonne ou d'un foyer Je t'écris des poèmes où des fois je veux me noyer You might also like Une ville de liberté pour les différents hommes Des valises dexilés, des juifs errants et des roms Aux mémoires de pogrom, aux grimoires raturés Des chemins d'Erevan, aux sentiers de Crimée Caravanes d'apatrides, boat people, caravelle Sur tes frontons Paris viennent lire luniversel Et souvent je t'en veux, dédaigneuse et hautaine Capitale de la monde a joué la mondaine Laisse-nous consteller la vraie nuit que tu ignores Cesse donc de faire briller les milles feux de ton décor Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un1</t>
+          <t>J'ai débarqué Paris d'un monde où l'on te rêve J'ai fui les périls, les déserts où l'on crève Tu m'as ouvert tes bras, toi ma Vénus de Milo Tu brillais trop pour moi, je n'ai vu que ton halo C'est pour ça que je l'ouvre, ma gueule est un musée Je vis loin du feutré et des lumières tamisées Dans tes ruelles cruelles ou tes boulevards à flics Dans la musique truelle des silences chaophoniques Paris ma belle beauté, tes prétendants se bousculent Dans le brouillard épais de tes fines particules Moi pour te mériter, je t'écrirai des poèmes Que je chanterai la nuit tombée debout sur la scène Paris s'éveille sous un ciel océanique L'accent titi se mêle à l'Asie, l'Amérique, l'Afrique Je suis une fleur craintive dans les craquelures du béton A gagner deux sous, à dormir dessous les ponts Paris bohème, Paris métèque, Paris d'ancre et d'exil Je piaffe l'amour médite une chinoise à Belleville Leonardo da Vinci se casse le dos sur un chantier Je vois la vie en rose dans ces bras pakistanais Il tourne le gyrophare, petit cheval de carrousel Galope après les tirailleurs qui rétrécissent la tour Eiffel D'un squat, d'un bidonville, d'une chambre de bonne ou d'un foyer Je t'écris des poèmes où des fois je veux me noyer Une ville de liberté pour les différents hommes Des valises dexilés, des juifs errants et des roms Aux mémoires de pogrom, aux grimoires raturés Des chemins d'Erevan, aux sentiers de Crimée Caravanes d'apatrides, boat people, caravelle Sur tes frontons Paris viennent lire luniversel Et souvent je t'en veux, dédaigneuse et hautaine Capitale de la monde a joué la mondaine Laisse-nous consteller la vraie nuit que tu ignores Cesse donc de faire briller les milles feux de ton décor Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Il voulait quitter la routine, celle de son père Qui étiole les rêves au large des paupières Enfourcher son vélo, repartir à zéro Petit gone de Lyon aux oripeaux dévasion Partir ! Non pas pour voir de nouveaux lieux Mais voyager, pour ouvrir de nouveaux yeux Orpailleurs dhorizons, ya que des hôtels mille étoiles Pour les clochards célestes qui ne sembarrassent pas dun toit Petit croissant au beurre, petit français qui flâne Il lisait Kerouac et chantait Bob Dylan Il est parti vivre à la dure Découvrir l'humain, épouser la nature Et de pays en pays, il pédale, il pédale Et de guerre en maladie, il pédale, il pédale Cest usé par la route dun voyage de cinq ans Quau bord de son doute il rencontre un piment Elle était belle comme un piment, une robe du dimanche Elle rêvait dun charmant, dun amour qui sépanche Elle vivait dans un quartier populaire Elle avait fui son pays, les pogroms et la guerre Et la terre des ancêtres était un vaste mouroir Et ce pays daccueil, un sombre miroir Qui lui renvoyait cette image de paria Une réfugiée HCR qui glisse aux parois Et qui veut senvoler, partir loin dici Là où le ciel ne dit ni Hutu ni Tutsi Et puis les murs de sa chambre au vert papier peint Recouvert de poster de Salut les Copains Etait son antre où elle rêvait dêtre hippie Découter du Jimi et de vivre à Paris En attendant le bus sous un arbre en fleur Son destin croise celui dun croissant au beurre You might also like Elle et il aux Sources du Nil Un vent souffle lidylle sur les branches dun nid Dun croissant beurré et dun piment swahili Qui sétaient donc jurés de saimer pour la vie Malgré toutes les routes crevées dornières Dans le panache de poussières des saisons blanches et sèches Malgré le doute et les pluies diluviennes Malgré les torrents de boue qui sécoulent dans la plaine Le croissant, le piment ont le goût dun enfant Puis de un puis de deux, carpe diem dun instant Aucune écluse ne peut contenir les rêves Que le cur transporte et pour lesquels il crève Pili-Pili rêvait de Paris Croissant au beurre voulait vivre ici Ils se croisent, se décroisent les chemins Et laissent des enfants au carrefour des destins4</t>
+          <t>Il voulait quitter la routine, celle de son père Qui étiole les rêves au large des paupières Enfourcher son vélo, repartir à zéro Petit gone de Lyon aux oripeaux dévasion Partir ! Non pas pour voir de nouveaux lieux Mais voyager, pour ouvrir de nouveaux yeux Orpailleurs dhorizons, ya que des hôtels mille étoiles Pour les clochards célestes qui ne sembarrassent pas dun toit Petit croissant au beurre, petit français qui flâne Il lisait Kerouac et chantait Bob Dylan Il est parti vivre à la dure Découvrir l'humain, épouser la nature Et de pays en pays, il pédale, il pédale Et de guerre en maladie, il pédale, il pédale Cest usé par la route dun voyage de cinq ans Quau bord de son doute il rencontre un piment Elle était belle comme un piment, une robe du dimanche Elle rêvait dun charmant, dun amour qui sépanche Elle vivait dans un quartier populaire Elle avait fui son pays, les pogroms et la guerre Et la terre des ancêtres était un vaste mouroir Et ce pays daccueil, un sombre miroir Qui lui renvoyait cette image de paria Une réfugiée HCR qui glisse aux parois Et qui veut senvoler, partir loin dici Là où le ciel ne dit ni Hutu ni Tutsi Et puis les murs de sa chambre au vert papier peint Recouvert de poster de Salut les Copains Etait son antre où elle rêvait dêtre hippie Découter du Jimi et de vivre à Paris En attendant le bus sous un arbre en fleur Son destin croise celui dun croissant au beurre Elle et il aux Sources du Nil Un vent souffle lidylle sur les branches dun nid Dun croissant beurré et dun piment swahili Qui sétaient donc jurés de saimer pour la vie Malgré toutes les routes crevées dornières Dans le panache de poussières des saisons blanches et sèches Malgré le doute et les pluies diluviennes Malgré les torrents de boue qui sécoulent dans la plaine Le croissant, le piment ont le goût dun enfant Puis de un puis de deux, carpe diem dun instant Aucune écluse ne peut contenir les rêves Que le cur transporte et pour lesquels il crève Pili-Pili rêvait de Paris Croissant au beurre voulait vivre ici Ils se croisent, se décroisent les chemins Et laissent des enfants au carrefour des destins4</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Je pars, ma vie est trop maussade Je pars jai laissé une feuille incrustée de mots sales Je pars laissez-moi donc ma douleur Je pars pour un monde fait de lumière et de couleurs Je pars car le ciel est bas et gris Les vieux nont plus dsagesse, ils sont racistes et aigris Je pars, je menvole vers le rire des enfants Je pars même sils men veulent jai trop souffert dans mes tourments Je pars, jai déjà fait mes valises Je pars car nos modes de vies dici me scandalisent Je pars la vie mtransperce de part en part Je pars car faut être fort et moi jai perdu mes remparts Je pars, yaura ni promesses ni nouvelles Je pars, fallait du cran, jai activé la manivelle Par un beau matin je pars je laisse le flambeau Je trouverai mon Abyssinie, moi lArthur Rimbaud Je pars, parti pour la vie Je pars, viens avec moi si tas envie Je pars, pour la saison des pluies Je pars, hier, demain et aujourdhui Je pars, parti pour la vie Je pars, viens avec moi si tas envie Je pars, pour un rayon dombre Viens retrouver colombe mon coeur mort sous les décombres You might also like Jveux juste un chapeau de paille, une plage et un transat Oublier les charters, les aéroports dans lesquels on transite Jveux des nuits douces au ciel étoilé, scruter la galaxie Ici ya pas dlaxisme, on bosse jusquà la cataplexie Jveux manger du riz au curry et des mangues juteuses Jveux pas dleur vache folle qui rit à la fièvre aphteuse Et puis ce soleil qui tannerait ma peau luisante sous la pommade Ici on mappelle Negro , ya pas dplace pour nos peaux mates Jveux qumes pommettes, mes zygomatiques séchauffent toute lannée Lami ! Les choses quils promettent ? Être condamné à glaner Sur sample de guitare sèche, jveux des gens simples et des sourires Ici cest rare quon nous supporte, quon ouvre les portes et les serrures J'veux vivre sur des rythmiques, des mélopées Me libérer de mes chaînes, car la culture m'a menotté J'veux que tu viennes allez, rentre dans mon monde Viens retrouver colombe mon cur mort sous les décombres Embrassez-moi, je suis pour lamour et la paix Le 28 août à DC jai fait le rêve de lappel La peine ma vrai nature, je vis avec Comme lorphelin du monde, lenfant seul, le restavek Jvis dans ces rues tristes, le matin hivernal Jsuis enfermé dans lenfer et pour moi cest infernal Amenez la joie dans mes ténèbres, apocalypse de mes tourments Jai limpression dêtre au tournant que les personnes autour me mentent Venez mourir ! Comme les vagues de la plage Venez donc lire, le vague à lâme de mes pages Les palmiers sont courbés comme des vieillards Les bords de mer sont devenus de tristes dépotoirs Lérosion a mis à nu les mornes à rhum LAbyssin a condamné tous les chemins qui mènent à Rome Ma musique sexprime comme une saudade Les notes et les mots se mettent debout comme des soldats !</t>
+          <t>Je pars, ma vie est trop maussade Je pars jai laissé une feuille incrustée de mots sales Je pars laissez-moi donc ma douleur Je pars pour un monde fait de lumière et de couleurs Je pars car le ciel est bas et gris Les vieux nont plus dsagesse, ils sont racistes et aigris Je pars, je menvole vers le rire des enfants Je pars même sils men veulent jai trop souffert dans mes tourments Je pars, jai déjà fait mes valises Je pars car nos modes de vies dici me scandalisent Je pars la vie mtransperce de part en part Je pars car faut être fort et moi jai perdu mes remparts Je pars, yaura ni promesses ni nouvelles Je pars, fallait du cran, jai activé la manivelle Par un beau matin je pars je laisse le flambeau Je trouverai mon Abyssinie, moi lArthur Rimbaud Je pars, parti pour la vie Je pars, viens avec moi si tas envie Je pars, pour la saison des pluies Je pars, hier, demain et aujourdhui Je pars, parti pour la vie Je pars, viens avec moi si tas envie Je pars, pour un rayon dombre Viens retrouver colombe mon coeur mort sous les décombres Jveux juste un chapeau de paille, une plage et un transat Oublier les charters, les aéroports dans lesquels on transite Jveux des nuits douces au ciel étoilé, scruter la galaxie Ici ya pas dlaxisme, on bosse jusquà la cataplexie Jveux manger du riz au curry et des mangues juteuses Jveux pas dleur vache folle qui rit à la fièvre aphteuse Et puis ce soleil qui tannerait ma peau luisante sous la pommade Ici on mappelle Negro , ya pas dplace pour nos peaux mates Jveux qumes pommettes, mes zygomatiques séchauffent toute lannée Lami ! Les choses quils promettent ? Être condamné à glaner Sur sample de guitare sèche, jveux des gens simples et des sourires Ici cest rare quon nous supporte, quon ouvre les portes et les serrures J'veux vivre sur des rythmiques, des mélopées Me libérer de mes chaînes, car la culture m'a menotté J'veux que tu viennes allez, rentre dans mon monde Viens retrouver colombe mon cur mort sous les décombres Embrassez-moi, je suis pour lamour et la paix Le 28 août à DC jai fait le rêve de lappel La peine ma vrai nature, je vis avec Comme lorphelin du monde, lenfant seul, le restavek Jvis dans ces rues tristes, le matin hivernal Jsuis enfermé dans lenfer et pour moi cest infernal Amenez la joie dans mes ténèbres, apocalypse de mes tourments Jai limpression dêtre au tournant que les personnes autour me mentent Venez mourir ! Comme les vagues de la plage Venez donc lire, le vague à lâme de mes pages Les palmiers sont courbés comme des vieillards Les bords de mer sont devenus de tristes dépotoirs Lérosion a mis à nu les mornes à rhum LAbyssin a condamné tous les chemins qui mènent à Rome Ma musique sexprime comme une saudade Les notes et les mots se mettent debout comme des soldats !</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon arrivée en France, y'a bien longtemps Depuis que j'crois plus en l'ONU, depuis que j'crois plus en l'OTAN Maintenant j'ai vingt ans et quelques poussières Et j'repense à l'Afrique où nous étions encore hier On a grandi là-bas au bord du lac Tanganyika Et moi je supporte ici, tant que là-bas y'aura mes gars Eh J-NO, Mucyo, Iris, Fabrice et les autres Des potes comme vous jvous assure jen ai pas retrouvé dautres Et puis ya eu Paris, maintenant jlappelle Panam La pollution, les épiciers berbères et leurs mauvaises bananes Ici cest grecs, mac do, la pluie, le froid, les flaques deau Métro boulot dodo, la place Vendôme et les clodos Mais jmhabitue, jaime mes baskets et mon bitume Et comme jveux faire fortune, au mois daoût jme fais des thunes Jsuis solitaire et des fois je sors la plume Jsuis pas rappeur, juste un virevolteur de mots pleins damertume LAFRANCE est lasile, labsence et lexil Souffrance mais par pudeur faut pas que je lexhibe Je vis loin des mes rêves, de mes espoirs, de mes espérances Cest ça qui me tue dêtre écartelé entre Afrique et France Mon père chasse le croco, ma mère met du lait dcoco Ici je suis franco-rwandais jvais pas vous faire un topo Jai quitté le pays et sa situation sinistre Jmétais promis, ben quun jour je deviendrai ministre Mais jai grandi, jai pas dplan pour le Burundi Jcontinue despérer, les frères cest pas ce quon avait dit ? Jai revu Buja, elle a plus le même visage Cest devenu une ville sage et tous les jeunes veulent un visa Des fois jme demande si jai un devoir envers lAfrique Jpourrais fermer les yeux, une femme des gosses et garder mon fric Problème existentiel de nos délires névrotiques De ma vision romantique, jveux faire naître un nouveau type Car jfais partie de cette diaspora de cette jeunesse Qui a quitté le pays pour faire recette Mais jmen rends compte, quon est trop con Quon gâche nos vies et que lEurope devient notre cocon You might also like Tu te rappelles nos grands-pères aimaient leur terre et leur bétail Et nous les fils on se perd dans les guerres et les batailles Ma mémoire se paralyse, et ma peine se cautérise Des machettes quon aiguise, de tous nos morts dans nos églises Joublie pas que lexil cest comme une porte dexit Je crie mes origines car cest comme ça que jexiste Trop de larmes ont coulé, beaucoup de textes jai gribouillé Maintenant je regarde le soleil sur le lac dune plage de Kibuye Petite sur tu prends la ligne pour les milles collines Embrasses bien les cousins, embrasses bien les cousines Et puis embrasses aussi la grand-mère à Butare Dis lui que chaque année que je passe loin delle me rend plus taré Et si tu prends le bus Vénus pour Bujumbura Fais gaffe à toi, aux embuscades à Bugarama Embrasse papa qui est resté au pays Dis lui quen France je ne grandis plus, dis lui que je vieillis 1</t>
+          <t>Mon arrivée en France, y'a bien longtemps Depuis que j'crois plus en l'ONU, depuis que j'crois plus en l'OTAN Maintenant j'ai vingt ans et quelques poussières Et j'repense à l'Afrique où nous étions encore hier On a grandi là-bas au bord du lac Tanganyika Et moi je supporte ici, tant que là-bas y'aura mes gars Eh J-NO, Mucyo, Iris, Fabrice et les autres Des potes comme vous jvous assure jen ai pas retrouvé dautres Et puis ya eu Paris, maintenant jlappelle Panam La pollution, les épiciers berbères et leurs mauvaises bananes Ici cest grecs, mac do, la pluie, le froid, les flaques deau Métro boulot dodo, la place Vendôme et les clodos Mais jmhabitue, jaime mes baskets et mon bitume Et comme jveux faire fortune, au mois daoût jme fais des thunes Jsuis solitaire et des fois je sors la plume Jsuis pas rappeur, juste un virevolteur de mots pleins damertume LAFRANCE est lasile, labsence et lexil Souffrance mais par pudeur faut pas que je lexhibe Je vis loin des mes rêves, de mes espoirs, de mes espérances Cest ça qui me tue dêtre écartelé entre Afrique et France Mon père chasse le croco, ma mère met du lait dcoco Ici je suis franco-rwandais jvais pas vous faire un topo Jai quitté le pays et sa situation sinistre Jmétais promis, ben quun jour je deviendrai ministre Mais jai grandi, jai pas dplan pour le Burundi Jcontinue despérer, les frères cest pas ce quon avait dit ? Jai revu Buja, elle a plus le même visage Cest devenu une ville sage et tous les jeunes veulent un visa Des fois jme demande si jai un devoir envers lAfrique Jpourrais fermer les yeux, une femme des gosses et garder mon fric Problème existentiel de nos délires névrotiques De ma vision romantique, jveux faire naître un nouveau type Car jfais partie de cette diaspora de cette jeunesse Qui a quitté le pays pour faire recette Mais jmen rends compte, quon est trop con Quon gâche nos vies et que lEurope devient notre cocon Tu te rappelles nos grands-pères aimaient leur terre et leur bétail Et nous les fils on se perd dans les guerres et les batailles Ma mémoire se paralyse, et ma peine se cautérise Des machettes quon aiguise, de tous nos morts dans nos églises Joublie pas que lexil cest comme une porte dexit Je crie mes origines car cest comme ça que jexiste Trop de larmes ont coulé, beaucoup de textes jai gribouillé Maintenant je regarde le soleil sur le lac dune plage de Kibuye Petite sur tu prends la ligne pour les milles collines Embrasses bien les cousins, embrasses bien les cousines Et puis embrasses aussi la grand-mère à Butare Dis lui que chaque année que je passe loin delle me rend plus taré Et si tu prends le bus Vénus pour Bujumbura Fais gaffe à toi, aux embuscades à Bugarama Embrasse papa qui est resté au pays Dis lui quen France je ne grandis plus, dis lui que je vieillis 1</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fils du Hip Hop, il a grandi sous Reagan Il sautait sur des matelas éventrés dans des terrains vagues Lui, cest le rap, un gamin de la rue La musique sur la peau et le style dune verrue Il est né sous Jim Corbeau, surmontant les épreuves Depuis que Betty Shabazz et Coretta Scott sont devenues veuves Plus dEtat, plus de social, le DJ scratch dans labîme Quand son frère Graffiti bariole lépiderme des villes Langston Hughes est mort, Harlem Renaissance zéro Ça break et ça beat box autour dun baril brasero Des B-Boys aux Block parties, apprendre à faire sans rien Le rap a inventé une musique sans musicien Sans solfège, naît dans le ghetto le petit frère mal aimé Les leaders ne parlent plus, ils se mettent à rimer Put your hands up in the air! personne ne sera blessé Un Bic, un beat, la verve du verbe sur MPC Puis ça fume des blunts, des zedou sur des SP12 Et ça pille les breaks de James Brown, dOtis Redding De Funkadelic, de George Clinton, dOhio Players Le son sale, crasseux, poussiéreux provient de ses samplers Cest les pleurs de la rue sur des crissements de disques Break it down scratch! Emmerde la progression harmonique De la bouche des égouts est sorti un mouvement Qui sinvite dans les cocktails du bourgeois condescendant Des Hood à Hollywood, du béton au bifton Lindustrie musicale resserre sa proie comme un python Première tension, puis première contradiction Choisir entre Révolution ou sociale ascension Mais le rap a plus dune rime sous le bomber Schizophrène sur MTV ça fight the power Les postillons recouvrent le monde, la mode devient mouvement Une lame de fond au verbe acide acerbe et véhément Linstinct de guerre, de cracher, de vivre libre Insoumis en dehors des schémas et des normes établis Ya des morts, des oxymores, des coups de balles verbales Des ruptures grammaticales sur des caisses claires et cymbales Ca semballe, sans label ça devient plus hardcore Le réel est sans appel dans le couloir de la mort Quand le chômage augmente les rappeurs deviennent précis Quand les médias nous mentent les MCs font les récits Chaque block, chaque quartier, chaque secteur possède ses rappeurs Le système est un arbre et le rap est sécateur You might also like Puis la langue affûtée sest mise à baisser le futal On lui a joué de la flûte, elle a kiffé le récital Elle sest mise des dents en or, des chaînes desclaves autour du cou Cest normal que quand tu crèches dehors tu veuilles sortir du trou La tête dans un keffieh, du cauchemar au rêve américain Le rap boit du Moët dans une Bentley en chantant des refrains En chantant des couplets de 8 mesures sur des sujets lissés Ça fait dans la friperie, le téléphone, les produits dérivés Les gens de la classe moyenne ignorant le ghetto Ont fait le succès du peu-ra, ils veulent les gestes et puis largot Ils veulent sencanailler la drogue, les flingues, les biatchs sur la table Sen foutent de la culture et du message dAfrika Bambaataa Le rap a fait ses classes loin du Hip Hop Renonce à léthique de Chuck D, veut la vie de Donald Trump Le vilain petit canard sest transformé en cocotte aux ufs dor Le bon vin, les dollars ont remplacé le bruit et les odeurs Mais loin des cotations de ce système lesprit reste vivace Tant quya la merde dans le quartier, yaura des 16 en dédicace Donc ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas ! Donc ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas ! Ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas !Paroles rédigées et expliquées par la communauté RapGenius France3</t>
+          <t>Fils du Hip Hop, il a grandi sous Reagan Il sautait sur des matelas éventrés dans des terrains vagues Lui, cest le rap, un gamin de la rue La musique sur la peau et le style dune verrue Il est né sous Jim Corbeau, surmontant les épreuves Depuis que Betty Shabazz et Coretta Scott sont devenues veuves Plus dEtat, plus de social, le DJ scratch dans labîme Quand son frère Graffiti bariole lépiderme des villes Langston Hughes est mort, Harlem Renaissance zéro Ça break et ça beat box autour dun baril brasero Des B-Boys aux Block parties, apprendre à faire sans rien Le rap a inventé une musique sans musicien Sans solfège, naît dans le ghetto le petit frère mal aimé Les leaders ne parlent plus, ils se mettent à rimer Put your hands up in the air! personne ne sera blessé Un Bic, un beat, la verve du verbe sur MPC Puis ça fume des blunts, des zedou sur des SP12 Et ça pille les breaks de James Brown, dOtis Redding De Funkadelic, de George Clinton, dOhio Players Le son sale, crasseux, poussiéreux provient de ses samplers Cest les pleurs de la rue sur des crissements de disques Break it down scratch! Emmerde la progression harmonique De la bouche des égouts est sorti un mouvement Qui sinvite dans les cocktails du bourgeois condescendant Des Hood à Hollywood, du béton au bifton Lindustrie musicale resserre sa proie comme un python Première tension, puis première contradiction Choisir entre Révolution ou sociale ascension Mais le rap a plus dune rime sous le bomber Schizophrène sur MTV ça fight the power Les postillons recouvrent le monde, la mode devient mouvement Une lame de fond au verbe acide acerbe et véhément Linstinct de guerre, de cracher, de vivre libre Insoumis en dehors des schémas et des normes établis Ya des morts, des oxymores, des coups de balles verbales Des ruptures grammaticales sur des caisses claires et cymbales Ca semballe, sans label ça devient plus hardcore Le réel est sans appel dans le couloir de la mort Quand le chômage augmente les rappeurs deviennent précis Quand les médias nous mentent les MCs font les récits Chaque block, chaque quartier, chaque secteur possède ses rappeurs Le système est un arbre et le rap est sécateur Puis la langue affûtée sest mise à baisser le futal On lui a joué de la flûte, elle a kiffé le récital Elle sest mise des dents en or, des chaînes desclaves autour du cou Cest normal que quand tu crèches dehors tu veuilles sortir du trou La tête dans un keffieh, du cauchemar au rêve américain Le rap boit du Moët dans une Bentley en chantant des refrains En chantant des couplets de 8 mesures sur des sujets lissés Ça fait dans la friperie, le téléphone, les produits dérivés Les gens de la classe moyenne ignorant le ghetto Ont fait le succès du peu-ra, ils veulent les gestes et puis largot Ils veulent sencanailler la drogue, les flingues, les biatchs sur la table Sen foutent de la culture et du message dAfrika Bambaataa Le rap a fait ses classes loin du Hip Hop Renonce à léthique de Chuck D, veut la vie de Donald Trump Le vilain petit canard sest transformé en cocotte aux ufs dor Le bon vin, les dollars ont remplacé le bruit et les odeurs Mais loin des cotations de ce système lesprit reste vivace Tant quya la merde dans le quartier, yaura des 16 en dédicace Donc ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas ! Donc ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas ! Ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas !Paroles rédigées et expliquées par la communauté RapGenius France3</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>La tête, tournant derviche L'alcool assèche, un goût âpre en bouche Ma langue, une lame dans une poche rêche Le parquet craque sous nos semelles usées de gosses de riches On fume sur la corniche, dedans la musique recouvre les causeries L'amour triche, on s'en contente, les nuits sont fraîches Demain on dort, dimanche au temple le pasteur ne fera que des faux prêches On a la vie devant nous pour user nos cartouches Dehors la ville est belle comme si j'étais un bateau-mouche Degrés dans le rouge, les couples copulent sur la lune Copine, c'est l'hallu', ce quinze ans d'âge transforme tes yeux en lagune Embouteillage de filles devant les toilettes Merde, j'ai confondu les noyaux d'olives avec les cacahuètes On danse nos solitudes sur des rythmes binaires Tous par terre, le cerveau dans la brume, y a de l'humour dans l'air Dans ces instants brefs, c'est le temps qu'on déjoue Donc dis-moi à quoi on joue avant les lueurs du jour Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor É que a situação aqui 'tá difícil Faltando poesia, homem nenhum querendo compromisso Pra trocar uma ideia, na moral, é um suplício Um cara que fala em poesia está desesperando por isso Na pista, a gente dança, temperatura é perfeita É cedo, é meia-noite, é lua cheia O seu perfume é da Chanel de Paris Cê torce pro PSG You might also like E diz aí o que falta pra tu ser feliz Sol ou vento na cara, chope gelada Biquíni, sandália Mais uma noite no Brasil Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor Allongé, la tête dans les nuages, la nuit est bleutée Lève les yeux, là-haut le ciel est à notre portée Est-ce un drone, une étoile ? Oh peu importe, fais un vu Le cadran essoufflé affiche une heure de couvre-feu Cachaça, sucre canne, glaçons pilés Mon petit cur est un citron dans un mortier Le ciel est clairsemé comme la piste de danse Où sont passés les temps sereins où rien n'portait à conséquence Un fragment de volupté Un parfum, une archive, une fragrance d'été Une fumée suffocante, tes contours et mes pensées me fouettent Comme une pluie battante sur le pas de passants pressés Viennent des lueurs à la fenêtre La nuit qui meurt pour voir un nouveau jour naître Et comme le temps nous est compté J'irai camper sur tes lèvres pour m'endormir à t'écouter Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor1</t>
+          <t>La tête, tournant derviche L'alcool assèche, un goût âpre en bouche Ma langue, une lame dans une poche rêche Le parquet craque sous nos semelles usées de gosses de riches On fume sur la corniche, dedans la musique recouvre les causeries L'amour triche, on s'en contente, les nuits sont fraîches Demain on dort, dimanche au temple le pasteur ne fera que des faux prêches On a la vie devant nous pour user nos cartouches Dehors la ville est belle comme si j'étais un bateau-mouche Degrés dans le rouge, les couples copulent sur la lune Copine, c'est l'hallu', ce quinze ans d'âge transforme tes yeux en lagune Embouteillage de filles devant les toilettes Merde, j'ai confondu les noyaux d'olives avec les cacahuètes On danse nos solitudes sur des rythmes binaires Tous par terre, le cerveau dans la brume, y a de l'humour dans l'air Dans ces instants brefs, c'est le temps qu'on déjoue Donc dis-moi à quoi on joue avant les lueurs du jour Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor É que a situação aqui 'tá difícil Faltando poesia, homem nenhum querendo compromisso Pra trocar uma ideia, na moral, é um suplício Um cara que fala em poesia está desesperando por isso Na pista, a gente dança, temperatura é perfeita É cedo, é meia-noite, é lua cheia O seu perfume é da Chanel de Paris Cê torce pro PSG E diz aí o que falta pra tu ser feliz Sol ou vento na cara, chope gelada Biquíni, sandália Mais uma noite no Brasil Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor Allongé, la tête dans les nuages, la nuit est bleutée Lève les yeux, là-haut le ciel est à notre portée Est-ce un drone, une étoile ? Oh peu importe, fais un vu Le cadran essoufflé affiche une heure de couvre-feu Cachaça, sucre canne, glaçons pilés Mon petit cur est un citron dans un mortier Le ciel est clairsemé comme la piste de danse Où sont passés les temps sereins où rien n'portait à conséquence Un fragment de volupté Un parfum, une archive, une fragrance d'été Une fumée suffocante, tes contours et mes pensées me fouettent Comme une pluie battante sur le pas de passants pressés Viennent des lueurs à la fenêtre La nuit qui meurt pour voir un nouveau jour naître Et comme le temps nous est compté J'irai camper sur tes lèvres pour m'endormir à t'écouter Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor1</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison J'préfère être heureux que d'avoir raison Que d'avoir raison T'es quel camp, quelle équipe ? T'es d'la famill de qui ? Ah J'quitte les étiquttes, c'est le karma qui guide oh Pierre malachite, crime bien mal acquis, j'kick J'écris rimes pacifistes de Kigali à Kin' Kin' Loin des bords du monde, je flotte dans le néant J'bricole des cabanes éphémères, frère, et des royaumes d'enfant, sur Accordez-moi le bon, apportez-moi le don don D'sortir d'ce piège à con, d'avoir tort ou raison Latérite est devenue bitume, mon quotidien est un Rubik's Cube J'ai beau m'délester d'mon vécu, malgré tout le passé reflue La vie, pas d'ardoise à laisser, cul-sec, one shot, un seul essai Fond d'la classe, j'étais mal assis eux font du sale, je fais ma lessive, okay You might also like C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison oh, oh, oh Que d'avoir raison J'préfère être heureux que d'avoir raison han, yeah Poésie forte, belle, tout aussi mortelle J'ai b'soin d'un bol d'air, j'confonds le bordel et le Baudelaire J'suis dans mon propre stress pendant qu'mes potes pressent J'endure les God bless, même quand c'est dur, j'vous redis God bless J'rêve de filles topless, d'alcool fort et d'révolution Parano, je trouve toujours un problème à chaque solution Putain, c'est que d'l'amour c'est que d'l'amour On d'mande aux gens de croire en Dieu, en oubliant de leur dire que Dieu croit en nous Le cur peut pas s'trafiqué, moi, on m'a dit Se cultiver, c'est pas boire la mer, c'est apprendre à naviguer Alors je rêve de canicule, Tropique du Capricorne Faut pas qu'je capitule, j'ai vu des nazis dans leur Capitole Et même à Paris capitale, balle dans mon encéphale On m'a pris tout mon or, on me l'a remboursé en Franc CFA La patience est un art, au-d'ssus du vent, au-d'ssus du temps Au-d'ssus des gens, j'écris le même scénar', Insterstellar C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison oh, oh, oh Que d'avoir raison J'préfère être heureux que d'avoir raison Que d'avoir raison Que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison d'avoir raison, d'avoir raison, d'avoir raison</t>
+          <t>C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison J'préfère être heureux que d'avoir raison Que d'avoir raison T'es quel camp, quelle équipe ? T'es d'la famill de qui ? Ah J'quitte les étiquttes, c'est le karma qui guide oh Pierre malachite, crime bien mal acquis, j'kick J'écris rimes pacifistes de Kigali à Kin' Kin' Loin des bords du monde, je flotte dans le néant J'bricole des cabanes éphémères, frère, et des royaumes d'enfant, sur Accordez-moi le bon, apportez-moi le don don D'sortir d'ce piège à con, d'avoir tort ou raison Latérite est devenue bitume, mon quotidien est un Rubik's Cube J'ai beau m'délester d'mon vécu, malgré tout le passé reflue La vie, pas d'ardoise à laisser, cul-sec, one shot, un seul essai Fond d'la classe, j'étais mal assis eux font du sale, je fais ma lessive, okay C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison oh, oh, oh Que d'avoir raison J'préfère être heureux que d'avoir raison han, yeah Poésie forte, belle, tout aussi mortelle J'ai b'soin d'un bol d'air, j'confonds le bordel et le Baudelaire J'suis dans mon propre stress pendant qu'mes potes pressent J'endure les God bless, même quand c'est dur, j'vous redis God bless J'rêve de filles topless, d'alcool fort et d'révolution Parano, je trouve toujours un problème à chaque solution Putain, c'est que d'l'amour c'est que d'l'amour On d'mande aux gens de croire en Dieu, en oubliant de leur dire que Dieu croit en nous Le cur peut pas s'trafiqué, moi, on m'a dit Se cultiver, c'est pas boire la mer, c'est apprendre à naviguer Alors je rêve de canicule, Tropique du Capricorne Faut pas qu'je capitule, j'ai vu des nazis dans leur Capitole Et même à Paris capitale, balle dans mon encéphale On m'a pris tout mon or, on me l'a remboursé en Franc CFA La patience est un art, au-d'ssus du vent, au-d'ssus du temps Au-d'ssus des gens, j'écris le même scénar', Insterstellar C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison oh, oh, oh Que d'avoir raison J'préfère être heureux que d'avoir raison Que d'avoir raison Que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison d'avoir raison, d'avoir raison, d'avoir raison</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>De mauvaises herbes insoumises lézardent les trottoirs Je ne dors pas, j'ai l'insomnie de ma cité dortoir Toute ma vie j'ai rempli mon caddie d'illusions Moi je téléphone, je télécommande et je télévision Silence, on tourne, on vit, on rit mais ça ressemble à du playback Mon banquier c'est James Brown et tous les mois c'est Payback Des millions d'Andy Warhol s'impatient sur le quai de la gare Pour un quart d'heure de trajet dans le train de la gloire On veut être star à l'instar des étoiles L'intimité s'étale en prime-time, se vend sur PayPal On intronise le médiocre, plus de caviar, que de Bic Mac On prépare une pensée fast-food dans les cuisines de l'audimat Du pain et des jeux pour calmer les ventres creux Du Xanax dans l'émeute, du Prozac pour miséreux Fermez vos livres s'ils vous apprennent à hésiter Méfiez-vous, à vouloir vivre on peut finir par exister A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2 A force des courbes se dessinent sous mon regard somnifère J'ai voulu décourber l'échine à courir après mes chimères J'ai envolé mes rêves dans des avions de papier Et j'ai voulu la vie d'château en m'endormant dans un clapier La mer est belle monsieur, j'ai gommé les nuages Voyez les valises sous mes yeux elles m'invitent au voyage Le ciel est beau madame, j'ai dessiné l'image Ecoutez donc l'oiseau qui chante, enfermé dans sa cage You might also like A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2 J'ai fabriqué des mondes, j'ai mis des mots et des rires, des pleurs Et puis le temps lui a buriné mes rides, j'ai peur Je cours, j'veux d'autres odeurs pour mes narines Je danse, je tourne, petit ballerine sur baril de poudre La poésie que je brode, c'est d'la dentelle à coudre Quand c'est l'orage dehors, j'en ai plus rien à foudre J'ai fais des rêves d'un rien, maintenant j'ai rien qu'mes rêves Et c'est leur loi d'airain qui fait que je dérive Loin au large, j'ai vu mon île tu sais Toucher au but j'y vais enfin j'essaie Des paquets d'rimes pour que mon âme affleure Je veux faire des victimes avec des armes à fleurs Je ralentis le pas, j'reprends mon souffle parfois Il y a mes rêves qui tardent face au cadran qui tourne A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2</t>
+          <t>De mauvaises herbes insoumises lézardent les trottoirs Je ne dors pas, j'ai l'insomnie de ma cité dortoir Toute ma vie j'ai rempli mon caddie d'illusions Moi je téléphone, je télécommande et je télévision Silence, on tourne, on vit, on rit mais ça ressemble à du playback Mon banquier c'est James Brown et tous les mois c'est Payback Des millions d'Andy Warhol s'impatient sur le quai de la gare Pour un quart d'heure de trajet dans le train de la gloire On veut être star à l'instar des étoiles L'intimité s'étale en prime-time, se vend sur PayPal On intronise le médiocre, plus de caviar, que de Bic Mac On prépare une pensée fast-food dans les cuisines de l'audimat Du pain et des jeux pour calmer les ventres creux Du Xanax dans l'émeute, du Prozac pour miséreux Fermez vos livres s'ils vous apprennent à hésiter Méfiez-vous, à vouloir vivre on peut finir par exister A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2 A force des courbes se dessinent sous mon regard somnifère J'ai voulu décourber l'échine à courir après mes chimères J'ai envolé mes rêves dans des avions de papier Et j'ai voulu la vie d'château en m'endormant dans un clapier La mer est belle monsieur, j'ai gommé les nuages Voyez les valises sous mes yeux elles m'invitent au voyage Le ciel est beau madame, j'ai dessiné l'image Ecoutez donc l'oiseau qui chante, enfermé dans sa cage A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2 J'ai fabriqué des mondes, j'ai mis des mots et des rires, des pleurs Et puis le temps lui a buriné mes rides, j'ai peur Je cours, j'veux d'autres odeurs pour mes narines Je danse, je tourne, petit ballerine sur baril de poudre La poésie que je brode, c'est d'la dentelle à coudre Quand c'est l'orage dehors, j'en ai plus rien à foudre J'ai fais des rêves d'un rien, maintenant j'ai rien qu'mes rêves Et c'est leur loi d'airain qui fait que je dérive Loin au large, j'ai vu mon île tu sais Toucher au but j'y vais enfin j'essaie Des paquets d'rimes pour que mon âme affleure Je veux faire des victimes avec des armes à fleurs Je ralentis le pas, j'reprends mon souffle parfois Il y a mes rêves qui tardent face au cadran qui tourne A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Un jour viendra le corps tassé Les parchemins sur nos visages Ceux qui racontent la vie passée Tous les succès et les naufrages Et nos mains qui tremblent au vent Comme des biguines aux pas légers Continueront de battre le temps Sous des soleils endimanchés Un jour viendra, on fera vieux os Des bégonias sur le balcon Un petit air de calypso Photos sépias dans le salon Malgré la vie le temps passé Malgré la jeunesse fatiguée Personne ne pourra empêcher Nos corps usés de chalouper Chalouper, chalouper Chalouper, chalouper Chalouper, chalouper Avant qule printemps sfasse automne Que lon séloigne de la rive On scratchera du gramophone Quelques ritournelles caraïbes On sépuisera sur le dancefloor En de petits pas économes Tant que sera levé le store Nos palpitants sront métronomes Elles me reviennent les années folles Quand on mourrait seulement de rire Oh, rappelle-toi du Malecón Le clapotis de nos souvenirs Un jour viendra cette ritournelle Quand ma voix se sra envolée Je te supplie en souvenir delle De continuer à chalouper You might also like Chalouper, chalouper Chalouper, chalouper Chalouper, chalouper Oh fais-moi tourner sous mes pas Glissent les années, toi et moi Jusquau bout daimer, on pourra Chalouper, chalouper, chalouper Oh fais-moi tourner sous mes pas Glissent les années, toi et moi Jusquau bout daimer, on pourra Chalouper, chalouper, chalouper</t>
+          <t>Un jour viendra le corps tassé Les parchemins sur nos visages Ceux qui racontent la vie passée Tous les succès et les naufrages Et nos mains qui tremblent au vent Comme des biguines aux pas légers Continueront de battre le temps Sous des soleils endimanchés Un jour viendra, on fera vieux os Des bégonias sur le balcon Un petit air de calypso Photos sépias dans le salon Malgré la vie le temps passé Malgré la jeunesse fatiguée Personne ne pourra empêcher Nos corps usés de chalouper Chalouper, chalouper Chalouper, chalouper Chalouper, chalouper Avant qule printemps sfasse automne Que lon séloigne de la rive On scratchera du gramophone Quelques ritournelles caraïbes On sépuisera sur le dancefloor En de petits pas économes Tant que sera levé le store Nos palpitants sront métronomes Elles me reviennent les années folles Quand on mourrait seulement de rire Oh, rappelle-toi du Malecón Le clapotis de nos souvenirs Un jour viendra cette ritournelle Quand ma voix se sra envolée Je te supplie en souvenir delle De continuer à chalouper Chalouper, chalouper Chalouper, chalouper Chalouper, chalouper Oh fais-moi tourner sous mes pas Glissent les années, toi et moi Jusquau bout daimer, on pourra Chalouper, chalouper, chalouper Oh fais-moi tourner sous mes pas Glissent les années, toi et moi Jusquau bout daimer, on pourra Chalouper, chalouper, chalouper</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Une grande école de commerce, un stage de fin d'études Il rêve de partir ailleurs pour aller faire fortune La City, les Lloyd's, le building en forme de concombre Se mettre au vert, à l'ombre, s'expatrier à Londres La France, sa routine, préjugés dans sa rétine Il jouera son autre manche outre-manche maritime JCD, jeune cadre dynamique compétitif Consulting Marketing Finances c'est pas vraiment son kif Mais le voilà motivé pour travailler pendant 10 ans Épargner assez d'argent puis il sortira du rang Même s'il échoue par la suite, il aura son assurance Un diplôme BAC5 et ses dix années d'expériences Parce que lui au fond il n'en veut pas de cette vie de bureau De ce métro boulot dodo juste pour payer ses impôts Parce que lui depuis tout petit il voulait faire du hors piste Il avait toujours rêvé de mener la vie d'artiste Mon père m'a dit méfies-toi du cynisme L'avenir appartient aux idéalistes Quand je serai grand, je voulais être artiste Aujourd'hui je suis pianiste sur un clavier QWERTY 8h30, Liverpool Street Station, East London Embauché à la fin de son stage c'est l'automne Son profil correspondait au poste à pourvoir Flexible, autonome, des qualités qu'il fallait avoir Environnement multiculturel, métier transversal Open space, activités internationales Les années passent comme les temps de pauses A la machine à café les sourires lui cachent tant de choses Les intrigues rythment la vie au bureau Les grâces, les disgrâces par les boss du boulot Qui aura sa promo? Qui sera licencié? De combien sera le montant du bonus de fin d'année? Et puis photo tagué, et puis chaté discret Et puis faire le guet, le manager peut passer Les objectifs, le rentable, compétitif jusqu'aux entrailles Il s'est sculpté le masque exigé par le monde du travail You might also like 6H30, le réveil électronique tout redémarre Couché tard, levé tôt, il court pour éviter le retard Il voudrait tout changer, il y pense, il se le dit Il rêve de gagner l'euro-millions du vendredi Tous les matins, les mêmes bonjours, aux mêmes personnes, au même endroit La routine, le quotidien, parcours funèbre, chemin de croix Tous les matins y'a l'horoscope dans les gratuits distribués Et tous les soirs chez les gens bien la lumière bleutée des télés Le temps des désillusions, il a du bide, il est vautré A-t-il respecté les rêves de l'enfant qu'il était? Mais cette fois c'en est trop, sortir du cercle infernal Parce qu'il crève d'ennui, il sautera hors de son bocal Il va déployer ses ailes, ne pas avoir peur d'essayer Il aura enfin cette vie qu'il s'était prédestinée Et pour la fin de cette histoire, 10 ans plus tard le revoici A Paris, il est pianiste...sur un clavier AZERTY...</t>
+          <t>Une grande école de commerce, un stage de fin d'études Il rêve de partir ailleurs pour aller faire fortune La City, les Lloyd's, le building en forme de concombre Se mettre au vert, à l'ombre, s'expatrier à Londres La France, sa routine, préjugés dans sa rétine Il jouera son autre manche outre-manche maritime JCD, jeune cadre dynamique compétitif Consulting Marketing Finances c'est pas vraiment son kif Mais le voilà motivé pour travailler pendant 10 ans Épargner assez d'argent puis il sortira du rang Même s'il échoue par la suite, il aura son assurance Un diplôme BAC5 et ses dix années d'expériences Parce que lui au fond il n'en veut pas de cette vie de bureau De ce métro boulot dodo juste pour payer ses impôts Parce que lui depuis tout petit il voulait faire du hors piste Il avait toujours rêvé de mener la vie d'artiste Mon père m'a dit méfies-toi du cynisme L'avenir appartient aux idéalistes Quand je serai grand, je voulais être artiste Aujourd'hui je suis pianiste sur un clavier QWERTY 8h30, Liverpool Street Station, East London Embauché à la fin de son stage c'est l'automne Son profil correspondait au poste à pourvoir Flexible, autonome, des qualités qu'il fallait avoir Environnement multiculturel, métier transversal Open space, activités internationales Les années passent comme les temps de pauses A la machine à café les sourires lui cachent tant de choses Les intrigues rythment la vie au bureau Les grâces, les disgrâces par les boss du boulot Qui aura sa promo? Qui sera licencié? De combien sera le montant du bonus de fin d'année? Et puis photo tagué, et puis chaté discret Et puis faire le guet, le manager peut passer Les objectifs, le rentable, compétitif jusqu'aux entrailles Il s'est sculpté le masque exigé par le monde du travail 6H30, le réveil électronique tout redémarre Couché tard, levé tôt, il court pour éviter le retard Il voudrait tout changer, il y pense, il se le dit Il rêve de gagner l'euro-millions du vendredi Tous les matins, les mêmes bonjours, aux mêmes personnes, au même endroit La routine, le quotidien, parcours funèbre, chemin de croix Tous les matins y'a l'horoscope dans les gratuits distribués Et tous les soirs chez les gens bien la lumière bleutée des télés Le temps des désillusions, il a du bide, il est vautré A-t-il respecté les rêves de l'enfant qu'il était? Mais cette fois c'en est trop, sortir du cercle infernal Parce qu'il crève d'ennui, il sautera hors de son bocal Il va déployer ses ailes, ne pas avoir peur d'essayer Il aura enfin cette vie qu'il s'était prédestinée Et pour la fin de cette histoire, 10 ans plus tard le revoici A Paris, il est pianiste...sur un clavier AZERTY...</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>J'ai vécu sur la grève, les yeux dans mes rêves A écouter le vague à l'âme que les vents soulèvent Je pensais m'être échoué à jamais dans l'estuaire Quand cette femme m'a dit viens, viens prendre la mer Alors nos mains d'amoureux ont sculpté une pirogue Au début le ciel est bleu, tu pars et tu vogues On a glissé sur une mer d'huile, un miroir onduleux Et bientôt au fil de l'eau, le ciel devint nébuleux Y'a la mer en furie, puis les tempêtes que l'on brave Et de la poupe à la proue, on s'accroche, on en bave L'équipage se renforce, apprend avec l'âge Que l'océan est sauvage lorsqu'on quitte ses rivages Puis un jour on s'amarre au-dessus d'un champ de lumières Les amants qui s'aimèrent d'un scintillement lunaire Plongent ensemble dans l'azur aux ressacs éphémères Et remontent à la surface une perle solaire Oh... Isimbi, Isimbi Oh... Isimbi, Isimbi Oh... Le noyau de mon fruit de vie Isimbi... Isimbi... La plus belle perle du monde à m'en brûler les prunelles Je le jure sur ma vie que la mienne sera pour elle Six heures trente, six décembre, c'est un ange qui descend Dans ma vie, dans cette chambre, je ne sais plus ce que je ressens Un sentiment d'embrasement bien plus fort que l'amour Je fus Dieu un instant... c'était peut-être pour toujours C'est la chair de ma chair, le sang de mon sang Et j'en perds mes repères à être père d'un enfant Révolution accomplie! Mon Grand Soir le voici Parce que l'on meurt tous un jour, je riposte par la vie Isimbi, c'est ton nom, la perle éternelle Ou la neige des volcans sur le toit de ma Terre mère A la mère de ma fève, à ses talents d'orfèvres La rosée de sa fleur est la perle de ma fièvre Parce que l'on était elle et moi, parce que l'on s'aimait à l'étroit Parce qu'il fallait être deux pour faire trois You might also like Petite perle nacrée, si le ciel me soustrait Je serais toujours près, près de toi en secret Petite perle, tu descends d'une lignée de poètes D'idéalistes en tout genre, de chercheurs de conquêtes Lève les yeux, une aïeule brille pour toi Suzana comme un nom au reflet d'autrefois IBUKA, souviens-toi, le prélude à ta vie Suzana c'est le nom d'un immortel atavisme Petite fille pardonne-nous pour ce monde dérisoire Pour tes épaules bien trop frêles face au poids de l'Histoire Petite princesse au royaume de mes mots A tous les fleuves qui t'irriguent, à tes rivières indigo A nos droits de douter, à nos rages d'exister A nos chants de clarté que je t'offre en bouquet Petite plante céleste aux yeux de rubis Bienvenue ma princesse, bienvenue dans la vie... X3</t>
+          <t>J'ai vécu sur la grève, les yeux dans mes rêves A écouter le vague à l'âme que les vents soulèvent Je pensais m'être échoué à jamais dans l'estuaire Quand cette femme m'a dit viens, viens prendre la mer Alors nos mains d'amoureux ont sculpté une pirogue Au début le ciel est bleu, tu pars et tu vogues On a glissé sur une mer d'huile, un miroir onduleux Et bientôt au fil de l'eau, le ciel devint nébuleux Y'a la mer en furie, puis les tempêtes que l'on brave Et de la poupe à la proue, on s'accroche, on en bave L'équipage se renforce, apprend avec l'âge Que l'océan est sauvage lorsqu'on quitte ses rivages Puis un jour on s'amarre au-dessus d'un champ de lumières Les amants qui s'aimèrent d'un scintillement lunaire Plongent ensemble dans l'azur aux ressacs éphémères Et remontent à la surface une perle solaire Oh... Isimbi, Isimbi Oh... Isimbi, Isimbi Oh... Le noyau de mon fruit de vie Isimbi... Isimbi... La plus belle perle du monde à m'en brûler les prunelles Je le jure sur ma vie que la mienne sera pour elle Six heures trente, six décembre, c'est un ange qui descend Dans ma vie, dans cette chambre, je ne sais plus ce que je ressens Un sentiment d'embrasement bien plus fort que l'amour Je fus Dieu un instant... c'était peut-être pour toujours C'est la chair de ma chair, le sang de mon sang Et j'en perds mes repères à être père d'un enfant Révolution accomplie! Mon Grand Soir le voici Parce que l'on meurt tous un jour, je riposte par la vie Isimbi, c'est ton nom, la perle éternelle Ou la neige des volcans sur le toit de ma Terre mère A la mère de ma fève, à ses talents d'orfèvres La rosée de sa fleur est la perle de ma fièvre Parce que l'on était elle et moi, parce que l'on s'aimait à l'étroit Parce qu'il fallait être deux pour faire trois Petite perle nacrée, si le ciel me soustrait Je serais toujours près, près de toi en secret Petite perle, tu descends d'une lignée de poètes D'idéalistes en tout genre, de chercheurs de conquêtes Lève les yeux, une aïeule brille pour toi Suzana comme un nom au reflet d'autrefois IBUKA, souviens-toi, le prélude à ta vie Suzana c'est le nom d'un immortel atavisme Petite fille pardonne-nous pour ce monde dérisoire Pour tes épaules bien trop frêles face au poids de l'Histoire Petite princesse au royaume de mes mots A tous les fleuves qui t'irriguent, à tes rivières indigo A nos droits de douter, à nos rages d'exister A nos chants de clarté que je t'offre en bouquet Petite plante céleste aux yeux de rubis Bienvenue ma princesse, bienvenue dans la vie... X3</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Même au fin fond de mon petit pays, je regardais ma lucarne Les convulsions du monde nous parvenaient comme un lointain vacarme Souvent la télé s'partageait avec l'ensemble du voisinage La mondovision canapé transforme le globe en un village Les fractions d'imaginaires partageant tous la même doxa Roger Milla en Coupe du Monde et le monde danse le makossa La Guerre du Golfe de Mister Bush, avant fiston y'avait papa Et j'mattais le pillage des pipelines en bouffant mes papayes Nous étions tous les mêmes gamins rêvant d'entrer dans la Dream team Malgré l'arceau dans mon jardin j'ai jamais vu Patrick Ewing J'me suis accroché à des rêves souvent très loin d'mon quotidien J'connaissais bien moins ma culture que le western hollywoodien On pensait tenir aucun rôle dans le programme de leurs feuilletons Mais un jour en Gaule à La Baule y'a eu le discours de tonton Démocratie multipartisme, il fallait ranger les pistolets Comme rien n'est simple la guerre a éclaté, j'ai éteint ma télé C'est cool... C'est cool... Ma jeunesse s'écoule... C'est cool... Entre un mur qui tombe et deux tours qui s'écroulent You might also like Pendant qu'on s'débattait dans une fournaise Les autres nous regardaient assis en charentaises À s'demander Y'a quoi à la télé ? C'est quoi ces peuples qui crient à l'aide entre le fromage et le dessert ? L'humanité est plus fragile qu'une orchidée dans le désert Et quand le drame est bien trop grand, il se transforme en statistiques Et Lady Di a plus de poids qu'un million de morts en Afrique L'ignorance est moins mortelle que l'indifférence aux sanglots Les hommes sont des hommes pour les hommes et les loups ne sont que des chiots Alors on agonise en silence dans un cri sans écho Et même si la technique avance, elle ne changera pas la déco On a grandi avec le poids de nos démons sur le roc des coteaux Alors donnez-nous des mots pour qu'on vous change la photo! Pour qu'on écrive à hauteur d'homme ce que la télé ne montre pas Les battements du cur de mon âme est une info qui ne ment pas J'venais d'Afrique mais sans connaître Kouchner et puis son sac de riz J'ai débarqué un soir d'hiver ici avec mon sac de rimes J'ai perdu mon Jardin d'Eden où je me nourrissais de mangues Je suis prisonnier de mes chaînes vu qu'ici la télé commande J'l'ai rallumé dans un trois pièces de cet immeuble surchauffé J'l'ai entretenue comme le feu parce que dehors j'me les congelais Loin dans mon exil, je zappe ceux qui ont pris ma place Et quand on joue sur leur terrain c'est souvent rare qu'on te remplace J'fais une pause, le temps d'une pub Coca Cola Insérée entre un mur qui tombe et la sortie de Mandela On a vécu en continu, comme un flot d'informations Et j'me suis perdu dans ma rue, sous un amas de béton Les souvenirs de ma vie s'mélangent à toutes ces images diffusées Vivre hors champ d'la caméra c'est souvent ne pas exister On nous gave d'images à satiété, de sexe, de fric et de faucheuse Alors j'écris des textes comme un écho de nos vies silencieuses Sur leur écran on est des bouts d'pixels perdus dans la foule Et nos vies s'écoulent, coulent pendant qu'le monde s'écroule 4</t>
+          <t>Même au fin fond de mon petit pays, je regardais ma lucarne Les convulsions du monde nous parvenaient comme un lointain vacarme Souvent la télé s'partageait avec l'ensemble du voisinage La mondovision canapé transforme le globe en un village Les fractions d'imaginaires partageant tous la même doxa Roger Milla en Coupe du Monde et le monde danse le makossa La Guerre du Golfe de Mister Bush, avant fiston y'avait papa Et j'mattais le pillage des pipelines en bouffant mes papayes Nous étions tous les mêmes gamins rêvant d'entrer dans la Dream team Malgré l'arceau dans mon jardin j'ai jamais vu Patrick Ewing J'me suis accroché à des rêves souvent très loin d'mon quotidien J'connaissais bien moins ma culture que le western hollywoodien On pensait tenir aucun rôle dans le programme de leurs feuilletons Mais un jour en Gaule à La Baule y'a eu le discours de tonton Démocratie multipartisme, il fallait ranger les pistolets Comme rien n'est simple la guerre a éclaté, j'ai éteint ma télé C'est cool... C'est cool... Ma jeunesse s'écoule... C'est cool... Entre un mur qui tombe et deux tours qui s'écroulent Pendant qu'on s'débattait dans une fournaise Les autres nous regardaient assis en charentaises À s'demander Y'a quoi à la télé ? C'est quoi ces peuples qui crient à l'aide entre le fromage et le dessert ? L'humanité est plus fragile qu'une orchidée dans le désert Et quand le drame est bien trop grand, il se transforme en statistiques Et Lady Di a plus de poids qu'un million de morts en Afrique L'ignorance est moins mortelle que l'indifférence aux sanglots Les hommes sont des hommes pour les hommes et les loups ne sont que des chiots Alors on agonise en silence dans un cri sans écho Et même si la technique avance, elle ne changera pas la déco On a grandi avec le poids de nos démons sur le roc des coteaux Alors donnez-nous des mots pour qu'on vous change la photo! Pour qu'on écrive à hauteur d'homme ce que la télé ne montre pas Les battements du cur de mon âme est une info qui ne ment pas J'venais d'Afrique mais sans connaître Kouchner et puis son sac de riz J'ai débarqué un soir d'hiver ici avec mon sac de rimes J'ai perdu mon Jardin d'Eden où je me nourrissais de mangues Je suis prisonnier de mes chaînes vu qu'ici la télé commande J'l'ai rallumé dans un trois pièces de cet immeuble surchauffé J'l'ai entretenue comme le feu parce que dehors j'me les congelais Loin dans mon exil, je zappe ceux qui ont pris ma place Et quand on joue sur leur terrain c'est souvent rare qu'on te remplace J'fais une pause, le temps d'une pub Coca Cola Insérée entre un mur qui tombe et la sortie de Mandela On a vécu en continu, comme un flot d'informations Et j'me suis perdu dans ma rue, sous un amas de béton Les souvenirs de ma vie s'mélangent à toutes ces images diffusées Vivre hors champ d'la caméra c'est souvent ne pas exister On nous gave d'images à satiété, de sexe, de fric et de faucheuse Alors j'écris des textes comme un écho de nos vies silencieuses Sur leur écran on est des bouts d'pixels perdus dans la foule Et nos vies s'écoulent, coulent pendant qu'le monde s'écroule 4</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Je vis dans mon exil, de luxe, de bas-résilles Ici lon se résigne à fumer de la résine Jai gratté trop de faf et noirci trop de pages Sentez le message, le propos, le propane se propage Le sentiment de ma révolte nest pas très clair, il est diffus Je suffoque à mon époque, la refuse, et la réfute Jai pris lavion au vol pour devenir clando dans la soute Jveux pas devenir un passager, jveux pas finir cracheur de soupe Jai rêvé de dissidence en me goinfrant de mes pop-corn Lintégrité sest faite lennemi, je suis cocu et jai des cornes La transgression nexiste plus, le système nous avale Nous recrache en ronds de fumée, épais cigare de la Havane Dans la savane de Paname, sur le goudron, le macadam Jarpente les rues en toutes saisons dans le chaudron de mes états dâmes Je me revois un peu débile, trainant dans le quartier latin Entre les bouquins, les vinyles ou bien Bastille au petit matin Avec cette bande de copains parlant des connards quon adule On était tous un peu crétin de se gargariser de nos vies dadultes On débattait sur les pogroms, de concept et de leurs nuances On discutait aussi football, sexe, argent et vacances On se dandinait comme des dandys, on se voulait fluide et nomade On rêvait tous de jet-lag et de sextraire de la vie normale Mais de New York à Moscou et de Shanghai à London Les mojitos ont le même goût, les bars diffusent Gilles Peterson On sest jeté dans la vie de con, horaires-bureaux-aseptisés On en voulait au monde entier en faisant plaisir à son banquier Puis de Before en After, Caïpirinhas ou Bavaria Sur les murs Lounge des clubs tendance ya Casus Clay, Che Guevara A 5 euros le Petit Negro , ils ont fait fort au Café Flore Eh ! Jean-Sol Partre cest décidé, je vais devenir un Picaflore You might also like Slowoperation Slowoperation Slowoperation Mmmhh... Javancerais sans balises, quand la musique te marginalise Le jour de ma mort sur mon cur je naurais pas de valises Je partirais léger quand dautres se sentiront lésés Se sentiront pleins de regrets, peut-être de navoir pas osé Jai jamais trop rêvé davoir lappart et la voiture Je suis à coté de mes pompes, moi jaime la gratte et les ratures Et laventure, un jour se lève, un jour nouveau Un jour dadolescence ou sur un banc jai rêvé de Revo Mais les épreuves de la vie, des ouragans qui font péter les digues Me fatigue, et je le vois, mes textes nont plus dintrigues Les révoltes sont diluées, nuages de lait dans un café Tu ne signes pas des autographes quand tas lavenir autodafé Moi je suis un peu paumé et jai le cur à la renverse Mais tinquiètes pas, je sais que la vie est une tempête que lon traverse Ce monde il est vulgaire, cest un tapin dans un motel Je fais partie de ces jeunes-là qui ont grandi sans un modèle Pour mes enfants je lespère, je serais un exemple Et de mes larmes et de mon sang, ok! De ça, je les exempte Je suis pessimiste... Ce monde il se barre en cacahuète Je file vers ma planète, appelez-moi dès que ça sarrête Génération résignation, sans notion ni passion Trop-plein dinformations, environnement en détérioration Condamner à trouver du sens dans ce non-sens Certains brûlent la France à lessence, ou consomment à outrance Ou veulent acquérir de largent, du pouvoir ou de la gloire Mais laissez-moi que je me barre, je veux juste perfectionner mon art Certains appelleront ça lâcheté ou égoïsme Je le répète, si je pouvais, jachèterais de lhéroïsme !2</t>
+          <t>Je vis dans mon exil, de luxe, de bas-résilles Ici lon se résigne à fumer de la résine Jai gratté trop de faf et noirci trop de pages Sentez le message, le propos, le propane se propage Le sentiment de ma révolte nest pas très clair, il est diffus Je suffoque à mon époque, la refuse, et la réfute Jai pris lavion au vol pour devenir clando dans la soute Jveux pas devenir un passager, jveux pas finir cracheur de soupe Jai rêvé de dissidence en me goinfrant de mes pop-corn Lintégrité sest faite lennemi, je suis cocu et jai des cornes La transgression nexiste plus, le système nous avale Nous recrache en ronds de fumée, épais cigare de la Havane Dans la savane de Paname, sur le goudron, le macadam Jarpente les rues en toutes saisons dans le chaudron de mes états dâmes Je me revois un peu débile, trainant dans le quartier latin Entre les bouquins, les vinyles ou bien Bastille au petit matin Avec cette bande de copains parlant des connards quon adule On était tous un peu crétin de se gargariser de nos vies dadultes On débattait sur les pogroms, de concept et de leurs nuances On discutait aussi football, sexe, argent et vacances On se dandinait comme des dandys, on se voulait fluide et nomade On rêvait tous de jet-lag et de sextraire de la vie normale Mais de New York à Moscou et de Shanghai à London Les mojitos ont le même goût, les bars diffusent Gilles Peterson On sest jeté dans la vie de con, horaires-bureaux-aseptisés On en voulait au monde entier en faisant plaisir à son banquier Puis de Before en After, Caïpirinhas ou Bavaria Sur les murs Lounge des clubs tendance ya Casus Clay, Che Guevara A 5 euros le Petit Negro , ils ont fait fort au Café Flore Eh ! Jean-Sol Partre cest décidé, je vais devenir un Picaflore Slowoperation Slowoperation Slowoperation Mmmhh... Javancerais sans balises, quand la musique te marginalise Le jour de ma mort sur mon cur je naurais pas de valises Je partirais léger quand dautres se sentiront lésés Se sentiront pleins de regrets, peut-être de navoir pas osé Jai jamais trop rêvé davoir lappart et la voiture Je suis à coté de mes pompes, moi jaime la gratte et les ratures Et laventure, un jour se lève, un jour nouveau Un jour dadolescence ou sur un banc jai rêvé de Revo Mais les épreuves de la vie, des ouragans qui font péter les digues Me fatigue, et je le vois, mes textes nont plus dintrigues Les révoltes sont diluées, nuages de lait dans un café Tu ne signes pas des autographes quand tas lavenir autodafé Moi je suis un peu paumé et jai le cur à la renverse Mais tinquiètes pas, je sais que la vie est une tempête que lon traverse Ce monde il est vulgaire, cest un tapin dans un motel Je fais partie de ces jeunes-là qui ont grandi sans un modèle Pour mes enfants je lespère, je serais un exemple Et de mes larmes et de mon sang, ok! De ça, je les exempte Je suis pessimiste... Ce monde il se barre en cacahuète Je file vers ma planète, appelez-moi dès que ça sarrête Génération résignation, sans notion ni passion Trop-plein dinformations, environnement en détérioration Condamner à trouver du sens dans ce non-sens Certains brûlent la France à lessence, ou consomment à outrance Ou veulent acquérir de largent, du pouvoir ou de la gloire Mais laissez-moi que je me barre, je veux juste perfectionner mon art Certains appelleront ça lâcheté ou égoïsme Je le répète, si je pouvais, jachèterais de lhéroïsme !2</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Oublie l'État, il s'désengage, il a coupé les ponts Place aux charités, business, showbiz et Téléthon Au festival du sparadrap sur les jambes de bois C'est toujours les conséquences et pas les causes que l'on combat Dans c'pays en pièces jaunes, David Douillet trouve un prétexte pour faire l'aumône Y'a du business sur le cur des gens et même si Les indigents tirent un peu d'profit Ils quitteront la misère quand la charité n'passera plus par la money XXX ta vocalise et entre doigts Sucez-vous, 'gue-shla', votre skeud tourne toujours sur celui-là J'charrie par charité, non, j'jure de charte de qualité Comme chiffrer sur la précarité, dealer d'la solidarité Moi, pour offrir, j'ai pas besoin d'attendre les fêtes, puis Pour dire merci, j'ai pas besoin d'attendre leur Thanksgiving Fais c'qu'il faut, sinon les enfoirés vont t'la mettre profond Donc, pour ma prochaine Rolex, je lance un appel au dons Il est aisé de s'indigner, l'hiver, autour d'un feu de cheminée Plus difficile d'inviter à dormir et dîner des sans-logis sans rechigner On voudrait venir en aide à ceux qui squattent l'hôtel courant d'air Mais on préfère adopter des sapins que des solutions qui nous emmerdent Maintenant qu'on s'pèle le cul, tu t'es trouvé une conscience Un beau dimanche, en offrant un pull à ceux qui font la manche, mais bon Une seule chose doit être répétée si tu les aides En hiver, mon pote, n'oublie pas de les aider l'étéYou might also like1</t>
+          <t>Oublie l'État, il s'désengage, il a coupé les ponts Place aux charités, business, showbiz et Téléthon Au festival du sparadrap sur les jambes de bois C'est toujours les conséquences et pas les causes que l'on combat Dans c'pays en pièces jaunes, David Douillet trouve un prétexte pour faire l'aumône Y'a du business sur le cur des gens et même si Les indigents tirent un peu d'profit Ils quitteront la misère quand la charité n'passera plus par la money XXX ta vocalise et entre doigts Sucez-vous, 'gue-shla', votre skeud tourne toujours sur celui-là J'charrie par charité, non, j'jure de charte de qualité Comme chiffrer sur la précarité, dealer d'la solidarité Moi, pour offrir, j'ai pas besoin d'attendre les fêtes, puis Pour dire merci, j'ai pas besoin d'attendre leur Thanksgiving Fais c'qu'il faut, sinon les enfoirés vont t'la mettre profond Donc, pour ma prochaine Rolex, je lance un appel au dons Il est aisé de s'indigner, l'hiver, autour d'un feu de cheminée Plus difficile d'inviter à dormir et dîner des sans-logis sans rechigner On voudrait venir en aide à ceux qui squattent l'hôtel courant d'air Mais on préfère adopter des sapins que des solutions qui nous emmerdent Maintenant qu'on s'pèle le cul, tu t'es trouvé une conscience Un beau dimanche, en offrant un pull à ceux qui font la manche, mais bon Une seule chose doit être répétée si tu les aides En hiver, mon pote, n'oublie pas de les aider l'été1</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Putain Gérard tu déconnes, tu fais la une de ces petits ragots Mais là où j'te préfère c'est dans le rôle de Cyrano Tu vas faire le beau en Russie mais à la fois je doute Que tu n'finisses pas saoul, à la fin de l'envoi je touche Gégé reviens, au fond j'crois bien que t'es XXX Car chez nous on est tous les jours fonce-dé aux substances che-lou J'comprends pourquoi tu nous quittes et que tu t'exiles au pays de la Vodka Si l'Etat te taxe pire qu'une 'tasse, toi qui rêves de la vida loca J'arrive en camping car avec un verre de Ricard Jette un il dans l'Canard, quoi y a plus d'Gérard ? Ben alors mon nanar, t'as fais dans ton falzar ? J'vais trinquer avec qui maintenant avec tes problèmes de papelard ? Obélix est tombé dans la marmite de Vodka magique Encore une idée plus tordue que la faucille soviétique Il va conduire sa Lada en totale ébriété Et finir mal comme les filles de l'est, allez na zdorovje Sur la plage d'un paradis fiscal, je ferai mon débarquement 75 c'est le taux d'imposition, pas mon département Je chie sur l'UMP, le FN, le mouvement Bleu Marine Mais j'veux l'chalet en Suisse et la villa sur les îles Kornati Encore une fois j'entends jacter, jetez vos JT me bassinent Pendant qu'on bouffe des pesticides et qu'on étouffe les génocides Les médias sont fous, nous enfument d'infos que l'on hypertrophie Bon départ à Depardieu ou Bardot dont je me contrefousYou might also like</t>
+          <t>Putain Gérard tu déconnes, tu fais la une de ces petits ragots Mais là où j'te préfère c'est dans le rôle de Cyrano Tu vas faire le beau en Russie mais à la fois je doute Que tu n'finisses pas saoul, à la fin de l'envoi je touche Gégé reviens, au fond j'crois bien que t'es XXX Car chez nous on est tous les jours fonce-dé aux substances che-lou J'comprends pourquoi tu nous quittes et que tu t'exiles au pays de la Vodka Si l'Etat te taxe pire qu'une 'tasse, toi qui rêves de la vida loca J'arrive en camping car avec un verre de Ricard Jette un il dans l'Canard, quoi y a plus d'Gérard ? Ben alors mon nanar, t'as fais dans ton falzar ? J'vais trinquer avec qui maintenant avec tes problèmes de papelard ? Obélix est tombé dans la marmite de Vodka magique Encore une idée plus tordue que la faucille soviétique Il va conduire sa Lada en totale ébriété Et finir mal comme les filles de l'est, allez na zdorovje Sur la plage d'un paradis fiscal, je ferai mon débarquement 75 c'est le taux d'imposition, pas mon département Je chie sur l'UMP, le FN, le mouvement Bleu Marine Mais j'veux l'chalet en Suisse et la villa sur les îles Kornati Encore une fois j'entends jacter, jetez vos JT me bassinent Pendant qu'on bouffe des pesticides et qu'on étouffe les génocides Les médias sont fous, nous enfument d'infos que l'on hypertrophie Bon départ à Depardieu ou Bardot dont je me contrefous</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay You might also like- Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
+          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I said it's a heavy burden to bear When the whole world knows you're next up I compare it to telling someone manic depressive to get up Because it's not as tough as writing a set-up On how you got set up I'll kick his corpse, no remorse, this shit is gift-wrapped I'm on his porch, Trojan Horse this shit is gift-trapped Oh, now you get it? I mean, how specific Can I possibly get when I only got about a minute? Tell Lux I don't need coffins I'm a cannibal, I don't just kill, I feed off it That was in poor taste, let's cut to the chase, I'm a cold killer Here to shed light using no filler I had to take dog out back and shoot him Since he ain't shit but an old yeller! Now how many of you caught that shed connection in the building? None of you okay, one of you, I'm not judgin' you But that's what makes the top tier uncomfortable So, try and convince them I'm too specific or overuse religion Well, let me ask you something, bitch How do you spend all this time travelling And never came up with shit futuristic? Speaking of, if I'm you, then I'm a real-life looper Sent to bury the past See, that meaning was genius, but you compare me to trash Organik had faith I wouldn't bury his ass But Donatello's goin' to die tryin' to carry the staff So, Splinter Cell black ops, or Sleeper Cell Matlock? A modern-day David, slayin' Goliath with a crack rock You fuckin' junkie, the truth is ugly Too bad you and your Lush buddy snorted up the hush money So make them laugh, because you're fuckin' funny And they can all relate Enough bodies to stretch across China, yet they try to stall a great Walls replaced doors that were never open for you and me I took the tunnel underground, fans said foolish me You climbed abruptly that's Humpty-Dumpty The fall's not confusing, see Crack's got you pouring out your insides And now you're a shell of what you used to be You'll never get it together, stop tryin' Stick to being Lebanon-violent, it's already looking lopsided I ain't dissin' you when I say, shots fired That .38 Special treatment with the rubber grip My cousin dumpin' it Diplomatic immunity, capital punishment? Naw passport, Visa, luggages, trust me If shit get raw, Tim McGraw I got faith he'll get out the country It's gettin' ugly, because pen-wise I'm better than everyone That's a hell of a standard, and I'm settin' one A rise as quick as mine was never done They said have a war, I'm Marcus Lattimore I hit the big leagues and could never run What, did I end it badly? Okay, two-dollar hooker this shit extra nasty For those sayin' we're the same and are never happy You're Marcus Lattimore, too your career ends in Cali, early! You might also like Check it out, hummus-breath! They got me over here at Back to BAYsics Getting my film on with a perfect stranger Look, everybody, it's Balki Davids I'll admit, the last couple of years, I've been real sloppy I gave all these people a reason to sleep on me But now, I promise you a jellyfish Because this here is about to be a real body I told this bitch, he said he want to get it to pop He said Norbes said we could get you the guap. I was like, Alright, then, let's get this shit locked. He was like, For real, you gon' do it, Diz? I was like, Yeah on King of the Dot! All the way from the one stage that matters Oh, shut the fuck up! Time for you to fuckin' face your master Your name is Gjulaghula But the Mayan civilization used to have an ancient calendar Which should've been the only thing they ever named you after Because ever since 2012 you haven't been shit but a fake Dizaster Trust me, after this, you gon' get your wish And become a famous rapper But to get in the spotlight, you needed a star with a big name So I'm not your god, I'm your Big Bang Bitch, I'm what made you matter! You little fuckin' ungrateful bastard At least you could've gave me a little fuckin' thankyou after Because, bitch, I helped you climb up the rankings faster But this a fucked up game I should've never gave these snakes a ladder Listen, I'll slap this furry little fuckin' Persian in his furry face For tryin' to regurgitate every verse I made This person's fake, he catches bodies But off an image that's not yours you're a surrogate Pay attention, this shit's karate This is like Daniel-san versus Mr. Miyagi If Daniel LaRusso's role was played by Gilbert Gottfried Suck a dick, Mr. Peabody! You're like John F. Kennedy, because your voice is the reason you're goin' to end up gettin' bodied And trust me, your homies told you that you gon' 3-0 dude They told you that your pen had enough bars in it to hold you But you El Chapo you lettin' your friends dig your hole for you And now it's over, because you gon' get smashed that simple I swear to God hashtag symbol this Christian could die I'll put your wings in the sky like a Batman signal You think you're on the level I'm on? You're mental I'm monumental, I'll Ichabod chop off your temple You'll see nothing but stares as his head rolls Like a scene from Apocalypto Because you ain't the original OG you been claimin' to be You like Cassidy, because 90 percent of your shit is trash But the best shit you ever had was your imitation of me! Just admit taking me was bad advice You want the aura back you see I have, I'm fightin' a stereotype In a fucked up way, it's like we battled twice But you're jealous of my success, I guess you're mad I made it I walked the road less traveled, and you claimed you paved it You're scared of me One second I'm your favorite, next second you hated So I waited, and baited 'til your fears made you write demands You threw subliminals, instead of squarin' up like a man Bitch, I'm not Kitana I ain't here to fight with a fan But I'm good with these hands, who you intimidatin'? I only fear God and immigration They say you're the best, somethin' I've never seen before I figured you'd bring up that fuckin' line in your battle, right? You know what line I'm talkin' about? Couple retreat like Vince Vaughn? Yeah, of course Like I'd spit a line of yours that didn't have any force Don't you find it funny That the worst bar of my P.G. was actually yours? Suck a dick! When the rules are fine I choose the spine I hate it when they call me Dizaster It makes me want to lose my mind I'm not Gjonaj or Dizaster I'm the two combined I'm an upgrade, and I'm a new design I take some of your rhymes and take some of mine I do it like how your eyebrows used to be and fuse the line He couldn't come to Detroit, so I brought the war to your premises I am more than your nemesis I bit your Vince Vaughn line And acted like I didn't know that you said the shit The West Coast don't respect me So how am I supposed to accept this shit? I'm underrated, because I'm over-affectionate Pay attention, I said under then I said over That's how I go over heads with it! Reality is, I took this for fun And I'm embarrassed that they even comparin' cats When beyond our heritage and appearance Well, there's a gap between us, and here's the fact They got me starin' back at a parallel mirror match With another Arab cat, it's Yasser Arafat in a New Era hat He got the 22-inch rim on his prayer mat There's a difference between us He acts like a terrorist, I do terrorist acts You don't carry gats or ever air your straps And if you did, it would be at a range Like the marriage that your parents had But I can tell you're mentally prepared From the fucking amount of cologne you got on And the fucking pound of gel that's in your hair Outside of your home turf, you ain't respected anywhere Even in Detroit, they don't take you seriously You ain't even the best from over there You're like a periodic table Because even in your own element you're a square He wants to be like Dizaster Waiting for a natural Dizaster to happen When they ask him, Why do you act like Dizaster? He says, I don't act like Dizaster, it just naturally happens. Hangin' out in Detroit, he's tryin' to be hard Tryin' to show all his black friends he got street smarts When he's kickin' it with them He keeps his green card tucked under his EBT card Fuck you, Vlade Divac, Ginobli! And whatever this faggot looks like, it's all part of my story They try to copy the form But what they got in store for me was a Kinko's Something went wrong when they cloned me I told you, he came out looking like a fucking retarded Ginobli Comparing us is like a knockoff to a Rollie See, we look the same from far 'Til you get all up in his face and start watching him slowly You can tell by the way the hands move that he's obviously phony Listen, you and what squad gon' destroy me? You and all of your homies look like the iPhone 6 Punjabi emojis Bitch, you picked when and where I'm surprised the contract didn't have an outfit you picked to wear And a stipulation on how I did my hair Bitch, three weeks and two minutes? Just admit you were fucking scared And thought I'd be less prepared But like Will Graham, I got a killer kind of vision I stalk each and every one of my blind victims You take too long to punch, you use multis as a crutch To disguise filler and I'm fine with it Because I realized that's why you're so fuckin' scared of time limits And you're a snake to a whole new scale, and you hide in it Waiting to strike, you turned your back on Daylyt in five minutes You marked out, Day loaned me a cal With a note on the revolver It read, Diz, Total Slaughter, did you get the theme? Show up at his fucking house and let it sing Are you religious? Because here's where I connect the scheme That 40 Day lent me will have you give up everything It's all over, I began to script your death in structured verses Judgment day, you rapped your ass off for what it's worth I'll reign longer than God when he flooded Earth Kings get thrown from chairs they sit on Face it, you're basically gettin' spit on All them views, and fell off, we should've battled on the rooftop Because you ain't had a decent punch since Billy Boondocks This is suicide, you knew you'd die, it's a cry for help You lost everything and everyone, you're all by yourself It's like Waldo playing Where's Waldo? you had to find yourself Because that old Diz is dead You're not a killer, so you had to play pretend I'm talkin' to you like a child, I know you feel that way again Because we've never seen the bodies that's imaginary friends With that being said, if you didn't think I could battle with a vet Show me some actual respect Or get a fuckin' life, like the Lazarus Effect How long did the dead last in the first place? Are you impressed? That just goes to show you I got a sick sense I'll kill them all, and just wrote big checks If we talkin' bread inbred, your family fuckin' dead necro-incest Fuck who been next, the future of battle rap, who's stoppin' me? I'm intellect, introspect, disrespect, philosophy You hear Homer and think Simpson, I think Odyssey You honestly probably thought he would body me But I showed you the difference between us is quality, goodnight! I guess it's safe to say I'm already up 2-0 So if I was you, I would just start takin' cover Y'all heard of the Jonas Brothers? Well, these guys are the Gjonaj's Brothers I am jealous of you, because I could never get a cab driver like you Shit, your cab drivers drive you to the battle Then walk inside the venue and stand behind you And for them cats that keep on bringin' up the Math shit Cats like you, you did it on stage, faggot, what's your deal? For Christ's sakes, throw hands with me, then If that's how passionate you feel Exactly, you cats act like me until you have to scrap like me Then your personality's revealed One sandy hook on this stage will prove this Dizaster isn't real! You're like a German Jew you let your people gas you up for real Just like Chuckie in the last Child's Play Because your fans gon' get you killed Clap with the steel Backshots leave his stomach empty like Ally McBeal I don't play games, they train me to kill From long range hittin' shit It's like watchin' Limitless your brain will get peeled Bullets break through the shield You get away, then I'm sendin' four giant shells Comin' after you like April O'Neal You say you got skill And you called yourself something from Looper So you ain't the future, you Bruce Willis from Looper Because you haven't been yet engaged in this field I'm goin' to show you how to hit him in the head Because that's the best shot That's the best spot, hit the vet's top Hit the top of the windshield, because that's the best spot It's not like it's the tires I'm after I'm an aspiring actor I'm just lookin' for that perfect headshot Open the door, then the lead pop, it's a leg shot His homie drive off with his feet danglin' under the car like Bedrock Headshot, he can get it at any time of the night that's a Redbox If I bring the toys, you're fucked that's a sex shop I'll chop this camel's head off, then put it on my shelftop That's a cigarette shop that you guys own I can never get washed I'm a dreadlock If your homies don't start actin' down-to-earth Then they can get dropped Then I'll send both of their bags upstairs like a bellhop3</t>
+          <t>I said it's a heavy burden to bear When the whole world knows you're next up I compare it to telling someone manic depressive to get up Because it's not as tough as writing a set-up On how you got set up I'll kick his corpse, no remorse, this shit is gift-wrapped I'm on his porch, Trojan Horse this shit is gift-trapped Oh, now you get it? I mean, how specific Can I possibly get when I only got about a minute? Tell Lux I don't need coffins I'm a cannibal, I don't just kill, I feed off it That was in poor taste, let's cut to the chase, I'm a cold killer Here to shed light using no filler I had to take dog out back and shoot him Since he ain't shit but an old yeller! Now how many of you caught that shed connection in the building? None of you okay, one of you, I'm not judgin' you But that's what makes the top tier uncomfortable So, try and convince them I'm too specific or overuse religion Well, let me ask you something, bitch How do you spend all this time travelling And never came up with shit futuristic? Speaking of, if I'm you, then I'm a real-life looper Sent to bury the past See, that meaning was genius, but you compare me to trash Organik had faith I wouldn't bury his ass But Donatello's goin' to die tryin' to carry the staff So, Splinter Cell black ops, or Sleeper Cell Matlock? A modern-day David, slayin' Goliath with a crack rock You fuckin' junkie, the truth is ugly Too bad you and your Lush buddy snorted up the hush money So make them laugh, because you're fuckin' funny And they can all relate Enough bodies to stretch across China, yet they try to stall a great Walls replaced doors that were never open for you and me I took the tunnel underground, fans said foolish me You climbed abruptly that's Humpty-Dumpty The fall's not confusing, see Crack's got you pouring out your insides And now you're a shell of what you used to be You'll never get it together, stop tryin' Stick to being Lebanon-violent, it's already looking lopsided I ain't dissin' you when I say, shots fired That .38 Special treatment with the rubber grip My cousin dumpin' it Diplomatic immunity, capital punishment? Naw passport, Visa, luggages, trust me If shit get raw, Tim McGraw I got faith he'll get out the country It's gettin' ugly, because pen-wise I'm better than everyone That's a hell of a standard, and I'm settin' one A rise as quick as mine was never done They said have a war, I'm Marcus Lattimore I hit the big leagues and could never run What, did I end it badly? Okay, two-dollar hooker this shit extra nasty For those sayin' we're the same and are never happy You're Marcus Lattimore, too your career ends in Cali, early! Check it out, hummus-breath! They got me over here at Back to BAYsics Getting my film on with a perfect stranger Look, everybody, it's Balki Davids I'll admit, the last couple of years, I've been real sloppy I gave all these people a reason to sleep on me But now, I promise you a jellyfish Because this here is about to be a real body I told this bitch, he said he want to get it to pop He said Norbes said we could get you the guap. I was like, Alright, then, let's get this shit locked. He was like, For real, you gon' do it, Diz? I was like, Yeah on King of the Dot! All the way from the one stage that matters Oh, shut the fuck up! Time for you to fuckin' face your master Your name is Gjulaghula But the Mayan civilization used to have an ancient calendar Which should've been the only thing they ever named you after Because ever since 2012 you haven't been shit but a fake Dizaster Trust me, after this, you gon' get your wish And become a famous rapper But to get in the spotlight, you needed a star with a big name So I'm not your god, I'm your Big Bang Bitch, I'm what made you matter! You little fuckin' ungrateful bastard At least you could've gave me a little fuckin' thankyou after Because, bitch, I helped you climb up the rankings faster But this a fucked up game I should've never gave these snakes a ladder Listen, I'll slap this furry little fuckin' Persian in his furry face For tryin' to regurgitate every verse I made This person's fake, he catches bodies But off an image that's not yours you're a surrogate Pay attention, this shit's karate This is like Daniel-san versus Mr. Miyagi If Daniel LaRusso's role was played by Gilbert Gottfried Suck a dick, Mr. Peabody! You're like John F. Kennedy, because your voice is the reason you're goin' to end up gettin' bodied And trust me, your homies told you that you gon' 3-0 dude They told you that your pen had enough bars in it to hold you But you El Chapo you lettin' your friends dig your hole for you And now it's over, because you gon' get smashed that simple I swear to God hashtag symbol this Christian could die I'll put your wings in the sky like a Batman signal You think you're on the level I'm on? You're mental I'm monumental, I'll Ichabod chop off your temple You'll see nothing but stares as his head rolls Like a scene from Apocalypto Because you ain't the original OG you been claimin' to be You like Cassidy, because 90 percent of your shit is trash But the best shit you ever had was your imitation of me! Just admit taking me was bad advice You want the aura back you see I have, I'm fightin' a stereotype In a fucked up way, it's like we battled twice But you're jealous of my success, I guess you're mad I made it I walked the road less traveled, and you claimed you paved it You're scared of me One second I'm your favorite, next second you hated So I waited, and baited 'til your fears made you write demands You threw subliminals, instead of squarin' up like a man Bitch, I'm not Kitana I ain't here to fight with a fan But I'm good with these hands, who you intimidatin'? I only fear God and immigration They say you're the best, somethin' I've never seen before I figured you'd bring up that fuckin' line in your battle, right? You know what line I'm talkin' about? Couple retreat like Vince Vaughn? Yeah, of course Like I'd spit a line of yours that didn't have any force Don't you find it funny That the worst bar of my P.G. was actually yours? Suck a dick! When the rules are fine I choose the spine I hate it when they call me Dizaster It makes me want to lose my mind I'm not Gjonaj or Dizaster I'm the two combined I'm an upgrade, and I'm a new design I take some of your rhymes and take some of mine I do it like how your eyebrows used to be and fuse the line He couldn't come to Detroit, so I brought the war to your premises I am more than your nemesis I bit your Vince Vaughn line And acted like I didn't know that you said the shit The West Coast don't respect me So how am I supposed to accept this shit? I'm underrated, because I'm over-affectionate Pay attention, I said under then I said over That's how I go over heads with it! Reality is, I took this for fun And I'm embarrassed that they even comparin' cats When beyond our heritage and appearance Well, there's a gap between us, and here's the fact They got me starin' back at a parallel mirror match With another Arab cat, it's Yasser Arafat in a New Era hat He got the 22-inch rim on his prayer mat There's a difference between us He acts like a terrorist, I do terrorist acts You don't carry gats or ever air your straps And if you did, it would be at a range Like the marriage that your parents had But I can tell you're mentally prepared From the fucking amount of cologne you got on And the fucking pound of gel that's in your hair Outside of your home turf, you ain't respected anywhere Even in Detroit, they don't take you seriously You ain't even the best from over there You're like a periodic table Because even in your own element you're a square He wants to be like Dizaster Waiting for a natural Dizaster to happen When they ask him, Why do you act like Dizaster? He says, I don't act like Dizaster, it just naturally happens. Hangin' out in Detroit, he's tryin' to be hard Tryin' to show all his black friends he got street smarts When he's kickin' it with them He keeps his green card tucked under his EBT card Fuck you, Vlade Divac, Ginobli! And whatever this faggot looks like, it's all part of my story They try to copy the form But what they got in store for me was a Kinko's Something went wrong when they cloned me I told you, he came out looking like a fucking retarded Ginobli Comparing us is like a knockoff to a Rollie See, we look the same from far 'Til you get all up in his face and start watching him slowly You can tell by the way the hands move that he's obviously phony Listen, you and what squad gon' destroy me? You and all of your homies look like the iPhone 6 Punjabi emojis Bitch, you picked when and where I'm surprised the contract didn't have an outfit you picked to wear And a stipulation on how I did my hair Bitch, three weeks and two minutes? Just admit you were fucking scared And thought I'd be less prepared But like Will Graham, I got a killer kind of vision I stalk each and every one of my blind victims You take too long to punch, you use multis as a crutch To disguise filler and I'm fine with it Because I realized that's why you're so fuckin' scared of time limits And you're a snake to a whole new scale, and you hide in it Waiting to strike, you turned your back on Daylyt in five minutes You marked out, Day loaned me a cal With a note on the revolver It read, Diz, Total Slaughter, did you get the theme? Show up at his fucking house and let it sing Are you religious? Because here's where I connect the scheme That 40 Day lent me will have you give up everything It's all over, I began to script your death in structured verses Judgment day, you rapped your ass off for what it's worth I'll reign longer than God when he flooded Earth Kings get thrown from chairs they sit on Face it, you're basically gettin' spit on All them views, and fell off, we should've battled on the rooftop Because you ain't had a decent punch since Billy Boondocks This is suicide, you knew you'd die, it's a cry for help You lost everything and everyone, you're all by yourself It's like Waldo playing Where's Waldo? you had to find yourself Because that old Diz is dead You're not a killer, so you had to play pretend I'm talkin' to you like a child, I know you feel that way again Because we've never seen the bodies that's imaginary friends With that being said, if you didn't think I could battle with a vet Show me some actual respect Or get a fuckin' life, like the Lazarus Effect How long did the dead last in the first place? Are you impressed? That just goes to show you I got a sick sense I'll kill them all, and just wrote big checks If we talkin' bread inbred, your family fuckin' dead necro-incest Fuck who been next, the future of battle rap, who's stoppin' me? I'm intellect, introspect, disrespect, philosophy You hear Homer and think Simpson, I think Odyssey You honestly probably thought he would body me But I showed you the difference between us is quality, goodnight! I guess it's safe to say I'm already up 2-0 So if I was you, I would just start takin' cover Y'all heard of the Jonas Brothers? Well, these guys are the Gjonaj's Brothers I am jealous of you, because I could never get a cab driver like you Shit, your cab drivers drive you to the battle Then walk inside the venue and stand behind you And for them cats that keep on bringin' up the Math shit Cats like you, you did it on stage, faggot, what's your deal? For Christ's sakes, throw hands with me, then If that's how passionate you feel Exactly, you cats act like me until you have to scrap like me Then your personality's revealed One sandy hook on this stage will prove this Dizaster isn't real! You're like a German Jew you let your people gas you up for real Just like Chuckie in the last Child's Play Because your fans gon' get you killed Clap with the steel Backshots leave his stomach empty like Ally McBeal I don't play games, they train me to kill From long range hittin' shit It's like watchin' Limitless your brain will get peeled Bullets break through the shield You get away, then I'm sendin' four giant shells Comin' after you like April O'Neal You say you got skill And you called yourself something from Looper So you ain't the future, you Bruce Willis from Looper Because you haven't been yet engaged in this field I'm goin' to show you how to hit him in the head Because that's the best shot That's the best spot, hit the vet's top Hit the top of the windshield, because that's the best spot It's not like it's the tires I'm after I'm an aspiring actor I'm just lookin' for that perfect headshot Open the door, then the lead pop, it's a leg shot His homie drive off with his feet danglin' under the car like Bedrock Headshot, he can get it at any time of the night that's a Redbox If I bring the toys, you're fucked that's a sex shop I'll chop this camel's head off, then put it on my shelftop That's a cigarette shop that you guys own I can never get washed I'm a dreadlock If your homies don't start actin' down-to-earth Then they can get dropped Then I'll send both of their bags upstairs like a bellhop3</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tes tellement piteux ti-peu que je vais te pé-ta petit type Petit à petit, tu titubes et tu te demandes qui tes ? Quitter vite, éviter léquipe rythmique épileptique On pique et kick léthique étique dune société trop inique Je suis le Bic pas de panique un peu de beat un peu de feat Et moi jhésite en ego trip, je mégosille pour les gros titres Je prends la fuite, pars sur orbite sans quon minvite, voici le pitre Voici mes disques et puis ma zic le piment pique à pic, incite ! Jsuis lflow qui copie les tams-tams Jsuis lchaud qui tbâche par des tas dvannes Peut-être beau mais moche pour des tas dfemmes Vote sans états dâme, perds sans être un âne La fin dun monde, man, qui se trame Des bombes qui grondent en mélodrame Meeny, miny, moe, on a les minima sociaux On perd tous nos idéaux, on vit comme des animaux Okay so you had no stuff Like that growing up But you managed Sure Nuff! Yeah! So your van broke down Favourite band broke up But you managed Sure Nuff! Okay so have no luck And your plans go bust But you managed Sure Nuff! Go head let your hand go up If your life seem tough And you still standing up If you Rambo tough And still standing up Its like they favorite song Getting played all day long You hear it just came on Then you get enough and turn it off When the whole world goes wrong And all your faith is gone You cant just wait on God Gotta get yourself up get involved You might also like Y'a le name droping, les mails en copie La France qui cotise, la famille quon se coltine Les frères qui cantinent, les quelques centimes La physique quantique, les prix quon estime Les gens que lon tue, les fêtes confettis Les ordres de Poutine, le plutonium sushi La guerre, le sida, Darfour et Biafra Et puis dans tout ça lopinion du quidam Bistrot, troquet, la merde, le réel Quand jenlève la virgule la merde est réelle Objectifs, chiffres, rafles, écoles ADN, fichage, charters qui décollent Ralliement, connivence, collusion, dissension Hutu ou Tutsi, me pose jamais la question Les amours, le cur, les amis, les tourments Et lespoir dune victoire des Dinkas du Soudan Okay so you had no stuff Like that growing up But you managed Sure Nuff! Yeah! So your van broke down Favourite band broke up But you managed Sure Nuff! Okay so have no luck And your plans go bust But you managed Sure Nuff! Go head let your hand go up If your life seem tough And you still standing up If you Rambo tough And still standing up Ah Yeah! Get involved Life is hard listen When it throws rocks Get involved Carry on lift them You aint no victim We all living Trying to beat the system Youll get your highs and lows Youll win and some you wont Its like they favorite song Getting played all day long You hear it just came on Then you get enough and turn it off When the whole world goes wrong And all your faith is gone You cant just wait on God Gotta get yourself up get involved2</t>
+          <t>Tes tellement piteux ti-peu que je vais te pé-ta petit type Petit à petit, tu titubes et tu te demandes qui tes ? Quitter vite, éviter léquipe rythmique épileptique On pique et kick léthique étique dune société trop inique Je suis le Bic pas de panique un peu de beat un peu de feat Et moi jhésite en ego trip, je mégosille pour les gros titres Je prends la fuite, pars sur orbite sans quon minvite, voici le pitre Voici mes disques et puis ma zic le piment pique à pic, incite ! Jsuis lflow qui copie les tams-tams Jsuis lchaud qui tbâche par des tas dvannes Peut-être beau mais moche pour des tas dfemmes Vote sans états dâme, perds sans être un âne La fin dun monde, man, qui se trame Des bombes qui grondent en mélodrame Meeny, miny, moe, on a les minima sociaux On perd tous nos idéaux, on vit comme des animaux Okay so you had no stuff Like that growing up But you managed Sure Nuff! Yeah! So your van broke down Favourite band broke up But you managed Sure Nuff! Okay so have no luck And your plans go bust But you managed Sure Nuff! Go head let your hand go up If your life seem tough And you still standing up If you Rambo tough And still standing up Its like they favorite song Getting played all day long You hear it just came on Then you get enough and turn it off When the whole world goes wrong And all your faith is gone You cant just wait on God Gotta get yourself up get involved Y'a le name droping, les mails en copie La France qui cotise, la famille quon se coltine Les frères qui cantinent, les quelques centimes La physique quantique, les prix quon estime Les gens que lon tue, les fêtes confettis Les ordres de Poutine, le plutonium sushi La guerre, le sida, Darfour et Biafra Et puis dans tout ça lopinion du quidam Bistrot, troquet, la merde, le réel Quand jenlève la virgule la merde est réelle Objectifs, chiffres, rafles, écoles ADN, fichage, charters qui décollent Ralliement, connivence, collusion, dissension Hutu ou Tutsi, me pose jamais la question Les amours, le cur, les amis, les tourments Et lespoir dune victoire des Dinkas du Soudan Okay so you had no stuff Like that growing up But you managed Sure Nuff! Yeah! So your van broke down Favourite band broke up But you managed Sure Nuff! Okay so have no luck And your plans go bust But you managed Sure Nuff! Go head let your hand go up If your life seem tough And you still standing up If you Rambo tough And still standing up Ah Yeah! Get involved Life is hard listen When it throws rocks Get involved Carry on lift them You aint no victim We all living Trying to beat the system Youll get your highs and lows Youll win and some you wont Its like they favorite song Getting played all day long You hear it just came on Then you get enough and turn it off When the whole world goes wrong And all your faith is gone You cant just wait on God Gotta get yourself up get involved2</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Casse ton pied, ta tête, ta nuque... tout l'monde, tout l'monde... À l'époque ils voulaient pas trop, le rap, la musique afro Maintenant que tout l'monde est accroc, ouais dis-nous qui sont les patrons ? Le style un blanc bazin boubou, on fait tout appelle-nous FUBU J'fous les subs que tout bouge et secoue, j'mets le fire dans ton igloo J'frappe à coup de japs comme un nunchaku, tcheck si tu connais la ref Mwana Mboka le monde est fou t'inquiète on va réparer sa tête Allez mets tes pas dans mes pas, Kigali jusqu'à Goma Décibels à dose létale, yeah! Boumer boumer les baffes Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers Mets du sel dans ta vie tant mieux, bébé j'mets du pili-pili J'fais danser les jeunes et les vieux comme le Staff Benda Bilili Chez nous y'a pas d'tubes de l'été, non, toute l'année c'est l'été Si tu libères un peu ton esprit ton cul suivra la mélodie J'vais t'faire courber un peu l'échine mais cette fois c'est pas pour bosser Poésie pour bouger les reins, du Rhin jusqu'à la Rusizi Viens m'coller un billet sur l'front, paraît qu'bientôt le monde s'effondre Sur fond de fonte de glaçon, j'fais boumer boumer l'caisson Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers You might also likeLes infrabasses, les boomers vibrent, fais péter Allumez les briquets, l'bal masqué v'nez fêter J'construis ma vie, mon oeuvre j'suis dans le BTP Mon son lourd, mon gros boucan vous laisse hébétés C'est chaud, c'est sale, c'est sueur, suave, c'est l'été Coup dans les flancs, les dents, l'style est cap et d'épée Vos flows sont clonés, pompés, arrêtez d'téter Sans l'r.a.p j'me d'mande c'que j'aurais été J'me la coule à la douce, à la cool, je me roule, je roucoule dans mon coin Quand la foule est debout, je l'avoue, me défoule, me dévoue, lève le poing Quand y'a doute, je déroute, je dérive, je m'arrête et puis je refais le plein Puis le groove reprend, il me grise et il roule et il roule sans son frein Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers</t>
+          <t>Casse ton pied, ta tête, ta nuque... tout l'monde, tout l'monde... À l'époque ils voulaient pas trop, le rap, la musique afro Maintenant que tout l'monde est accroc, ouais dis-nous qui sont les patrons ? Le style un blanc bazin boubou, on fait tout appelle-nous FUBU J'fous les subs que tout bouge et secoue, j'mets le fire dans ton igloo J'frappe à coup de japs comme un nunchaku, tcheck si tu connais la ref Mwana Mboka le monde est fou t'inquiète on va réparer sa tête Allez mets tes pas dans mes pas, Kigali jusqu'à Goma Décibels à dose létale, yeah! Boumer boumer les baffes Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers Mets du sel dans ta vie tant mieux, bébé j'mets du pili-pili J'fais danser les jeunes et les vieux comme le Staff Benda Bilili Chez nous y'a pas d'tubes de l'été, non, toute l'année c'est l'été Si tu libères un peu ton esprit ton cul suivra la mélodie J'vais t'faire courber un peu l'échine mais cette fois c'est pas pour bosser Poésie pour bouger les reins, du Rhin jusqu'à la Rusizi Viens m'coller un billet sur l'front, paraît qu'bientôt le monde s'effondre Sur fond de fonte de glaçon, j'fais boumer boumer l'caisson Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers Les infrabasses, les boomers vibrent, fais péter Allumez les briquets, l'bal masqué v'nez fêter J'construis ma vie, mon oeuvre j'suis dans le BTP Mon son lourd, mon gros boucan vous laisse hébétés C'est chaud, c'est sale, c'est sueur, suave, c'est l'été Coup dans les flancs, les dents, l'style est cap et d'épée Vos flows sont clonés, pompés, arrêtez d'téter Sans l'r.a.p j'me d'mande c'que j'aurais été J'me la coule à la douce, à la cool, je me roule, je roucoule dans mon coin Quand la foule est debout, je l'avoue, me défoule, me dévoue, lève le poing Quand y'a doute, je déroute, je dérive, je m'arrête et puis je refais le plein Puis le groove reprend, il me grise et il roule et il roule sans son frein Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jai réservé deux billets, ouais je sais déjà Que cet été où que jaille, on bouge à Buja Bujumbura capitale de mon petit pays Moi je taime aussi de Bubanza jusquà Bururi Et jai ramené trois tondeuses à mon grand Willy Qui veut ouvrir son salon de coiffure à Buyenzi Je connais ladresse des bonnes brochettes quartier asiatique Et la Primus cest la meilleure que tu trouves en Afrique Et le dimanche Regina Mundi pour prier Après tenfiles le jogging pour courir jusquau cabaret Là-bas jhabite avenue de la Paix quartier Rohero Je la dédicace au padre car cest mon héros Ego Sha ! Eméché, fatigué pour kécher On svoit demain kecho, petite soirée Kanyosha Tes un nouvel arrivage venu pour te ressourcer Buja pour sévader tous les week-ends, ok Tugende ! Après le couvre-feu ne fait pas de gaffes, soldats peu loquaces Allô gars, viens boire un café local à lOCAF à loccaz Remonter le moral, diaspora tous en choral Tous àl de Buja Centre ou pourquoi pas Buja rural Cest la fête de Kamenge à Ngagara Venez vite au cercle nautique on fait frire le ndagala Prenez le taxi-vélo car on joue pas les riches Rendez-vous dimanche après-midi, 15h à Saga Beach You might also like Bujumbura ma vie, elle est belle ma ville Et du monde à mon avis ya les plus belles des filles Un peu de fruito, du Nido, partie de foot à Kinindo Kamambili trouées, jles ai achetées au Soko Ya des grands bwana à Kiriri et des masikinis Ya du français, du kirundi, un peu de swahili Tu peux acheter à lunité Supermatch, Ambassy Moi jpréfère de loin manger sombé et bugari Avant le départ un peu dAmstel, un pilao de mama solo A la sortie du Havana, laisse un pourboire au Maibobo Bujumbura thésites encore, moi je te dis pas la peine Tu vas aimer mon pays de la colline à la plaine</t>
+          <t>Jai réservé deux billets, ouais je sais déjà Que cet été où que jaille, on bouge à Buja Bujumbura capitale de mon petit pays Moi je taime aussi de Bubanza jusquà Bururi Et jai ramené trois tondeuses à mon grand Willy Qui veut ouvrir son salon de coiffure à Buyenzi Je connais ladresse des bonnes brochettes quartier asiatique Et la Primus cest la meilleure que tu trouves en Afrique Et le dimanche Regina Mundi pour prier Après tenfiles le jogging pour courir jusquau cabaret Là-bas jhabite avenue de la Paix quartier Rohero Je la dédicace au padre car cest mon héros Ego Sha ! Eméché, fatigué pour kécher On svoit demain kecho, petite soirée Kanyosha Tes un nouvel arrivage venu pour te ressourcer Buja pour sévader tous les week-ends, ok Tugende ! Après le couvre-feu ne fait pas de gaffes, soldats peu loquaces Allô gars, viens boire un café local à lOCAF à loccaz Remonter le moral, diaspora tous en choral Tous àl de Buja Centre ou pourquoi pas Buja rural Cest la fête de Kamenge à Ngagara Venez vite au cercle nautique on fait frire le ndagala Prenez le taxi-vélo car on joue pas les riches Rendez-vous dimanche après-midi, 15h à Saga Beach Bujumbura ma vie, elle est belle ma ville Et du monde à mon avis ya les plus belles des filles Un peu de fruito, du Nido, partie de foot à Kinindo Kamambili trouées, jles ai achetées au Soko Ya des grands bwana à Kiriri et des masikinis Ya du français, du kirundi, un peu de swahili Tu peux acheter à lunité Supermatch, Ambassy Moi jpréfère de loin manger sombé et bugari Avant le départ un peu dAmstel, un pilao de mama solo A la sortie du Havana, laisse un pourboire au Maibobo Bujumbura thésites encore, moi je te dis pas la peine Tu vas aimer mon pays de la colline à la plaine</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Un rayon de soleil, le coq, le balai qui gratte Dehors plein de bruits qui courent, dans la cour le chien à trois pattes Margarine et pain trempés dans du thé pour p'tit déjeuner La maison s'éveille et mamie sert le lait Aux murs Marie, doux Jésus, fils de Dieu le Père Et toujours en continu la radio déblatère Sur un napperon, vase de fleurs en plastique Tu égrènes ton chapelet, mamie, t'énumères tes principes Le respect, la famille, le mariage Le jacaranda en fleur déploie son ombrage C'est pas une chanson triste C'est juste un temps d'arrêt Une journée à Butare Midi pile, sonne l'Angélus Et le fond de l'air sent l'eucalyptus On part en promenade sous la voûte des arbres Je t'emmène en balade sur le grand boulevard Quand ton visage sévère se fend d'un sourire Les jacarandas se mettent à fleurir J'voudrais tout savoir d'un grand-père que j'connais pas Y'a des absents que tu ne racontes pas Et l'après-midi s'épuise lentement Aujourd'hui encore ton visage me manque C'est pas une chanson triste, c'est juste une pause, un temps d'arrêt Une journée à Butare You might also likeLe soleil se couche, Dieu rentre au Rwanda Le ciel a des teintes mauve jacaranda Quand les chauves-souris commencent leur raffut C'est l'heure des lumières blafardes qui s'allument Dans ta grande maison où tombe la nuit Passe à l'improviste quelques amies Un thé citronnelle, une mousse Amstel On parle tout bas, d'untel et untel Demain je repars vers la France lointaine Tu vas me manquer mamie comme je t'aime Comme je t'ai aimée toutes ces années C'est pas une chanson triste, c'est un temps d'arrêt</t>
+          <t>Un rayon de soleil, le coq, le balai qui gratte Dehors plein de bruits qui courent, dans la cour le chien à trois pattes Margarine et pain trempés dans du thé pour p'tit déjeuner La maison s'éveille et mamie sert le lait Aux murs Marie, doux Jésus, fils de Dieu le Père Et toujours en continu la radio déblatère Sur un napperon, vase de fleurs en plastique Tu égrènes ton chapelet, mamie, t'énumères tes principes Le respect, la famille, le mariage Le jacaranda en fleur déploie son ombrage C'est pas une chanson triste C'est juste un temps d'arrêt Une journée à Butare Midi pile, sonne l'Angélus Et le fond de l'air sent l'eucalyptus On part en promenade sous la voûte des arbres Je t'emmène en balade sur le grand boulevard Quand ton visage sévère se fend d'un sourire Les jacarandas se mettent à fleurir J'voudrais tout savoir d'un grand-père que j'connais pas Y'a des absents que tu ne racontes pas Et l'après-midi s'épuise lentement Aujourd'hui encore ton visage me manque C'est pas une chanson triste, c'est juste une pause, un temps d'arrêt Une journée à Butare Le soleil se couche, Dieu rentre au Rwanda Le ciel a des teintes mauve jacaranda Quand les chauves-souris commencent leur raffut C'est l'heure des lumières blafardes qui s'allument Dans ta grande maison où tombe la nuit Passe à l'improviste quelques amies Un thé citronnelle, une mousse Amstel On parle tout bas, d'untel et untel Demain je repars vers la France lointaine Tu vas me manquer mamie comme je t'aime Comme je t'ai aimée toutes ces années C'est pas une chanson triste, c'est un temps d'arrêt</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Parce que chaque mot est important, je le grave en italique Je viens de là où la vie ne tient qu'à une trajectoire d'objet métallique Là où la corruption, n'est qu'une gangrène, une métastase Où on te vole tout, même les points à la fin de tes phrases L'opinion publique, parait cynique, indifférente Dénoncer le mal et faire le bien sont deux choses différentes J'vais pas vous charmer, j'ai le cur décharné Depuis que mon peuple est sorti des charniers Rouget de Lisle, j'entonnerai pas ton chant de guerre à tue-tête J'suis de cette époque où la moitié du globe vit toujours sous tutelle Avec leurs droits à polluer ils nous en remettent de plus belle Nous étions déjà des damnés maintenant nous devenons leurs poubelles Y'en a ras-bord la coupelle vu toujours plus quand tout s'fait rare Ils veulent soigner tout nos problèmes mais leurs remèdes c'est du curare Mais s'ils bousillent nos fusibles pour que l'on vive dans le noir J'allumerai ma bougie pour lire, aux parois de la mémoire Le monde, j'trouve ça fade et les saletés s'affalent Parait que les peuples ça fane me disait un frère Baye Fall Ouais ça va, je fais mon temps, jamais mon argent J'attends, j'contemple donc j'apprends, j'entreprends Rien, à vrai dire, j'm'en bats les reins Dehors c'est Dublin, y'a du crachin et puis des lois d'airain J'dirais rien, j'reste pas, la vie c'est C.D.D Il me reste qu'un vieux souvenir comme un cliché de Malick Sidibé Si c'était à refaire, on viendrait parfaire Les mêmes erreurs juste frère, on viendrait pas r'faire Depuis tantôt, j'claque ma langue comme un hottentot Vu que la souche contient l'homme où on bouffe que du Monsanto Réussir c'est s'rater, c'est rapper J'fais du rap karaté à scratcher sur un Serato C'est bateau tout c'que j'dis donc j'finis la bouteille au goulot Et à la mer, mon frère, j'envoie mes skeudis J'brise la coquille, j'mélange le jaune et le blanc C'est la crise copine, les jeunes chôment sur des bancs Désolé, ce doit être un problème d'emplacement Mais vu d'ici je ne sens qu'un système oppressant On est tous à zoner, assommés On sera où quand l'heure de nous-même aura sonnée? On est tous à zoner, assommés Mais dis moi, on sera où quand l'heure de nous-même aura sonnée ?You might also like</t>
+          <t>Parce que chaque mot est important, je le grave en italique Je viens de là où la vie ne tient qu'à une trajectoire d'objet métallique Là où la corruption, n'est qu'une gangrène, une métastase Où on te vole tout, même les points à la fin de tes phrases L'opinion publique, parait cynique, indifférente Dénoncer le mal et faire le bien sont deux choses différentes J'vais pas vous charmer, j'ai le cur décharné Depuis que mon peuple est sorti des charniers Rouget de Lisle, j'entonnerai pas ton chant de guerre à tue-tête J'suis de cette époque où la moitié du globe vit toujours sous tutelle Avec leurs droits à polluer ils nous en remettent de plus belle Nous étions déjà des damnés maintenant nous devenons leurs poubelles Y'en a ras-bord la coupelle vu toujours plus quand tout s'fait rare Ils veulent soigner tout nos problèmes mais leurs remèdes c'est du curare Mais s'ils bousillent nos fusibles pour que l'on vive dans le noir J'allumerai ma bougie pour lire, aux parois de la mémoire Le monde, j'trouve ça fade et les saletés s'affalent Parait que les peuples ça fane me disait un frère Baye Fall Ouais ça va, je fais mon temps, jamais mon argent J'attends, j'contemple donc j'apprends, j'entreprends Rien, à vrai dire, j'm'en bats les reins Dehors c'est Dublin, y'a du crachin et puis des lois d'airain J'dirais rien, j'reste pas, la vie c'est C.D.D Il me reste qu'un vieux souvenir comme un cliché de Malick Sidibé Si c'était à refaire, on viendrait parfaire Les mêmes erreurs juste frère, on viendrait pas r'faire Depuis tantôt, j'claque ma langue comme un hottentot Vu que la souche contient l'homme où on bouffe que du Monsanto Réussir c'est s'rater, c'est rapper J'fais du rap karaté à scratcher sur un Serato C'est bateau tout c'que j'dis donc j'finis la bouteille au goulot Et à la mer, mon frère, j'envoie mes skeudis J'brise la coquille, j'mélange le jaune et le blanc C'est la crise copine, les jeunes chôment sur des bancs Désolé, ce doit être un problème d'emplacement Mais vu d'ici je ne sens qu'un système oppressant On est tous à zoner, assommés On sera où quand l'heure de nous-même aura sonnée? On est tous à zoner, assommés Mais dis moi, on sera où quand l'heure de nous-même aura sonnée ?</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Même au fin fond de mon petit pays, je regardais ma lucarne Les convulsions du monde nous parvenaient comme un lointain vacarme Souvent la télé s'partageait avec l'ensemble du voisinage La mondovision canapé transforme le globe en un village Les fractions d'imaginaires partageant tous la même doxa Roger Milla en Coupe du Monde et le monde danse le makossa La Guerre du Golfe de Mister Bush, avant fiston y'avait papa Et j'mattais le pillage des pipelines en bouffant mes papayes Nous étions tous les mêmes gamins rêvant d'entrer dans la Dream team Malgré l'arceau dans mon jardin j'ai jamais vu Patrick Ewing J'me suis accroché à des rêves souvent très loin d'mon quotidien J'connaissais bien moins ma culture que le western hollywoodien On pensait tenir aucun rôle dans le programme de leurs feuilletons Mais un jour en Gaule à La Baule y'a eu le discours de tonton Démocratie multipartisme, il fallait ranger les pistolets Comme rien n'est simple la guerre a éclaté, j'ai éteint ma télé C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule You might also like Pendant qu'on s'débattait dans une fournaise les autres nous regardaient Assis en charentaises à s'demander c'est quoi à la télé ? C'est quoi ces peuples qui crient à l'aide entre le fromage et le dessert ? L'humanité est plus fragile qu'une orchidée dans le désert Quand le drame est bien trop grand, il se transforme en statistiques Et Lady Di a plus de poids qu'un million de morts en Afrique L'ignorance est moins mortelle que l'indifférence aux sanglots Les hommes sont des hommes pour les hommes et les loups ne sont que des chiots Alors on agonise en silence dans un cri sans écho Et même si la technique avance, elle ne changera pas la déco On a grandi avec le poids de nos démons sur le roc des coteaux Alors donnez-nous des mots pour qu'on vous change la photo Pour qu'on écrive à hauteur d'homme ce que la télé ne montre pas Les battements du cur de mon âme est une info qui ne ment pas J'venais d'Afrique mais sans connaître Kouchner et puis son sac de riz J'ai débarqué un soir d'hiver ici avec un sac de rimes C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule J'ai perdu mon Jardin d'Eden où je me nourrissais de mangues Je suis prisonnier de mes chaînes vu qu'ici la télé commande J'l'ai rallumé dans un trois pièces d'un immeuble surchauffé J'l'ai entretenue comme le feu parce que dehors j'me les congelais Loin dans mon exil, je zappe ceux qui ont pris ma place Et quand on joue sur leur terrain c'est souvent rare qu'on te remplace J'fais une pause, le temps d'une pub Coca Cola Insérée entre un mur qui tombe et la sortie de Mandela On a grandi en continu, comme un flot d'informations Et j'me suis perdu dans ma rue, sous un amas de béton Les souvenirs de ma vie s'mélangent à toutes ces images diffusées Vivre hors champ d'la caméra c'est souvent ne pas exister On nous gave d'images à satiété, de sexe, de fric et de faucheuse Alors j'écris des textes comme un écho de nos vies silencieuses Sur leur écran on est des bouts d'pixels perdus dans la foule Et nos vies s'écoulent, coulent pendant qu'le monde s'écroule C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Et deux tours qui s'écroulent Ma jeunesse s'écoule Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent C'est cool C'est cool C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Ma jeunesse s'écoule Ma jeunesse s'écoule C'est cool C'est cool C'est cool C'est cool</t>
+          <t>Même au fin fond de mon petit pays, je regardais ma lucarne Les convulsions du monde nous parvenaient comme un lointain vacarme Souvent la télé s'partageait avec l'ensemble du voisinage La mondovision canapé transforme le globe en un village Les fractions d'imaginaires partageant tous la même doxa Roger Milla en Coupe du Monde et le monde danse le makossa La Guerre du Golfe de Mister Bush, avant fiston y'avait papa Et j'mattais le pillage des pipelines en bouffant mes papayes Nous étions tous les mêmes gamins rêvant d'entrer dans la Dream team Malgré l'arceau dans mon jardin j'ai jamais vu Patrick Ewing J'me suis accroché à des rêves souvent très loin d'mon quotidien J'connaissais bien moins ma culture que le western hollywoodien On pensait tenir aucun rôle dans le programme de leurs feuilletons Mais un jour en Gaule à La Baule y'a eu le discours de tonton Démocratie multipartisme, il fallait ranger les pistolets Comme rien n'est simple la guerre a éclaté, j'ai éteint ma télé C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Pendant qu'on s'débattait dans une fournaise les autres nous regardaient Assis en charentaises à s'demander c'est quoi à la télé ? C'est quoi ces peuples qui crient à l'aide entre le fromage et le dessert ? L'humanité est plus fragile qu'une orchidée dans le désert Quand le drame est bien trop grand, il se transforme en statistiques Et Lady Di a plus de poids qu'un million de morts en Afrique L'ignorance est moins mortelle que l'indifférence aux sanglots Les hommes sont des hommes pour les hommes et les loups ne sont que des chiots Alors on agonise en silence dans un cri sans écho Et même si la technique avance, elle ne changera pas la déco On a grandi avec le poids de nos démons sur le roc des coteaux Alors donnez-nous des mots pour qu'on vous change la photo Pour qu'on écrive à hauteur d'homme ce que la télé ne montre pas Les battements du cur de mon âme est une info qui ne ment pas J'venais d'Afrique mais sans connaître Kouchner et puis son sac de riz J'ai débarqué un soir d'hiver ici avec un sac de rimes C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule J'ai perdu mon Jardin d'Eden où je me nourrissais de mangues Je suis prisonnier de mes chaînes vu qu'ici la télé commande J'l'ai rallumé dans un trois pièces d'un immeuble surchauffé J'l'ai entretenue comme le feu parce que dehors j'me les congelais Loin dans mon exil, je zappe ceux qui ont pris ma place Et quand on joue sur leur terrain c'est souvent rare qu'on te remplace J'fais une pause, le temps d'une pub Coca Cola Insérée entre un mur qui tombe et la sortie de Mandela On a grandi en continu, comme un flot d'informations Et j'me suis perdu dans ma rue, sous un amas de béton Les souvenirs de ma vie s'mélangent à toutes ces images diffusées Vivre hors champ d'la caméra c'est souvent ne pas exister On nous gave d'images à satiété, de sexe, de fric et de faucheuse Alors j'écris des textes comme un écho de nos vies silencieuses Sur leur écran on est des bouts d'pixels perdus dans la foule Et nos vies s'écoulent, coulent pendant qu'le monde s'écroule C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Et deux tours qui s'écroulent Ma jeunesse s'écoule Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent C'est cool C'est cool C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Ma jeunesse s'écoule Ma jeunesse s'écoule C'est cool C'est cool C'est cool C'est cool</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MC agrégé de flow, diplômé de style Jai le style hostile au stylo quon veut rendre docile En un cil et son battement je te rends fossile Je vois rouge comme le printemps, le marteau, la faucille Là, faut sy faire vu que cest fort et que ça vocifère Contre les affaires de létat, les frères ont pris si ferme Les cadenas vont té-sau, Madame la Garde des Sceaux Bobodioulasso, Sankara, Burkina Faso Jsuis lassé, harassé de ma vie prise au lasso De la somme dennuis, jte fais la bise et donne lassaut Jai le seum comme les soms soms de Mogadiscio Mes mots, gars, disent cheum vu qucest chaud, jai un cur dartichaut Jviens mtarguer datterrir sur le tarmac comme un cargo Mon argot négro fait bouger le tarma de ta go Ouais jsuis le MC concis, jsuis les pompes quon cire, les lyrics quon cite Et ton flow MC bah jte le circoncis Ah ouais! Ouais j'arrive à rire, c'est l'charivari, ya! J'arrive à rive surtout, quand Paris chavire Et rien à foutre de ta iv', de ta vie naïve Rien à claquer j'suis venu enterrer Bonaparte aux Gonaïves Jai commencé à rapper pour le de-blé pour le Padre Je viens de loin tu te souviens ce que disais mon compadre Ya pas de répit dans mon combat, que des histoires de pierres tombales Du Burundi au Rwanda, guerrier je danse le Douga A la Douma cest pas détails, cest coup dthéâtre et vendetta Attends-toi à des attentats cest coup détat pour coup déclat Ecoutez bien si vous pensiez que tout est bien que tout est beau Votre dédain déteint le ciel et je deviens corbeau Esclave du paradis, paraît que cest beau sous les tropiques Des dominés sans dominants cest un équilibre estropié Trop près de mon trépas, mon pe-ra devient trépied Jai décrété que lopprimé serait sujet, que je traiterais Que je prêterais ma voix aux crève-la-faim et traîne-savates Mais au train où ça va, faut les crever tous les porte-cravates Car ce monde quils nous réservent cest de largent, cest du pouvoir Ne peuvent plus voir et ces messieurs nous emmènent tous vers un trou noir You might also like X2 Jrappe depuis mes dents de lait, depuis Pendez-les ! Bandez-les ! Ingé ste plaît mets-moi le delay que je délègue mon flow sans délai La télé embellit ces laids qui ne savent que bêler Appeler, épeler leur nom, voter pour des artistes ratés Au rabais jai gratté, jai taffé, jai tâté, jai gâté, jai goûté Ecoutez ma clique, egotrip mathématique Jsuis lflow MC carabiné atteint par un carabinier Carlo Giulani est tué par des policiers avinés Altermondialisé la terre a de quoi baliser A Gênes on a gêné les gens, maintenant faudrait faucher les champs J'suis OGM José Bové, le monde a de quoi paniquer Lhumanité en manque didées, les catastrophes en quantité Qui télécommande? Quittez le camp! Vite dans l'élan! foutez le camp! Vite, il est temps quon décampe avant que le big bang nous pète dans les dents Cest le rap game coco, cest mon charivari Jarrive à rire, ouais jarrive à rive ! X2</t>
+          <t>MC agrégé de flow, diplômé de style Jai le style hostile au stylo quon veut rendre docile En un cil et son battement je te rends fossile Je vois rouge comme le printemps, le marteau, la faucille Là, faut sy faire vu que cest fort et que ça vocifère Contre les affaires de létat, les frères ont pris si ferme Les cadenas vont té-sau, Madame la Garde des Sceaux Bobodioulasso, Sankara, Burkina Faso Jsuis lassé, harassé de ma vie prise au lasso De la somme dennuis, jte fais la bise et donne lassaut Jai le seum comme les soms soms de Mogadiscio Mes mots, gars, disent cheum vu qucest chaud, jai un cur dartichaut Jviens mtarguer datterrir sur le tarmac comme un cargo Mon argot négro fait bouger le tarma de ta go Ouais jsuis le MC concis, jsuis les pompes quon cire, les lyrics quon cite Et ton flow MC bah jte le circoncis Ah ouais! Ouais j'arrive à rire, c'est l'charivari, ya! J'arrive à rive surtout, quand Paris chavire Et rien à foutre de ta iv', de ta vie naïve Rien à claquer j'suis venu enterrer Bonaparte aux Gonaïves Jai commencé à rapper pour le de-blé pour le Padre Je viens de loin tu te souviens ce que disais mon compadre Ya pas de répit dans mon combat, que des histoires de pierres tombales Du Burundi au Rwanda, guerrier je danse le Douga A la Douma cest pas détails, cest coup dthéâtre et vendetta Attends-toi à des attentats cest coup détat pour coup déclat Ecoutez bien si vous pensiez que tout est bien que tout est beau Votre dédain déteint le ciel et je deviens corbeau Esclave du paradis, paraît que cest beau sous les tropiques Des dominés sans dominants cest un équilibre estropié Trop près de mon trépas, mon pe-ra devient trépied Jai décrété que lopprimé serait sujet, que je traiterais Que je prêterais ma voix aux crève-la-faim et traîne-savates Mais au train où ça va, faut les crever tous les porte-cravates Car ce monde quils nous réservent cest de largent, cest du pouvoir Ne peuvent plus voir et ces messieurs nous emmènent tous vers un trou noir X2 Jrappe depuis mes dents de lait, depuis Pendez-les ! Bandez-les ! Ingé ste plaît mets-moi le delay que je délègue mon flow sans délai La télé embellit ces laids qui ne savent que bêler Appeler, épeler leur nom, voter pour des artistes ratés Au rabais jai gratté, jai taffé, jai tâté, jai gâté, jai goûté Ecoutez ma clique, egotrip mathématique Jsuis lflow MC carabiné atteint par un carabinier Carlo Giulani est tué par des policiers avinés Altermondialisé la terre a de quoi baliser A Gênes on a gêné les gens, maintenant faudrait faucher les champs J'suis OGM José Bové, le monde a de quoi paniquer Lhumanité en manque didées, les catastrophes en quantité Qui télécommande? Quittez le camp! Vite dans l'élan! foutez le camp! Vite, il est temps quon décampe avant que le big bang nous pète dans les dents Cest le rap game coco, cest mon charivari Jarrive à rire, ouais jarrive à rive ! X2</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Marre de m'entendre dire ce qu'il ne faut pas Parents poules improvisés, faites-vous cuire un uf au plat Laissez moi être l'exception qui infirme la règle Un atome de plus qui souhaite imprimer la flegme Vous vous foutez de moi à coups d'où tu fous tes doigts? Dites-moi plutôt vos folies et rêves, vos doutes et foi J'repense à toute les fois où l'on m'disait t'es fou d'être toi Quand j'ai tout fait pour éviter d'étouffer sous les étoiles Je voulais parler d'amour, j'ai vomi de la bile A croire que j'ai trop respiré l'air de la ville Peine à s'orienter en zone occidentale Pris le large, côtoyé toute une faune accidentelle Tordre les mots plutôt que mordre létau Depuis très tôt j'ai discuté les ordres Époque où l'on écope des pensées de hordes En pleine guerre des métaux, l'heure de couper les cordes Dans un décor aride Refleurir les déserts Comportement à risque Dis-moi quelle est ma place? Je crois que j'suis paumé Entre le vieux sage fainéant et l'ignare diplômé Mon Dieu pardonne-moi tous les matins j'ai pêché Des poissons irréels auxquels je me suis harponné J'veux plus m'aplatir, mon horizon est vertical Leur seul Éden terrestre est un paradis fiscal L'artiste est un adulte qui crache les rêves d'un marmot Donc j'ai cassé ma voix, par terre des vers et des bris de mots Leur nez dans la poudreuse c'est tout schuss vers l'extase Les soirs de mélancolie j'me tape que des lignes de basses Souvent j'me perds moi le triste clown Entre le rap de Baudelaire et les poèmes de MF Doom J'ai peur d'être cynique, pessimiste ou défaitiste D'être un chiffre, une croix, un nom sur une liste J'ai peur mais j'me soigne Je suis un nuage de rêves suspendu à l'orage You might also like Dans un décor aride Refleurir les déserts Comportement à risque Ma musique n'est pas neutre, elle ne le sera jamais Reflet d'mon âme elle est un cheval, je n'lui mets pas d'harnais J'la monte à cru, même sur des pentes ardues Ressens l'présent, ne m'soucies pas de c'que le monde a cru Laisse l'instant me guider, mes rêves d'enfants filer On s'redéfinit en retrouvant l'sens de l'inné Débarrassé du surplus d'culpabilité J'n'essaie plus d'faire l'unanimité Juste d'être moi-même, au delà des barrières Conditionné par hier, je pars, demande à Gaël Faye Crache un arrière goût de moyen âge Comment avancer si on ne tourne pas les pages Bas les pattes, ne touches pas à mon âme si ce n'est avec douceur Je n'veux plus porter les stigmates de la douleur Dans le calme, je me reconnecte à mon être Et là vois qu'en l'autre je peux me reconnaître Jassombris lEgo pour mensoleiller La lumière cest les autres, embrasse-moi pour essayer Chérie, cest de lamour que je charrie dans mes écrits Je renverse le Ciel, quand je rappe une étoile atterrit Des astres, cest ce quon était avant le désastre Avant que le chiffre dun pays ne remplace lÉtat de grâce Remplace les rêves en fouillis, les rêves qui fourmillent Aujourdhui, les beautés humaines sont enfouies Ou en fuite, je les retrouve chez le soldat de pacifisme Le muslim qui shalom, lartiste idéaliste Mes pensées, des bégonias Offertes en bouquets de rimes aux condamnés du procès de Rivonia Culture plurielle comme ma pigmentation Tu tinterroges sur ma peau car elle te remet en question Pupille de deux Nations, je garde un il sur chacune Dans un désert de poésie, fais donation dune lagune</t>
+          <t>Marre de m'entendre dire ce qu'il ne faut pas Parents poules improvisés, faites-vous cuire un uf au plat Laissez moi être l'exception qui infirme la règle Un atome de plus qui souhaite imprimer la flegme Vous vous foutez de moi à coups d'où tu fous tes doigts? Dites-moi plutôt vos folies et rêves, vos doutes et foi J'repense à toute les fois où l'on m'disait t'es fou d'être toi Quand j'ai tout fait pour éviter d'étouffer sous les étoiles Je voulais parler d'amour, j'ai vomi de la bile A croire que j'ai trop respiré l'air de la ville Peine à s'orienter en zone occidentale Pris le large, côtoyé toute une faune accidentelle Tordre les mots plutôt que mordre létau Depuis très tôt j'ai discuté les ordres Époque où l'on écope des pensées de hordes En pleine guerre des métaux, l'heure de couper les cordes Dans un décor aride Refleurir les déserts Comportement à risque Dis-moi quelle est ma place? Je crois que j'suis paumé Entre le vieux sage fainéant et l'ignare diplômé Mon Dieu pardonne-moi tous les matins j'ai pêché Des poissons irréels auxquels je me suis harponné J'veux plus m'aplatir, mon horizon est vertical Leur seul Éden terrestre est un paradis fiscal L'artiste est un adulte qui crache les rêves d'un marmot Donc j'ai cassé ma voix, par terre des vers et des bris de mots Leur nez dans la poudreuse c'est tout schuss vers l'extase Les soirs de mélancolie j'me tape que des lignes de basses Souvent j'me perds moi le triste clown Entre le rap de Baudelaire et les poèmes de MF Doom J'ai peur d'être cynique, pessimiste ou défaitiste D'être un chiffre, une croix, un nom sur une liste J'ai peur mais j'me soigne Je suis un nuage de rêves suspendu à l'orage Dans un décor aride Refleurir les déserts Comportement à risque Ma musique n'est pas neutre, elle ne le sera jamais Reflet d'mon âme elle est un cheval, je n'lui mets pas d'harnais J'la monte à cru, même sur des pentes ardues Ressens l'présent, ne m'soucies pas de c'que le monde a cru Laisse l'instant me guider, mes rêves d'enfants filer On s'redéfinit en retrouvant l'sens de l'inné Débarrassé du surplus d'culpabilité J'n'essaie plus d'faire l'unanimité Juste d'être moi-même, au delà des barrières Conditionné par hier, je pars, demande à Gaël Faye Crache un arrière goût de moyen âge Comment avancer si on ne tourne pas les pages Bas les pattes, ne touches pas à mon âme si ce n'est avec douceur Je n'veux plus porter les stigmates de la douleur Dans le calme, je me reconnecte à mon être Et là vois qu'en l'autre je peux me reconnaître Jassombris lEgo pour mensoleiller La lumière cest les autres, embrasse-moi pour essayer Chérie, cest de lamour que je charrie dans mes écrits Je renverse le Ciel, quand je rappe une étoile atterrit Des astres, cest ce quon était avant le désastre Avant que le chiffre dun pays ne remplace lÉtat de grâce Remplace les rêves en fouillis, les rêves qui fourmillent Aujourdhui, les beautés humaines sont enfouies Ou en fuite, je les retrouve chez le soldat de pacifisme Le muslim qui shalom, lartiste idéaliste Mes pensées, des bégonias Offertes en bouquets de rimes aux condamnés du procès de Rivonia Culture plurielle comme ma pigmentation Tu tinterroges sur ma peau car elle te remet en question Pupille de deux Nations, je garde un il sur chacune Dans un désert de poésie, fais donation dune lagune</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Les âmes s'assoupissent sous la chaleur intense Et les palmiers sen balancent, des rigoles d'immondices Notre pays embourbé où le peuple est un gueux Et le ciel est suspect d'être si beau et si bleu Chaque jour est une peine, veine sous lastre brillant On muselle les rêveries depuis bien longtemps Le futur paraît vain, le tyran si puissant Mais d'où proviennent ces chants, ces voix que l'on entend ? Et sous ce grand soleil, dictateur comme un père La bouche pâteuse de rêve un jour se désaltère Humidifie ces lèvres, libère ce qu'elles retient Les formules qu'elles célèbrent et le pays qui vient Renverse la dictature, piétine ses statues On repeindra les murs m'a dit l'homme de la rue Dépoter le despote, planter des fleurs nouvelles Additionner nos cur, en faire des archipels Le soleil au zénith, la rue nous invite Nous abrite un jour, on se lève pour être libre On débat on s'agite, au départ on évite La violence quils impliquent, quils renvoient, qu'ils appliquent On répond par des rimes, on sinvente des rites On déconstruit leurs mythes, on refuse la fuite Ils nous traquent aux satellites, nous envoie l'armée, les flics L'humeur est sismique donc un jour on réplique C'est le fracas dans la ville, la bravoure du civil Et la force vient de loin, de lamour de la vie On affronte le destin chauffé à blanc sont les poings Et l'on frappe, on risposte le regard vers demain Et l'espoir qui nous porte nous aide à tenir On écrit aujourd'hui les poèmes à venir Bien qu'on tombe constamment sous le feu de leur haine S'ils nous enterrent ils perdront car nous sommes des grainesYou might also like</t>
+          <t>Les âmes s'assoupissent sous la chaleur intense Et les palmiers sen balancent, des rigoles d'immondices Notre pays embourbé où le peuple est un gueux Et le ciel est suspect d'être si beau et si bleu Chaque jour est une peine, veine sous lastre brillant On muselle les rêveries depuis bien longtemps Le futur paraît vain, le tyran si puissant Mais d'où proviennent ces chants, ces voix que l'on entend ? Et sous ce grand soleil, dictateur comme un père La bouche pâteuse de rêve un jour se désaltère Humidifie ces lèvres, libère ce qu'elles retient Les formules qu'elles célèbrent et le pays qui vient Renverse la dictature, piétine ses statues On repeindra les murs m'a dit l'homme de la rue Dépoter le despote, planter des fleurs nouvelles Additionner nos cur, en faire des archipels Le soleil au zénith, la rue nous invite Nous abrite un jour, on se lève pour être libre On débat on s'agite, au départ on évite La violence quils impliquent, quils renvoient, qu'ils appliquent On répond par des rimes, on sinvente des rites On déconstruit leurs mythes, on refuse la fuite Ils nous traquent aux satellites, nous envoie l'armée, les flics L'humeur est sismique donc un jour on réplique C'est le fracas dans la ville, la bravoure du civil Et la force vient de loin, de lamour de la vie On affronte le destin chauffé à blanc sont les poings Et l'on frappe, on risposte le regard vers demain Et l'espoir qui nous porte nous aide à tenir On écrit aujourd'hui les poèmes à venir Bien qu'on tombe constamment sous le feu de leur haine S'ils nous enterrent ils perdront car nous sommes des graines</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>J'ai des touracos dans lthorax quand j'embrasse des libellules Mets des lettres d'amour pleines danthrax, c'est du poison dans mes cellules Je tutoie les ouragans depuis qu'j'ai oublié mon nom J'suis à la mode, j'suis dans le vent, j'suis l'éolienne des pharaons Jai des colères insoumises dans mon goître de pélican Depuis qula mort fait des remises, j'achète mes cancers à trente ans Jsuis l'épilogue de mon époque, assis à la table des matières J'ai fait de mes dieux des microbes sous l'hélice des coléoptères Jsuis le rugissement de la foule, la solitude des grands félins Et dans la rumeur de la houle j'entends la mer des orphelins J'suis l'eczéma dans les nuages, j'ai des smartphones dans mon coltan À vouloir chevaucher l'orage j'ai dix mille volts dans mon sang Je suis le fils des antipodes, au fond des yeux j'ai des tympans La canne à sucre avait ses Code noir, caoutchouc de roues de paons Mémoire de larmes à la dérive, j'suis le déclin du nénuphar J'ai du lyrisme dans l'iris et le port de tête d'un Afar Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ? J'ai braconné la bête immonde dans l'terrier des peurs calfeutrées Les cancrelats sont vagabonds et leurs contours sont à la craie J'ai les névroses de l'écureuil qui vit à l'orée des chaos Dans le ventre de ces villes mille-feuilles aussi belles que des calaos Je suis l'errance de la cigogne frappée du diadème de l'exil Et j'ai la tolérance frivole sous mes plumes samba du Brésil Sans terre on finit sous le sable, dans la forêt trop capitale Paysan sous l'arbre à palabres, je cultive mon champ lexical Extraction des matières dernières, le carnassier ne voit plus ses proies J'ai dit Bye-bye, à la prochaine comme le chat du resto chinois Dans mon regard marécageux, y a l'évidence du long sommeil L'origami n'est plus un jeu quand l'incendie est un soleil J'enfile des yeux canadair pour aller chanter nos abîmes Autant pêcher dans le désert quand on s'enfonce dans nos ravines Je suis la tragédie d'une pomme, celle qui m'attire comme un aimant Je meurs de la folie des hommes et de la furie des éléments You might also like Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ? C'est l'chaos sur un teint Pepsi, moins le quart avant l'apocalypse En me disant Peut-être qu'un messie viendra Donc à quoi bon vouloir prendre des risques ? Je remets mes deux écouteurs, posé parce que dehors ça gronde et J'reste à côté du radiateur dans l'carré V.I.P. du monde L'ours bounce, bounce, bounce sur la banquise, offre des mabroukas Le tigre danse, danse, danse, dans la forêt danse le makossa La râleuse pique pense, pense, sur un air de bossa nova Qu'il n'reste que lui et lance C'est la fin des feijoadas ! Les animaux sont des punks No future pour le panda La jungle danse la funk L'insurrection ne vient pas Le colibri éteint le brasier Avec des gouttes de Coca Le gorille ne veut plus la télé Mais lire Francis Fukuyama, ah-ah-ah-ah-ah Dehors y a grabuge Mais personne ne bouge Oui monsieur le juge, après moi le déluge Dehors y a grabuge Mais personne ne bouge Oui monsieur le juge, après nous le déluge Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ?</t>
+          <t>J'ai des touracos dans lthorax quand j'embrasse des libellules Mets des lettres d'amour pleines danthrax, c'est du poison dans mes cellules Je tutoie les ouragans depuis qu'j'ai oublié mon nom J'suis à la mode, j'suis dans le vent, j'suis l'éolienne des pharaons Jai des colères insoumises dans mon goître de pélican Depuis qula mort fait des remises, j'achète mes cancers à trente ans Jsuis l'épilogue de mon époque, assis à la table des matières J'ai fait de mes dieux des microbes sous l'hélice des coléoptères Jsuis le rugissement de la foule, la solitude des grands félins Et dans la rumeur de la houle j'entends la mer des orphelins J'suis l'eczéma dans les nuages, j'ai des smartphones dans mon coltan À vouloir chevaucher l'orage j'ai dix mille volts dans mon sang Je suis le fils des antipodes, au fond des yeux j'ai des tympans La canne à sucre avait ses Code noir, caoutchouc de roues de paons Mémoire de larmes à la dérive, j'suis le déclin du nénuphar J'ai du lyrisme dans l'iris et le port de tête d'un Afar Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ? J'ai braconné la bête immonde dans l'terrier des peurs calfeutrées Les cancrelats sont vagabonds et leurs contours sont à la craie J'ai les névroses de l'écureuil qui vit à l'orée des chaos Dans le ventre de ces villes mille-feuilles aussi belles que des calaos Je suis l'errance de la cigogne frappée du diadème de l'exil Et j'ai la tolérance frivole sous mes plumes samba du Brésil Sans terre on finit sous le sable, dans la forêt trop capitale Paysan sous l'arbre à palabres, je cultive mon champ lexical Extraction des matières dernières, le carnassier ne voit plus ses proies J'ai dit Bye-bye, à la prochaine comme le chat du resto chinois Dans mon regard marécageux, y a l'évidence du long sommeil L'origami n'est plus un jeu quand l'incendie est un soleil J'enfile des yeux canadair pour aller chanter nos abîmes Autant pêcher dans le désert quand on s'enfonce dans nos ravines Je suis la tragédie d'une pomme, celle qui m'attire comme un aimant Je meurs de la folie des hommes et de la furie des éléments Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ? C'est l'chaos sur un teint Pepsi, moins le quart avant l'apocalypse En me disant Peut-être qu'un messie viendra Donc à quoi bon vouloir prendre des risques ? Je remets mes deux écouteurs, posé parce que dehors ça gronde et J'reste à côté du radiateur dans l'carré V.I.P. du monde L'ours bounce, bounce, bounce sur la banquise, offre des mabroukas Le tigre danse, danse, danse, dans la forêt danse le makossa La râleuse pique pense, pense, sur un air de bossa nova Qu'il n'reste que lui et lance C'est la fin des feijoadas ! Les animaux sont des punks No future pour le panda La jungle danse la funk L'insurrection ne vient pas Le colibri éteint le brasier Avec des gouttes de Coca Le gorille ne veut plus la télé Mais lire Francis Fukuyama, ah-ah-ah-ah-ah Dehors y a grabuge Mais personne ne bouge Oui monsieur le juge, après moi le déluge Dehors y a grabuge Mais personne ne bouge Oui monsieur le juge, après nous le déluge Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ?</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Parce que chaque mot est important, je le grave en italique Je viens de là où la vie ne tient qu'à une trajectoire d'objet métallique Là où la corruption, n'est qu'une gangrène métastase Où on te vole tout, même les points à la fin de tes phrases L'opinion publique, parait cynique, indifférente Dénoncer le mal et faire le bien sont deux choses différentes J'vais pas vous charmer, j'ai le cur décharné Depuis que mon peuple est sorti des charniers Rouget de Lisle j'entonnerai pas ton chant de guerre à tue-tête J'suis de cette époque où la moitié du globe vit toujours sous tutelle Avec leurs droits pollués ils nous en remettent de plus belle Nous étions déjà des damnés maintenant nous devenons leur poubelle Y'en a ras-bord la coupelle vu toujours plus quand tout s'fait rare Ils veulent soigner tout nos problèmes mais leurs remèdes c'est du curare Mais s'ils bousillent nos fusibles pour que l'on vive dans le noir J'allumerai ma bougie pour lire, au paroi de la mémoire Le monde, j'trouve ça fade et les saletés s'affalent Parait que les fleuves ça fane me disait un frère Baye Fall Ouais ça va, je fais mon temps, jamais mon argent J'attends, j'contemple donc j'apprends, j'entreprends Rien, à vrai dire, j'm'en bats les reins Dehors c'est du blin, y'a du crachin et puis des lois d'airain J'dirai rien, j'reste pas, la vie c'est C.D.D Il me reste qu'un vieux souvenir comme un cliché de Malick Sidibé Si c'était à refaire, on viendrait parfaire Les mêmes erreurs juste frère, on viendrait pas r'faire Depuis tantôt, j'claque ma langue comme un hottentot Vu que la souche contient l'homme où on bouffe que du Monsanto Réussir c'est s'rater, c'est rapper J'fais du rap karaté à scratcher sur un Serato C'est bateau tout c'que j'dis donc j'finis la bouteille au goulot Et à la mère, mon frère, j'envoie mes skeudis J'brise la coquille, j'mélange le jaune et le blanc C'est la crise copine, les jeunes chôment sur des bancs Désolé, ce doit être un problème d'emplacement Mais vu d'ici je ne sens qu'un système oppressant On est tous à zoner, assommés On sera où quand l'heure de nous-même aura sonnée? On est tous à zoner, assommés Mais dis moi, on sera où quand l'heure de nous-même aura sonnée?You might also like</t>
+          <t>Parce que chaque mot est important, je le grave en italique Je viens de là où la vie ne tient qu'à une trajectoire d'objet métallique Là où la corruption, n'est qu'une gangrène métastase Où on te vole tout, même les points à la fin de tes phrases L'opinion publique, parait cynique, indifférente Dénoncer le mal et faire le bien sont deux choses différentes J'vais pas vous charmer, j'ai le cur décharné Depuis que mon peuple est sorti des charniers Rouget de Lisle j'entonnerai pas ton chant de guerre à tue-tête J'suis de cette époque où la moitié du globe vit toujours sous tutelle Avec leurs droits pollués ils nous en remettent de plus belle Nous étions déjà des damnés maintenant nous devenons leur poubelle Y'en a ras-bord la coupelle vu toujours plus quand tout s'fait rare Ils veulent soigner tout nos problèmes mais leurs remèdes c'est du curare Mais s'ils bousillent nos fusibles pour que l'on vive dans le noir J'allumerai ma bougie pour lire, au paroi de la mémoire Le monde, j'trouve ça fade et les saletés s'affalent Parait que les fleuves ça fane me disait un frère Baye Fall Ouais ça va, je fais mon temps, jamais mon argent J'attends, j'contemple donc j'apprends, j'entreprends Rien, à vrai dire, j'm'en bats les reins Dehors c'est du blin, y'a du crachin et puis des lois d'airain J'dirai rien, j'reste pas, la vie c'est C.D.D Il me reste qu'un vieux souvenir comme un cliché de Malick Sidibé Si c'était à refaire, on viendrait parfaire Les mêmes erreurs juste frère, on viendrait pas r'faire Depuis tantôt, j'claque ma langue comme un hottentot Vu que la souche contient l'homme où on bouffe que du Monsanto Réussir c'est s'rater, c'est rapper J'fais du rap karaté à scratcher sur un Serato C'est bateau tout c'que j'dis donc j'finis la bouteille au goulot Et à la mère, mon frère, j'envoie mes skeudis J'brise la coquille, j'mélange le jaune et le blanc C'est la crise copine, les jeunes chôment sur des bancs Désolé, ce doit être un problème d'emplacement Mais vu d'ici je ne sens qu'un système oppressant On est tous à zoner, assommés On sera où quand l'heure de nous-même aura sonnée? On est tous à zoner, assommés Mais dis moi, on sera où quand l'heure de nous-même aura sonnée?</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Si les nuits d'été on passe des heures à regarder l'ciel À attendre le passage éclaire des étoiles filantes C'est qu'le charme de la vie à un plus beau potentiel Quand les choses sont fragiles et les secondes fuyantes L'étoile filante ne s'installe pas, elle s'envole et disparait On l'attend, on l'espère pour un plaisir furtif Il faut saisir l'instant, pas la seconde d'après Les bonheurs les plus intenses sont souvent fugitifs Le précaire ça génère, l'émotion s'accélère Pour défaire et refaire, laisser faire l'éphémère Pour se sentir vivant loin des routines amères Laisser taire l'ordinaire, laisser faire l'éphémère Rien n'est jamais fini, jamais figé, jamais éternel C'est juste un prêt la vie, un trait léger de craie dans le ciel Rien n'est jamais perdu, jamais foutu, jamais immobile Y a pas d'avant, pas d'après, rien d'indélébile sur cette Terre Que de l'éphémère Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Que de l'éphémère Laisser faire l'éphémère You might also likeLes jours passent et tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent</t>
+          <t>Si les nuits d'été on passe des heures à regarder l'ciel À attendre le passage éclaire des étoiles filantes C'est qu'le charme de la vie à un plus beau potentiel Quand les choses sont fragiles et les secondes fuyantes L'étoile filante ne s'installe pas, elle s'envole et disparait On l'attend, on l'espère pour un plaisir furtif Il faut saisir l'instant, pas la seconde d'après Les bonheurs les plus intenses sont souvent fugitifs Le précaire ça génère, l'émotion s'accélère Pour défaire et refaire, laisser faire l'éphémère Pour se sentir vivant loin des routines amères Laisser taire l'ordinaire, laisser faire l'éphémère Rien n'est jamais fini, jamais figé, jamais éternel C'est juste un prêt la vie, un trait léger de craie dans le ciel Rien n'est jamais perdu, jamais foutu, jamais immobile Y a pas d'avant, pas d'après, rien d'indélébile sur cette Terre Que de l'éphémère Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Que de l'éphémère Laisser faire l'éphémère Les jours passent et tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Je cherche le miracle mais je ne trouve que du trivial J'ai cherché mon oracle mais je n'ai trouvé qu'un rival Paraphraser son coeur c'est le foutre dans l'étau Si le coeur est le moteur il y a de la fumée sous le capot A vivre sous l'orage je ne sais que faire de l'azur Une fois cicatrisé devrais-je faire pousser des blessures Si je vide mon sac j'irais taper dans le vent Et comme l'arbre dans la plaine je repousserais obstinément Ecrire des textes, c'est enterrer des cadavres Difficle vu le contexte comme la Palestine sur le cadastre J'veux pas tourner la page, non, je referme le livre Eduquer ma rage, lui enseigner à devenir libre J'reprends du service, je vais chauffer la feuille blanche Ouvrir de nouvelles pistes, affuter mon éloquence Je reprends du début, je déconstruis, je désapprends Les phrases pour le moment sont cachées dans ma tête, je les attends.. Dix ans, dix ans, dix ans, dix ans Souvent j'ai perdu pied mais je remercie les miens J'ai fait de mes larmes de l'art, dixit un empereur éthiopien Tout ça est impudique comme de se produire en public D'où vient cette maladie de nous déverser en musique? Excusez moi famille si des fois j'en dis un peu trop J'ai remodelé ma vie avec ces mots que je pétris Peu importe le bonheur si je ne trouve pas le sens Notre monde sommeil par manque d'imprudence Merci grand Jacques pour cette grande phrase ressassée Que j'ai prise à mon compte pour essayer d'avancer Pour enfin briser mes putains d'déterminismes Les esclaves affranchis se reléveront de tout séisme J'avais des scènes de vies tatouées sous la paupière Qu'il fallait que je libère pour leur faire prendre la lumière Ce fut l'album des choix décisifs de ma vie J'ai refermé une décennie au gout du pili pili You might also likeDix ans, dix ans, dix ans, dix ans</t>
+          <t>Je cherche le miracle mais je ne trouve que du trivial J'ai cherché mon oracle mais je n'ai trouvé qu'un rival Paraphraser son coeur c'est le foutre dans l'étau Si le coeur est le moteur il y a de la fumée sous le capot A vivre sous l'orage je ne sais que faire de l'azur Une fois cicatrisé devrais-je faire pousser des blessures Si je vide mon sac j'irais taper dans le vent Et comme l'arbre dans la plaine je repousserais obstinément Ecrire des textes, c'est enterrer des cadavres Difficle vu le contexte comme la Palestine sur le cadastre J'veux pas tourner la page, non, je referme le livre Eduquer ma rage, lui enseigner à devenir libre J'reprends du service, je vais chauffer la feuille blanche Ouvrir de nouvelles pistes, affuter mon éloquence Je reprends du début, je déconstruis, je désapprends Les phrases pour le moment sont cachées dans ma tête, je les attends.. Dix ans, dix ans, dix ans, dix ans Souvent j'ai perdu pied mais je remercie les miens J'ai fait de mes larmes de l'art, dixit un empereur éthiopien Tout ça est impudique comme de se produire en public D'où vient cette maladie de nous déverser en musique? Excusez moi famille si des fois j'en dis un peu trop J'ai remodelé ma vie avec ces mots que je pétris Peu importe le bonheur si je ne trouve pas le sens Notre monde sommeil par manque d'imprudence Merci grand Jacques pour cette grande phrase ressassée Que j'ai prise à mon compte pour essayer d'avancer Pour enfin briser mes putains d'déterminismes Les esclaves affranchis se reléveront de tout séisme J'avais des scènes de vies tatouées sous la paupière Qu'il fallait que je libère pour leur faire prendre la lumière Ce fut l'album des choix décisifs de ma vie J'ai refermé une décennie au gout du pili pili Dix ans, dix ans, dix ans, dix ans</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ecoute bien ce qu'on dit ici y a pas de mots doux C'est la danse du zombie à la fête du vaudou Ouh sortez les chats c'est la razzia j'allume un brasier Moi c'est les chars comme XXX au Congo Brazza' Blah blah flow kamikaze, kalash sans par balle Ici cest lvacarme, sorti du local pour la cavale J'balance des rafales la musique est belle comme un scandale Et pour elle ma caille j'ferais Paris-Bruxelles en sandale Peu' peu' j'rappe des postillons, quand lauditeur est parapluie Jprends le taureau par les cornes et la vache par les pies Jdois trouver l'angle pour ma langue avant de faire couler l'encre Prendre de l'élan, la pensée est une coulée lente Donc où est le bic ? Où est la page ? Où est le battement de mon cur ? Où est le fric sur la table ? Où est la France de l'auteur ? Ma musique se mange avec les doigts comme du fufu Le projet c'est nous qu'on la fait appelle nous fubu Ici on boxe à la Rocky mec, donc pas besoin de ta fuckin' aide Si les condés toc en bas des blocs, cest pas pour copiner J'accumule les fausses notes, les clopinettes Les procès des trop funestes, les pauses clopes et les coffee nègres Les poches vides, trop diraient quon stagne mais les robinets sont stables On s'active et bosse depuis long time Y a que comme comme comme ça qu'on peut peaufiner son style Depuis gosse gosse j'bosse comme un forcené nostalgique Sur les mains jcomptais les clopes par dix Posté comme un tox ou un pauvre artiste J'ai vu des rhos virés atroces et des potes partir Des gamines fêlées qu'on accoste à des heures tardives Déconné, malgré les connes, les plans sales Les échecs à lécole, voyez les coups donnés dans le sac Avoue qu'il serait temps qu'on décolle tout donner dans ça Les poumons goudronnés, j'fume la prod comme une drogue indispensable You might also like Eh yo, check ma team, si tu coopères, on te laisse la vie J'évite les faux frères comme les go aux fesses fragiles La miss m'a trouvé très agile Facile, sous Range Rover, j'ai beaucoup plus de sex-appeal J'gravite autour des mêmes trafics, y'a que pour les miens que je rapplique On se couvre les uns, les autres, évite les fins tragiques Pleins sagitent, les brailleries dgadjis C'est pourtant simple lami tu me trahis, j'agis En conséquence de cause, on s'invente des torts Un conseil planque tes gosses, jvais foncer dans le décor Bande de porcs, j'peux même plus vous serrer la main A croire que j'avais déjà flairer la fin merde Pour un plein d'air, tu serais prêt à suce tout pleins de verges Refais les tes excuses ou bien crève Pleins de rêves de Berlines et de 'tasses Qui splaignent khey à XXX XXX</t>
+          <t>Ecoute bien ce qu'on dit ici y a pas de mots doux C'est la danse du zombie à la fête du vaudou Ouh sortez les chats c'est la razzia j'allume un brasier Moi c'est les chars comme XXX au Congo Brazza' Blah blah flow kamikaze, kalash sans par balle Ici cest lvacarme, sorti du local pour la cavale J'balance des rafales la musique est belle comme un scandale Et pour elle ma caille j'ferais Paris-Bruxelles en sandale Peu' peu' j'rappe des postillons, quand lauditeur est parapluie Jprends le taureau par les cornes et la vache par les pies Jdois trouver l'angle pour ma langue avant de faire couler l'encre Prendre de l'élan, la pensée est une coulée lente Donc où est le bic ? Où est la page ? Où est le battement de mon cur ? Où est le fric sur la table ? Où est la France de l'auteur ? Ma musique se mange avec les doigts comme du fufu Le projet c'est nous qu'on la fait appelle nous fubu Ici on boxe à la Rocky mec, donc pas besoin de ta fuckin' aide Si les condés toc en bas des blocs, cest pas pour copiner J'accumule les fausses notes, les clopinettes Les procès des trop funestes, les pauses clopes et les coffee nègres Les poches vides, trop diraient quon stagne mais les robinets sont stables On s'active et bosse depuis long time Y a que comme comme comme ça qu'on peut peaufiner son style Depuis gosse gosse j'bosse comme un forcené nostalgique Sur les mains jcomptais les clopes par dix Posté comme un tox ou un pauvre artiste J'ai vu des rhos virés atroces et des potes partir Des gamines fêlées qu'on accoste à des heures tardives Déconné, malgré les connes, les plans sales Les échecs à lécole, voyez les coups donnés dans le sac Avoue qu'il serait temps qu'on décolle tout donner dans ça Les poumons goudronnés, j'fume la prod comme une drogue indispensable Eh yo, check ma team, si tu coopères, on te laisse la vie J'évite les faux frères comme les go aux fesses fragiles La miss m'a trouvé très agile Facile, sous Range Rover, j'ai beaucoup plus de sex-appeal J'gravite autour des mêmes trafics, y'a que pour les miens que je rapplique On se couvre les uns, les autres, évite les fins tragiques Pleins sagitent, les brailleries dgadjis C'est pourtant simple lami tu me trahis, j'agis En conséquence de cause, on s'invente des torts Un conseil planque tes gosses, jvais foncer dans le décor Bande de porcs, j'peux même plus vous serrer la main A croire que j'avais déjà flairer la fin merde Pour un plein d'air, tu serais prêt à suce tout pleins de verges Refais les tes excuses ou bien crève Pleins de rêves de Berlines et de 'tasses Qui splaignent khey à XXX XXX</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Viens, passe dans mon block, première tour à droite Au 19 Verlaine Paul, où le hall fait squat Premier arrêt rez-de-chaussée, famille marocaine, les Houcine Qui, pour que tchi peuvent te ken', mais tout l'monde rêve de check leurs cousines Prends l'temps, monte dun étage, ça sent le mafé La famille Traoré a faim, mange, Africain naime pas les muffins Au-d'ssus, les Drouot sdéfoncent à la morphine Veulent en finir, croient le faire en finesse mais ça svoit comme un non-fumeur Le quatrième étage a brûlé Ces enculés de la Semino nont pas jugé bon d'changer d'cheminée Si tu veux piner et qu'tes pas mignon, va voir Ignès au cinquième Elle est ignoble mais, passé minuit, plein d''sky, ten as qui aiment David, au sixième, cest love story entre lui et ses chiennes Et sa PlayStation, normal, sa meuf est cheum Au septième, ça se déchaîne, Mamadou fait des siennes A la main dure sur sa femme encore un couple qui se décime Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ... You might also like Un-deux, un-deux, test micro, postillons d'antipop Textes de Pete Rock, jazzy, be-bop, pop, hip-hop Boycotteur de litotes, lyrics explicites à la Rick Ross On t'chicote, hé chica, c'était chicos Pose comme une avenue fun unity un mot Le rappeur pipelette sa devise, c'est cause toujours Les frangins, les frangins, les anciens, les anciens Et l'respect dans tout ça ? Mais on s'en pète les enceintes À digger, à sampler, archiver, à chopper H-I-P H-O-P comme chopper une H.I.V Un virus, une passion qui remplit l'espace son Des coulures de colère sur flancs d'métro et d'stations Expression d'la rue, quand le feu s'éteint pas Me dis pas qu'j'suis sympa, j'ai tous mes sens à l'affût Esclave de la cale qui s'enfuit de son étale Le hip-hop, c'est un caniveau qui vise les étoiles Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ... Ce nsont pas des grottes mais bel et bien des halls Bienvenue dans la zone à risques abritant les vestiges dune architecture dautochtones Laccent local est glauque dans lcoin, cest plutôt grec-frites Pour les matières premières, prière de se reporter au lexique Ici, le folklore déplore son côté hardcore Les colonnes de ses propres blocs sont gavées de trésors hors-normes Les légendes les plus étranges arpentent les sous-sols Où certains testaient leur coupole, les pucelles perdaient la boussole Cette bourgade nest autre quun havre de paix Le genre dart contemporain fait par de biens piètres architectes C'est dans ces HLM que nos familles élèvent leurs petits Prenez donc des clichés, je vous souhaite un bon appétit Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ...</t>
+          <t>Viens, passe dans mon block, première tour à droite Au 19 Verlaine Paul, où le hall fait squat Premier arrêt rez-de-chaussée, famille marocaine, les Houcine Qui, pour que tchi peuvent te ken', mais tout l'monde rêve de check leurs cousines Prends l'temps, monte dun étage, ça sent le mafé La famille Traoré a faim, mange, Africain naime pas les muffins Au-d'ssus, les Drouot sdéfoncent à la morphine Veulent en finir, croient le faire en finesse mais ça svoit comme un non-fumeur Le quatrième étage a brûlé Ces enculés de la Semino nont pas jugé bon d'changer d'cheminée Si tu veux piner et qu'tes pas mignon, va voir Ignès au cinquième Elle est ignoble mais, passé minuit, plein d''sky, ten as qui aiment David, au sixième, cest love story entre lui et ses chiennes Et sa PlayStation, normal, sa meuf est cheum Au septième, ça se déchaîne, Mamadou fait des siennes A la main dure sur sa femme encore un couple qui se décime Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ... Un-deux, un-deux, test micro, postillons d'antipop Textes de Pete Rock, jazzy, be-bop, pop, hip-hop Boycotteur de litotes, lyrics explicites à la Rick Ross On t'chicote, hé chica, c'était chicos Pose comme une avenue fun unity un mot Le rappeur pipelette sa devise, c'est cause toujours Les frangins, les frangins, les anciens, les anciens Et l'respect dans tout ça ? Mais on s'en pète les enceintes À digger, à sampler, archiver, à chopper H-I-P H-O-P comme chopper une H.I.V Un virus, une passion qui remplit l'espace son Des coulures de colère sur flancs d'métro et d'stations Expression d'la rue, quand le feu s'éteint pas Me dis pas qu'j'suis sympa, j'ai tous mes sens à l'affût Esclave de la cale qui s'enfuit de son étale Le hip-hop, c'est un caniveau qui vise les étoiles Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ... Ce nsont pas des grottes mais bel et bien des halls Bienvenue dans la zone à risques abritant les vestiges dune architecture dautochtones Laccent local est glauque dans lcoin, cest plutôt grec-frites Pour les matières premières, prière de se reporter au lexique Ici, le folklore déplore son côté hardcore Les colonnes de ses propres blocs sont gavées de trésors hors-normes Les légendes les plus étranges arpentent les sous-sols Où certains testaient leur coupole, les pucelles perdaient la boussole Cette bourgade nest autre quun havre de paix Le genre dart contemporain fait par de biens piètres architectes C'est dans ces HLM que nos familles élèvent leurs petits Prenez donc des clichés, je vous souhaite un bon appétit Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ...</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui Il n'y a rien d plus beau que de voir Ds joues mouillées par la joie Dans fou rire il y a fou la folie a du bon parfois Sortir de sa zone de confort, plus rien maitriser Etre heureux, c'est se sentir léger Au dessus des préjugés on vole Quand le ventre se contracte non pas par angoisse Mais parce que l'on rigole Allez-viens on se marre Les barres de rires enivrent Viens on se barre allons vivre là où les blagues défilent You might also like Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde tes larmes On m'avait dit ouais ravale-les ouais petit! J'ai chanté mes drames Maintenant je plane moi qui battait de l'aile à vrai dire J'ai chanté ma rage et mes cris Mon cur, mon espoir et mes tripes J'ai shooté le shérif, maîtrise mes rimes Mon art, mes coups, mes prises J'ai foulé de mes pas le monde Moi l'homme qui trouvait pas les mots Et j'danse, ouais j'danse coincé dans l'étau Enfonce-toi pleins d'souvenirs dans l'crâne Des lumières, des lueurs, des sourires Qu'on s'crame, qu'on s'brûle à la vie À la vue des soleils levants Ici-bas on louvoie à l'aveugle Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui...</t>
+          <t>Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui Il n'y a rien d plus beau que de voir Ds joues mouillées par la joie Dans fou rire il y a fou la folie a du bon parfois Sortir de sa zone de confort, plus rien maitriser Etre heureux, c'est se sentir léger Au dessus des préjugés on vole Quand le ventre se contracte non pas par angoisse Mais parce que l'on rigole Allez-viens on se marre Les barres de rires enivrent Viens on se barre allons vivre là où les blagues défilent Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde tes larmes On m'avait dit ouais ravale-les ouais petit! J'ai chanté mes drames Maintenant je plane moi qui battait de l'aile à vrai dire J'ai chanté ma rage et mes cris Mon cur, mon espoir et mes tripes J'ai shooté le shérif, maîtrise mes rimes Mon art, mes coups, mes prises J'ai foulé de mes pas le monde Moi l'homme qui trouvait pas les mots Et j'danse, ouais j'danse coincé dans l'étau Enfonce-toi pleins d'souvenirs dans l'crâne Des lumières, des lueurs, des sourires Qu'on s'crame, qu'on s'brûle à la vie À la vue des soleils levants Ici-bas on louvoie à l'aveugle Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui...</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Histoire d'amour Tu sais c'qu'on dit y a pas d'amour Y a que des preuves d'après le juge Toi t'existais depuis toujours Moi j'te cherchais comme une excuse Médicament sans ordonnance Evidemment t'es l'évidence Téléguidée par tes pouvoirs Auprès de toi chaque jour est victoire J'veux m'endormir à tes té-cô Eternité, coeur en dépôt Terrain miné sera notre histoire Oh, terminé de douter pour une fois Histoire d'amour Histoire d'amour Histoire d'amour Ooh Histoire d'amour Histoire d'amour Histoire d'amour Ooh You might also like J'ai trébuché, je suis tombé Tu m'as touché, j'ai succombé Obsolescence déprogrammée Je t'aime à la perpétuité Même si le monde est contre nous Je serai fort près contre toi J'me fous de la mort qui dénoue On s'dira oui comme autrefois Elles poucavent les étoiles entre elles Ont balancé c'que j'voulais te dire Toutes les belles choses que porte le ciel Ne font qu'imiter ton sourire Histoire d'amour Histoire d'amour Histoire d'amour Ooh Histoire d'amour Histoire d'amour Histoire d'amour Ooh Alléluia Ave Maria Femme-jardin ma malaria À toutes les saintes de Bahia Couleur café, parfum vanilla Ô mi Amor aux milles manies Vivre sans toi c'est mimer la vie C'est les pêchés, pire c'est l'hérésie Oh, c'est les loas loin d'Haïti Alléluia Ave Maria Femme-jardin ma malaria À toutes les saintes de Bahia Couleur café, parfum vanilla Ô mi Amor aux milles manies Vivre sans toi c'est mimer la vie C'est les pêchés, pire c'est l'hérésie Oh, c'est les loas loin d'Haïti C'est les loas loin d'Haïti Histoire d'amour</t>
+          <t>Histoire d'amour Tu sais c'qu'on dit y a pas d'amour Y a que des preuves d'après le juge Toi t'existais depuis toujours Moi j'te cherchais comme une excuse Médicament sans ordonnance Evidemment t'es l'évidence Téléguidée par tes pouvoirs Auprès de toi chaque jour est victoire J'veux m'endormir à tes té-cô Eternité, coeur en dépôt Terrain miné sera notre histoire Oh, terminé de douter pour une fois Histoire d'amour Histoire d'amour Histoire d'amour Ooh Histoire d'amour Histoire d'amour Histoire d'amour Ooh J'ai trébuché, je suis tombé Tu m'as touché, j'ai succombé Obsolescence déprogrammée Je t'aime à la perpétuité Même si le monde est contre nous Je serai fort près contre toi J'me fous de la mort qui dénoue On s'dira oui comme autrefois Elles poucavent les étoiles entre elles Ont balancé c'que j'voulais te dire Toutes les belles choses que porte le ciel Ne font qu'imiter ton sourire Histoire d'amour Histoire d'amour Histoire d'amour Ooh Histoire d'amour Histoire d'amour Histoire d'amour Ooh Alléluia Ave Maria Femme-jardin ma malaria À toutes les saintes de Bahia Couleur café, parfum vanilla Ô mi Amor aux milles manies Vivre sans toi c'est mimer la vie C'est les pêchés, pire c'est l'hérésie Oh, c'est les loas loin d'Haïti Alléluia Ave Maria Femme-jardin ma malaria À toutes les saintes de Bahia Couleur café, parfum vanilla Ô mi Amor aux milles manies Vivre sans toi c'est mimer la vie C'est les pêchés, pire c'est l'hérésie Oh, c'est les loas loin d'Haïti C'est les loas loin d'Haïti Histoire d'amour</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>In the beginning, God created the heavens and earth You sang 7 notes, the big bang in your throat, framed in creation and proclaim that it's dope The word was God and the beginning when He spoke Through the quote of a quote, the quote of a quote You sang 7 notes, the big bang in your throat, framed and creation and proclaim that its dope The word was God and the beginning when He spoke Through the quote of a quote, the quote of the quote On the first day of creation, he created the light it's day 1 It all started with a formless void, until the Lord clapped His hands together, joy jumping outta the noise Heard the face of the deep water reflected His poise, while He hovered over silence, still selecting His choice Touch His hands to His eye just to ready His sight and let His voice rang out now let there be light And it was good, dark split apart quick fast leavin' thus He separated the morning from the evening Breathe in another gale force into His chest, called the light day, God almighty still described it best He called the dark night like only He could Yeah, 1 day down and He saw that it was good On the second day, he created the firmament You might also like And when the morning face came in and blow kisses to its ebony now mister and misses, this is a new birth Water was broken, yoke equally given to earth when His word was spoke, separation, expansion from land to sky Was now made in His perfect plan, so when we see the stars, a view from a collection of atmospheric sessions We recognize His blessings, it's not a simple thought, we brainstorm in clouds as He delivers every thunderous rain, it's all now I'm seeing, all of this shall work as it should Yeah, 2 days down and he found that it was good On the third day, He created the land, trees and the waters There was evening and morning, it came without warning, in perfect series the earth was dawnin', from one thought, everything One breath is all of breathing, words can't come close to the gifts You were leaving, in one hand, every mountain The other, all the seas, You thunder-clapped them together, flooded it with trees The rocks hug side by side and packed themselves in dirt and hold on for life to build the earth for what it's worth The seas stretched out fingers grasping for the rivers, the crops bow down to the sun so fruit that can deliver At first light the invention, earth and water has been glued 3 days down and He saw that it was good On the fourth day, He created the sun, moon and stars Diggin' deep, both hands in the sky's expansion, the shimmerin' glimmer deliver lights that's dancin' The flash and the crack, deep space looking desolate, the night He called it a day, ripped 'em until they're separate The light of the world with darkness to kill, marking days into years, before it, time stood still Sun for the measurement, moon like it's heaven sent, reason for the season and He made where the weather went The moon took over when the sun need a getaway, licked his palm, smudged the stars in the milky way Two lights govern, night and morning understood 4 days down and He said that it was good On the fifth day, He created the fishes of the mighty deep and the birds of the air Day 5, I watch as the waters explode with a swell, the breath of life blown across the sea floor shelves Every kind of sea creature from marlins to whales, from sharks to dolphins and manatees to snails God prevails in His timing and precision creating all species so I stay careful to listen Not a single one missin' 'cause I've counted 'em all and I look up to the sky 'cause I hear Him sounding the call With a rush I see airborn life in a winged form, He told them to be fruitful so new seeds could be born He spoke life with authority and all was understood 5 days down and He found that it was good On the sixth day, He created the animals and late that evening He made man in His own image and man became a living soul 4 rivers convened in the garden of Eden, all the brush needs tending and the soil needs seedin' Rain never left a cloud, this world reflects its infancy, the moisture from the ground manifested in its destiny One being of flesh to monitor the harvest, to name all the beasts, no job could be hardest, the Master said to do it It was no questions asked, he had respect for his Maker and his difficult task, fell into a deep sleep, awoken with help A beautiful creation built from inside of himself, the two became flesh as God said that it should 6 days down and He saw that it was good The artist is divine, reclined on the downs, the grass spilled a dewy hill that pillowed His crown He blew a cloud billow, r.e.m. sleeping so sound, stretched His legs across a winding river finding the ground Six days grinding down, finally surrounded Himself with the masterpiece of peaceful renown No equal found and He knew that it was perfect, so He set apart the seventh day for worship The cure fit to recharge the circuits, starving for their purpose, we're the many verses in this lullaby to earth It's slumbered in the thunder, heaven's under the hood 7 days down and He said that it was good You sang 7 notes, the big bang in Your throat, framed in creation the genesis of our hope The word was God in the beginning when He spoke Through the quote of a quote, the quote of a quote You sang 7 notes, the big bang in Your throat, framed in creation the genesis of all hope The word was God in the beginning when He spoke Through the quote of a quote, the quote of unquote</t>
+          <t>In the beginning, God created the heavens and earth You sang 7 notes, the big bang in your throat, framed in creation and proclaim that it's dope The word was God and the beginning when He spoke Through the quote of a quote, the quote of a quote You sang 7 notes, the big bang in your throat, framed and creation and proclaim that its dope The word was God and the beginning when He spoke Through the quote of a quote, the quote of the quote On the first day of creation, he created the light it's day 1 It all started with a formless void, until the Lord clapped His hands together, joy jumping outta the noise Heard the face of the deep water reflected His poise, while He hovered over silence, still selecting His choice Touch His hands to His eye just to ready His sight and let His voice rang out now let there be light And it was good, dark split apart quick fast leavin' thus He separated the morning from the evening Breathe in another gale force into His chest, called the light day, God almighty still described it best He called the dark night like only He could Yeah, 1 day down and He saw that it was good On the second day, he created the firmament And when the morning face came in and blow kisses to its ebony now mister and misses, this is a new birth Water was broken, yoke equally given to earth when His word was spoke, separation, expansion from land to sky Was now made in His perfect plan, so when we see the stars, a view from a collection of atmospheric sessions We recognize His blessings, it's not a simple thought, we brainstorm in clouds as He delivers every thunderous rain, it's all now I'm seeing, all of this shall work as it should Yeah, 2 days down and he found that it was good On the third day, He created the land, trees and the waters There was evening and morning, it came without warning, in perfect series the earth was dawnin', from one thought, everything One breath is all of breathing, words can't come close to the gifts You were leaving, in one hand, every mountain The other, all the seas, You thunder-clapped them together, flooded it with trees The rocks hug side by side and packed themselves in dirt and hold on for life to build the earth for what it's worth The seas stretched out fingers grasping for the rivers, the crops bow down to the sun so fruit that can deliver At first light the invention, earth and water has been glued 3 days down and He saw that it was good On the fourth day, He created the sun, moon and stars Diggin' deep, both hands in the sky's expansion, the shimmerin' glimmer deliver lights that's dancin' The flash and the crack, deep space looking desolate, the night He called it a day, ripped 'em until they're separate The light of the world with darkness to kill, marking days into years, before it, time stood still Sun for the measurement, moon like it's heaven sent, reason for the season and He made where the weather went The moon took over when the sun need a getaway, licked his palm, smudged the stars in the milky way Two lights govern, night and morning understood 4 days down and He said that it was good On the fifth day, He created the fishes of the mighty deep and the birds of the air Day 5, I watch as the waters explode with a swell, the breath of life blown across the sea floor shelves Every kind of sea creature from marlins to whales, from sharks to dolphins and manatees to snails God prevails in His timing and precision creating all species so I stay careful to listen Not a single one missin' 'cause I've counted 'em all and I look up to the sky 'cause I hear Him sounding the call With a rush I see airborn life in a winged form, He told them to be fruitful so new seeds could be born He spoke life with authority and all was understood 5 days down and He found that it was good On the sixth day, He created the animals and late that evening He made man in His own image and man became a living soul 4 rivers convened in the garden of Eden, all the brush needs tending and the soil needs seedin' Rain never left a cloud, this world reflects its infancy, the moisture from the ground manifested in its destiny One being of flesh to monitor the harvest, to name all the beasts, no job could be hardest, the Master said to do it It was no questions asked, he had respect for his Maker and his difficult task, fell into a deep sleep, awoken with help A beautiful creation built from inside of himself, the two became flesh as God said that it should 6 days down and He saw that it was good The artist is divine, reclined on the downs, the grass spilled a dewy hill that pillowed His crown He blew a cloud billow, r.e.m. sleeping so sound, stretched His legs across a winding river finding the ground Six days grinding down, finally surrounded Himself with the masterpiece of peaceful renown No equal found and He knew that it was perfect, so He set apart the seventh day for worship The cure fit to recharge the circuits, starving for their purpose, we're the many verses in this lullaby to earth It's slumbered in the thunder, heaven's under the hood 7 days down and He said that it was good You sang 7 notes, the big bang in Your throat, framed in creation the genesis of our hope The word was God in the beginning when He spoke Through the quote of a quote, the quote of a quote You sang 7 notes, the big bang in Your throat, framed in creation the genesis of all hope The word was God in the beginning when He spoke Through the quote of a quote, the quote of unquote</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Entendez le tic-tac du pic du talon qui claque Laissant derrière soit un cadavre chaud dans des draps de soie La lune s'incline, une silhouette de femme s'éclipse Et les réverbères illuminent les pas de la fleur de lys Aucun indice dans cette chambre de rez-de-chaussée Si ce n'est un café brûlant sur la table de l'achevé La nuit s'enfonce un peu plus vers l'aube qui s'annonce Et demain sur les lieux du crime on cherchera des réponses Mais pour l'instant, l'assassine, hèle d'un signe Le premier taxi qui s'arrête, elle assise, il repart de suite Rétroviseur de sa pensée, aucun flash-back Ce serait méconnaître Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack L'inspecteur Harry Ndongala est chargé de l'enquête Bientôt des mois qu'il se tire le peu de cheveux lui restant sur la tête Ça fait ses crimes et six victimes, sans crier, sans hémoglobine Sacristie, il se dit qu'c'est digne d'un Agatha Christie Le mode opératoire, un café noir à boire, un motel ou un bar Peu importe pour l'instant, les preuves sont dérisoires C'est la gadji à la PJ, comme dans sa vie Alors il abuse du whisky et prend congé de son médecin légiste Une fois n'est pas coutume, ce soir il dîne en charmante compagnie D'une jolie brune rencontrée un soir de pluie Il ignore encore tout de celle qui met son cur en vrac Mais ce soir, Harry Ndongala rencontre Jackie Jacky Jack You might also like Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack D'elle, il admire tout les gestes de ses mains Ou cette mouche au coin supérieur de sa bouche carmin Ses lèvres sont des brasiers qu'il rêverait d'embrasser Au fond de ce troquet coquet aux lumières tamisées Elle tient du bout des doigts un porte cigarette Il parle, elle le regarde mystérieuse et le temps s'arrête Subjugué, l'inspecteur en oublie son enquête Mais une intuition, un élément vient troubler la fête Il flanche, comprend ce qu'il vient d'avaler En reposant sur la nappe blanche, sa tasse de café Quand elle se lève, il tombe, arrêt cardiaque Lui aussi succombe à Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack</t>
+          <t>Entendez le tic-tac du pic du talon qui claque Laissant derrière soit un cadavre chaud dans des draps de soie La lune s'incline, une silhouette de femme s'éclipse Et les réverbères illuminent les pas de la fleur de lys Aucun indice dans cette chambre de rez-de-chaussée Si ce n'est un café brûlant sur la table de l'achevé La nuit s'enfonce un peu plus vers l'aube qui s'annonce Et demain sur les lieux du crime on cherchera des réponses Mais pour l'instant, l'assassine, hèle d'un signe Le premier taxi qui s'arrête, elle assise, il repart de suite Rétroviseur de sa pensée, aucun flash-back Ce serait méconnaître Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack L'inspecteur Harry Ndongala est chargé de l'enquête Bientôt des mois qu'il se tire le peu de cheveux lui restant sur la tête Ça fait ses crimes et six victimes, sans crier, sans hémoglobine Sacristie, il se dit qu'c'est digne d'un Agatha Christie Le mode opératoire, un café noir à boire, un motel ou un bar Peu importe pour l'instant, les preuves sont dérisoires C'est la gadji à la PJ, comme dans sa vie Alors il abuse du whisky et prend congé de son médecin légiste Une fois n'est pas coutume, ce soir il dîne en charmante compagnie D'une jolie brune rencontrée un soir de pluie Il ignore encore tout de celle qui met son cur en vrac Mais ce soir, Harry Ndongala rencontre Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack D'elle, il admire tout les gestes de ses mains Ou cette mouche au coin supérieur de sa bouche carmin Ses lèvres sont des brasiers qu'il rêverait d'embrasser Au fond de ce troquet coquet aux lumières tamisées Elle tient du bout des doigts un porte cigarette Il parle, elle le regarde mystérieuse et le temps s'arrête Subjugué, l'inspecteur en oublie son enquête Mais une intuition, un élément vient troubler la fête Il flanche, comprend ce qu'il vient d'avaler En reposant sur la nappe blanche, sa tasse de café Quand elle se lève, il tombe, arrêt cardiaque Lui aussi succombe à Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Shake Senora ... Senora, viens on saute sur la piste On se prouve que l'on vit, qu'on existe On résiste, bien qu'on doute, qu'on hésite On écoute les battements d'coeur, les signes Tant d'hélas , d' à quoi bon qu'on remplacera Par nos rêves qu'on embrassera Viens on danse sur ces mots doux Cette santeria, cette magie noire, ce vaudou Shake Senora ... J'ai chanté les hauts, j'ai chanté les bas Sans attendre la victoire Inventer des mondes, ré-enchanter l'aube Sans attendre le grand soir J'ai bravé tous les dangers Senora Toute cette beauté qu'on a fait c'est nos larmes Venant de l'au-delà, la musique est pour l'âme Des chants d'Alabama aux prières de Brahmanes J'avance, marche sur des lames, enjambe des coulées d'lave Le diable dans les parages frotte façon Kizumba Je vis dans mes chaos, je rembobine mes larmes, je reprends à zéro Je tire à rêves réels, la gâchette à mes lèvres Les mots fusent dans le ciel, se logent dans des comètes Shake Senora ... Jump in the line Rock you body in time De la mer brillante Caraïbe aux rives Tanganyika Combien de fois sommes-nous tombés ? et pourtant ... Nous venons de si loin que l'on s'étonne encore d'être là Juchés sur les épaules des géants ... Jump in the line Rock you body in timeYou might also like</t>
+          <t>Shake Senora ... Senora, viens on saute sur la piste On se prouve que l'on vit, qu'on existe On résiste, bien qu'on doute, qu'on hésite On écoute les battements d'coeur, les signes Tant d'hélas , d' à quoi bon qu'on remplacera Par nos rêves qu'on embrassera Viens on danse sur ces mots doux Cette santeria, cette magie noire, ce vaudou Shake Senora ... J'ai chanté les hauts, j'ai chanté les bas Sans attendre la victoire Inventer des mondes, ré-enchanter l'aube Sans attendre le grand soir J'ai bravé tous les dangers Senora Toute cette beauté qu'on a fait c'est nos larmes Venant de l'au-delà, la musique est pour l'âme Des chants d'Alabama aux prières de Brahmanes J'avance, marche sur des lames, enjambe des coulées d'lave Le diable dans les parages frotte façon Kizumba Je vis dans mes chaos, je rembobine mes larmes, je reprends à zéro Je tire à rêves réels, la gâchette à mes lèvres Les mots fusent dans le ciel, se logent dans des comètes Shake Senora ... Jump in the line Rock you body in time De la mer brillante Caraïbe aux rives Tanganyika Combien de fois sommes-nous tombés ? et pourtant ... Nous venons de si loin que l'on s'étonne encore d'être là Juchés sur les épaules des géants ... Jump in the line Rock you body in time</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ce soir c'est la pression Je vois le réel de trop près Les insignes des agents Au sol, nos silhouettes à la craie Jai beau fermer les yeux Je néchappe jamais du ciment Et au loin, le chant des sirènes Ne vient jamais de locéan Ici tout a un prix Même lorsquon se dit je taime On vit tous dans le gaz On fait des rêves kerozen Eh eh eh, eh eh, eh h Rêves kerozen Eh h eh, eh eh, eh eh Rêves kerozen Eh eh eh, eh eh, eh eh Rêves kerozen Eh eh eh, eh eh Mon cur est sous pression Jembrasse ton visage cagoulé Ton âme est une prison Tes yeux des vitres teintées Je regarde au fin fond Je ne vois rien dautre que mon reflet On marche ensemble sans se parler Des mots tranchants râpent le palais Je voudrais comprendre tes sanglots, tes soupirs, tes silences Avoir les sous-titres Je veux tenvoler loin dici, du ciment Au-delà des forêts de bâtiments You might also like Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Ton silence est dor et la route est sombre Lexistence mord comme un coup de tesson Je rêve, je dors, je vis sous pression La ville dehors est comme sous caisson Un croissant de lune séteint et sallume Donne moi lamour que je nai pas eu Et je toffrirai ce que tu nas jamais vu Un vaste horizon caché derrière le talus Je veux tenvoler Tinventer des contrées Temmener, tévader Au large, au large, au large Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles</t>
+          <t>Ce soir c'est la pression Je vois le réel de trop près Les insignes des agents Au sol, nos silhouettes à la craie Jai beau fermer les yeux Je néchappe jamais du ciment Et au loin, le chant des sirènes Ne vient jamais de locéan Ici tout a un prix Même lorsquon se dit je taime On vit tous dans le gaz On fait des rêves kerozen Eh eh eh, eh eh, eh h Rêves kerozen Eh h eh, eh eh, eh eh Rêves kerozen Eh eh eh, eh eh, eh eh Rêves kerozen Eh eh eh, eh eh Mon cur est sous pression Jembrasse ton visage cagoulé Ton âme est une prison Tes yeux des vitres teintées Je regarde au fin fond Je ne vois rien dautre que mon reflet On marche ensemble sans se parler Des mots tranchants râpent le palais Je voudrais comprendre tes sanglots, tes soupirs, tes silences Avoir les sous-titres Je veux tenvoler loin dici, du ciment Au-delà des forêts de bâtiments Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Ton silence est dor et la route est sombre Lexistence mord comme un coup de tesson Je rêve, je dors, je vis sous pression La ville dehors est comme sous caisson Un croissant de lune séteint et sallume Donne moi lamour que je nai pas eu Et je toffrirai ce que tu nas jamais vu Un vaste horizon caché derrière le talus Je veux tenvoler Tinventer des contrées Temmener, tévader Au large, au large, au large Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Je t'ai dans les os Un peu malgré moi L'appel est si fort Que je me perds un peu parfois Qui on est où l'on va ? Au moins je sais qu'un bout de mon âme demeure chez toi Kongo A l'image de ton fleuve Ton tumulte m'émeut Et arrache tous mes masques À nue je me jette à l'eau Quel rôle m'offres-tu ? Quel enfant suis-je pour toi ? Le sage ou le têtu ? Clui qui t'aime en tout cas, te l'ai-j dis, le sais-tu ? Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai danser Kongo Avec toi j'aimerai avancer vers des jours plus beaux Au pays mien Présent passé Le futur un sentier de Bohémiens Bout de toi, bout de ton âme Je suis Ta sueur et tes larmes j'essuie Enfant du fleuve des forêts et des villes Cupidon a dévoré nos vies J'ai lu chaque ligne de la lettre à Pauline Au fond de l'abîme, j'ai vu l'aurore opaline Avance Je trébuche, mais j'avance Vers des jours plus heureux Je danse des rwomba raturées aux guitares saturées Mégaphone à tue-tête pour chanter You might also like Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Je vais pas dévoiler les trésors de mon âme Ce secret qui n'en est plus un Ton cur qui bat au même rythme que le mien Oh non nous ne sommes pas séparés Congolaises, Congolais Honorons notre royaume de secrets Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Avec toi j'aimerai me lever Kongo Avec toi j'aimerai danser Kongo Avec toi j'aimerai avancer vers des jours plus beaux</t>
+          <t>Je t'ai dans les os Un peu malgré moi L'appel est si fort Que je me perds un peu parfois Qui on est où l'on va ? Au moins je sais qu'un bout de mon âme demeure chez toi Kongo A l'image de ton fleuve Ton tumulte m'émeut Et arrache tous mes masques À nue je me jette à l'eau Quel rôle m'offres-tu ? Quel enfant suis-je pour toi ? Le sage ou le têtu ? Clui qui t'aime en tout cas, te l'ai-j dis, le sais-tu ? Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai danser Kongo Avec toi j'aimerai avancer vers des jours plus beaux Au pays mien Présent passé Le futur un sentier de Bohémiens Bout de toi, bout de ton âme Je suis Ta sueur et tes larmes j'essuie Enfant du fleuve des forêts et des villes Cupidon a dévoré nos vies J'ai lu chaque ligne de la lettre à Pauline Au fond de l'abîme, j'ai vu l'aurore opaline Avance Je trébuche, mais j'avance Vers des jours plus heureux Je danse des rwomba raturées aux guitares saturées Mégaphone à tue-tête pour chanter Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Je vais pas dévoiler les trésors de mon âme Ce secret qui n'en est plus un Ton cur qui bat au même rythme que le mien Oh non nous ne sommes pas séparés Congolaises, Congolais Honorons notre royaume de secrets Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Avec toi j'aimerai me lever Kongo Avec toi j'aimerai danser Kongo Avec toi j'aimerai avancer vers des jours plus beaux</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Au-dessus d'ces collines s'élève ma voix à jamais Ô mon petit pays, ô Rwanda bien-aimé Un million de gouttes d'eau qui tombent de terre en ciel Un million de nos tombes en trombes torrentielles De nos fosses profondes à nos points culminants Nous sommes debout maintenant les cheveux dans le vent À conjurer le sort qu'un désastre englouti À se dire qu'on est fort, qu'on vient de l'infini Je rêve de vous kwibuka I'm dreamin' of you kwibuka Je rêve de vous, chanson d'un soir d'ivoire Je rêve de vous, mes mots sont dérisoires Je rêve de vous quand l'Histoire nous égare Je rêve debout au jardin des mémoires Et vu que je renais déjà de nos abysses Je fais de nos sourires d'éternelles cicatrices Et j'arpente la vie sans jamais oublier Qu'un orage en avril, qu'un soleil en juillet Tuzahora tubashimira tubazirikana Tubibuka mubihe byiza twagiranye Tuzahora tubahesha agaciro Tubibuka n'ubupfura bubaranga Je rêve de vous kwibuka I'm dreamin' of you kwibuka Je rêve de vous Vous mes lumières invaincues Mon souvenir Mes silences nus Je rêve de vous Dissipe les ténèbres Je n'oublie pas Je m'habille de vos rêvesYou might also like</t>
+          <t>Au-dessus d'ces collines s'élève ma voix à jamais Ô mon petit pays, ô Rwanda bien-aimé Un million de gouttes d'eau qui tombent de terre en ciel Un million de nos tombes en trombes torrentielles De nos fosses profondes à nos points culminants Nous sommes debout maintenant les cheveux dans le vent À conjurer le sort qu'un désastre englouti À se dire qu'on est fort, qu'on vient de l'infini Je rêve de vous kwibuka I'm dreamin' of you kwibuka Je rêve de vous, chanson d'un soir d'ivoire Je rêve de vous, mes mots sont dérisoires Je rêve de vous quand l'Histoire nous égare Je rêve debout au jardin des mémoires Et vu que je renais déjà de nos abysses Je fais de nos sourires d'éternelles cicatrices Et j'arpente la vie sans jamais oublier Qu'un orage en avril, qu'un soleil en juillet Tuzahora tubashimira tubazirikana Tubibuka mubihe byiza twagiranye Tuzahora tubahesha agaciro Tubibuka n'ubupfura bubaranga Je rêve de vous kwibuka I'm dreamin' of you kwibuka Je rêve de vous Vous mes lumières invaincues Mon souvenir Mes silences nus Je rêve de vous Dissipe les ténèbres Je n'oublie pas Je m'habille de vos rêves</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Grands corps malade Ils m'ont dit pourquoi tu parles pas de ça, pourquoi tu t'engages pas Tu vois bien qu'y a une urgence, pourquoi tu rentres pas dans le débat Alors c'est ça les artistes hein, ça fait genre ça se questionne Mais dès que faut prendre position ça y est y'a plus personne On m'appelle pour mettre mon nom sur des tas de pétitions On me force à mettre tout un tas de bonnes causes en compétition Et pourquoi aux élections t'as pas choisi ton candidat Vins pas t'plaindre quand tu verras dans quel mond ton fils grandira Ils m'ont dit mais t'es qui toi pour nous donner ton avis Vas-y casse nous pas les couilles arrête de raconter ta vie T'as vendu quelques albums, tu te sens fort et tu te sens chaud Et tu donnes ta petite opinion d'artiste bobo gaucho Allez, c'est ça commente-nous l'actu, fais ton p'tit son mensuel Sors-nous ta science sur quelques sujets pas trop consensuels On m'a dit laisse parler ceux qui savent, t'invente pas une utilité Je me perds dans toutes ces questions de légitimité Ben Mazué Je sais un peu l'amour je peux en parler j'ai vécu quelques trucs Je sais un peu les enfants Je sais un peu la mort je peux en parler J'ai vécu quelques trucs J'ai passé 10 ans A plus dormir à l'hôpital que dans ma maison Forcément je sais de quoi on parle quand c'est de la chanson Mais c'est tout ce que je sais You might also likeC'est tout ce que je dirai C'est tout ce que je connais C'est tout ce que je connais Et dans tout ce que je fais J'essaie de taffer le sujet Y'a rien qui me plait moins Que celui qui se permet De parler de ce qu'il a sur-survolé Qui montre du doigt Qui condamne et qui sait Y'a les méchants là-bas Les gentils on les connaît Gaël Faye Aucune chanson ne transforme le monde J'suis un artiste, j'suis pas de l'ornement Alors même si j'vis pas sous les bombes J'peux dénoncer, m'indigner sincèrement Entre les vents froids de la banquise Et l'édredon de nos couardises Souvent j'hésite, me ravise Tourne sept fois ma langue Me méfie de ma propre bêtise Parler c'est prendre position Se taire c'est prendre position J'crois aux rêves pas aux révolutions J'veux des réponses donc j'fabrique des questions Qu'est-ce qu'on attend pour foutre le zbeul J'veux chanter, j'veux rapper, alerter, témoigner J'veux cracher des tempêtes, allumer des brasiers Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Extraits d'interviews Moi j'aurai pas l'temps, je l'sais déjà qu'j'ai pas l'temps, j'ai juste le temps de me mettre en colère J'me suis pas dit un jour Tiens j'vais faire des chansons engagées Alors quand on vient m'parler de chansons engagées à l'heure actuelle Lengagement en scène c'est pas du martyre hein faut pas exagérer J'vais vous dire le terme engagé m'a toujours embêté Y'a trente ans jamais on n'aurait imaginé que des musiciens aient autant la parole et se mêlent autant de politique Quand j'aurai le temps une minute de m'énerver J'ai écrit des chansons sur ce que j'avais envie de dire</t>
+          <t>Grands corps malade Ils m'ont dit pourquoi tu parles pas de ça, pourquoi tu t'engages pas Tu vois bien qu'y a une urgence, pourquoi tu rentres pas dans le débat Alors c'est ça les artistes hein, ça fait genre ça se questionne Mais dès que faut prendre position ça y est y'a plus personne On m'appelle pour mettre mon nom sur des tas de pétitions On me force à mettre tout un tas de bonnes causes en compétition Et pourquoi aux élections t'as pas choisi ton candidat Vins pas t'plaindre quand tu verras dans quel mond ton fils grandira Ils m'ont dit mais t'es qui toi pour nous donner ton avis Vas-y casse nous pas les couilles arrête de raconter ta vie T'as vendu quelques albums, tu te sens fort et tu te sens chaud Et tu donnes ta petite opinion d'artiste bobo gaucho Allez, c'est ça commente-nous l'actu, fais ton p'tit son mensuel Sors-nous ta science sur quelques sujets pas trop consensuels On m'a dit laisse parler ceux qui savent, t'invente pas une utilité Je me perds dans toutes ces questions de légitimité Ben Mazué Je sais un peu l'amour je peux en parler j'ai vécu quelques trucs Je sais un peu les enfants Je sais un peu la mort je peux en parler J'ai vécu quelques trucs J'ai passé 10 ans A plus dormir à l'hôpital que dans ma maison Forcément je sais de quoi on parle quand c'est de la chanson Mais c'est tout ce que je sais C'est tout ce que je dirai C'est tout ce que je connais C'est tout ce que je connais Et dans tout ce que je fais J'essaie de taffer le sujet Y'a rien qui me plait moins Que celui qui se permet De parler de ce qu'il a sur-survolé Qui montre du doigt Qui condamne et qui sait Y'a les méchants là-bas Les gentils on les connaît Gaël Faye Aucune chanson ne transforme le monde J'suis un artiste, j'suis pas de l'ornement Alors même si j'vis pas sous les bombes J'peux dénoncer, m'indigner sincèrement Entre les vents froids de la banquise Et l'édredon de nos couardises Souvent j'hésite, me ravise Tourne sept fois ma langue Me méfie de ma propre bêtise Parler c'est prendre position Se taire c'est prendre position J'crois aux rêves pas aux révolutions J'veux des réponses donc j'fabrique des questions Qu'est-ce qu'on attend pour foutre le zbeul J'veux chanter, j'veux rapper, alerter, témoigner J'veux cracher des tempêtes, allumer des brasiers Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Extraits d'interviews Moi j'aurai pas l'temps, je l'sais déjà qu'j'ai pas l'temps, j'ai juste le temps de me mettre en colère J'me suis pas dit un jour Tiens j'vais faire des chansons engagées Alors quand on vient m'parler de chansons engagées à l'heure actuelle Lengagement en scène c'est pas du martyre hein faut pas exagérer J'vais vous dire le terme engagé m'a toujours embêté Y'a trente ans jamais on n'aurait imaginé que des musiciens aient autant la parole et se mêlent autant de politique Quand j'aurai le temps une minute de m'énerver J'ai écrit des chansons sur ce que j'avais envie de dire</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Donc on avait parlé une fois des vagues. L'idée que, si t'apprends pas à nager, tu t'prends les vagues dans la gueule. quelques fois t'es emporté, quelques fois t'as la tête sous l'eau. Tu bois la tasse, tu vas t'noyer, vraiment en crever. Dire que l'instant ça suffit pas, parce que l'instant, c'est la vague dans la gueule. En revanche, composer avec la vague, apprendre à nager, ou à surfer. Ça, ça demande une durée J'attends qu'j'm'arrache en m'harnachant Sur l'dos d'une beauté monstrueuse J'attends la vague comme Kardashian Attend la première page de vogue Des flocons d'écume de silence, avalanche d'un mont enneigé Qui replonge dans le silence et rend ce monde plus léger J'attends d'arracher de la vague Un peu d'sa chaire au creux des mains Afin d'rafraîchir mon pelage brûlant, de taureau d'airain J'plonge un couteau entre les dents Dans la vague graver mes initiales Et affronter dans l'ouragan Tout mon traumatisme initial J'rap pour toutes les petites bottes Que le juge plonge dans la trempette On reconnait les bons pilotes que lorsqu'ils affrontent la tempête Et j'ignore encore si la vague s'ra renaissance ou bien suicide Quand elle me crachera sur la plage de par ses ténèbres liquides J'lève pas le pouce, mais le majeur En dédicace aux douanes volantes You might also likeCar je suis devenu nageur Qu'au milieu de ses eaux violentes Ne viens pas si t'es trop âgé Pour affronter la médusa On pèche des enfants naufragés Sur les plages de Lampedusa De Mayotte ou de Djerba Du Pas-De-Calais ou de Turquie Chaque jour ma souffrance est sans fin Pour le petit Alan Kurdi Je veux vous fuir, vous ma douleur Vous les humains qui m'écorchez J'essaie d'retrouver des couleurs Au fond d'une machine à laver J'attends la vague J'attends la vague J'attends la vague J'attends la vague J'attends la vague Qu'elle m'emporte au large Loin à la dérive Loin à la dérive Au delà des marges Qu'elle me déporte sur un nuage de coton Loin des champs de cana, de Paname et du béton Je flotterai sous l'écume Dans ces rouleaux d'océan Ni ancre, ni enclume Je serai homme de plein vent Sous l'effet de la lune Ballotté par les marées Elle m'emmènera loin comme des fumées envolées Mais, fond d'un abysse, j'ai vu leur monde Ce qu'ils battissent sur nos décombres Cap d'un navire, nos vieux démons Mon coeur s'épuise et coule au fond Peuple sans nom, cimetière de l'ombre Un désert vide peuple et déco Mais je remonte, je me déploie Cherche la lumière, puis la reçoit Grise est la vie, rose est le rêve Briser la vitre, bosser le verbe Gifler l'abîme, oser le faire Risque la lutte, croiser le fer Chemin de vie, j'arpente Les nerfs à vif, à cran Quand c'est la merde, j'apprends Où est la vague, j'attends Profiter du présent, bien sûr Mais l'idée c'est quand même d'avoir une affirmation ou une volonté Une recherche de sens, pur Parce que si tu veux comprendre le sens de la série des accidents Et si tu veux être préparé, essayer de, ouais, de se composer avec les accidents Parce que la volonté ou le désire, la voilà la lutte Ça se trouve on compose avec les accidents Tu prends part? Sinon à chaque seconde tu prends dans la gueule tu comprends pas T'y arrives pas On est du continu dans tous ces trucs discontinus qui nous arrivent dans la gueule Et c'est ça l'identité, elle est pas donnée au départ l'identité</t>
+          <t>Donc on avait parlé une fois des vagues. L'idée que, si t'apprends pas à nager, tu t'prends les vagues dans la gueule. quelques fois t'es emporté, quelques fois t'as la tête sous l'eau. Tu bois la tasse, tu vas t'noyer, vraiment en crever. Dire que l'instant ça suffit pas, parce que l'instant, c'est la vague dans la gueule. En revanche, composer avec la vague, apprendre à nager, ou à surfer. Ça, ça demande une durée J'attends qu'j'm'arrache en m'harnachant Sur l'dos d'une beauté monstrueuse J'attends la vague comme Kardashian Attend la première page de vogue Des flocons d'écume de silence, avalanche d'un mont enneigé Qui replonge dans le silence et rend ce monde plus léger J'attends d'arracher de la vague Un peu d'sa chaire au creux des mains Afin d'rafraîchir mon pelage brûlant, de taureau d'airain J'plonge un couteau entre les dents Dans la vague graver mes initiales Et affronter dans l'ouragan Tout mon traumatisme initial J'rap pour toutes les petites bottes Que le juge plonge dans la trempette On reconnait les bons pilotes que lorsqu'ils affrontent la tempête Et j'ignore encore si la vague s'ra renaissance ou bien suicide Quand elle me crachera sur la plage de par ses ténèbres liquides J'lève pas le pouce, mais le majeur En dédicace aux douanes volantes Car je suis devenu nageur Qu'au milieu de ses eaux violentes Ne viens pas si t'es trop âgé Pour affronter la médusa On pèche des enfants naufragés Sur les plages de Lampedusa De Mayotte ou de Djerba Du Pas-De-Calais ou de Turquie Chaque jour ma souffrance est sans fin Pour le petit Alan Kurdi Je veux vous fuir, vous ma douleur Vous les humains qui m'écorchez J'essaie d'retrouver des couleurs Au fond d'une machine à laver J'attends la vague J'attends la vague J'attends la vague J'attends la vague J'attends la vague Qu'elle m'emporte au large Loin à la dérive Loin à la dérive Au delà des marges Qu'elle me déporte sur un nuage de coton Loin des champs de cana, de Paname et du béton Je flotterai sous l'écume Dans ces rouleaux d'océan Ni ancre, ni enclume Je serai homme de plein vent Sous l'effet de la lune Ballotté par les marées Elle m'emmènera loin comme des fumées envolées Mais, fond d'un abysse, j'ai vu leur monde Ce qu'ils battissent sur nos décombres Cap d'un navire, nos vieux démons Mon coeur s'épuise et coule au fond Peuple sans nom, cimetière de l'ombre Un désert vide peuple et déco Mais je remonte, je me déploie Cherche la lumière, puis la reçoit Grise est la vie, rose est le rêve Briser la vitre, bosser le verbe Gifler l'abîme, oser le faire Risque la lutte, croiser le fer Chemin de vie, j'arpente Les nerfs à vif, à cran Quand c'est la merde, j'apprends Où est la vague, j'attends Profiter du présent, bien sûr Mais l'idée c'est quand même d'avoir une affirmation ou une volonté Une recherche de sens, pur Parce que si tu veux comprendre le sens de la série des accidents Et si tu veux être préparé, essayer de, ouais, de se composer avec les accidents Parce que la volonté ou le désire, la voilà la lutte Ça se trouve on compose avec les accidents Tu prends part? Sinon à chaque seconde tu prends dans la gueule tu comprends pas T'y arrives pas On est du continu dans tous ces trucs discontinus qui nous arrivent dans la gueule Et c'est ça l'identité, elle est pas donnée au départ l'identité</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Un cimetière sest formé entre NACO et moustiquaire La névralgie du robinet cest le bruit de ma rivière Le vent danse dans les rideaux, le grelot de la tringle Dehors grésille la radio de quelques voix que je distingue Des oiseaux dans la volière, le kasuku fait du boucan Si le frigo ne bourdonne guère cest quil y a coupure de courant Rayon de soleil en suspension, filaments de poussière dans lair Qui traversent le salon pour zébrer dombre et de lumière A lheure de la sieste, japprivoise le silence Petit Prince dennui modeste entre mouton et somnolence Dans la vieille maison de briques, de la Belgique sous les tropiques A lheure des choses statiques jinvente, je me fabrique Petit garçon, genoux cagneux, il fait trop chaud sous mes cheveux Nos jeux sont souvent poussiéreux sous un soleil de plomb teigneux Les excursions chevaleresques, les fous rires, les pactes de sang Copain ça compte, copain ça reste, copain cest dabord un mot denfant Dans le ventre de la maison, les adultes en digestion Et moi coincé dans mes questions, prisonnier dune toile au plafond Capharnaüm de la déco, les masques, les trophées, les geckos Je joue au GI Joe dans le crâne dun hippo A lintérieur il fait frais, le carrelage une mosaïque Sur lequel mes voitures jouets dessinent des routes périphériques Torpeur daprès-midi sous un ciel bleu paradis Parade levée dans le taillis, 14 Juillet chez les fourmis You might also like Dans mon jardin dEden ya des serpents à tous les angles Et faute de pomme Golden, je trahis Dieu avec des mangues Toute lannée dans mon jardin je vis à ciel ouvert Sous le Ficus je suis un nain, arbre temple, arbre univers La citronnelle borde la rigole entourant la maison La pluie sabstient ou dégringole, les pizzas nont que deux saisons Mais quand les trombes sabattent, elles tambourinent le toit de tôle Les bananiers deviennent frégates et leau cascade sur mes épaules Une planche à voile sur le toit dun combi Volkswagen Des photos jaunies, le petit chien sappelle Amstel Pas de 4 heures, pas de goûter, pas de pâte à tartiner Pas de chaîne, pas de télé, ya que laquarium à regarder Pas de parfum que lon humecte, jécris des lettres à une maman A une absence, apprendre à faire avec , cétait apprendre à faire sans Cétait ma vie, cétait la vie, cétait le train-train quotidien Cétait lennui des après-midi sans fin</t>
+          <t>Un cimetière sest formé entre NACO et moustiquaire La névralgie du robinet cest le bruit de ma rivière Le vent danse dans les rideaux, le grelot de la tringle Dehors grésille la radio de quelques voix que je distingue Des oiseaux dans la volière, le kasuku fait du boucan Si le frigo ne bourdonne guère cest quil y a coupure de courant Rayon de soleil en suspension, filaments de poussière dans lair Qui traversent le salon pour zébrer dombre et de lumière A lheure de la sieste, japprivoise le silence Petit Prince dennui modeste entre mouton et somnolence Dans la vieille maison de briques, de la Belgique sous les tropiques A lheure des choses statiques jinvente, je me fabrique Petit garçon, genoux cagneux, il fait trop chaud sous mes cheveux Nos jeux sont souvent poussiéreux sous un soleil de plomb teigneux Les excursions chevaleresques, les fous rires, les pactes de sang Copain ça compte, copain ça reste, copain cest dabord un mot denfant Dans le ventre de la maison, les adultes en digestion Et moi coincé dans mes questions, prisonnier dune toile au plafond Capharnaüm de la déco, les masques, les trophées, les geckos Je joue au GI Joe dans le crâne dun hippo A lintérieur il fait frais, le carrelage une mosaïque Sur lequel mes voitures jouets dessinent des routes périphériques Torpeur daprès-midi sous un ciel bleu paradis Parade levée dans le taillis, 14 Juillet chez les fourmis Dans mon jardin dEden ya des serpents à tous les angles Et faute de pomme Golden, je trahis Dieu avec des mangues Toute lannée dans mon jardin je vis à ciel ouvert Sous le Ficus je suis un nain, arbre temple, arbre univers La citronnelle borde la rigole entourant la maison La pluie sabstient ou dégringole, les pizzas nont que deux saisons Mais quand les trombes sabattent, elles tambourinent le toit de tôle Les bananiers deviennent frégates et leau cascade sur mes épaules Une planche à voile sur le toit dun combi Volkswagen Des photos jaunies, le petit chien sappelle Amstel Pas de 4 heures, pas de goûter, pas de pâte à tartiner Pas de chaîne, pas de télé, ya que laquarium à regarder Pas de parfum que lon humecte, jécris des lettres à une maman A une absence, apprendre à faire avec , cétait apprendre à faire sans Cétait ma vie, cétait la vie, cétait le train-train quotidien Cétait lennui des après-midi sans fin</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Au boulot MC agrégé de flow, diplômé de style Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot au goulot Au goulot au goulot Qu'ce soit au pôle Nord ou au pôle Sud Ou au Pôle Emploi, t'es au bon endroit Parait qu'le boulanger, Paul emploie Donc va gagner ton pain, ton RSA Les miettes font la baguette Pas sûr que quand tu y seras, p-p-pépère tu kifferas ta retraite Le travail, c'est la Santé ou bien Fleury-Mérogis Pour tous les banquiers qui s'prennent pour des numéros dix Puis ça licncie à tours de bras dans les ntreprises Et la France en bas se retrouve let's go to work les deux doigts dans la crise Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot let's go to work J'vais pas vous faire un tableau C'est la crise de bas en haut La société est en sanglots let's go to work Faut y aller au culot On passe du rire au trémolo Donc sortons vite de nos enclos let's go to work Y'a de l'espoir dans mon stylo Il faisait noir dans mon silo Aujourd'hui le printemps éclot You might also like Ce monde est bancal Une minorité domine tous les autres On trouve ça normal Que le gramme l'emporte sur le kilo Quand ça spécule à Londres, on licencie À pronto compo, de l'effet papillon, on passe à l'effet domino Toi, société, mon train, wagon J'étais ton cheminot, et tu m'as pris pour un con Tu m'as plumé comme un bobinot Dix ans de loyauté, de bon boulot derrière un bureau Moi, l'bon blaireau qu'on envoie valser comme un boléro T'as voulu que j'me barre, baisse le volume que je te parle On évolue puis l'on s'égare Sous des volutes de cigare Café moulu que je prépare Du lait, du sucre, comme un nectar Il a fallu qu'on se sépare Sous l'clair de lune d'un quai de gare Pour que j'allume enfin mes phares Que j'te salue et que j'reparte Loin des talus qui font rempart Qui gène la vue et le regard Toi que j'ai lu, papier buvard Toi mon élu, mon étendard Tu m'a exclu tel un clochard On l'aura mal lu ton revanchard let's go to work Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot let's go to work J'vais pas vous faire un tableau C'est la crise de bas en haut La société est en sanglots let's go to work Faut y aller au culot On passe du rire au trémolo Donc sortons vite de nos enclos let's go to work Y'a de l'espoir dans mon stylo Il faisait noir dans mon silo Aujourd'hui le printemps éclot Oh Spring's eternal, from the lover's kiss Though, we are far away from paradise Life is short, we cannot die Une barre de barbare, le flot de bâbord à tribord Le papier par bacs, le BIC est carnivore J'ai le vacarme de la musique pour me reposer On m'avait dit faut prendre des risques Je n'ai jamais osé, je n'ai pas pu avancer Parce que j'avais les jambes arquées J'étais coincé comme la monnaie dans les rainures de mon parquet Je ne regarde pas les journaux, je ne lis pas la télé Je vis loin du troupeau à qui l'on apprend à bêler Le soleil se lève et je ferme les volets Et j'écris, j'écris ma descente vers les sommets Toute la journée, je suis coincé entre une chaise et bureau Le stylo BIC est une épée que je sors de son fourreau Que vais-je bien pouvoir dire à cette feuille blanche qui veut que je la souille ? Que je suis flic, qu'elle est suspect, qu'il faut que je la fouille Les mains sur le capot, ça va tourner à la bavure Il n'est question que de violences, quand on en vient à l'écriture J'repars au boulot, au casse-pipe, au charbon Pour cracher ma silicose dans mon cornet à piston J'voulais mourir jeune au fond, pour pas devenir vieux et con Mais le comble, je m'en rends compte, c'est que je vais mourir jeune et con Alors, j'ai déserté les perspectives d'un monde balisé Pour devenir le cliché du rappeur emmerdant l'Élysée Le cliché de ce poète chantant les printemps éternels Les utopies, le paradis, le monde fraternel Oh, spring's eternal Oh, spring's eternal Engoncé dans un costume Spring's eternal Je suis un être post-moderne aux allures posthumes Je me réveille par coutume Spring's eternal Endosse les habits ternes de mes habitudes Je suis l'esclave de ce monde que je n'ai pas choisi L'économie, une religion, ma poésie, une hérésie Désenchantement de ma génération Fichée à la banque de ses rêves, à découvert d'illusions Lundi matin, j'ai tout stoppé J'ai raccroché les gants à mi-chemin de mon trajet Je me suis assis sur un banc et je me suis mis à gratter ces rimes surannées Pour vous parler à bout portant de ma langue sur-armée J'ai mal à mon époque, le capital marque de son sceau Sous le règne du ciseau, je veux recoller les morceaux Quand mon âme est asthmatique, ma musique est Ventoline Les cartésiens sont des grains de folie, préservez-moi de l'embolie Moi, j'ai le cur qui palpite, entre une main-basse qui me précipite À sortir vite de l'impasse et quand le boulot est retraite Mettre un terme à cette dernière, s'arrêter pour voir naitre Les printemps éternels</t>
+          <t>Au boulot MC agrégé de flow, diplômé de style Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot au goulot Au goulot au goulot Qu'ce soit au pôle Nord ou au pôle Sud Ou au Pôle Emploi, t'es au bon endroit Parait qu'le boulanger, Paul emploie Donc va gagner ton pain, ton RSA Les miettes font la baguette Pas sûr que quand tu y seras, p-p-pépère tu kifferas ta retraite Le travail, c'est la Santé ou bien Fleury-Mérogis Pour tous les banquiers qui s'prennent pour des numéros dix Puis ça licncie à tours de bras dans les ntreprises Et la France en bas se retrouve let's go to work les deux doigts dans la crise Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot let's go to work J'vais pas vous faire un tableau C'est la crise de bas en haut La société est en sanglots let's go to work Faut y aller au culot On passe du rire au trémolo Donc sortons vite de nos enclos let's go to work Y'a de l'espoir dans mon stylo Il faisait noir dans mon silo Aujourd'hui le printemps éclot Ce monde est bancal Une minorité domine tous les autres On trouve ça normal Que le gramme l'emporte sur le kilo Quand ça spécule à Londres, on licencie À pronto compo, de l'effet papillon, on passe à l'effet domino Toi, société, mon train, wagon J'étais ton cheminot, et tu m'as pris pour un con Tu m'as plumé comme un bobinot Dix ans de loyauté, de bon boulot derrière un bureau Moi, l'bon blaireau qu'on envoie valser comme un boléro T'as voulu que j'me barre, baisse le volume que je te parle On évolue puis l'on s'égare Sous des volutes de cigare Café moulu que je prépare Du lait, du sucre, comme un nectar Il a fallu qu'on se sépare Sous l'clair de lune d'un quai de gare Pour que j'allume enfin mes phares Que j'te salue et que j'reparte Loin des talus qui font rempart Qui gène la vue et le regard Toi que j'ai lu, papier buvard Toi mon élu, mon étendard Tu m'a exclu tel un clochard On l'aura mal lu ton revanchard let's go to work Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot let's go to work J'vais pas vous faire un tableau C'est la crise de bas en haut La société est en sanglots let's go to work Faut y aller au culot On passe du rire au trémolo Donc sortons vite de nos enclos let's go to work Y'a de l'espoir dans mon stylo Il faisait noir dans mon silo Aujourd'hui le printemps éclot Oh Spring's eternal, from the lover's kiss Though, we are far away from paradise Life is short, we cannot die Une barre de barbare, le flot de bâbord à tribord Le papier par bacs, le BIC est carnivore J'ai le vacarme de la musique pour me reposer On m'avait dit faut prendre des risques Je n'ai jamais osé, je n'ai pas pu avancer Parce que j'avais les jambes arquées J'étais coincé comme la monnaie dans les rainures de mon parquet Je ne regarde pas les journaux, je ne lis pas la télé Je vis loin du troupeau à qui l'on apprend à bêler Le soleil se lève et je ferme les volets Et j'écris, j'écris ma descente vers les sommets Toute la journée, je suis coincé entre une chaise et bureau Le stylo BIC est une épée que je sors de son fourreau Que vais-je bien pouvoir dire à cette feuille blanche qui veut que je la souille ? Que je suis flic, qu'elle est suspect, qu'il faut que je la fouille Les mains sur le capot, ça va tourner à la bavure Il n'est question que de violences, quand on en vient à l'écriture J'repars au boulot, au casse-pipe, au charbon Pour cracher ma silicose dans mon cornet à piston J'voulais mourir jeune au fond, pour pas devenir vieux et con Mais le comble, je m'en rends compte, c'est que je vais mourir jeune et con Alors, j'ai déserté les perspectives d'un monde balisé Pour devenir le cliché du rappeur emmerdant l'Élysée Le cliché de ce poète chantant les printemps éternels Les utopies, le paradis, le monde fraternel Oh, spring's eternal Oh, spring's eternal Engoncé dans un costume Spring's eternal Je suis un être post-moderne aux allures posthumes Je me réveille par coutume Spring's eternal Endosse les habits ternes de mes habitudes Je suis l'esclave de ce monde que je n'ai pas choisi L'économie, une religion, ma poésie, une hérésie Désenchantement de ma génération Fichée à la banque de ses rêves, à découvert d'illusions Lundi matin, j'ai tout stoppé J'ai raccroché les gants à mi-chemin de mon trajet Je me suis assis sur un banc et je me suis mis à gratter ces rimes surannées Pour vous parler à bout portant de ma langue sur-armée J'ai mal à mon époque, le capital marque de son sceau Sous le règne du ciseau, je veux recoller les morceaux Quand mon âme est asthmatique, ma musique est Ventoline Les cartésiens sont des grains de folie, préservez-moi de l'embolie Moi, j'ai le cur qui palpite, entre une main-basse qui me précipite À sortir vite de l'impasse et quand le boulot est retraite Mettre un terme à cette dernière, s'arrêter pour voir naitre Les printemps éternels</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eteignez les lumières, j'viens chanter mes pogos Sur les rails de l'enfer, l'océan est Congo Bien avant ma mort, mes rimes et mes vers me dévorent J'enferme le monde dans mon corps jusqu'à ce que les mots me débordent Transforme la chair en verbe, la douleur en arme l'ombre en lumière J'ai traversé les mers, j'en ai pleuré des rivières Vous finirez seuls et vaincus dans vos délires de sang impur Et la haine que vos bouches écument n'aura plus prise sur nos vécus Ronronne l'histoire et elle cale et les cales Enchainés dans bateaux faits d'un bois fait d'un arbre Où l'on pend d'étranges fruits distillés et broyés Des cadavres empilés des pelletées de charniers Regardez les exodes, papillons volent et voguent Regardez devant l'homme comment Dieu se dérobe Comme il pleure en tornades nos ruines et nos guerres Comme il pleure chaque soir un soleil incendiaire J'peux plus respirer Leur genou sur mon cou leur permis de tuer Le réel est violent comme une jungle à Calais Un Congo-océan, tant d'offenses à laver J'essuie les crachats, j'arrache des murs de France les sourires Banania Et nos enfants qui viennent seront dignes et debout Debout, dignes, dignes et debout Je connais les entailles, les encoches de nos coeurs Si leurs ténèbres m'assaillent, j'irai chanter mes lueurs Invincible est notre ardeur L'éclat de nos vies entêtées Invincible est notre ardeur Eblouira vos en-dedans Invincible est notre ardeur L'éclat de nos vies entêtées Invincible est notre ardeur Eblouira vos en-dedansYou might also like</t>
+          <t>Eteignez les lumières, j'viens chanter mes pogos Sur les rails de l'enfer, l'océan est Congo Bien avant ma mort, mes rimes et mes vers me dévorent J'enferme le monde dans mon corps jusqu'à ce que les mots me débordent Transforme la chair en verbe, la douleur en arme l'ombre en lumière J'ai traversé les mers, j'en ai pleuré des rivières Vous finirez seuls et vaincus dans vos délires de sang impur Et la haine que vos bouches écument n'aura plus prise sur nos vécus Ronronne l'histoire et elle cale et les cales Enchainés dans bateaux faits d'un bois fait d'un arbre Où l'on pend d'étranges fruits distillés et broyés Des cadavres empilés des pelletées de charniers Regardez les exodes, papillons volent et voguent Regardez devant l'homme comment Dieu se dérobe Comme il pleure en tornades nos ruines et nos guerres Comme il pleure chaque soir un soleil incendiaire J'peux plus respirer Leur genou sur mon cou leur permis de tuer Le réel est violent comme une jungle à Calais Un Congo-océan, tant d'offenses à laver J'essuie les crachats, j'arrache des murs de France les sourires Banania Et nos enfants qui viennent seront dignes et debout Debout, dignes, dignes et debout Je connais les entailles, les encoches de nos coeurs Si leurs ténèbres m'assaillent, j'irai chanter mes lueurs Invincible est notre ardeur L'éclat de nos vies entêtées Invincible est notre ardeur Eblouira vos en-dedans Invincible est notre ardeur L'éclat de nos vies entêtées Invincible est notre ardeur Eblouira vos en-dedans</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Comment ça va ? Lundi ? Mardi ? Mercredi ? Jeudi ? Vendredi ? Bien dormi ? Le week-end, bien passé ? T'as glandé ? La famille ? Les enfants ?Les amis ? Le barbec' annulé par la pluie ? Est-ce que ça va ? T'es sûr que ça va ? Tu m'caches pas quelque chose que je devrais savoir ? Un divorce ? Un cancer ? Ta belle-mère ? Une mauvaise dépression ? Le moral est-il bon? Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Et chaque semaine on reprend la rengaine En se disant demain sera peut-être mieux On affronte et combat certains problèmes En achetant de petites pilules bleues On n'est pas toujours aussi fort qu'on veut l'être On essaye de faire comme l'on peut On court après le bonheur à tout prix Le lundi au soleil le moral est pluvieux You might also like Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Une semaine s'achève, au compteur s'ajoute On nous parle de crise et tout le monde a la frousse On s'endort dans des volutes de drogues douces Pour oublier que tous les jours l'État détrousse On se console en consommant, notre confort Nous rend souvent si seuls et puis sans solution Chaque dimanche revient ce cafard incessant Demain, lundi sera méchant J'vais pas m'laisser démonter Par bad vibes et morosité Pas s'contenter mais tenter Sinon tes rêves enterrés Chauffez, chauffez ouais t'entends Les pulsations dans tes tympans Chantez, chantez ce cancan Écoutez, goûtez lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant</t>
+          <t>Comment ça va ? Lundi ? Mardi ? Mercredi ? Jeudi ? Vendredi ? Bien dormi ? Le week-end, bien passé ? T'as glandé ? La famille ? Les enfants ?Les amis ? Le barbec' annulé par la pluie ? Est-ce que ça va ? T'es sûr que ça va ? Tu m'caches pas quelque chose que je devrais savoir ? Un divorce ? Un cancer ? Ta belle-mère ? Une mauvaise dépression ? Le moral est-il bon? Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Et chaque semaine on reprend la rengaine En se disant demain sera peut-être mieux On affronte et combat certains problèmes En achetant de petites pilules bleues On n'est pas toujours aussi fort qu'on veut l'être On essaye de faire comme l'on peut On court après le bonheur à tout prix Le lundi au soleil le moral est pluvieux Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Une semaine s'achève, au compteur s'ajoute On nous parle de crise et tout le monde a la frousse On s'endort dans des volutes de drogues douces Pour oublier que tous les jours l'État détrousse On se console en consommant, notre confort Nous rend souvent si seuls et puis sans solution Chaque dimanche revient ce cafard incessant Demain, lundi sera méchant J'vais pas m'laisser démonter Par bad vibes et morosité Pas s'contenter mais tenter Sinon tes rêves enterrés Chauffez, chauffez ouais t'entends Les pulsations dans tes tympans Chantez, chantez ce cancan Écoutez, goûtez lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de lamour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il n'existe que nous ? Alors trinquons à la nôtre Tous les deux, nous, oui rien que tous les deux Dans ce feu fou, à nous brûler amoureux On se tient par les yeux, comme des amants fiévreux Chant de Morna, un air de cavaquinho Que mes grands bras ouverts de Corcovado Senroulent autour de toi Comme un foulard de soie Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de l'amour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il n'existe que nous ? Alors trinquons à la nôtre Que les vents nous emmènent Au loin, au large, bateau sur la mer Et nous deux sous le ciel Oui nous deux au milieu du vent On ne joue qu'à nos jeux De grands oiseaux de feu Si tout est grave, on s'en fout Si tout est grave, on s'en remettra Pour nous du soleil partout Et le soir mon cur est en proie Aux grands sables mouvants De tes envoûtements You might also like Tant de démons sont sur nos côtes, veulent nous traîner dans la boue Jai de lamour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il nexiste que nous ? Alors trinquons à la nôtre Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de l'amour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il nexiste que nous ? Alors trinquons à la nôtre, à la vie, à l'amour À la vie, à l'amour x8 Couplet 3 Goutte de rhum pour nos étoiles Pour ces lumières dans le ciel À nos nuits noires, à nos nuits pâles À nos jours éphémères Entends l'écho de mes je t'aime Dans le sillage de tous mes mots Regarde les démons que l'on sème Accourir après l'objet de l'amour à marée haute Ô mon amour, ô mon extase Fuyons les diables sur nos côtes Danger l'eau qui bout sur le gaz Mon cur un puit de pétrole qui brûle Pour toi qui donne sens à mes jours Alors de l'aube au crépuscule À la vie, à l'amour x8</t>
+          <t>Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de lamour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il n'existe que nous ? Alors trinquons à la nôtre Tous les deux, nous, oui rien que tous les deux Dans ce feu fou, à nous brûler amoureux On se tient par les yeux, comme des amants fiévreux Chant de Morna, un air de cavaquinho Que mes grands bras ouverts de Corcovado Senroulent autour de toi Comme un foulard de soie Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de l'amour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il n'existe que nous ? Alors trinquons à la nôtre Que les vents nous emmènent Au loin, au large, bateau sur la mer Et nous deux sous le ciel Oui nous deux au milieu du vent On ne joue qu'à nos jeux De grands oiseaux de feu Si tout est grave, on s'en fout Si tout est grave, on s'en remettra Pour nous du soleil partout Et le soir mon cur est en proie Aux grands sables mouvants De tes envoûtements Tant de démons sont sur nos côtes, veulent nous traîner dans la boue Jai de lamour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il nexiste que nous ? Alors trinquons à la nôtre Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de l'amour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il nexiste que nous ? Alors trinquons à la nôtre, à la vie, à l'amour À la vie, à l'amour x8 Couplet 3 Goutte de rhum pour nos étoiles Pour ces lumières dans le ciel À nos nuits noires, à nos nuits pâles À nos jours éphémères Entends l'écho de mes je t'aime Dans le sillage de tous mes mots Regarde les démons que l'on sème Accourir après l'objet de l'amour à marée haute Ô mon amour, ô mon extase Fuyons les diables sur nos côtes Danger l'eau qui bout sur le gaz Mon cur un puit de pétrole qui brûle Pour toi qui donne sens à mes jours Alors de l'aube au crépuscule À la vie, à l'amour x8</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Enfant, j'inventais des espaces En dessinant des monts violets Des arbres bleus, des vaches grasses Et des chemins qui serpentaient Mais ma campagne, ma nature Quand je me prends à y songer Est un pauvre coin de verdure Un maigre jardin potager Ce lopin, ce bout de clairière C'est tout ce que j'ai pour terroir Puisque ma famille ouvrière Prend souche sur du goudron noir Ce minuscule coin champêtre Pris dans un pâté de maisons On l'aperçoit de ma fenêtre Fermé dans ses murs en béton Là ne planent point de légendes Où l'âme puise et s'aguerrit Il donne ce qu'on lui demande Quatre tomates, trois radis Ce petit morceau de culture Ce fut ma part de merveilleux Tout le reste est littérature On triche quand on devient vieux Je ne suis pas né en Provence En Savoie ni en Beaujolais Mon sang a l'odeur de l'essence Et mon pays est gris et laid J'ai grandi parmi les usines Au deuxième chez mes parents Une chambre et une cuisine D'où l'on voit ce petit arpent Ce clos de rêves et de salades C'est mon paradis défendu Était à un voisin maussade Je n'y suis jamais descenduYou might also like</t>
+          <t>Enfant, j'inventais des espaces En dessinant des monts violets Des arbres bleus, des vaches grasses Et des chemins qui serpentaient Mais ma campagne, ma nature Quand je me prends à y songer Est un pauvre coin de verdure Un maigre jardin potager Ce lopin, ce bout de clairière C'est tout ce que j'ai pour terroir Puisque ma famille ouvrière Prend souche sur du goudron noir Ce minuscule coin champêtre Pris dans un pâté de maisons On l'aperçoit de ma fenêtre Fermé dans ses murs en béton Là ne planent point de légendes Où l'âme puise et s'aguerrit Il donne ce qu'on lui demande Quatre tomates, trois radis Ce petit morceau de culture Ce fut ma part de merveilleux Tout le reste est littérature On triche quand on devient vieux Je ne suis pas né en Provence En Savoie ni en Beaujolais Mon sang a l'odeur de l'essence Et mon pays est gris et laid J'ai grandi parmi les usines Au deuxième chez mes parents Une chambre et une cuisine D'où l'on voit ce petit arpent Ce clos de rêves et de salades C'est mon paradis défendu Était à un voisin maussade Je n'y suis jamais descendu</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>J'sors la nuit comme le virus du P4 Et les chats sont tous gris métal Comme d'hab j'vais brûler l'mic mon amour Gros son indigeste et lourd Mets tes boules Quies si t'aimes pas bien mon boucan Fire ! décongèle les cold cases Vitres fumées, furtif comme Banksy Bande de bandits dans la berline Allemande, calmement, humblement, simplement, noooon Fond d'sky, laisse les culs d'clopes dans l'gobelet Le son est tellemnt lourd j'ai besoin d'un monte-charge Fil droit sur la route, mets les grosses basses dans la Subaru Fuck les racistes boogaloos Les flics m'encerclent comme des hula hoop Rodney King tard dans ma rue Reflets d'lune sur les jantes alu Nuit sans nom, nuit sans lune... Violence latente, gare aux brebis les loups salivent Tout est possible quand l'avenue s'anime Coups de calibre comme dans les rues de Cali La nuit s'embrase prends ta Ritaline You might also likeSheitan ne fait qu'imiter l'ange Beat lent, flow Michel-Ange Bouillant, dégel du permafrost J'bois cul sec après l'toast À la vie, à la santé, l'chaïm, l'chaïm Rude boy dans l'attente qu'on me ravitaille Je sers les dents j'tiens les barricades Je nage le crawl dans leurs marécages J'prépare la guerre quand tout paraît calme T'échoues si t'arrêtes d'essayer La nuit c'est plein de cow-boys et de Cheyennes J'combats l'insomnie le vague à l'âme Tison ardent, rougeoie le makala Nuit sans nom, nuit sans lune... I make a million bucks, best drop de tout l'univers J'descends la vitre pour respirer l'air frais Je sors dehors à l'heure des fermetures Fumer tue, l'habitacle est une étuve Check la rime j'extrais l'or de la mine Fais belek, je traine en horde la nuit Sans l'sous en soum soum 5h du mat j'm'endors sur du Oum Kalthoum</t>
+          <t>J'sors la nuit comme le virus du P4 Et les chats sont tous gris métal Comme d'hab j'vais brûler l'mic mon amour Gros son indigeste et lourd Mets tes boules Quies si t'aimes pas bien mon boucan Fire ! décongèle les cold cases Vitres fumées, furtif comme Banksy Bande de bandits dans la berline Allemande, calmement, humblement, simplement, noooon Fond d'sky, laisse les culs d'clopes dans l'gobelet Le son est tellemnt lourd j'ai besoin d'un monte-charge Fil droit sur la route, mets les grosses basses dans la Subaru Fuck les racistes boogaloos Les flics m'encerclent comme des hula hoop Rodney King tard dans ma rue Reflets d'lune sur les jantes alu Nuit sans nom, nuit sans lune... Violence latente, gare aux brebis les loups salivent Tout est possible quand l'avenue s'anime Coups de calibre comme dans les rues de Cali La nuit s'embrase prends ta Ritaline Sheitan ne fait qu'imiter l'ange Beat lent, flow Michel-Ange Bouillant, dégel du permafrost J'bois cul sec après l'toast À la vie, à la santé, l'chaïm, l'chaïm Rude boy dans l'attente qu'on me ravitaille Je sers les dents j'tiens les barricades Je nage le crawl dans leurs marécages J'prépare la guerre quand tout paraît calme T'échoues si t'arrêtes d'essayer La nuit c'est plein de cow-boys et de Cheyennes J'combats l'insomnie le vague à l'âme Tison ardent, rougeoie le makala Nuit sans nom, nuit sans lune... I make a million bucks, best drop de tout l'univers J'descends la vitre pour respirer l'air frais Je sors dehors à l'heure des fermetures Fumer tue, l'habitacle est une étuve Check la rime j'extrais l'or de la mine Fais belek, je traine en horde la nuit Sans l'sous en soum soum 5h du mat j'm'endors sur du Oum Kalthoum</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Yeah Ah Où sont les couleurs vives, les rues des couloirs vides ? La ville est verticale, je me casse les cervicales Dans mon cahier à spirales, j'écris mal inspiré Je veux fuir la mitraille pour les plages de Nosy Be Je regarde la skyline, les reflets dans le fleuve La prochaine fois, le feu, moi, j'ai grandi dans le zbeul l zbeul Toujours en moi la rage comm à mes quinze piges ah Depuis, d'l'eau a coulé face au Queensbridge Les poings dans les poches ah, la tête sous la capuche ah J'ai le cerveau qui bûche, mes rimes dans la sacoche Cette ville est comme un fruit, un défi fou, un film Et j'ai comme l'ego qui fuit par ses bouches d'égouts qui fument J'écoute en boucle mes bootlegs j'écoute, j'écoute Vas-y copain, file la bouteille file la bouteille J'écoute en boucle mes bootlegs Et dans la nuit flotte un air de Wu-Tang Ah, ah, ah Ah, ah, un air de Wu-Tang Ah, ah, ah Ah, ah, ah You might also like Et dans cette ville de N-Y-C, assis à l'arrière d'un taxi Tous ces gratte-ciel, forêt de cimes, toutes ces lumières à l'infini Surgissent d'abîmes menaçants comme des milliards de galaxies Un Baron Minuit me conduit vers cette nuit qui s'épaissit Le froid des chambres d'autopsie, le confort des banlieues paisibles Un homeless poussant son Caddie, les allées d'Little Italy Un corps rossé par les képis, un sommeil cousin du décès Cette ville sans répit tout à coup surgit de ma mine</t>
+          <t>Yeah Ah Où sont les couleurs vives, les rues des couloirs vides ? La ville est verticale, je me casse les cervicales Dans mon cahier à spirales, j'écris mal inspiré Je veux fuir la mitraille pour les plages de Nosy Be Je regarde la skyline, les reflets dans le fleuve La prochaine fois, le feu, moi, j'ai grandi dans le zbeul l zbeul Toujours en moi la rage comm à mes quinze piges ah Depuis, d'l'eau a coulé face au Queensbridge Les poings dans les poches ah, la tête sous la capuche ah J'ai le cerveau qui bûche, mes rimes dans la sacoche Cette ville est comme un fruit, un défi fou, un film Et j'ai comme l'ego qui fuit par ses bouches d'égouts qui fument J'écoute en boucle mes bootlegs j'écoute, j'écoute Vas-y copain, file la bouteille file la bouteille J'écoute en boucle mes bootlegs Et dans la nuit flotte un air de Wu-Tang Ah, ah, ah Ah, ah, un air de Wu-Tang Ah, ah, ah Ah, ah, ah Et dans cette ville de N-Y-C, assis à l'arrière d'un taxi Tous ces gratte-ciel, forêt de cimes, toutes ces lumières à l'infini Surgissent d'abîmes menaçants comme des milliards de galaxies Un Baron Minuit me conduit vers cette nuit qui s'épaissit Le froid des chambres d'autopsie, le confort des banlieues paisibles Un homeless poussant son Caddie, les allées d'Little Italy Un corps rossé par les képis, un sommeil cousin du décès Cette ville sans répit tout à coup surgit de ma mine</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>J'ai pris du temps pour mon métier J'ai pris du temps pour mes chansons Ce qui allait pas j'ai pris du temps pour le changer J'ai pris du temps, ça prend du temps d'essayer C'est tellement rare quand ça marche C'est tellement rare que quand ça marche faudra Battre le fer tant qu'il est chaud Le fer tant qu'il est chaud Parce que l'enfer, c'est pas d'échouer C'est d'pas tout faire pour essayer Alors j'ai tout fait, tout fait Jusqu'à étouffer, étouffer Ah oui, j'ai tout fait, tout fait Et j'aimerais souffler, souffler J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part, un coin de paradis M'attendait comme une feuille blanche Une feuille blanche You might also like Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps J'ai pris rencard chez le docteur, chez le coiffeur, chez le véto Hier, j'ai éteint très tard, aujourd'hui je me suis levé tôt J'ai pris ma douche, j'ai pris la mouche, j'ai pris la route, mes affaires J'ai pris le train, le taxi, j'ai trop pris, j'ai pris cher J'ai pris mon fils par la main, pour sa fête et son tournoi J'ai pris le courage à 2 mains, le mal de tête, c'est pour moi J'ai pris mes doutes enfouis sous les t-shirts dans ma valise J'ai pris l'Tour-Bus dans une ambiance que souvent j'idéalise J'ai pris du retard dans ma journée, dans mon planning, dans mon sommeil J'ai pris de l'avance sur la fatigue, mais pas vraiment sur le réveil J'ai pris une allure, une cadence, un rythme entêtant Mais c'est vrai, J'ai pas pris le temps depuis longtemps J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde Allonger les secondes On a pris le temps</t>
+          <t>J'ai pris du temps pour mon métier J'ai pris du temps pour mes chansons Ce qui allait pas j'ai pris du temps pour le changer J'ai pris du temps, ça prend du temps d'essayer C'est tellement rare quand ça marche C'est tellement rare que quand ça marche faudra Battre le fer tant qu'il est chaud Le fer tant qu'il est chaud Parce que l'enfer, c'est pas d'échouer C'est d'pas tout faire pour essayer Alors j'ai tout fait, tout fait Jusqu'à étouffer, étouffer Ah oui, j'ai tout fait, tout fait Et j'aimerais souffler, souffler J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part, un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps J'ai pris rencard chez le docteur, chez le coiffeur, chez le véto Hier, j'ai éteint très tard, aujourd'hui je me suis levé tôt J'ai pris ma douche, j'ai pris la mouche, j'ai pris la route, mes affaires J'ai pris le train, le taxi, j'ai trop pris, j'ai pris cher J'ai pris mon fils par la main, pour sa fête et son tournoi J'ai pris le courage à 2 mains, le mal de tête, c'est pour moi J'ai pris mes doutes enfouis sous les t-shirts dans ma valise J'ai pris l'Tour-Bus dans une ambiance que souvent j'idéalise J'ai pris du retard dans ma journée, dans mon planning, dans mon sommeil J'ai pris de l'avance sur la fatigue, mais pas vraiment sur le réveil J'ai pris une allure, une cadence, un rythme entêtant Mais c'est vrai, J'ai pas pris le temps depuis longtemps J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde Allonger les secondes On a pris le temps</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tu tournes en rond, tu tournes en rond comme un triste vinyle Still I feel alive Even when the walls keeps falling I thought youth will never die So we jumped into fire to feel something And we crashed into the night But tomorrow never stops it keeps coming Falling through the sky Is the only to fly Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Y'a la vie donc y'a la lutte Mais j'ai comme envie d'dormir Avant qu'le soleil ne chute J'ai des buts en ligne de mire Dans leur monde sans espoir Il voudrait qu'on s'alarme Mais rien de grave se prépare Bébé, tout est déjà là Pas de refrain lalalère Ou bien de bons sentiments Tous nos rêves vont à la mer Forment un sixième continent Je n'me mets plus de limite J'ai l'horizon du Bédouin Faner vite, renaître plus loin Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Only way is up Je vis dans le noir d'où la lumière jaillit Je t'offre l'aube et j'retourne à ma nuit La vie un fragment, on passe tous en coupe-vent You might also likeSouvent enfoncé dans nos sables émouvants Nos corps désarmés font de nous des proies Des pétales de roses posées sur des ghettos froids Reste pas apeuré, fourbi tes armes Et si ta vie c'est pleurer ouvre un musée d'larmes ! Poésie muselée Je cherche l'oasis dans ces déserts désolés Et toi t'es une étoile étiolée Ton ciel est délavé, ton soleil délabré Tu tournes en rond Tu tournes en rond comme un triste vinyle Tu tournes en rond Viens dans mon lagon j'y ai planté quelques îles Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Only way is up1</t>
+          <t>Tu tournes en rond, tu tournes en rond comme un triste vinyle Still I feel alive Even when the walls keeps falling I thought youth will never die So we jumped into fire to feel something And we crashed into the night But tomorrow never stops it keeps coming Falling through the sky Is the only to fly Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Y'a la vie donc y'a la lutte Mais j'ai comme envie d'dormir Avant qu'le soleil ne chute J'ai des buts en ligne de mire Dans leur monde sans espoir Il voudrait qu'on s'alarme Mais rien de grave se prépare Bébé, tout est déjà là Pas de refrain lalalère Ou bien de bons sentiments Tous nos rêves vont à la mer Forment un sixième continent Je n'me mets plus de limite J'ai l'horizon du Bédouin Faner vite, renaître plus loin Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Only way is up Je vis dans le noir d'où la lumière jaillit Je t'offre l'aube et j'retourne à ma nuit La vie un fragment, on passe tous en coupe-vent Souvent enfoncé dans nos sables émouvants Nos corps désarmés font de nous des proies Des pétales de roses posées sur des ghettos froids Reste pas apeuré, fourbi tes armes Et si ta vie c'est pleurer ouvre un musée d'larmes ! Poésie muselée Je cherche l'oasis dans ces déserts désolés Et toi t'es une étoile étiolée Ton ciel est délavé, ton soleil délabré Tu tournes en rond Tu tournes en rond comme un triste vinyle Tu tournes en rond Viens dans mon lagon j'y ai planté quelques îles Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Only way is up1</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Si ce monde est trop dur pour le prendre tel quel On peut enterrer l'obscur en se roulant quelques pelles Exister n'est pas drôle mais ça en vaut la peine On souffre pour s'rapp'ler la taille humaine Profite du bonheur car il va s'éloigner L'argent se paye cher, demande à ton loyer Retiens le secret des gens heureux qui savent que ça s'ra rarement comme on veut Jamais Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable C'est des fleurs et des barils de poudre C'est la nuit où j'ai vu l'jour C'est des coups d'boules ou des coups d'foudres C'est un vaudeville, c'est un chaos toujours J'veux pas la grande, j'veux la bonne vie tout court On naît seul, on meurt seul Dansons, nos langues sans bois râpent des copeaux d'émotion Bout de chanson pour tromper le sablier Comme un esthète au dessus de la mêlée, hein Quand j'ai le cur à plat Je cherche le bréviaire ou le mode d'emploi J'ai posé mes questions aux comètes Aux étoiles, aux grimoires, aux poètes Inexplicable, vis à la vie, aux amis, à la mille-fa Rien ne vaut la vie donc viva la vida You might also like Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable L'amour, on en parle Ainsi, je cours Le manque de temps inclut le manque de tout Je propose un départ au quart de tour Les casseurs d'extase, partez, ou cassez-vous Je propose du bon vieux temps Pardonne les cons qui me demandent On commence quand ? Entre le tout et son contraire Tu vas y arriver même si t'aimes pas ton père Skrr Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable</t>
+          <t>Si ce monde est trop dur pour le prendre tel quel On peut enterrer l'obscur en se roulant quelques pelles Exister n'est pas drôle mais ça en vaut la peine On souffre pour s'rapp'ler la taille humaine Profite du bonheur car il va s'éloigner L'argent se paye cher, demande à ton loyer Retiens le secret des gens heureux qui savent que ça s'ra rarement comme on veut Jamais Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable C'est des fleurs et des barils de poudre C'est la nuit où j'ai vu l'jour C'est des coups d'boules ou des coups d'foudres C'est un vaudeville, c'est un chaos toujours J'veux pas la grande, j'veux la bonne vie tout court On naît seul, on meurt seul Dansons, nos langues sans bois râpent des copeaux d'émotion Bout de chanson pour tromper le sablier Comme un esthète au dessus de la mêlée, hein Quand j'ai le cur à plat Je cherche le bréviaire ou le mode d'emploi J'ai posé mes questions aux comètes Aux étoiles, aux grimoires, aux poètes Inexplicable, vis à la vie, aux amis, à la mille-fa Rien ne vaut la vie donc viva la vida Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable L'amour, on en parle Ainsi, je cours Le manque de temps inclut le manque de tout Je propose un départ au quart de tour Les casseurs d'extase, partez, ou cassez-vous Je propose du bon vieux temps Pardonne les cons qui me demandent On commence quand ? Entre le tout et son contraire Tu vas y arriver même si t'aimes pas ton père Skrr Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Si ce monde est trop dur pour le prendre tel quel On peut enterrer l'obscur en se roulant quelques pelles Exister n'est pas drôle mais ça en vaut la peine On souffre pour s'rapp'ler la taille humaine Profite du bonheur car il va s'éloigner L'argent se paye cher, demande à ton loyer Retiens le secret des gens heureux qui savent que ça s'ra rarement comme on veut Jamais Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable C'est des fleurs et des barils de poudre C'est la nuit où j'ai vu l'jour C'est des coups d'boules ou des coups d'foudres C'est un vaudeville, c'est un chaos toujours J'veux pas la grande, j'veux la bonne vie tout court On naît seul, on meurt seul Dansons, nos langues sans bois râpent des copeaux d'émotion Bout de chanson pour tromper le sablier Comme un esthète au dessus de la mêlée, hein Quand j'ai le cur à plat Je cherche le bréviaire ou le mode d'emploi J'ai posé mes questions aux comètes Aux étoiles, aux grimoires, aux poètes Inexplicable, vis à la vie, aux amis, à la mille-fa Rien ne vaut la vie donc viva la vida You might also like Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable L'amour, on en parle Ainsi, je cours Le manque de temps inclut le manque de tout Je propose un départ au quart de tour Les casseurs d'extase, partez, ou cassez-vous Je propose du bon vieux temps Pardonne les cons qui me demandent On commence quand ? Entre le tout et son contraire Tu vas y arriver même si t'aimes pas ton père Skrr Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable</t>
+          <t>Si ce monde est trop dur pour le prendre tel quel On peut enterrer l'obscur en se roulant quelques pelles Exister n'est pas drôle mais ça en vaut la peine On souffre pour s'rapp'ler la taille humaine Profite du bonheur car il va s'éloigner L'argent se paye cher, demande à ton loyer Retiens le secret des gens heureux qui savent que ça s'ra rarement comme on veut Jamais Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable C'est des fleurs et des barils de poudre C'est la nuit où j'ai vu l'jour C'est des coups d'boules ou des coups d'foudres C'est un vaudeville, c'est un chaos toujours J'veux pas la grande, j'veux la bonne vie tout court On naît seul, on meurt seul Dansons, nos langues sans bois râpent des copeaux d'émotion Bout de chanson pour tromper le sablier Comme un esthète au dessus de la mêlée, hein Quand j'ai le cur à plat Je cherche le bréviaire ou le mode d'emploi J'ai posé mes questions aux comètes Aux étoiles, aux grimoires, aux poètes Inexplicable, vis à la vie, aux amis, à la mille-fa Rien ne vaut la vie donc viva la vida Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable L'amour, on en parle Ainsi, je cours Le manque de temps inclut le manque de tout Je propose un départ au quart de tour Les casseurs d'extase, partez, ou cassez-vous Je propose du bon vieux temps Pardonne les cons qui me demandent On commence quand ? Entre le tout et son contraire Tu vas y arriver même si t'aimes pas ton père Skrr Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>J'ai des visions de Fin du monde Jai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde Jai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde Jai des visions de Fin du monde Jai des visions d'un Nouveau monde Vision de chaman Dans la fumée âcre Plantation de canne à sucre Chant de Blancs, de Noirs couleur ocre Jai la plume incandescente, mes yeux s'écarquillent Dans mes rêves fluorescents y'a des jaguars au ralenti La Terre est en détresse j'entends geindre les Dieux La colère, la tendresse, laisse-moi joindre les deux Jai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde You might also likeLe rythme est syncopé, ma voix est une galaxie Les yeux sont révulsés, j'ai fumé de la magie J'ai fumé de la magie jusqu'à jusqu'à l'aphasie J'entends le coeur qui s'en va Tremblent les fleurs, j'me sens mal La fin du temps qui s'emballe J'écrase le cône dans le cendar Comme des forêts qui s'embrasent Et le mercure qui s'enflamme Laisse le monde sans âme J'ai les visions du chaman J'fais de la vie un prétexte pour écrire des poèmes J'fais d'mes textes des tempêtes, des rivières, des totems J'fais de la vie un prétexte pour écrire des poèmes J'fais d'mes textes des tempêtes, des rivières, des totems On joue à crache-crache fumée de H Détache mon HH, lâche des lignes comme des punchlines J'parle de c'qui fâche même si les mots j'mâche J'fais des textes aussi longs que le blaze d'un malgache Tchin, y'a du champagne dans ma calebasse, caisse claire C'est d'la cosa no stress, laisse faire! J'prends mon barda, m'casse, me fout d'leurs promesses On sauvegarde pas la planète avec des pommes S J'viens remettre le couvert Dehors c'est plus tout vert, paraît qu'le temps est nucléaire J'suis assis sous la pluie acide, assiste à ce monde qu'on décime Au choix qu'on décide, à la fin qu'on dessine Si si, mes multi-syllabes en sursis s'asphyxient dans ce monde absurde de Sisyphe Et s'ils sont aussi cons que l'on s'imagine On ira tous en Enfer suer comme au club gym! J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde</t>
+          <t>J'ai des visions de Fin du monde Jai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde Jai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde Jai des visions de Fin du monde Jai des visions d'un Nouveau monde Vision de chaman Dans la fumée âcre Plantation de canne à sucre Chant de Blancs, de Noirs couleur ocre Jai la plume incandescente, mes yeux s'écarquillent Dans mes rêves fluorescents y'a des jaguars au ralenti La Terre est en détresse j'entends geindre les Dieux La colère, la tendresse, laisse-moi joindre les deux Jai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde Le rythme est syncopé, ma voix est une galaxie Les yeux sont révulsés, j'ai fumé de la magie J'ai fumé de la magie jusqu'à jusqu'à l'aphasie J'entends le coeur qui s'en va Tremblent les fleurs, j'me sens mal La fin du temps qui s'emballe J'écrase le cône dans le cendar Comme des forêts qui s'embrasent Et le mercure qui s'enflamme Laisse le monde sans âme J'ai les visions du chaman J'fais de la vie un prétexte pour écrire des poèmes J'fais d'mes textes des tempêtes, des rivières, des totems J'fais de la vie un prétexte pour écrire des poèmes J'fais d'mes textes des tempêtes, des rivières, des totems On joue à crache-crache fumée de H Détache mon HH, lâche des lignes comme des punchlines J'parle de c'qui fâche même si les mots j'mâche J'fais des textes aussi longs que le blaze d'un malgache Tchin, y'a du champagne dans ma calebasse, caisse claire C'est d'la cosa no stress, laisse faire! J'prends mon barda, m'casse, me fout d'leurs promesses On sauvegarde pas la planète avec des pommes S J'viens remettre le couvert Dehors c'est plus tout vert, paraît qu'le temps est nucléaire J'suis assis sous la pluie acide, assiste à ce monde qu'on décime Au choix qu'on décide, à la fin qu'on dessine Si si, mes multi-syllabes en sursis s'asphyxient dans ce monde absurde de Sisyphe Et s'ils sont aussi cons que l'on s'imagine On ira tous en Enfer suer comme au club gym! J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Les mots secs, idées noires, mes pages blanches La gorge nouée, la pensée en avalanche Je sais même plus quoi en croire Jai même plus envie de voir Mon cur est délavé, et jai dévié de trajectoire Et quand on coupe la cordée Où est lHomme libre, prêt à déjouer les artefacts ? Est-ce que tu vois tant de joie ici, toi ? Pour continuer à danser Pousser la voix, jai les épaules solides Mais jen peux plus tu vois De noyer ça dans du liquide Tequila Alors je laisse sur le piano, un bouquet de camélias Pas de lettres, pas de mots, il est tôt ce matin-là Le cur plein et silencieux, la voie lactée dans les yeux Il fait nuit sur mes jours, et je pars pour Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles You might also like Je voulais voir demain, à lombre dautres ciels En agitant mes mains, deviendront-elles des ailes Je voulais voir le monde, lui qui brûle lentement Réveille-moi tout gronde, je quitte le banc, le rang Allumer, allumer, allumer les lampes Lever, lever, lever nos ancres Et glisser, garder lélan, embrasser lerrance Alors je laisse sur le piano, un bouquet de camélias Pas de lettres, pas de mots, il est tôt ce matin-là Le cur plein et silencieux, la voie lactée dans les yeux Il fait nuit sur mes jours, et je pars pour Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles O tempo dos homens é igual a eternidade dobrada E você O que está fazendo do seu tempo? Preso entre o absurdo e o sublime É verdade, mas o teu amanhã é seu É seu o sonho, sua estrada e sua viajem</t>
+          <t>Les mots secs, idées noires, mes pages blanches La gorge nouée, la pensée en avalanche Je sais même plus quoi en croire Jai même plus envie de voir Mon cur est délavé, et jai dévié de trajectoire Et quand on coupe la cordée Où est lHomme libre, prêt à déjouer les artefacts ? Est-ce que tu vois tant de joie ici, toi ? Pour continuer à danser Pousser la voix, jai les épaules solides Mais jen peux plus tu vois De noyer ça dans du liquide Tequila Alors je laisse sur le piano, un bouquet de camélias Pas de lettres, pas de mots, il est tôt ce matin-là Le cur plein et silencieux, la voie lactée dans les yeux Il fait nuit sur mes jours, et je pars pour Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Je voulais voir demain, à lombre dautres ciels En agitant mes mains, deviendront-elles des ailes Je voulais voir le monde, lui qui brûle lentement Réveille-moi tout gronde, je quitte le banc, le rang Allumer, allumer, allumer les lampes Lever, lever, lever nos ancres Et glisser, garder lélan, embrasser lerrance Alors je laisse sur le piano, un bouquet de camélias Pas de lettres, pas de mots, il est tôt ce matin-là Le cur plein et silencieux, la voie lactée dans les yeux Il fait nuit sur mes jours, et je pars pour Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles O tempo dos homens é igual a eternidade dobrada E você O que está fazendo do seu tempo? Preso entre o absurdo e o sublime É verdade, mas o teu amanhã é seu É seu o sonho, sua estrada e sua viajem</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Il sappelle Président Il tient les rênes du pays depuis 10 à 40 ans Il est élu à 99 Lethnie dont il est issu est qualifiée de pur-sang Son pays est soi-disant démocratique Les opposants, les critiques Cest soit la mort, soit lexil politique Il est en place depuis son putsch, son coup détat Lui sest enrichi mais son pays sest endetté Embêtées sont les puissances occidentales Sponsorisées par sa rente dhydrocarbures et de métal Les connivences mafieuses, militaro-financières Le népotisme, les barbouzes et les mercenaires Président à vie est son mandat Il quitte le pouvoir par mort naturelle ou assassinat Quand cest la paix, les dirigeants dirigent Quand cest la guerre, cest la guerre qui dirige Aqui Assim A sentir também Ndengue ja uàba A bixila boba A zuela kiambote Oh África balumukenu Ndengue ja uàba A bixila boba A zuela kiambote Oh África balumuka You might also like Et quand le père meurt, le peuple pleure La radio exploite la peur, lennemi est à lintérieur Les rancurs et la terreur viennent chasser la paix Les barrages sont dressés, le voisin devient suspect On décrète la ville morte et le couvre-feu Les ambassades se remplissent et tous les blancs fuient Il y a des rumeurs de pillages, des viols, des pénuries Les gens ont peur, le peuple voit la paix mourir Des jours de grèves, des lynchages de plus en plus fréquents La guerre civile est imminente, info mondiale sur les fréquences LONU sinquiète, engage des pourparlers Faut-il agir ? Sabstenir ? Y a-t-il des intérêts ? Le cessez-le feu est violé par les belligérants Ya plus de gérance dans le pays qui part en déshérence La guerre est là, tout le monde la sent Encore une fois, ce sera la mort la mort des innocents Muxima uami olo kata Mukonda tua zuela oh kide Ai Muxima uami olo kata Mukonda tua zuela oh kide Balumukenu África África balumukenu Ngo diondo Ngo diondo Aiué nakuetenu Tenham pena de mim Tenham pena do povo... Ai ué nakuetenu Ma bien-aimée, j'écris cette lettre avec l'espoir que tu puisses me lire Les hommes sont bêtes, l'Afrique est belle, fais pas l'erreur de la haïr Avec toi je voulais vieillir sur ces collines, dans cette maison Mais l'horizon s'arrête ici, je suis venu chanter mon oraison Il m'enlève le galbe de tes hanches, le suave de tes lèvres Sans trêve, Umugwaneza , lumière de tous mes rêves Je dois quitter ce port, mon âme quitte son corps Mais mon amour je resterai toujours à deux encablures de ton cur Je vais partir dans les minutes qui suivent Ma peine est lourde, j'espère que tu recevras cette missive J'écris ces vers d'espoirs, des fleuves de tourterelles Des tours de rêves, de brèves trêves de querelles Il est trop tard les soldats envahissent la parcelle Ma belle, j'écris des mots d'amours que je parsème Sur ce cahier, je finis ma vie et ce poème La guerre m'a pris de court pour te dire je taime Ngo diondo Ngo diondo nakuetenu Ngo diondo África Tenham pena do povo Tenham pena de mim Ngo diondo Nakuetenu nakuetenu Tenham pena do povo África balumukenu Di di di di di di - Aiué Ngo diondo nakuetenu Tenham pena de mim1</t>
+          <t>Il sappelle Président Il tient les rênes du pays depuis 10 à 40 ans Il est élu à 99 Lethnie dont il est issu est qualifiée de pur-sang Son pays est soi-disant démocratique Les opposants, les critiques Cest soit la mort, soit lexil politique Il est en place depuis son putsch, son coup détat Lui sest enrichi mais son pays sest endetté Embêtées sont les puissances occidentales Sponsorisées par sa rente dhydrocarbures et de métal Les connivences mafieuses, militaro-financières Le népotisme, les barbouzes et les mercenaires Président à vie est son mandat Il quitte le pouvoir par mort naturelle ou assassinat Quand cest la paix, les dirigeants dirigent Quand cest la guerre, cest la guerre qui dirige Aqui Assim A sentir também Ndengue ja uàba A bixila boba A zuela kiambote Oh África balumukenu Ndengue ja uàba A bixila boba A zuela kiambote Oh África balumuka Et quand le père meurt, le peuple pleure La radio exploite la peur, lennemi est à lintérieur Les rancurs et la terreur viennent chasser la paix Les barrages sont dressés, le voisin devient suspect On décrète la ville morte et le couvre-feu Les ambassades se remplissent et tous les blancs fuient Il y a des rumeurs de pillages, des viols, des pénuries Les gens ont peur, le peuple voit la paix mourir Des jours de grèves, des lynchages de plus en plus fréquents La guerre civile est imminente, info mondiale sur les fréquences LONU sinquiète, engage des pourparlers Faut-il agir ? Sabstenir ? Y a-t-il des intérêts ? Le cessez-le feu est violé par les belligérants Ya plus de gérance dans le pays qui part en déshérence La guerre est là, tout le monde la sent Encore une fois, ce sera la mort la mort des innocents Muxima uami olo kata Mukonda tua zuela oh kide Ai Muxima uami olo kata Mukonda tua zuela oh kide Balumukenu África África balumukenu Ngo diondo Ngo diondo Aiué nakuetenu Tenham pena de mim Tenham pena do povo... Ai ué nakuetenu Ma bien-aimée, j'écris cette lettre avec l'espoir que tu puisses me lire Les hommes sont bêtes, l'Afrique est belle, fais pas l'erreur de la haïr Avec toi je voulais vieillir sur ces collines, dans cette maison Mais l'horizon s'arrête ici, je suis venu chanter mon oraison Il m'enlève le galbe de tes hanches, le suave de tes lèvres Sans trêve, Umugwaneza , lumière de tous mes rêves Je dois quitter ce port, mon âme quitte son corps Mais mon amour je resterai toujours à deux encablures de ton cur Je vais partir dans les minutes qui suivent Ma peine est lourde, j'espère que tu recevras cette missive J'écris ces vers d'espoirs, des fleuves de tourterelles Des tours de rêves, de brèves trêves de querelles Il est trop tard les soldats envahissent la parcelle Ma belle, j'écris des mots d'amours que je parsème Sur ce cahier, je finis ma vie et ce poème La guerre m'a pris de court pour te dire je taime Ngo diondo Ngo diondo nakuetenu Ngo diondo África Tenham pena do povo Tenham pena de mim Ngo diondo Nakuetenu nakuetenu Tenham pena do povo África balumukenu Di di di di di di - Aiué Ngo diondo nakuetenu Tenham pena de mim1</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay You might also like- Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
+          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Respire, respire, respire, espère Encore linsomnie, sonnerie du matin Le corps engourdi, toujours endormi, miroir, salle de bain Triste face à face, angoisse du réveil Reflet dans la glace, les années qui passent ternissent le soleil OK Aux flashs dinfos les crises, le chômage La fonte des glaces, les particules fines Courir après lhure, les rames bondés Les bastons dregards, la vie cest lusine Hamster dans sa roue Ptit chef, grand bourreau Faire la queue partout, font la gueule partout La vie cest robot Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Encore fatigué, la cloche du midi Le corps assommé, toujours épuisé, les masques sont mis Triste face à face, poursuite du bonheur Reflet dans la glace, les années qui passent flétrissent les fleurs OK Les écrans, le bruit, largent, les crédits Les phrases assassines, les cons, les cancers Le temps qui sécoule, le vide qui se fait Le silence épais, la vie cest la guerre Tourner dans ltambour Amour placébo Faire semblant pour tout, cest violent partout La vie cest Rambo You might also like Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Les yeux ouverts, ne trouve pas lsommeil, dans le lit tourne tout ltemps Les phares des voitures balayent le plafond de leurs ombres dansantes La nuit étouffe, la chaleur est lourde, lorage est en suspens Où sont les rêves ? Où sont nos rêves denfants ? Séchapper, déserter les rangs Sévader des tapis roulants Chercher le silence et lerrance Raccrocher, trouver sa cadence Se foutre des codes, des routines étroites Quitter son rôle, les cases et les boîtes Ne pas craquer, claquer, cramer Desserre ton col pour respirer Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère</t>
+          <t>Respire, respire, respire, espère Encore linsomnie, sonnerie du matin Le corps engourdi, toujours endormi, miroir, salle de bain Triste face à face, angoisse du réveil Reflet dans la glace, les années qui passent ternissent le soleil OK Aux flashs dinfos les crises, le chômage La fonte des glaces, les particules fines Courir après lhure, les rames bondés Les bastons dregards, la vie cest lusine Hamster dans sa roue Ptit chef, grand bourreau Faire la queue partout, font la gueule partout La vie cest robot Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Encore fatigué, la cloche du midi Le corps assommé, toujours épuisé, les masques sont mis Triste face à face, poursuite du bonheur Reflet dans la glace, les années qui passent flétrissent les fleurs OK Les écrans, le bruit, largent, les crédits Les phrases assassines, les cons, les cancers Le temps qui sécoule, le vide qui se fait Le silence épais, la vie cest la guerre Tourner dans ltambour Amour placébo Faire semblant pour tout, cest violent partout La vie cest Rambo Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Les yeux ouverts, ne trouve pas lsommeil, dans le lit tourne tout ltemps Les phares des voitures balayent le plafond de leurs ombres dansantes La nuit étouffe, la chaleur est lourde, lorage est en suspens Où sont les rêves ? Où sont nos rêves denfants ? Séchapper, déserter les rangs Sévader des tapis roulants Chercher le silence et lerrance Raccrocher, trouver sa cadence Se foutre des codes, des routines étroites Quitter son rôle, les cases et les boîtes Ne pas craquer, claquer, cramer Desserre ton col pour respirer Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Vous finirez seuls et vaincus, sourds aux palpitations du monde A ses hoquets, ses hauts ses bas, ses haussements d'épaules veules Au recensement des ossements qui tapissent le fond des eaux Vous finirez seuls et vaincus, aveugles aux débris tenaces De ces vies qui têtues s'enlacent, de ces amours qui ne se lassnt Même lacérées de s hisser à la cime des songeries Vous finirez seuls et vaincus, grands éructants rudimentaires Insouciants face à nos errances sur la rude écale de la Terre Indifférents aux pulsations qui lâchent laisse à l'espérance Vous finirez seuls et vaincus car longue longue est la mémoire Des pieds des peaux des au-revoir, et de ces temps itinérants Où devisant et divisant, vous créez un monde en noir et blanc Vous finirez seuls et vaincus, vos cris vos cors et vos crédos Autorité en toc et broc ne sauront vous sauver de rien L'éclat de nos vies entêtées éblouira vos en-dedans Et vos enfants joyeux et vifs feront rondes et farandoles Avec nos enfants et leurs chants, et s'aimant sans y prendre garde Vous puniront en vous offrant des petits-enfants chatoyants Vous finirez seuls et vaincus car invincible est notre ardeur Et si ardent notre présent, incandescent notre avenir Grâce à la tendresse qui survit à ce passé simple et composé You might also like While you're holding on to your bones Holding on to what you know We won't make the same mistakes Stakes are high we claim our fates While you're holding on to your bones seuls Holding on to what you know We won't make the same mistakes seuls Stakes are high we claim our fates vaincus While you're holding on to your bones seuls Holding on to what you know vaincus We won't make the same mistakes seuls Stakes are high we claim our fates Vous finirez seuls et vaincus</t>
+          <t>Vous finirez seuls et vaincus, sourds aux palpitations du monde A ses hoquets, ses hauts ses bas, ses haussements d'épaules veules Au recensement des ossements qui tapissent le fond des eaux Vous finirez seuls et vaincus, aveugles aux débris tenaces De ces vies qui têtues s'enlacent, de ces amours qui ne se lassnt Même lacérées de s hisser à la cime des songeries Vous finirez seuls et vaincus, grands éructants rudimentaires Insouciants face à nos errances sur la rude écale de la Terre Indifférents aux pulsations qui lâchent laisse à l'espérance Vous finirez seuls et vaincus car longue longue est la mémoire Des pieds des peaux des au-revoir, et de ces temps itinérants Où devisant et divisant, vous créez un monde en noir et blanc Vous finirez seuls et vaincus, vos cris vos cors et vos crédos Autorité en toc et broc ne sauront vous sauver de rien L'éclat de nos vies entêtées éblouira vos en-dedans Et vos enfants joyeux et vifs feront rondes et farandoles Avec nos enfants et leurs chants, et s'aimant sans y prendre garde Vous puniront en vous offrant des petits-enfants chatoyants Vous finirez seuls et vaincus car invincible est notre ardeur Et si ardent notre présent, incandescent notre avenir Grâce à la tendresse qui survit à ce passé simple et composé While you're holding on to your bones Holding on to what you know We won't make the same mistakes Stakes are high we claim our fates While you're holding on to your bones seuls Holding on to what you know We won't make the same mistakes seuls Stakes are high we claim our fates vaincus While you're holding on to your bones seuls Holding on to what you know vaincus We won't make the same mistakes seuls Stakes are high we claim our fates Vous finirez seuls et vaincus</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Knowledge of the infinite Even if you got it just a little bit Soon as you feel the ground start shaking All your doubts and fears start waking Baby cries through the concrete Genocide, lost the breath of life under Gods feet Genocide of the angels Even murdered instruments, trumpets, banjos But I still hear singing Mixed between the crying Sirens ringing Buried my whole tribe I'm crying, thinking Rescue us from Zion God ain't blinking Bodies, how they pile on Clock ain't ticking On face had a smile on Plot just thickened Courage of a lion, nine-life kitten Wandering through iron bars, once prison Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Ils comprennent rien les soumis, les idiots, les vulgaires A la tristesse de l'Eden, aux clartés de l'Enfer Il faut goûter son sang car le sang est esprit On suicide un silence en accouchant d'un cri J'habite un désastre sous la colère des Dieux Où le monde doit s'éteindre pour qu'on ouvre les yeux Et le vin à la bouche, et le coeur sous le pieu On fera voeu de renaître de quelques cendres de feu J'effeuille les corolles de ce qu'on veut de la vie Un peu de vent sur la peau, les caresses d'une fille S'envolaient tout là haut pour gratter l'équinoxe Etre un arbre écrivain en s'écorchant l'écorce Mais tout ça s'est cassé en un éclair, coincé Sous une chape de béton armé Mes enfants, le solstice c'est dans longtemps Mais longtemps c'est maintenant Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one dayYou might also like</t>
+          <t>Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Knowledge of the infinite Even if you got it just a little bit Soon as you feel the ground start shaking All your doubts and fears start waking Baby cries through the concrete Genocide, lost the breath of life under Gods feet Genocide of the angels Even murdered instruments, trumpets, banjos But I still hear singing Mixed between the crying Sirens ringing Buried my whole tribe I'm crying, thinking Rescue us from Zion God ain't blinking Bodies, how they pile on Clock ain't ticking On face had a smile on Plot just thickened Courage of a lion, nine-life kitten Wandering through iron bars, once prison Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Ils comprennent rien les soumis, les idiots, les vulgaires A la tristesse de l'Eden, aux clartés de l'Enfer Il faut goûter son sang car le sang est esprit On suicide un silence en accouchant d'un cri J'habite un désastre sous la colère des Dieux Où le monde doit s'éteindre pour qu'on ouvre les yeux Et le vin à la bouche, et le coeur sous le pieu On fera voeu de renaître de quelques cendres de feu J'effeuille les corolles de ce qu'on veut de la vie Un peu de vent sur la peau, les caresses d'une fille S'envolaient tout là haut pour gratter l'équinoxe Etre un arbre écrivain en s'écorchant l'écorce Mais tout ça s'est cassé en un éclair, coincé Sous une chape de béton armé Mes enfants, le solstice c'est dans longtemps Mais longtemps c'est maintenant Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Entre deux gros concerts, entre deux courants d'air Entre ceux qui disent oui qui disent non j'ai fait l'inventaire Si rester c'est l'enfer, si partir c'est dans l'air Est-ce que je dois secouer 40 années de ma vie de sédentaire ? Et pourquoi je quitterais la vue que j'ai depuis ma terrasse ? Elle est très bien ma vue, il est très bien mon quartier Et pourquoi je quitterais mes potes et mon voisin d'en face ? C'est ici qu'j'suis moi-même et serein et entier Et pourtant ça me tente, et pourtant ça me chante Et pourtant ça rentre pas dans mon schéma et c'est ça qui se tente Et pourtant je le sens, je le crains, je le fuis et je le veux Tailler un peu la route avant d'être vieux Comprendre les couleurs et les douceurs des lointaines chaleurs Apprendre les lumières lunaires des cités étrangères Voir avec bonheur comment les enfants dansent ailleurs Me fabriquer d'autres repères pour quand je ferme les paupières Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Il ne savent pas que je mords, que ma vie sent le souffre Je passe en météore comme on passera tous J'suis fait de pierre granit mais d'un cur grenadine Quand t'effriteras ton shit moi je taillerai ma mine Ouais je taillerai la route, ici j'ai plus d'attache J'irai m'planquer dans la soute si pour moi y'a plus la place Qu'ils aillent gratter leurs croûtes cette bande de fils de lâches Obsédés par leur souche moi j'suis amoureux du large J'veux faire des milliers de miles, me languir de mille romans M'arrimer au rythme lent, l'ire en moi la calmer de milliers de mots Admirer le monde, la lune, l'onde de la mer au loin La lumière de l'aube sur l'eau en naviguant d'îles en îlots Éviter les vagues et livrer combat à l'hydre du Mal J'ai vidé les larmes, de longue date j'habite le large S'attifer de l'or des jours qui passent pour raviver l'âme Marcher le feu dans la lanterne jusqu'à Lalilbela You might also like On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va J'aime être seul partir à la pêche Même si je pêche pas partir à la fraîche Moi j'ai la parole sèche Quand mon apparence triche Je fais pas très bien semblant Quand mon apparence flanche Je prends pas souvent sur moi Je prends trop souvent sur ceux qui m'entourent et qui m'aiment Et pour qu'ils se ressourcent eux de mes tristes rengaines Régulièrement je me retire Je pars ou je peux dire Rien si je veux Régulièrement je me retire Désolé mais sans rire Je te dirai jamais Viens si tu veux Ça veut dire que je t'aime mais que je me connais Passée la quarantaine je vais pas beaucoup changer Je vais quitter là mes chaînes, là mes chaînes, là mes chaînes Et quand je reviendrai l'âme saine, l'âme saine, l'âme saine C'est que j'aurais voyagé Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va</t>
+          <t>Entre deux gros concerts, entre deux courants d'air Entre ceux qui disent oui qui disent non j'ai fait l'inventaire Si rester c'est l'enfer, si partir c'est dans l'air Est-ce que je dois secouer 40 années de ma vie de sédentaire ? Et pourquoi je quitterais la vue que j'ai depuis ma terrasse ? Elle est très bien ma vue, il est très bien mon quartier Et pourquoi je quitterais mes potes et mon voisin d'en face ? C'est ici qu'j'suis moi-même et serein et entier Et pourtant ça me tente, et pourtant ça me chante Et pourtant ça rentre pas dans mon schéma et c'est ça qui se tente Et pourtant je le sens, je le crains, je le fuis et je le veux Tailler un peu la route avant d'être vieux Comprendre les couleurs et les douceurs des lointaines chaleurs Apprendre les lumières lunaires des cités étrangères Voir avec bonheur comment les enfants dansent ailleurs Me fabriquer d'autres repères pour quand je ferme les paupières Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Il ne savent pas que je mords, que ma vie sent le souffre Je passe en météore comme on passera tous J'suis fait de pierre granit mais d'un cur grenadine Quand t'effriteras ton shit moi je taillerai ma mine Ouais je taillerai la route, ici j'ai plus d'attache J'irai m'planquer dans la soute si pour moi y'a plus la place Qu'ils aillent gratter leurs croûtes cette bande de fils de lâches Obsédés par leur souche moi j'suis amoureux du large J'veux faire des milliers de miles, me languir de mille romans M'arrimer au rythme lent, l'ire en moi la calmer de milliers de mots Admirer le monde, la lune, l'onde de la mer au loin La lumière de l'aube sur l'eau en naviguant d'îles en îlots Éviter les vagues et livrer combat à l'hydre du Mal J'ai vidé les larmes, de longue date j'habite le large S'attifer de l'or des jours qui passent pour raviver l'âme Marcher le feu dans la lanterne jusqu'à Lalilbela On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va J'aime être seul partir à la pêche Même si je pêche pas partir à la fraîche Moi j'ai la parole sèche Quand mon apparence triche Je fais pas très bien semblant Quand mon apparence flanche Je prends pas souvent sur moi Je prends trop souvent sur ceux qui m'entourent et qui m'aiment Et pour qu'ils se ressourcent eux de mes tristes rengaines Régulièrement je me retire Je pars ou je peux dire Rien si je veux Régulièrement je me retire Désolé mais sans rire Je te dirai jamais Viens si tu veux Ça veut dire que je t'aime mais que je me connais Passée la quarantaine je vais pas beaucoup changer Je vais quitter là mes chaînes, là mes chaînes, là mes chaînes Et quand je reviendrai l'âme saine, l'âme saine, l'âme saine C'est que j'aurais voyagé Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Freedom, freedom, freedom, freedom Freedom, freedom, freedom, freedom Sometimes I feel like a motherless child Sometimes I feel like a motherless child Sometimes I feel like a motherless child And it's a long way from my home Freedom freedom freedom freedom Freedom freedom freedom freedom Insaisissable, poussière de sable dans le vent J'suis vainqueur de mes enclaves Insaisissable, poussière de sable dans le vent J'suis chrysalide d'esclave Je suis l'homme debout, effronté et fier Ma liberté n'a pas genou à terre Je suis dans le besoin d'me réparer J'suis le peuple, j'restaure ma souveraineté Je suis celui que je n'osais plus Ma vie de sécheresse j'l'arroserai plus Dignité héroïque je piétine ma misère XXX mental en ruine j'm'affranchis d'mes frères Émancipé, pas sein d'esprit, soumis d'office Et la mort anticipé pour purger la joie qui guérit les destins J'deviens Gandhi des grands chemins You might also like Freedom, freedom, freedom, freedom Freedom, freedom, freedom, freedom Liberté, est un mot qui se crie Tuez nous que les poèmes s'écrivent Qu'ils remplissent de nos mondes tout vos livres Dans la moiteur des nuits et les matins de givre Que les peintres nous rendent la vie Sur les mers de l'oubli qu'ils dessinent des navires Tuez nous qu'on invente des chants Les générations à venir feront de nous des martyrs Debout digne XXX debout Les silhouettes se dessinent pour se souvenir de nous Des hommes géants sortent du néant De la blessure du monde et de son trou béant Des ombres au tableau, des sorcières à Salem Redoutable comme un seul homme se lève La liberté est une formule magique Pour nos curs détenus dans nos cages thoraciques x2</t>
+          <t>Freedom, freedom, freedom, freedom Freedom, freedom, freedom, freedom Sometimes I feel like a motherless child Sometimes I feel like a motherless child Sometimes I feel like a motherless child And it's a long way from my home Freedom freedom freedom freedom Freedom freedom freedom freedom Insaisissable, poussière de sable dans le vent J'suis vainqueur de mes enclaves Insaisissable, poussière de sable dans le vent J'suis chrysalide d'esclave Je suis l'homme debout, effronté et fier Ma liberté n'a pas genou à terre Je suis dans le besoin d'me réparer J'suis le peuple, j'restaure ma souveraineté Je suis celui que je n'osais plus Ma vie de sécheresse j'l'arroserai plus Dignité héroïque je piétine ma misère XXX mental en ruine j'm'affranchis d'mes frères Émancipé, pas sein d'esprit, soumis d'office Et la mort anticipé pour purger la joie qui guérit les destins J'deviens Gandhi des grands chemins Freedom, freedom, freedom, freedom Freedom, freedom, freedom, freedom Liberté, est un mot qui se crie Tuez nous que les poèmes s'écrivent Qu'ils remplissent de nos mondes tout vos livres Dans la moiteur des nuits et les matins de givre Que les peintres nous rendent la vie Sur les mers de l'oubli qu'ils dessinent des navires Tuez nous qu'on invente des chants Les générations à venir feront de nous des martyrs Debout digne XXX debout Les silhouettes se dessinent pour se souvenir de nous Des hommes géants sortent du néant De la blessure du monde et de son trou béant Des ombres au tableau, des sorcières à Salem Redoutable comme un seul homme se lève La liberté est une formule magique Pour nos curs détenus dans nos cages thoraciques x2</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones Je sortais des rimes pleins de ken ta race dans mes coups d'essai J'étais sapé en baggy Carhartt, shoes sans les lacets Je venais d'Afrique, on me disait tu sais, t'es sous-développé Donc révolté, j'ai dû travailler pour fermer des clapets J'étais la risée de tout le collège, qui, déraciné Qui d'africain dans la cour de récré, mineur isolé Ça jouait les durs, ça parlait de racket et de crans d'arrêt Je venais de là où soufflaient les obus et roulaient les blindés OK OK, la France c'est la paix, la sécurité Mais c'est aussi la morsure du froid et la solitude L'Eldorado n'était pas si beau, nan, Papa nous mentait Si je reste ici, c'est pas pour rapper mais piller les études Les années passent et les feuilles tombent à tous les automnes Et moi je m'étonne d'être encore ici, voyelles et consonnes Ma vie s'écrit sur des bouts de papier, je chante et fredonne Un blues qui ne me quitte plus depuis les bancs d'école, eh ouais You might also like Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones Et puis je prends racine dans le bitume, faut chercher la thune Acheter des pulls, ouais le froid nous tue, jamais je ne m'habitue Et toutes les nuits je fais des cauchemars de mes antécédents Je pisse au lit, je rêve qu'Edouard Norton va me casser les dents J'écris pour petite sur, toujours amère, ma vie est insipide Tout m'écure et sans le stylo, ma mère, je vous le jure, je me suicide À l'école je me dissipe, à l'époque, je veux me casser d'ici Tu veux devenir mon pote impossible, ce soir j'ai piscine Je perds la raison, à la maison plein de cadavres dans le placard Nos passés de génocide, d'exil, tout ça n'est que blackout Je cherche le vacarme de la rue, le silence des livres J'habite une cabane sur la lune quand le monde se délite J'ai vu les fins de monde, les carnages, les lynchages à l'essence Et j'observe les jeunes de mon âge, j'envie leur innocence Ne savent pas que tout est possible, que tout peut s'effondrer D'un jour un l'autre, comme dans un roman de Chinua Achebe, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones J'appelle mon père au bled, je rêve de rentrer mais c'est cher le kérosène, t'façon c'est dead Au Nord, l'armée se bat contre les rebelles, c'est le bordel Gosse sans repère, pas bien dans ses Corteiz Entre parenthèses, vivre l'exil c'est être en quarantaine Faut avancer, me répète ma mère, mentalité guerrière Je suis cadenassé par mon passé, j'avance en marche arrière Arraché de mes racines comme brûlé à l'acide Y a pas de psy, seule la musique sera ma catharsis Maintenant j'écris comme je respire, mais je respire empêché Tout m'inspire, j'aspire la vie, j'apprends à l'encaisser Paname, un champ de canne à l'été, je reste assis sur le canapé Je repense à ces années passées, mes premiers textes rappés Quand je sortais plein de ken ta race dans mes coups d'essai J'étais sapé en baggy Carhartt, shoes sans les lacets Je venais d'Afrique, on me disait tu sais, t'es sous-développé Donc révolté, je me suis mis à rapper pour fermer des clapets Souffle</t>
+          <t>Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones Je sortais des rimes pleins de ken ta race dans mes coups d'essai J'étais sapé en baggy Carhartt, shoes sans les lacets Je venais d'Afrique, on me disait tu sais, t'es sous-développé Donc révolté, j'ai dû travailler pour fermer des clapets J'étais la risée de tout le collège, qui, déraciné Qui d'africain dans la cour de récré, mineur isolé Ça jouait les durs, ça parlait de racket et de crans d'arrêt Je venais de là où soufflaient les obus et roulaient les blindés OK OK, la France c'est la paix, la sécurité Mais c'est aussi la morsure du froid et la solitude L'Eldorado n'était pas si beau, nan, Papa nous mentait Si je reste ici, c'est pas pour rapper mais piller les études Les années passent et les feuilles tombent à tous les automnes Et moi je m'étonne d'être encore ici, voyelles et consonnes Ma vie s'écrit sur des bouts de papier, je chante et fredonne Un blues qui ne me quitte plus depuis les bancs d'école, eh ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones Et puis je prends racine dans le bitume, faut chercher la thune Acheter des pulls, ouais le froid nous tue, jamais je ne m'habitue Et toutes les nuits je fais des cauchemars de mes antécédents Je pisse au lit, je rêve qu'Edouard Norton va me casser les dents J'écris pour petite sur, toujours amère, ma vie est insipide Tout m'écure et sans le stylo, ma mère, je vous le jure, je me suicide À l'école je me dissipe, à l'époque, je veux me casser d'ici Tu veux devenir mon pote impossible, ce soir j'ai piscine Je perds la raison, à la maison plein de cadavres dans le placard Nos passés de génocide, d'exil, tout ça n'est que blackout Je cherche le vacarme de la rue, le silence des livres J'habite une cabane sur la lune quand le monde se délite J'ai vu les fins de monde, les carnages, les lynchages à l'essence Et j'observe les jeunes de mon âge, j'envie leur innocence Ne savent pas que tout est possible, que tout peut s'effondrer D'un jour un l'autre, comme dans un roman de Chinua Achebe, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones J'appelle mon père au bled, je rêve de rentrer mais c'est cher le kérosène, t'façon c'est dead Au Nord, l'armée se bat contre les rebelles, c'est le bordel Gosse sans repère, pas bien dans ses Corteiz Entre parenthèses, vivre l'exil c'est être en quarantaine Faut avancer, me répète ma mère, mentalité guerrière Je suis cadenassé par mon passé, j'avance en marche arrière Arraché de mes racines comme brûlé à l'acide Y a pas de psy, seule la musique sera ma catharsis Maintenant j'écris comme je respire, mais je respire empêché Tout m'inspire, j'aspire la vie, j'apprends à l'encaisser Paname, un champ de canne à l'été, je reste assis sur le canapé Je repense à ces années passées, mes premiers textes rappés Quand je sortais plein de ken ta race dans mes coups d'essai J'étais sapé en baggy Carhartt, shoes sans les lacets Je venais d'Afrique, on me disait tu sais, t'es sous-développé Donc révolté, je me suis mis à rapper pour fermer des clapets Souffle</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Freestyle tropical pour le guide du routard La patrie est bancale comme le discours de Dakar Il fait chaud je transpire à grosses gouttes de Mützig Zao, les salops piquent, les soûlards sont des moustiques J'suis coincé au village DJ fais tourner le sample boom-bap du vieux sage Je rappe nonchalamment Jai pas besoin de bonheur, regarde l'espace entre mes dents Je casse casse des nuques Musique de transe, yes passe-passe chamanique J'ai quitté mes bocages loccident luxueux pour mes poisseux marécages J'veux tout laisser derrière j'veux groover sa terre mère le nez dans la poussière La torpeur est torride la sueur aride perle en collier de cauris Tropical... Tropical... Tropical... Tropical... Cool cool je roule boule en foufou Les mots à ma sauce et ma langue fait du kung-fu Ici tout est chinois la route l'hôpital le stade bienvenue chez moi Chez eux Mon village est global assieds-toi mon frère tu veux du thé ou du cobalt Le rythme est dans le pot le pilon le mortier la berceuse des marmots J'mets ma boucle en repeat le village, un cypher, autour du feu qui crépite J't'explique l'esprit de lancêtre a mal à lâme le cybercafé a remplacé l'arbre à palabre Laisse moi zoom zoom zen jte vendrai tout appelle moi mama Benz Ce rap du diable ce gospel du Sahel Cette musique d'ange auréoles sous les aisselles You might also like Tropical... Tropical... Tropical... Tropical... Les pales d'un ventilo brassent de l'air trop chaud Tu perds tous tes kilos de muscles Brumeux est ton cerveau la tête dans le frigo pour faire tomber quelques Celsius Les pales dun ventilo brassent de l'air trop chaud Tu perds tous tes kilos de muscles Brumeux est ton cerveau la tête dans le frigo pour faire tomber quelques Celsius Tropical... Tropical... Tropical... Tropical... Tropical... Tropical... Tropical... Tropical...</t>
+          <t>Freestyle tropical pour le guide du routard La patrie est bancale comme le discours de Dakar Il fait chaud je transpire à grosses gouttes de Mützig Zao, les salops piquent, les soûlards sont des moustiques J'suis coincé au village DJ fais tourner le sample boom-bap du vieux sage Je rappe nonchalamment Jai pas besoin de bonheur, regarde l'espace entre mes dents Je casse casse des nuques Musique de transe, yes passe-passe chamanique J'ai quitté mes bocages loccident luxueux pour mes poisseux marécages J'veux tout laisser derrière j'veux groover sa terre mère le nez dans la poussière La torpeur est torride la sueur aride perle en collier de cauris Tropical... Tropical... Tropical... Tropical... Cool cool je roule boule en foufou Les mots à ma sauce et ma langue fait du kung-fu Ici tout est chinois la route l'hôpital le stade bienvenue chez moi Chez eux Mon village est global assieds-toi mon frère tu veux du thé ou du cobalt Le rythme est dans le pot le pilon le mortier la berceuse des marmots J'mets ma boucle en repeat le village, un cypher, autour du feu qui crépite J't'explique l'esprit de lancêtre a mal à lâme le cybercafé a remplacé l'arbre à palabre Laisse moi zoom zoom zen jte vendrai tout appelle moi mama Benz Ce rap du diable ce gospel du Sahel Cette musique d'ange auréoles sous les aisselles Tropical... Tropical... Tropical... Tropical... Les pales d'un ventilo brassent de l'air trop chaud Tu perds tous tes kilos de muscles Brumeux est ton cerveau la tête dans le frigo pour faire tomber quelques Celsius Les pales dun ventilo brassent de l'air trop chaud Tu perds tous tes kilos de muscles Brumeux est ton cerveau la tête dans le frigo pour faire tomber quelques Celsius Tropical... Tropical... Tropical... Tropical... Tropical... Tropical... Tropical... Tropical...</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Les miroirs nous dévorent, les glaces nous effacent La nuit on s'endort sous des masses d'angoisses À recompter les heures de l'existence qui passe Le couilles et le cur, paraît que tout ça casse Je laisserai peu de traces, quelques mots à la marge Des chansons sur la plage, un bout d'sucre à la tasse Je retourne la terr des souvenirs à la houe Mon nfance c'est la traîne d'une mariée dans la boue Si tu plies, reste pas, fuis cette vie à la con Va marcher, ce sera mieux que la file à la pompe Trouve l'il du cyclone pour braver son iris Débusque l'illusion dont nos rêves se nourrissent L'argent et la gloire sont des courses qui épuisent On remporte pas les trônes sans leurs couronnes d'épines Pars au loin, au hasard Au large, Zanzibar On s'emmène en bagage même au loin de nos rives À l'autre bout du monde nos miroirs nous poursuivent Inutile de tenter de tromper l'invisible La conscience, l'il ouvert qui la nuit nous visite Je ne crains pas l'ami que mes rêves vieillissent Car le cur n'a pas d'rides, n'a que des cicatrices Etranger à soi-même, au reflet dans la vitre Se connaître et s'aimer ça peut prendre la vie J'ai délaissé les routes cent mille fois empruntées Je me frotte à des doutes, des chemins escarpés Les routines m'enferment, me tuent, m'atténuent Les miradors m'encerclent, je me heurte à des murs De mes prisons mentales, je m'échappe, mets les voiles Que les vents nous emportent comme des boutres en bois Que leur fraîcheur s'engouffre dans ces ruelles blanches Où des chats indolents à l'ombre se retranchent You might also likeOn ment pas aux miroirs, autant feindre son ombre On court après des gloires, on veut se faire un nom Avoir une preuve de soi, qu'on est passé par là Alors on tague des mammouths la nuit sur des parois Dis-moi, toi tu fais quoi du temps qui reste à vivre ? On se répare comment de tout c'qui nous abîme ? Les poèmes des parpaings pour fabriquer des dômes Et l'enfance ne part pas, c'est ma douleur fantôme Je dérive en rêveries du crépuscule à l'aube À faire l'tour du cadran pour quelques jolis mots Des astres brillants dans le chaos des chiens Quelques poussières d'étoiles dans un tas de déchets Il faut chercher en soi ce que son âme recèle Des prières, des mantras, ce que la vie enseigne Avant qu'nos corps ne cèdent comme des statues de sel Dansons sous les lumières du ciel Eh yo Je rêve mon ami de Stone Town</t>
+          <t>Les miroirs nous dévorent, les glaces nous effacent La nuit on s'endort sous des masses d'angoisses À recompter les heures de l'existence qui passe Le couilles et le cur, paraît que tout ça casse Je laisserai peu de traces, quelques mots à la marge Des chansons sur la plage, un bout d'sucre à la tasse Je retourne la terr des souvenirs à la houe Mon nfance c'est la traîne d'une mariée dans la boue Si tu plies, reste pas, fuis cette vie à la con Va marcher, ce sera mieux que la file à la pompe Trouve l'il du cyclone pour braver son iris Débusque l'illusion dont nos rêves se nourrissent L'argent et la gloire sont des courses qui épuisent On remporte pas les trônes sans leurs couronnes d'épines Pars au loin, au hasard Au large, Zanzibar On s'emmène en bagage même au loin de nos rives À l'autre bout du monde nos miroirs nous poursuivent Inutile de tenter de tromper l'invisible La conscience, l'il ouvert qui la nuit nous visite Je ne crains pas l'ami que mes rêves vieillissent Car le cur n'a pas d'rides, n'a que des cicatrices Etranger à soi-même, au reflet dans la vitre Se connaître et s'aimer ça peut prendre la vie J'ai délaissé les routes cent mille fois empruntées Je me frotte à des doutes, des chemins escarpés Les routines m'enferment, me tuent, m'atténuent Les miradors m'encerclent, je me heurte à des murs De mes prisons mentales, je m'échappe, mets les voiles Que les vents nous emportent comme des boutres en bois Que leur fraîcheur s'engouffre dans ces ruelles blanches Où des chats indolents à l'ombre se retranchent On ment pas aux miroirs, autant feindre son ombre On court après des gloires, on veut se faire un nom Avoir une preuve de soi, qu'on est passé par là Alors on tague des mammouths la nuit sur des parois Dis-moi, toi tu fais quoi du temps qui reste à vivre ? On se répare comment de tout c'qui nous abîme ? Les poèmes des parpaings pour fabriquer des dômes Et l'enfance ne part pas, c'est ma douleur fantôme Je dérive en rêveries du crépuscule à l'aube À faire l'tour du cadran pour quelques jolis mots Des astres brillants dans le chaos des chiens Quelques poussières d'étoiles dans un tas de déchets Il faut chercher en soi ce que son âme recèle Des prières, des mantras, ce que la vie enseigne Avant qu'nos corps ne cèdent comme des statues de sel Dansons sous les lumières du ciel Eh yo Je rêve mon ami de Stone Town</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Gaël_Faye_songs.xlsx
+++ b/data/02_intermediate/cleaned_Gaël_Faye_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Prévu, pas prévu</t>
+          <t>Paris Métèque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Dewolph x Sawmal - The Adventures of Huile Smith FatMan Blue SUPERMAGENTA - 0501 Luni - Noir 0601 Crime TEAm - Carmin - 0601 Biffty DJ Weedim - La Réincarnation du Turn up 2 0701 Beozedzed - Sept - 0801 Le2s - Inconnu - 1001 Maes - Réelle vie 1601 Nasme - Spécial Guest Vol.2 1901 Le Hu - Hustler - 2001 Barack Adama La Propagande Saison 1 - 2001 Demi Portion 2 Chez Moi - 2001 Take A Mic - Bipolaire - 2001 Vald - Agartha 2501 Louvar - Zénith 2701 Bigty - Christrip Vol.2 TEM 2701 Bizon Gbz - Le silence des agneaux 2701 Escobar Macson - Mr. Punchlines - 2701 KeBlack - Premier Étage - 2701 Sofiane - JeSuisPasséChezSo 2801 Six - La salle du temps - 2901 Ozkar Zulu - Orée artificielle 3101 Franc Parler BLT Tape Février - 0202 T.I.S DJ Cross-Y - Gotham City Kids Épisode 2 0302 Bazoo Nordinomouk - Jupiter 0302 Féfé Bess Sek Ibrahimovich - Amistad 0302 Mike Lucazz - Soleil Gelé 0302 Tonio Mc - Déstresse 0502 Euphonik - Inconnu Mais Reconnu II - 0602 Scoop J.Keuz - Maestria - 1002 Flaco - Mundo - 1002 Heskis - GG Allin EP 1202 Ou2s - La Machine Vol.2 - 1202 Yaska Dawan - 5 AM 1302 Sons Of Melody - La route est longue - 1302 Spider ZED - Mes ex - 1402 Krisy - Paradis d'amour - 1502 4keus Gang - Vois t'as vu 1502 Dawa O Mic - La Galette Mixtape 1602 Akissa - Opium - EP - 1702 Abou Debeing - Debeinguerie - 1702 Aladin 135 - Indigo 1702 Le Bon Nob - Ptit Con - 1702 Féfé - Mauve 1702 H3RY LÜCK - FORCE 2 - 1702 Hayce Lemsi - Électron Libre 2 1702 La Massfa - Frères d'armes - 1702 Nusky Vaati - BLUH 1702 Segä - Nos Futurs - 1702 Zaho - Le monde à l'envers 2202 JMK - Love Loyalty - 2402 A2H - Les hommes pleurent en hiver Winter Tape - 2402 Jok'Air - Big Daddy Jok - 2402 Médine - Prose Elite - 2402 O'Trak ChriStorm - Sublime abomination - 2402 Sianna - Diamant Noir - 2802 Pink Tee - Période des 16 Mars - 0103 Sameer Ahmad - Jovontae EP 0303 AlTarba - La nuit se lève 0303 GLK - Murder Réédition - 0303 Ghetto Phénomène - La Vida Loca - 0303 IAM - Rêvolution 0303 Ixzo - L'Ennemi - 0303 Jayel - Laboratoire - 0303 Rim'K - Fantôme - 0303 Stupeflip - Stup Virus - 0303 Lord Esperanza Majeur Mineur - Drapeau Noir 0403 Nosfer - BHD - 0503 So'Clock - Saut de l'ange 0603 Iron Sy - Amadou Malick chapitre 1 0603 Skreally Boy - 0703 Nedoua - 420 - 0803 Elh Kmer - Indépendant - 1003 Booba - Autopsie 0 1003 Daouf - Après coups 1003 Eklips - Lips Beat box album 1003 Fadah - Cet Art - 1003 Gen Zu Clan - Rois De Lunderground - 1003 Hooss - Temps plein - 1003 Phénomène Bizness - Pharaon - 1003 Sneazzy - Dieu bénisse Supersound Vol. 2 - 1203 Yaruki Records - Satori - 1503 Scars - Je suis comme ça 1703 Artiste multiples - Bendo - 1703 Dandyguel - Trophée - 1703 Deen Burbigo - Grand Cru - 1703 Djadja Dinaz - Dans L'Arène - 1703 Homi - Au-delà des Alpes 1703 Original Tonio - Monologue Social - 1703 Roméo Elvis Le Motel - Morale 2 1703 TRZ - La Rue tappelle - 2003 Jul - Album Gratuit Vol. 3 - 2003 Triplego - 2020 2103 Euphonik - Dieu est une Femme 2103 ODT - La marque de la bête 2403 Le 3eme il - Les 20 Ans - 2403 Les Sages Poètes de la Rue - Art Contemporain - 2503 T.I.S - 001 - 2703 Patee Gee - Basilic - 3003 Vîrus - Les Soliloques du Pauvre 3103 Babarr - Les 7 péchés kapitaux - 3103 Benash - CDG - 3103 Kekra - Vréel 2 - 3103 Lacrim - Force honneur - 3103 Scylla - Masque de chair - 3103 Slimka - No Bad Vol.1 Avril - 0204 Lasco - Le blood - 0604 Luni - Rose - 0704 Falcko - Manny 0704 Ideal Jim - Hannah - 0704 Le Dé - Napalm 0704 Andy Luidje - 404 0704 T-Nord - Persona non grata - 0704 Take A Mic - Boîte noire 1004 Baek - 2016 1004 Guy2Bezbar - Jungle vol.2 1404 AkaperA - Loup 1404 Majster - Le cur dans les mains 1404 DJ Erise - Rizer - 1404 FK - Purple Kemet 2 - 1404 Gaël Faye - Rythmes Botanique - 1404 Jorrdee - Avant - 1404 L.O.A.S - Tout me fait rire - 1604 Beeby - MALA 800 ORION 1704 Napo - NAPOlogie Vol.1 - 2004 Grems - P.O.M - 2104 Columbine - Enfants Terribles - 2104 Isha - La Vie Augmente Vol.1 - 2104 Mac Tyer - Banger 3 2104 Robse - Colibri - 2104 Veerus - Mercure - 2204 Meyso - MiseAJour 2404 Euphonik - Dieu est une Femme 2 2404 Mairo - 365 2504 La Prune - Reine Claude - 2704 Assy Youv Dee - Beta test - 2804 Damso - Ipséité 2804 Dolfa - Dolfa is the New Black - 2804 Don Choa - EP - 2804 Loud - New Phone - 2804 Wit. - Dawa 3004 Nelick - Load 22 - 3004 T.I.S DJ Cross-Y - Gotham City Kids Épisode 3 Mai 0105 Bazoo - B-T2PE 2 0205 Poupa Lost - Incantations - 0305 L'Or du Commun - Zeppelin 0305 Sirsy - Avant Yaro - 0505 Eddie Hyde - La malédiction du Nord - 0505 Elams - Réussir et mourir - 0505 Hooss - Première Presse 0505 Marlo Flexxx - Jeune Pimp 0505 Numbers - Femmes Ennemis - 0505 Sch - Deo Favente - 0605 Lonepsi - Les premiers sons du reste de ma vie 0905 Freeman - Sous la mine - 1005 Di-Meh - Focus Part. 1 1005 El Matador - Mâle Dominant - 1105 Nelick - LOAD 57 - 1205 Caballero JeanJass - Double Hélice 2 - 1205 Hartigan - Purgatoire 1205 Kamikaz - L'Outsider - 1205 Le Club - Hors série 1205 Quincy - Évolution - 1205 Sofiane - Bandit Saleté 1205 Supernova - Immortel 1305 Rochdi Krystal - Mélodies de la cave 1405 Nelick - LOAD 94 - 1505 Jorrdee - Belle de jour - 1505 Tengo John Ocho - NUV - 1705 A Little Rooster, Hash24 Sanka - Chanson pour les oreilles 1805 Massa Moon - Fréquences - 1905 Beny - Pepito est grand - 1905 Cenza - Les prophéties d'une plume 1905 Coyote Jo Bastard - L'Enfer avant le Paradis - 1905 DTF - Sans rêve - 1905 Kalash Criminel - Oyoki - 1905 LTF - 2014 - 1905 Lucio Bukowski Soulchildren - SIMORGH - 1905 Mister V - Double V - 1905 Naps - Pochon Bleu - 2405 Zeno - Beurre Sucre 2505 Emotion Lafolie - Dopamine 2605 Bradley - Askia 2605 Baka - Guêpier Paris - 2605 Cheu-B - Welcome To Skyland - 2605 Le Club - Série 97 2605 Les 10' - Artefacts Vol.1 Les 10 - 2605 Nov - Evo 2 - 2605 Panama Bende - ADN 2805 Akrapovic - Havana Devil Juin - 0106 Retro X - DIGI - 0106 Taipan - Parlons Beuh 0206 Stensy - Rotations 0206 Casse-Croute - Éléphant rose 0206 Driver - Maintenant j'suis chaud - 0206 Keny Arkana - Lesquisse 3 - 0206 La Fouine - Capitale Du Crime Censuré - 0206 Ladea - Alpha Leonis - 0206 Larry Kid - Contrôle - 0206 Les Alchimistes - Danslaloge 0406 Lil Taï Z - TAÏZ 0406 Bitu - No more lemon - 0506 Eden Dillinger - Olaf 0706 Nedoua - Septième étage - 0906 Disiz La Peste - Pacifique - 0906 Infinit' - NSMLM - 0906 Josman - 000 0906 La Canaille - 11.08.73 0906 Rekta - Hustle life - 0906 USKY - Outsider 1506 Bhati - OULYPO - 1506 Grems - Ep 1506 Fossoyeur Ékékil - Collision - 1606 Biffty DJ Weedim - Souyegod - 1606 Fixpen Sill - A4637 - 1606 Jok'Air - Je suis Big Daddy 1606 Nikkfurie Young Zee - Ignorez l'annonce 1606 TiTo Prince - Poetic justice 1606 Youssef Swatt's - Vers l'infini et au-delà 1905 Chich - Chich Volume 2 1906 La Caillasse - Pantheism 2106 L'Hexaler O.B.L. - Au nom de l'indépendance - 2306 Biffty DJ Weedim - Mega bonus - 2306 Bigflo Oli - La vraie vie - 2306 Dehmo - Ethologie - 2306 Georgio - Héra réédition - 2306 GLGV - S6MPLE SCHOOL - 2306 Makala - Gun Love Fiction - 2506 Lucci Lpee - PL1106 - 2606 GaT.Taca - ECG 2606 Ockney - Stand de tir 2806 Korohima - Ajna 3006 Alpha 5.20 - Blood Le Sang des Martyrs - 3006 Jul - Je ne me vois pas briller - 3006 Lomepal - Flip - 3006 Lucio Bukowski - Aucun potentiel commercial - 3006 Siboy - Spécial - 3006 T.I.S DJ Cross-Y - Gotham City Kids Épisode 4 Juillet 0107 LK de l'Hotel Moscou - Rose de Jéricho - 0507 Laylow - Digitalova - 0707 Alkpote - Les Marches de l'Empereur 0707 ALP - Épilogue - 0707 Ash Kidd - Mila 809 - 0707 Taïro - Summer Tape - 0707 Niro - OX7 - 0707 Fally Ipupa - Tokooos 1307 Royal - Orion - 1407 Multi-interprètes - Afrotrap Volume 1 - 1707 Barack Adama La Propagande Saison 2 - 1707 Lartiste - Projet 000 1707 Royal - Osiris - 1808 GaT.Taca - ÉPINEUSEMUSIQUE 1807 The S and Layon - Plein soleil - 2107 A2H - Summer Stories Kushtape Volume 3 2107 Matatix - Néant - 2107 Niro - M8RE 2307 Keustee - Le Bouquet Final 2307 Kokoro Lee - Osaleeka 2807 La Mannschaft - Indépendant des autres Août 0108 Sauveur Eloheem - L'Enfer 0208 Lacraps - Bootleg Vol. 1 0508 Faktiss - POV 1008 Dr Bériz - Popcorn 1108 YW - YW 1208 Hotel Paradisio - Reveri 1408 Euphonik - Dieu est une Femme 3 1608 DF Cerk - Chorus - 1808 Leo Roi - Meteo canicule - 2508 Alonzo - 100 Septembre - 0109 Soprano - L'Everest EP - 0809 Ninho - Comme prévu - 0809 PLK - Ténébreux - 1109 Freeze Corleone TheHashClique - THC - 1309 Blaiz - Jungle Bibi - 1309 LK de l'Hotel Moscou - Xanadu - 1409 Luni - Orange - 1509 Jul - Album Gratuit Vol. 4 1509 L'Affreux Jojo - Portraits gâchés - 1509 Naps - En équipe Vol. 1 - 1509 Sadek - Vulgaire, Violent et Ravi Dêtre Là 2009 SelaS - Algorithme - 2109 Népal - 445e nuit - 2109 Various Artists - Paris L.A. Bruxelles - 2209 Hugo TSR - Tant qu'on est là - 2209 Lefa - Visionnaire 2209 L-Kaïss - Razzia - 2209 Niska - Commando - 2209 Nov - Babe Tape 2209 TonyToxik - Infini - 2309 Jok'Air - Jok' Pololo 2509 Bizon Gbz - Iki 2809 L'Hexaler - Cuatro Estaciones - 2909 4keus Gang - Hors série 2909 Bastard Prod - 100 comme un chien 2909 Dernier Pro - Dans les yeux - 2909 Hornet La Frappe - Nous-mêmes - 2909 Hyacinthe - Sarah - 2909 Naza - Incroyable - 2909 Still Fresh - Cur noir Octobre - 0110 Beeby - Quatre saisons Vol. 3 0110 B-Biface - M. Personne - 0110 7 Jaws - Nautilus - 0310 VII - Les matins sous la lune - 0610 Ghetto Phénomène - En catimini 0610 Hesytap Squad - Pression - 0610 Jayel - Sens Interdit 0610 Nefaste - Dans mon monde - 0610 Sneazzy - Dieu bénisse Supersound Vol. 3 - 0910 Django - Anthracite - 1210 Assassam - Les Heures Perdues - 1310 Jarod - Attitude - 1310 Kalash - Mwaka Moon - 1310 Klub des Loosers - Le chat et autres histoires - 1310 Maska - Akhal Téke - 1610 Sully - PUBG 1910 Petrodollars - Outre Monde 2010 EX-ILE - Direction Est 2010 Katana - LÉpée II justice - 2010 OrelSan - La fête est finie 2010 P-dro - Jardin Noir 2410 Wit. - ONYX - 2510 Spider ZED - Figurine 2710 Flaco - La Fafa 2710 Godié - NUBE - 2710 Hamza - 1994 - 2710 Kennedy - Valar morghulis - 2710 Lord Esperanza - Polaroïd - 2710 Loud - Une année record - 2710 VSO Maxenss - Southcoaster - 2910 Jorrdee - D-A-VELLI Version rouge 3110 Artistes multiples - O'Trak présente Les Sons de la Crypte Novembre - 0311 Bigflo Oli - La Vraie Vie Version Deluxe - 0311 Davodka - Accusé de réflexion - 0311 Doums - Pilote - 0311 Kaaris - Dozo 0311 Keros-N - Bipolaire - 0311 MC Solaar - Géopoétique - 0311 Verso - Colère calme 0411 Kaki Montana - Bullet Proof Vol. 1 0611 Eli MC - Manque moi - 1011 Chilla - Karma - 1011 Dooz Kawa - Contes cruels - 1011 Franglish - Signature 1011 Geule Blansh - J'raconte - 1011 High Five Crew - Joli rouge 1011 Korohima - Antidote - 1011 L'Ordre du Périph - Vogue Merry 1011 Ménélik - Qlassiks Vol. 1 - 1011 MMZ - N'DA - 1011 XV - 404 Error - 1111 Lombre - Eau trouble 1111 Theorem de Gama - Ingressum - 1711 Azuul Smith - L'argent suffira - 1711 Black M - Éternel Insatisfait Réédition 1711 Freez - Les minutes vides - 1711 Lacrim - R.I.P.R.O, Vol. 3 1711 Passi - Les Tentations Édition collector 1997-2017 - 1711 Pumpkin Vin's da Cuero - Persona Non Gratis - 1711 Sinik - Drone - 2011 T.I.S - 002 2111 Baek - Baek - 2311 Kekra - Vréel 3 - 2411 Dadju - Gentleman 2.0 - 2411 Ichon - Il suffit de le faire 2411 KPoint - Trap'n'Roll - 2411 Lucio Bukowski - RequiemNativité 2411 Pejmaxx - Pejmaxx 2411 Slim Lessio - Fruit de paix - 2411 Sopico - Ëpisode 1 3011 2Spee Gonzales - City Light 3011 Elpea - Coucher de soleil Décembre - 0112 Booba - Trône - 0112 Clément Dumoulin - B.O. Tueurs - 0112 Furax Barbarossa Jeff Le Nerf - Dernier Manuscrit - 0112 Guizmo - Amicalement vôtre - 0112 Haristone - Off 0112 Hiro - De la Haine à l'Amour - 0112 Jul - La tête dans les nuages - 0112 Lomepal - Flip Deluxe 0212 Royal - Exodia 0312 Convok Mistral - Haschtag - EP - 0412 Butter Bullets - Air Mès et Hermax 0512 Namils - Oeil Noir - 0812 Astro 90 - PHANTOM 0812 Hache-P - Before - 0812 Hayce Lemsi - Eurêka 0812 I2H - Échantillons - 0812 Nixon - Tout se passe comme prévu - 0912 Jorrdee - D-A-VELLI version extra rouge BEFORE REHAB - 1312 Jorrdee - LESS 1512 La Main Gauche - Ni le même, Ni un autre 1512 Néochrome - Compilation Rap de banlieusard, Vol. 4 - 1512 Youv Dee - Gear 2 - 1812 Lutce - Pulsions 2012 Joe Cross - Artefacts Vol.3 2212 Green Money - Gnosis 2212 Majster - Je n'ai rien fait d'autre que mon travail, Mr Simba... 2212 Skreally Boy - Lo3 - 2412 T.I.S Nehr - Aller Simple volume 4 - Lost beats, last words 2512 La Prune - Eau de vie 2712 Orus - Lumière froide 3112 Lil Sheitan - Sur mon bateau pirate Autres Du 0809 au XXXX Sofiane - Rentre dans le cercle - Du 2403 au 1606 Bavoog Avers - Les logorrhées Du 0412 au XXXX Alkpote - Les Marches de l'Empereur Saison 310</t>
+          <t>J'ai débarqué Paris d'un monde où l'on te rêve J'ai fui les périls, les déserts où l'on crève Tu m'as ouvert tes bras, toi ma Vénus de Milo Tu brillais trop pour moi, je n'ai vu que ton halo C'est pour ça que je l'ouvre, ma gueule est un musée Je vis loin du feutré et des lumières tamisées Dans tes ruelles cruelles ou tes boulevards à flics Dans la musique truelle des silences chaophoniques Paris ma belle beauté, tes prétendants se bousculent Dans le brouillard épais de tes fines particules Moi pour te mériter, je t'écrirai des poèmes Que je chanterai la nuit tombée debout sur la scène Paris s'éveille sous un ciel océanique L'accent titi se mêle à l'Asie, l'Amérique, l'Afrique Je suis une fleur craintive dans les craquelures du béton A gagner deux sous, à dormir dessous les ponts Paris bohème, Paris métèque, Paris d'ancre et d'exil Je piaffe l'amour médite une chinoise à Belleville Leonardo da Vinci se casse le dos sur un chantier Je vois la vie en rose dans ces bras pakistanais Il tourne le gyrophare, petit cheval de carrousel Galope après les tirailleurs qui rétrécissent la tour Eiffel D'un squat, d'un bidonville, d'une chambre de bonne ou d'un foyer Je t'écris des poèmes où des fois je veux me noyer Une ville de liberté pour les différents hommes Des valises dexilés, des juifs errants et des roms Aux mémoires de pogrom, aux grimoires raturés Des chemins d'Erevan, aux sentiers de Crimée Caravanes d'apatrides, boat people, caravelle Sur tes frontons Paris viennent lire luniversel Et souvent je t'en veux, dédaigneuse et hautaine Capitale de la monde a joué la mondaine Laisse-nous consteller la vraie nuit que tu ignores Cesse donc de faire briller les milles feux de ton décor Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un1</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paris Métèque</t>
+          <t>Pili pili sur un croissant au beurre</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>J'ai débarqué Paris d'un monde où l'on te rêve J'ai fui les périls, les déserts où l'on crève Tu m'as ouvert tes bras, toi ma Vénus de Milo Tu brillais trop pour moi, je n'ai vu que ton halo C'est pour ça que je l'ouvre, ma gueule est un musée Je vis loin du feutré et des lumières tamisées Dans tes ruelles cruelles ou tes boulevards à flics Dans la musique truelle des silences chaophoniques Paris ma belle beauté, tes prétendants se bousculent Dans le brouillard épais de tes fines particules Moi pour te mériter, je t'écrirai des poèmes Que je chanterai la nuit tombée debout sur la scène Paris s'éveille sous un ciel océanique L'accent titi se mêle à l'Asie, l'Amérique, l'Afrique Je suis une fleur craintive dans les craquelures du béton A gagner deux sous, à dormir dessous les ponts Paris bohème, Paris métèque, Paris d'ancre et d'exil Je piaffe l'amour médite une chinoise à Belleville Leonardo da Vinci se casse le dos sur un chantier Je vois la vie en rose dans ces bras pakistanais Il tourne le gyrophare, petit cheval de carrousel Galope après les tirailleurs qui rétrécissent la tour Eiffel D'un squat, d'un bidonville, d'une chambre de bonne ou d'un foyer Je t'écris des poèmes où des fois je veux me noyer Une ville de liberté pour les différents hommes Des valises dexilés, des juifs errants et des roms Aux mémoires de pogrom, aux grimoires raturés Des chemins d'Erevan, aux sentiers de Crimée Caravanes d'apatrides, boat people, caravelle Sur tes frontons Paris viennent lire luniversel Et souvent je t'en veux, dédaigneuse et hautaine Capitale de la monde a joué la mondaine Laisse-nous consteller la vraie nuit que tu ignores Cesse donc de faire briller les milles feux de ton décor Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un Paris ma belle je t'aime quand la lumière s'éteint On écrit pas de poème pour une ville qui en est un1</t>
+          <t>Il voulait quitter la routine, celle de son père Qui étiole les rêves au large des paupières Enfourcher son vélo, repartir à zéro Petit gone de Lyon aux oripeaux dévasion Partir ! Non pas pour voir de nouveaux lieux Mais voyager, pour ouvrir de nouveaux yeux Orpailleurs dhorizons, ya que des hôtels mille étoiles Pour les clochards célestes qui ne sembarrassent pas dun toit Petit croissant au beurre, petit français qui flâne Il lisait Kerouac et chantait Bob Dylan Il est parti vivre à la dure Découvrir l'humain, épouser la nature Et de pays en pays, il pédale, il pédale Et de guerre en maladie, il pédale, il pédale Cest usé par la route dun voyage de cinq ans Quau bord de son doute il rencontre un piment Elle était belle comme un piment, une robe du dimanche Elle rêvait dun charmant, dun amour qui sépanche Elle vivait dans un quartier populaire Elle avait fui son pays, les pogroms et la guerre Et la terre des ancêtres était un vaste mouroir Et ce pays daccueil, un sombre miroir Qui lui renvoyait cette image de paria Une réfugiée HCR qui glisse aux parois Et qui veut senvoler, partir loin dici Là où le ciel ne dit ni Hutu ni Tutsi Et puis les murs de sa chambre au vert papier peint Recouvert de poster de Salut les Copains Etait son antre où elle rêvait dêtre hippie Découter du Jimi et de vivre à Paris En attendant le bus sous un arbre en fleur Son destin croise celui dun croissant au beurre Elle et il aux Sources du Nil Un vent souffle lidylle sur les branches dun nid Dun croissant beurré et dun piment swahili Qui sétaient donc jurés de saimer pour la vie Malgré toutes les routes crevées dornières Dans le panache de poussières des saisons blanches et sèches Malgré le doute et les pluies diluviennes Malgré les torrents de boue qui sécoulent dans la plaine Le croissant, le piment ont le goût dun enfant Puis de un puis de deux, carpe diem dun instant Aucune écluse ne peut contenir les rêves Que le cur transporte et pour lesquels il crève Pili-Pili rêvait de Paris Croissant au beurre voulait vivre ici Ils se croisent, se décroisent les chemins Et laissent des enfants au carrefour des destins4</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pili pili sur un croissant au beurre</t>
+          <t>Je Pars</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Il voulait quitter la routine, celle de son père Qui étiole les rêves au large des paupières Enfourcher son vélo, repartir à zéro Petit gone de Lyon aux oripeaux dévasion Partir ! Non pas pour voir de nouveaux lieux Mais voyager, pour ouvrir de nouveaux yeux Orpailleurs dhorizons, ya que des hôtels mille étoiles Pour les clochards célestes qui ne sembarrassent pas dun toit Petit croissant au beurre, petit français qui flâne Il lisait Kerouac et chantait Bob Dylan Il est parti vivre à la dure Découvrir l'humain, épouser la nature Et de pays en pays, il pédale, il pédale Et de guerre en maladie, il pédale, il pédale Cest usé par la route dun voyage de cinq ans Quau bord de son doute il rencontre un piment Elle était belle comme un piment, une robe du dimanche Elle rêvait dun charmant, dun amour qui sépanche Elle vivait dans un quartier populaire Elle avait fui son pays, les pogroms et la guerre Et la terre des ancêtres était un vaste mouroir Et ce pays daccueil, un sombre miroir Qui lui renvoyait cette image de paria Une réfugiée HCR qui glisse aux parois Et qui veut senvoler, partir loin dici Là où le ciel ne dit ni Hutu ni Tutsi Et puis les murs de sa chambre au vert papier peint Recouvert de poster de Salut les Copains Etait son antre où elle rêvait dêtre hippie Découter du Jimi et de vivre à Paris En attendant le bus sous un arbre en fleur Son destin croise celui dun croissant au beurre Elle et il aux Sources du Nil Un vent souffle lidylle sur les branches dun nid Dun croissant beurré et dun piment swahili Qui sétaient donc jurés de saimer pour la vie Malgré toutes les routes crevées dornières Dans le panache de poussières des saisons blanches et sèches Malgré le doute et les pluies diluviennes Malgré les torrents de boue qui sécoulent dans la plaine Le croissant, le piment ont le goût dun enfant Puis de un puis de deux, carpe diem dun instant Aucune écluse ne peut contenir les rêves Que le cur transporte et pour lesquels il crève Pili-Pili rêvait de Paris Croissant au beurre voulait vivre ici Ils se croisent, se décroisent les chemins Et laissent des enfants au carrefour des destins4</t>
+          <t>Je pars, ma vie est trop maussade Je pars jai laissé une feuille incrustée de mots sales Je pars laissez-moi donc ma douleur Je pars pour un monde fait de lumière et de couleurs Je pars car le ciel est bas et gris Les vieux nont plus dsagesse, ils sont racistes et aigris Je pars, je menvole vers le rire des enfants Je pars même sils men veulent jai trop souffert dans mes tourments Je pars, jai déjà fait mes valises Je pars car nos modes de vies dici me scandalisent Je pars la vie mtransperce de part en part Je pars car faut être fort et moi jai perdu mes remparts Je pars, yaura ni promesses ni nouvelles Je pars, fallait du cran, jai activé la manivelle Par un beau matin je pars je laisse le flambeau Je trouverai mon Abyssinie, moi lArthur Rimbaud Je pars, parti pour la vie Je pars, viens avec moi si tas envie Je pars, pour la saison des pluies Je pars, hier, demain et aujourdhui Je pars, parti pour la vie Je pars, viens avec moi si tas envie Je pars, pour un rayon dombre Viens retrouver colombe mon coeur mort sous les décombres Jveux juste un chapeau de paille, une plage et un transat Oublier les charters, les aéroports dans lesquels on transite Jveux des nuits douces au ciel étoilé, scruter la galaxie Ici ya pas dlaxisme, on bosse jusquà la cataplexie Jveux manger du riz au curry et des mangues juteuses Jveux pas dleur vache folle qui rit à la fièvre aphteuse Et puis ce soleil qui tannerait ma peau luisante sous la pommade Ici on mappelle Negro , ya pas dplace pour nos peaux mates Jveux qumes pommettes, mes zygomatiques séchauffent toute lannée Lami ! Les choses quils promettent ? Être condamné à glaner Sur sample de guitare sèche, jveux des gens simples et des sourires Ici cest rare quon nous supporte, quon ouvre les portes et les serrures J'veux vivre sur des rythmiques, des mélopées Me libérer de mes chaînes, car la culture m'a menotté J'veux que tu viennes allez, rentre dans mon monde Viens retrouver colombe mon cur mort sous les décombres Embrassez-moi, je suis pour lamour et la paix Le 28 août à DC jai fait le rêve de lappel La peine ma vrai nature, je vis avec Comme lorphelin du monde, lenfant seul, le restavek Jvis dans ces rues tristes, le matin hivernal Jsuis enfermé dans lenfer et pour moi cest infernal Amenez la joie dans mes ténèbres, apocalypse de mes tourments Jai limpression dêtre au tournant que les personnes autour me mentent Venez mourir ! Comme les vagues de la plage Venez donc lire, le vague à lâme de mes pages Les palmiers sont courbés comme des vieillards Les bords de mer sont devenus de tristes dépotoirs Lérosion a mis à nu les mornes à rhum LAbyssin a condamné tous les chemins qui mènent à Rome Ma musique sexprime comme une saudade Les notes et les mots se mettent debout comme des soldats !</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Je Pars</t>
+          <t>A-France</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Je pars, ma vie est trop maussade Je pars jai laissé une feuille incrustée de mots sales Je pars laissez-moi donc ma douleur Je pars pour un monde fait de lumière et de couleurs Je pars car le ciel est bas et gris Les vieux nont plus dsagesse, ils sont racistes et aigris Je pars, je menvole vers le rire des enfants Je pars même sils men veulent jai trop souffert dans mes tourments Je pars, jai déjà fait mes valises Je pars car nos modes de vies dici me scandalisent Je pars la vie mtransperce de part en part Je pars car faut être fort et moi jai perdu mes remparts Je pars, yaura ni promesses ni nouvelles Je pars, fallait du cran, jai activé la manivelle Par un beau matin je pars je laisse le flambeau Je trouverai mon Abyssinie, moi lArthur Rimbaud Je pars, parti pour la vie Je pars, viens avec moi si tas envie Je pars, pour la saison des pluies Je pars, hier, demain et aujourdhui Je pars, parti pour la vie Je pars, viens avec moi si tas envie Je pars, pour un rayon dombre Viens retrouver colombe mon coeur mort sous les décombres Jveux juste un chapeau de paille, une plage et un transat Oublier les charters, les aéroports dans lesquels on transite Jveux des nuits douces au ciel étoilé, scruter la galaxie Ici ya pas dlaxisme, on bosse jusquà la cataplexie Jveux manger du riz au curry et des mangues juteuses Jveux pas dleur vache folle qui rit à la fièvre aphteuse Et puis ce soleil qui tannerait ma peau luisante sous la pommade Ici on mappelle Negro , ya pas dplace pour nos peaux mates Jveux qumes pommettes, mes zygomatiques séchauffent toute lannée Lami ! Les choses quils promettent ? Être condamné à glaner Sur sample de guitare sèche, jveux des gens simples et des sourires Ici cest rare quon nous supporte, quon ouvre les portes et les serrures J'veux vivre sur des rythmiques, des mélopées Me libérer de mes chaînes, car la culture m'a menotté J'veux que tu viennes allez, rentre dans mon monde Viens retrouver colombe mon cur mort sous les décombres Embrassez-moi, je suis pour lamour et la paix Le 28 août à DC jai fait le rêve de lappel La peine ma vrai nature, je vis avec Comme lorphelin du monde, lenfant seul, le restavek Jvis dans ces rues tristes, le matin hivernal Jsuis enfermé dans lenfer et pour moi cest infernal Amenez la joie dans mes ténèbres, apocalypse de mes tourments Jai limpression dêtre au tournant que les personnes autour me mentent Venez mourir ! Comme les vagues de la plage Venez donc lire, le vague à lâme de mes pages Les palmiers sont courbés comme des vieillards Les bords de mer sont devenus de tristes dépotoirs Lérosion a mis à nu les mornes à rhum LAbyssin a condamné tous les chemins qui mènent à Rome Ma musique sexprime comme une saudade Les notes et les mots se mettent debout comme des soldats !</t>
+          <t>Mon arrivée en France, y'a bien longtemps Depuis que j'crois plus en l'ONU, depuis que j'crois plus en l'OTAN Maintenant j'ai vingt ans et quelques poussières Et j'repense à l'Afrique où nous étions encore hier On a grandi là-bas au bord du lac Tanganyika Et moi je supporte ici, tant que là-bas y'aura mes gars Eh J-NO, Mucyo, Iris, Fabrice et les autres Des potes comme vous jvous assure jen ai pas retrouvé dautres Et puis ya eu Paris, maintenant jlappelle Panam La pollution, les épiciers berbères et leurs mauvaises bananes Ici cest grecs, mac do, la pluie, le froid, les flaques deau Métro boulot dodo, la place Vendôme et les clodos Mais jmhabitue, jaime mes baskets et mon bitume Et comme jveux faire fortune, au mois daoût jme fais des thunes Jsuis solitaire et des fois je sors la plume Jsuis pas rappeur, juste un virevolteur de mots pleins damertume LAFRANCE est lasile, labsence et lexil Souffrance mais par pudeur faut pas que je lexhibe Je vis loin des mes rêves, de mes espoirs, de mes espérances Cest ça qui me tue dêtre écartelé entre Afrique et France Mon père chasse le croco, ma mère met du lait dcoco Ici je suis franco-rwandais jvais pas vous faire un topo Jai quitté le pays et sa situation sinistre Jmétais promis, ben quun jour je deviendrai ministre Mais jai grandi, jai pas dplan pour le Burundi Jcontinue despérer, les frères cest pas ce quon avait dit ? Jai revu Buja, elle a plus le même visage Cest devenu une ville sage et tous les jeunes veulent un visa Des fois jme demande si jai un devoir envers lAfrique Jpourrais fermer les yeux, une femme des gosses et garder mon fric Problème existentiel de nos délires névrotiques De ma vision romantique, jveux faire naître un nouveau type Car jfais partie de cette diaspora de cette jeunesse Qui a quitté le pays pour faire recette Mais jmen rends compte, quon est trop con Quon gâche nos vies et que lEurope devient notre cocon Tu te rappelles nos grands-pères aimaient leur terre et leur bétail Et nous les fils on se perd dans les guerres et les batailles Ma mémoire se paralyse, et ma peine se cautérise Des machettes quon aiguise, de tous nos morts dans nos églises Joublie pas que lexil cest comme une porte dexit Je crie mes origines car cest comme ça que jexiste Trop de larmes ont coulé, beaucoup de textes jai gribouillé Maintenant je regarde le soleil sur le lac dune plage de Kibuye Petite sur tu prends la ligne pour les milles collines Embrasses bien les cousins, embrasses bien les cousines Et puis embrasses aussi la grand-mère à Butare Dis lui que chaque année que je passe loin delle me rend plus taré Et si tu prends le bus Vénus pour Bujumbura Fais gaffe à toi, aux embuscades à Bugarama Embrasse papa qui est resté au pays Dis lui quen France je ne grandis plus, dis lui que je vieillis 1</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A-France</t>
+          <t>Fils du hip-hop</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mon arrivée en France, y'a bien longtemps Depuis que j'crois plus en l'ONU, depuis que j'crois plus en l'OTAN Maintenant j'ai vingt ans et quelques poussières Et j'repense à l'Afrique où nous étions encore hier On a grandi là-bas au bord du lac Tanganyika Et moi je supporte ici, tant que là-bas y'aura mes gars Eh J-NO, Mucyo, Iris, Fabrice et les autres Des potes comme vous jvous assure jen ai pas retrouvé dautres Et puis ya eu Paris, maintenant jlappelle Panam La pollution, les épiciers berbères et leurs mauvaises bananes Ici cest grecs, mac do, la pluie, le froid, les flaques deau Métro boulot dodo, la place Vendôme et les clodos Mais jmhabitue, jaime mes baskets et mon bitume Et comme jveux faire fortune, au mois daoût jme fais des thunes Jsuis solitaire et des fois je sors la plume Jsuis pas rappeur, juste un virevolteur de mots pleins damertume LAFRANCE est lasile, labsence et lexil Souffrance mais par pudeur faut pas que je lexhibe Je vis loin des mes rêves, de mes espoirs, de mes espérances Cest ça qui me tue dêtre écartelé entre Afrique et France Mon père chasse le croco, ma mère met du lait dcoco Ici je suis franco-rwandais jvais pas vous faire un topo Jai quitté le pays et sa situation sinistre Jmétais promis, ben quun jour je deviendrai ministre Mais jai grandi, jai pas dplan pour le Burundi Jcontinue despérer, les frères cest pas ce quon avait dit ? Jai revu Buja, elle a plus le même visage Cest devenu une ville sage et tous les jeunes veulent un visa Des fois jme demande si jai un devoir envers lAfrique Jpourrais fermer les yeux, une femme des gosses et garder mon fric Problème existentiel de nos délires névrotiques De ma vision romantique, jveux faire naître un nouveau type Car jfais partie de cette diaspora de cette jeunesse Qui a quitté le pays pour faire recette Mais jmen rends compte, quon est trop con Quon gâche nos vies et que lEurope devient notre cocon Tu te rappelles nos grands-pères aimaient leur terre et leur bétail Et nous les fils on se perd dans les guerres et les batailles Ma mémoire se paralyse, et ma peine se cautérise Des machettes quon aiguise, de tous nos morts dans nos églises Joublie pas que lexil cest comme une porte dexit Je crie mes origines car cest comme ça que jexiste Trop de larmes ont coulé, beaucoup de textes jai gribouillé Maintenant je regarde le soleil sur le lac dune plage de Kibuye Petite sur tu prends la ligne pour les milles collines Embrasses bien les cousins, embrasses bien les cousines Et puis embrasses aussi la grand-mère à Butare Dis lui que chaque année que je passe loin delle me rend plus taré Et si tu prends le bus Vénus pour Bujumbura Fais gaffe à toi, aux embuscades à Bugarama Embrasse papa qui est resté au pays Dis lui quen France je ne grandis plus, dis lui que je vieillis 1</t>
+          <t>Fils du Hip Hop, il a grandi sous Reagan Il sautait sur des matelas éventrés dans des terrains vagues Lui, cest le rap, un gamin de la rue La musique sur la peau et le style dune verrue Il est né sous Jim Corbeau, surmontant les épreuves Depuis que Betty Shabazz et Coretta Scott sont devenues veuves Plus dEtat, plus de social, le DJ scratch dans labîme Quand son frère Graffiti bariole lépiderme des villes Langston Hughes est mort, Harlem Renaissance zéro Ça break et ça beat box autour dun baril brasero Des B-Boys aux Block parties, apprendre à faire sans rien Le rap a inventé une musique sans musicien Sans solfège, naît dans le ghetto le petit frère mal aimé Les leaders ne parlent plus, ils se mettent à rimer Put your hands up in the air! personne ne sera blessé Un Bic, un beat, la verve du verbe sur MPC Puis ça fume des blunts, des zedou sur des SP12 Et ça pille les breaks de James Brown, dOtis Redding De Funkadelic, de George Clinton, dOhio Players Le son sale, crasseux, poussiéreux provient de ses samplers Cest les pleurs de la rue sur des crissements de disques Break it down scratch! Emmerde la progression harmonique De la bouche des égouts est sorti un mouvement Qui sinvite dans les cocktails du bourgeois condescendant Des Hood à Hollywood, du béton au bifton Lindustrie musicale resserre sa proie comme un python Première tension, puis première contradiction Choisir entre Révolution ou sociale ascension Mais le rap a plus dune rime sous le bomber Schizophrène sur MTV ça fight the power Les postillons recouvrent le monde, la mode devient mouvement Une lame de fond au verbe acide acerbe et véhément Linstinct de guerre, de cracher, de vivre libre Insoumis en dehors des schémas et des normes établis Ya des morts, des oxymores, des coups de balles verbales Des ruptures grammaticales sur des caisses claires et cymbales Ca semballe, sans label ça devient plus hardcore Le réel est sans appel dans le couloir de la mort Quand le chômage augmente les rappeurs deviennent précis Quand les médias nous mentent les MCs font les récits Chaque block, chaque quartier, chaque secteur possède ses rappeurs Le système est un arbre et le rap est sécateur Puis la langue affûtée sest mise à baisser le futal On lui a joué de la flûte, elle a kiffé le récital Elle sest mise des dents en or, des chaînes desclaves autour du cou Cest normal que quand tu crèches dehors tu veuilles sortir du trou La tête dans un keffieh, du cauchemar au rêve américain Le rap boit du Moët dans une Bentley en chantant des refrains En chantant des couplets de 8 mesures sur des sujets lissés Ça fait dans la friperie, le téléphone, les produits dérivés Les gens de la classe moyenne ignorant le ghetto Ont fait le succès du peu-ra, ils veulent les gestes et puis largot Ils veulent sencanailler la drogue, les flingues, les biatchs sur la table Sen foutent de la culture et du message dAfrika Bambaataa Le rap a fait ses classes loin du Hip Hop Renonce à léthique de Chuck D, veut la vie de Donald Trump Le vilain petit canard sest transformé en cocotte aux ufs dor Le bon vin, les dollars ont remplacé le bruit et les odeurs Mais loin des cotations de ce système lesprit reste vivace Tant quya la merde dans le quartier, yaura des 16 en dédicace Donc ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas ! Donc ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas ! Ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas !Paroles rédigées et expliquées par la communauté RapGenius France3</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fils du hip-hop</t>
+          <t>Balade brésilienne</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fils du Hip Hop, il a grandi sous Reagan Il sautait sur des matelas éventrés dans des terrains vagues Lui, cest le rap, un gamin de la rue La musique sur la peau et le style dune verrue Il est né sous Jim Corbeau, surmontant les épreuves Depuis que Betty Shabazz et Coretta Scott sont devenues veuves Plus dEtat, plus de social, le DJ scratch dans labîme Quand son frère Graffiti bariole lépiderme des villes Langston Hughes est mort, Harlem Renaissance zéro Ça break et ça beat box autour dun baril brasero Des B-Boys aux Block parties, apprendre à faire sans rien Le rap a inventé une musique sans musicien Sans solfège, naît dans le ghetto le petit frère mal aimé Les leaders ne parlent plus, ils se mettent à rimer Put your hands up in the air! personne ne sera blessé Un Bic, un beat, la verve du verbe sur MPC Puis ça fume des blunts, des zedou sur des SP12 Et ça pille les breaks de James Brown, dOtis Redding De Funkadelic, de George Clinton, dOhio Players Le son sale, crasseux, poussiéreux provient de ses samplers Cest les pleurs de la rue sur des crissements de disques Break it down scratch! Emmerde la progression harmonique De la bouche des égouts est sorti un mouvement Qui sinvite dans les cocktails du bourgeois condescendant Des Hood à Hollywood, du béton au bifton Lindustrie musicale resserre sa proie comme un python Première tension, puis première contradiction Choisir entre Révolution ou sociale ascension Mais le rap a plus dune rime sous le bomber Schizophrène sur MTV ça fight the power Les postillons recouvrent le monde, la mode devient mouvement Une lame de fond au verbe acide acerbe et véhément Linstinct de guerre, de cracher, de vivre libre Insoumis en dehors des schémas et des normes établis Ya des morts, des oxymores, des coups de balles verbales Des ruptures grammaticales sur des caisses claires et cymbales Ca semballe, sans label ça devient plus hardcore Le réel est sans appel dans le couloir de la mort Quand le chômage augmente les rappeurs deviennent précis Quand les médias nous mentent les MCs font les récits Chaque block, chaque quartier, chaque secteur possède ses rappeurs Le système est un arbre et le rap est sécateur Puis la langue affûtée sest mise à baisser le futal On lui a joué de la flûte, elle a kiffé le récital Elle sest mise des dents en or, des chaînes desclaves autour du cou Cest normal que quand tu crèches dehors tu veuilles sortir du trou La tête dans un keffieh, du cauchemar au rêve américain Le rap boit du Moët dans une Bentley en chantant des refrains En chantant des couplets de 8 mesures sur des sujets lissés Ça fait dans la friperie, le téléphone, les produits dérivés Les gens de la classe moyenne ignorant le ghetto Ont fait le succès du peu-ra, ils veulent les gestes et puis largot Ils veulent sencanailler la drogue, les flingues, les biatchs sur la table Sen foutent de la culture et du message dAfrika Bambaataa Le rap a fait ses classes loin du Hip Hop Renonce à léthique de Chuck D, veut la vie de Donald Trump Le vilain petit canard sest transformé en cocotte aux ufs dor Le bon vin, les dollars ont remplacé le bruit et les odeurs Mais loin des cotations de ce système lesprit reste vivace Tant quya la merde dans le quartier, yaura des 16 en dédicace Donc ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas ! Donc ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas ! Ferme ta porte et tes fenêtres pour que le Rap ne rentre pas Il fera une Block Party dans ton jardin pour que tu ne dormes pas !Paroles rédigées et expliquées par la communauté RapGenius France3</t>
+          <t>La tête, tournant derviche L'alcool assèche, un goût âpre en bouche Ma langue, une lame dans une poche rêche Le parquet craque sous nos semelles usées de gosses de riches On fume sur la corniche, dedans la musique recouvre les causeries L'amour triche, on s'en contente, les nuits sont fraîches Demain on dort, dimanche au temple le pasteur ne fera que des faux prêches On a la vie devant nous pour user nos cartouches Dehors la ville est belle comme si j'étais un bateau-mouche Degrés dans le rouge, les couples copulent sur la lune Copine, c'est l'hallu', ce quinze ans d'âge transforme tes yeux en lagune Embouteillage de filles devant les toilettes Merde, j'ai confondu les noyaux d'olives avec les cacahuètes On danse nos solitudes sur des rythmes binaires Tous par terre, le cerveau dans la brume, y a de l'humour dans l'air Dans ces instants brefs, c'est le temps qu'on déjoue Donc dis-moi à quoi on joue avant les lueurs du jour Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor É que a situação aqui 'tá difícil Faltando poesia, homem nenhum querendo compromisso Pra trocar uma ideia, na moral, é um suplício Um cara que fala em poesia está desesperando por isso Na pista, a gente dança, temperatura é perfeita É cedo, é meia-noite, é lua cheia O seu perfume é da Chanel de Paris Cê torce pro PSG E diz aí o que falta pra tu ser feliz Sol ou vento na cara, chope gelada Biquíni, sandália Mais uma noite no Brasil Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor Allongé, la tête dans les nuages, la nuit est bleutée Lève les yeux, là-haut le ciel est à notre portée Est-ce un drone, une étoile ? Oh peu importe, fais un vu Le cadran essoufflé affiche une heure de couvre-feu Cachaça, sucre canne, glaçons pilés Mon petit cur est un citron dans un mortier Le ciel est clairsemé comme la piste de danse Où sont passés les temps sereins où rien n'portait à conséquence Un fragment de volupté Un parfum, une archive, une fragrance d'été Une fumée suffocante, tes contours et mes pensées me fouettent Comme une pluie battante sur le pas de passants pressés Viennent des lueurs à la fenêtre La nuit qui meurt pour voir un nouveau jour naître Et comme le temps nous est compté J'irai camper sur tes lèvres pour m'endormir à t'écouter Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor1</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Balade brésilienne</t>
+          <t>INTERSTELLAR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>La tête, tournant derviche L'alcool assèche, un goût âpre en bouche Ma langue, une lame dans une poche rêche Le parquet craque sous nos semelles usées de gosses de riches On fume sur la corniche, dedans la musique recouvre les causeries L'amour triche, on s'en contente, les nuits sont fraîches Demain on dort, dimanche au temple le pasteur ne fera que des faux prêches On a la vie devant nous pour user nos cartouches Dehors la ville est belle comme si j'étais un bateau-mouche Degrés dans le rouge, les couples copulent sur la lune Copine, c'est l'hallu', ce quinze ans d'âge transforme tes yeux en lagune Embouteillage de filles devant les toilettes Merde, j'ai confondu les noyaux d'olives avec les cacahuètes On danse nos solitudes sur des rythmes binaires Tous par terre, le cerveau dans la brume, y a de l'humour dans l'air Dans ces instants brefs, c'est le temps qu'on déjoue Donc dis-moi à quoi on joue avant les lueurs du jour Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor É que a situação aqui 'tá difícil Faltando poesia, homem nenhum querendo compromisso Pra trocar uma ideia, na moral, é um suplício Um cara que fala em poesia está desesperando por isso Na pista, a gente dança, temperatura é perfeita É cedo, é meia-noite, é lua cheia O seu perfume é da Chanel de Paris Cê torce pro PSG E diz aí o que falta pra tu ser feliz Sol ou vento na cara, chope gelada Biquíni, sandália Mais uma noite no Brasil Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor Allongé, la tête dans les nuages, la nuit est bleutée Lève les yeux, là-haut le ciel est à notre portée Est-ce un drone, une étoile ? Oh peu importe, fais un vu Le cadran essoufflé affiche une heure de couvre-feu Cachaça, sucre canne, glaçons pilés Mon petit cur est un citron dans un mortier Le ciel est clairsemé comme la piste de danse Où sont passés les temps sereins où rien n'portait à conséquence Un fragment de volupté Un parfum, une archive, une fragrance d'été Une fumée suffocante, tes contours et mes pensées me fouettent Comme une pluie battante sur le pas de passants pressés Viennent des lueurs à la fenêtre La nuit qui meurt pour voir un nouveau jour naître Et comme le temps nous est compté J'irai camper sur tes lèvres pour m'endormir à t'écouter Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor Vamo' a pé, caminhar na praia E cair na gandaia Nas ondas do amor1</t>
+          <t>C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison J'préfère être heureux que d'avoir raison Que d'avoir raison T'es quel camp, quelle équipe ? T'es d'la famill de qui ? Ah J'quitte les étiquttes, c'est le karma qui guide oh Pierre malachite, crime bien mal acquis, j'kick J'écris rimes pacifistes de Kigali à Kin' Kin' Loin des bords du monde, je flotte dans le néant J'bricole des cabanes éphémères, frère, et des royaumes d'enfant, sur Accordez-moi le bon, apportez-moi le don don D'sortir d'ce piège à con, d'avoir tort ou raison Latérite est devenue bitume, mon quotidien est un Rubik's Cube J'ai beau m'délester d'mon vécu, malgré tout le passé reflue La vie, pas d'ardoise à laisser, cul-sec, one shot, un seul essai Fond d'la classe, j'étais mal assis eux font du sale, je fais ma lessive, okay C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison oh, oh, oh Que d'avoir raison J'préfère être heureux que d'avoir raison han, yeah Poésie forte, belle, tout aussi mortelle J'ai b'soin d'un bol d'air, j'confonds le bordel et le Baudelaire J'suis dans mon propre stress pendant qu'mes potes pressent J'endure les God bless, même quand c'est dur, j'vous redis God bless J'rêve de filles topless, d'alcool fort et d'révolution Parano, je trouve toujours un problème à chaque solution Putain, c'est que d'l'amour c'est que d'l'amour On d'mande aux gens de croire en Dieu, en oubliant de leur dire que Dieu croit en nous Le cur peut pas s'trafiqué, moi, on m'a dit Se cultiver, c'est pas boire la mer, c'est apprendre à naviguer Alors je rêve de canicule, Tropique du Capricorne Faut pas qu'je capitule, j'ai vu des nazis dans leur Capitole Et même à Paris capitale, balle dans mon encéphale On m'a pris tout mon or, on me l'a remboursé en Franc CFA La patience est un art, au-d'ssus du vent, au-d'ssus du temps Au-d'ssus des gens, j'écris le même scénar', Insterstellar C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison oh, oh, oh Que d'avoir raison J'préfère être heureux que d'avoir raison Que d'avoir raison Que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison d'avoir raison, d'avoir raison, d'avoir raison</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INTERSTELLAR</t>
+          <t>À trop courir</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison J'préfère être heureux que d'avoir raison Que d'avoir raison T'es quel camp, quelle équipe ? T'es d'la famill de qui ? Ah J'quitte les étiquttes, c'est le karma qui guide oh Pierre malachite, crime bien mal acquis, j'kick J'écris rimes pacifistes de Kigali à Kin' Kin' Loin des bords du monde, je flotte dans le néant J'bricole des cabanes éphémères, frère, et des royaumes d'enfant, sur Accordez-moi le bon, apportez-moi le don don D'sortir d'ce piège à con, d'avoir tort ou raison Latérite est devenue bitume, mon quotidien est un Rubik's Cube J'ai beau m'délester d'mon vécu, malgré tout le passé reflue La vie, pas d'ardoise à laisser, cul-sec, one shot, un seul essai Fond d'la classe, j'étais mal assis eux font du sale, je fais ma lessive, okay C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison oh, oh, oh Que d'avoir raison J'préfère être heureux que d'avoir raison han, yeah Poésie forte, belle, tout aussi mortelle J'ai b'soin d'un bol d'air, j'confonds le bordel et le Baudelaire J'suis dans mon propre stress pendant qu'mes potes pressent J'endure les God bless, même quand c'est dur, j'vous redis God bless J'rêve de filles topless, d'alcool fort et d'révolution Parano, je trouve toujours un problème à chaque solution Putain, c'est que d'l'amour c'est que d'l'amour On d'mande aux gens de croire en Dieu, en oubliant de leur dire que Dieu croit en nous Le cur peut pas s'trafiqué, moi, on m'a dit Se cultiver, c'est pas boire la mer, c'est apprendre à naviguer Alors je rêve de canicule, Tropique du Capricorne Faut pas qu'je capitule, j'ai vu des nazis dans leur Capitole Et même à Paris capitale, balle dans mon encéphale On m'a pris tout mon or, on me l'a remboursé en Franc CFA La patience est un art, au-d'ssus du vent, au-d'ssus du temps Au-d'ssus des gens, j'écris le même scénar', Insterstellar C'est le karma qui nous guide et n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison C'est le karma qui nous guide, n'ayons pas peur d'être heureux J'préfère être heureux que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison oh, oh, oh Que d'avoir raison J'préfère être heureux que d'avoir raison Que d'avoir raison Que d'avoir raison Oh, oh, oh J'préfère être heureux que d'avoir raison d'avoir raison, d'avoir raison, d'avoir raison</t>
+          <t>De mauvaises herbes insoumises lézardent les trottoirs Je ne dors pas, j'ai l'insomnie de ma cité dortoir Toute ma vie j'ai rempli mon caddie d'illusions Moi je téléphone, je télécommande et je télévision Silence, on tourne, on vit, on rit mais ça ressemble à du playback Mon banquier c'est James Brown et tous les mois c'est Payback Des millions d'Andy Warhol s'impatient sur le quai de la gare Pour un quart d'heure de trajet dans le train de la gloire On veut être star à l'instar des étoiles L'intimité s'étale en prime-time, se vend sur PayPal On intronise le médiocre, plus de caviar, que de Bic Mac On prépare une pensée fast-food dans les cuisines de l'audimat Du pain et des jeux pour calmer les ventres creux Du Xanax dans l'émeute, du Prozac pour miséreux Fermez vos livres s'ils vous apprennent à hésiter Méfiez-vous, à vouloir vivre on peut finir par exister A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2 A force des courbes se dessinent sous mon regard somnifère J'ai voulu décourber l'échine à courir après mes chimères J'ai envolé mes rêves dans des avions de papier Et j'ai voulu la vie d'château en m'endormant dans un clapier La mer est belle monsieur, j'ai gommé les nuages Voyez les valises sous mes yeux elles m'invitent au voyage Le ciel est beau madame, j'ai dessiné l'image Ecoutez donc l'oiseau qui chante, enfermé dans sa cage A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2 J'ai fabriqué des mondes, j'ai mis des mots et des rires, des pleurs Et puis le temps lui a buriné mes rides, j'ai peur Je cours, j'veux d'autres odeurs pour mes narines Je danse, je tourne, petit ballerine sur baril de poudre La poésie que je brode, c'est d'la dentelle à coudre Quand c'est l'orage dehors, j'en ai plus rien à foudre J'ai fais des rêves d'un rien, maintenant j'ai rien qu'mes rêves Et c'est leur loi d'airain qui fait que je dérive Loin au large, j'ai vu mon île tu sais Toucher au but j'y vais enfin j'essaie Des paquets d'rimes pour que mon âme affleure Je veux faire des victimes avec des armes à fleurs Je ralentis le pas, j'reprends mon souffle parfois Il y a mes rêves qui tardent face au cadran qui tourne A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>À trop courir</t>
+          <t>Chalouper</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>De mauvaises herbes insoumises lézardent les trottoirs Je ne dors pas, j'ai l'insomnie de ma cité dortoir Toute ma vie j'ai rempli mon caddie d'illusions Moi je téléphone, je télécommande et je télévision Silence, on tourne, on vit, on rit mais ça ressemble à du playback Mon banquier c'est James Brown et tous les mois c'est Payback Des millions d'Andy Warhol s'impatient sur le quai de la gare Pour un quart d'heure de trajet dans le train de la gloire On veut être star à l'instar des étoiles L'intimité s'étale en prime-time, se vend sur PayPal On intronise le médiocre, plus de caviar, que de Bic Mac On prépare une pensée fast-food dans les cuisines de l'audimat Du pain et des jeux pour calmer les ventres creux Du Xanax dans l'émeute, du Prozac pour miséreux Fermez vos livres s'ils vous apprennent à hésiter Méfiez-vous, à vouloir vivre on peut finir par exister A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2 A force des courbes se dessinent sous mon regard somnifère J'ai voulu décourber l'échine à courir après mes chimères J'ai envolé mes rêves dans des avions de papier Et j'ai voulu la vie d'château en m'endormant dans un clapier La mer est belle monsieur, j'ai gommé les nuages Voyez les valises sous mes yeux elles m'invitent au voyage Le ciel est beau madame, j'ai dessiné l'image Ecoutez donc l'oiseau qui chante, enfermé dans sa cage A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2 J'ai fabriqué des mondes, j'ai mis des mots et des rires, des pleurs Et puis le temps lui a buriné mes rides, j'ai peur Je cours, j'veux d'autres odeurs pour mes narines Je danse, je tourne, petit ballerine sur baril de poudre La poésie que je brode, c'est d'la dentelle à coudre Quand c'est l'orage dehors, j'en ai plus rien à foudre J'ai fais des rêves d'un rien, maintenant j'ai rien qu'mes rêves Et c'est leur loi d'airain qui fait que je dérive Loin au large, j'ai vu mon île tu sais Toucher au but j'y vais enfin j'essaie Des paquets d'rimes pour que mon âme affleure Je veux faire des victimes avec des armes à fleurs Je ralentis le pas, j'reprends mon souffle parfois Il y a mes rêves qui tardent face au cadran qui tourne A trop courir après mes rêves j'fais des claquages au cur Quand j'y crois plus je prends la plume pour prendre de la hauteur A trop courir après mes rêves x2</t>
+          <t>Un jour viendra le corps tassé Les parchemins sur nos visages Ceux qui racontent la vie passée Tous les succès et les naufrages Et nos mains qui tremblent au vent Comme des biguines aux pas légers Continueront de battre le temps Sous des soleils endimanchés Un jour viendra, on fera vieux os Des bégonias sur le balcon Un petit air de calypso Photos sépias dans le salon Malgré la vie le temps passé Malgré la jeunesse fatiguée Personne ne pourra empêcher Nos corps usés de chalouper Chalouper, chalouper Chalouper, chalouper Chalouper, chalouper Avant qule printemps sfasse automne Que lon séloigne de la rive On scratchera du gramophone Quelques ritournelles caraïbes On sépuisera sur le dancefloor En de petits pas économes Tant que sera levé le store Nos palpitants sront métronomes Elles me reviennent les années folles Quand on mourrait seulement de rire Oh, rappelle-toi du Malecón Le clapotis de nos souvenirs Un jour viendra cette ritournelle Quand ma voix se sra envolée Je te supplie en souvenir delle De continuer à chalouper Chalouper, chalouper Chalouper, chalouper Chalouper, chalouper Oh fais-moi tourner sous mes pas Glissent les années, toi et moi Jusquau bout daimer, on pourra Chalouper, chalouper, chalouper Oh fais-moi tourner sous mes pas Glissent les années, toi et moi Jusquau bout daimer, on pourra Chalouper, chalouper, chalouper</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chalouper</t>
+          <t>QWERTY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Un jour viendra le corps tassé Les parchemins sur nos visages Ceux qui racontent la vie passée Tous les succès et les naufrages Et nos mains qui tremblent au vent Comme des biguines aux pas légers Continueront de battre le temps Sous des soleils endimanchés Un jour viendra, on fera vieux os Des bégonias sur le balcon Un petit air de calypso Photos sépias dans le salon Malgré la vie le temps passé Malgré la jeunesse fatiguée Personne ne pourra empêcher Nos corps usés de chalouper Chalouper, chalouper Chalouper, chalouper Chalouper, chalouper Avant qule printemps sfasse automne Que lon séloigne de la rive On scratchera du gramophone Quelques ritournelles caraïbes On sépuisera sur le dancefloor En de petits pas économes Tant que sera levé le store Nos palpitants sront métronomes Elles me reviennent les années folles Quand on mourrait seulement de rire Oh, rappelle-toi du Malecón Le clapotis de nos souvenirs Un jour viendra cette ritournelle Quand ma voix se sra envolée Je te supplie en souvenir delle De continuer à chalouper Chalouper, chalouper Chalouper, chalouper Chalouper, chalouper Oh fais-moi tourner sous mes pas Glissent les années, toi et moi Jusquau bout daimer, on pourra Chalouper, chalouper, chalouper Oh fais-moi tourner sous mes pas Glissent les années, toi et moi Jusquau bout daimer, on pourra Chalouper, chalouper, chalouper</t>
+          <t>Une grande école de commerce, un stage de fin d'études Il rêve de partir ailleurs pour aller faire fortune La City, les Lloyd's, le building en forme de concombre Se mettre au vert, à l'ombre, s'expatrier à Londres La France, sa routine, préjugés dans sa rétine Il jouera son autre manche outre-manche maritime JCD, jeune cadre dynamique compétitif Consulting Marketing Finances c'est pas vraiment son kif Mais le voilà motivé pour travailler pendant 10 ans Épargner assez d'argent puis il sortira du rang Même s'il échoue par la suite, il aura son assurance Un diplôme BAC5 et ses dix années d'expériences Parce que lui au fond il n'en veut pas de cette vie de bureau De ce métro boulot dodo juste pour payer ses impôts Parce que lui depuis tout petit il voulait faire du hors piste Il avait toujours rêvé de mener la vie d'artiste Mon père m'a dit méfies-toi du cynisme L'avenir appartient aux idéalistes Quand je serai grand, je voulais être artiste Aujourd'hui je suis pianiste sur un clavier QWERTY 8h30, Liverpool Street Station, East London Embauché à la fin de son stage c'est l'automne Son profil correspondait au poste à pourvoir Flexible, autonome, des qualités qu'il fallait avoir Environnement multiculturel, métier transversal Open space, activités internationales Les années passent comme les temps de pauses A la machine à café les sourires lui cachent tant de choses Les intrigues rythment la vie au bureau Les grâces, les disgrâces par les boss du boulot Qui aura sa promo? Qui sera licencié? De combien sera le montant du bonus de fin d'année? Et puis photo tagué, et puis chaté discret Et puis faire le guet, le manager peut passer Les objectifs, le rentable, compétitif jusqu'aux entrailles Il s'est sculpté le masque exigé par le monde du travail 6H30, le réveil électronique tout redémarre Couché tard, levé tôt, il court pour éviter le retard Il voudrait tout changer, il y pense, il se le dit Il rêve de gagner l'euro-millions du vendredi Tous les matins, les mêmes bonjours, aux mêmes personnes, au même endroit La routine, le quotidien, parcours funèbre, chemin de croix Tous les matins y'a l'horoscope dans les gratuits distribués Et tous les soirs chez les gens bien la lumière bleutée des télés Le temps des désillusions, il a du bide, il est vautré A-t-il respecté les rêves de l'enfant qu'il était? Mais cette fois c'en est trop, sortir du cercle infernal Parce qu'il crève d'ennui, il sautera hors de son bocal Il va déployer ses ailes, ne pas avoir peur d'essayer Il aura enfin cette vie qu'il s'était prédestinée Et pour la fin de cette histoire, 10 ans plus tard le revoici A Paris, il est pianiste...sur un clavier AZERTY...</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>QWERTY</t>
+          <t>Isimbi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Une grande école de commerce, un stage de fin d'études Il rêve de partir ailleurs pour aller faire fortune La City, les Lloyd's, le building en forme de concombre Se mettre au vert, à l'ombre, s'expatrier à Londres La France, sa routine, préjugés dans sa rétine Il jouera son autre manche outre-manche maritime JCD, jeune cadre dynamique compétitif Consulting Marketing Finances c'est pas vraiment son kif Mais le voilà motivé pour travailler pendant 10 ans Épargner assez d'argent puis il sortira du rang Même s'il échoue par la suite, il aura son assurance Un diplôme BAC5 et ses dix années d'expériences Parce que lui au fond il n'en veut pas de cette vie de bureau De ce métro boulot dodo juste pour payer ses impôts Parce que lui depuis tout petit il voulait faire du hors piste Il avait toujours rêvé de mener la vie d'artiste Mon père m'a dit méfies-toi du cynisme L'avenir appartient aux idéalistes Quand je serai grand, je voulais être artiste Aujourd'hui je suis pianiste sur un clavier QWERTY 8h30, Liverpool Street Station, East London Embauché à la fin de son stage c'est l'automne Son profil correspondait au poste à pourvoir Flexible, autonome, des qualités qu'il fallait avoir Environnement multiculturel, métier transversal Open space, activités internationales Les années passent comme les temps de pauses A la machine à café les sourires lui cachent tant de choses Les intrigues rythment la vie au bureau Les grâces, les disgrâces par les boss du boulot Qui aura sa promo? Qui sera licencié? De combien sera le montant du bonus de fin d'année? Et puis photo tagué, et puis chaté discret Et puis faire le guet, le manager peut passer Les objectifs, le rentable, compétitif jusqu'aux entrailles Il s'est sculpté le masque exigé par le monde du travail 6H30, le réveil électronique tout redémarre Couché tard, levé tôt, il court pour éviter le retard Il voudrait tout changer, il y pense, il se le dit Il rêve de gagner l'euro-millions du vendredi Tous les matins, les mêmes bonjours, aux mêmes personnes, au même endroit La routine, le quotidien, parcours funèbre, chemin de croix Tous les matins y'a l'horoscope dans les gratuits distribués Et tous les soirs chez les gens bien la lumière bleutée des télés Le temps des désillusions, il a du bide, il est vautré A-t-il respecté les rêves de l'enfant qu'il était? Mais cette fois c'en est trop, sortir du cercle infernal Parce qu'il crève d'ennui, il sautera hors de son bocal Il va déployer ses ailes, ne pas avoir peur d'essayer Il aura enfin cette vie qu'il s'était prédestinée Et pour la fin de cette histoire, 10 ans plus tard le revoici A Paris, il est pianiste...sur un clavier AZERTY...</t>
+          <t>J'ai vécu sur la grève, les yeux dans mes rêves A écouter le vague à l'âme que les vents soulèvent Je pensais m'être échoué à jamais dans l'estuaire Quand cette femme m'a dit viens, viens prendre la mer Alors nos mains d'amoureux ont sculpté une pirogue Au début le ciel est bleu, tu pars et tu vogues On a glissé sur une mer d'huile, un miroir onduleux Et bientôt au fil de l'eau, le ciel devint nébuleux Y'a la mer en furie, puis les tempêtes que l'on brave Et de la poupe à la proue, on s'accroche, on en bave L'équipage se renforce, apprend avec l'âge Que l'océan est sauvage lorsqu'on quitte ses rivages Puis un jour on s'amarre au-dessus d'un champ de lumières Les amants qui s'aimèrent d'un scintillement lunaire Plongent ensemble dans l'azur aux ressacs éphémères Et remontent à la surface une perle solaire Oh... Isimbi, Isimbi Oh... Isimbi, Isimbi Oh... Le noyau de mon fruit de vie Isimbi... Isimbi... La plus belle perle du monde à m'en brûler les prunelles Je le jure sur ma vie que la mienne sera pour elle Six heures trente, six décembre, c'est un ange qui descend Dans ma vie, dans cette chambre, je ne sais plus ce que je ressens Un sentiment d'embrasement bien plus fort que l'amour Je fus Dieu un instant... c'était peut-être pour toujours C'est la chair de ma chair, le sang de mon sang Et j'en perds mes repères à être père d'un enfant Révolution accomplie! Mon Grand Soir le voici Parce que l'on meurt tous un jour, je riposte par la vie Isimbi, c'est ton nom, la perle éternelle Ou la neige des volcans sur le toit de ma Terre mère A la mère de ma fève, à ses talents d'orfèvres La rosée de sa fleur est la perle de ma fièvre Parce que l'on était elle et moi, parce que l'on s'aimait à l'étroit Parce qu'il fallait être deux pour faire trois Petite perle nacrée, si le ciel me soustrait Je serais toujours près, près de toi en secret Petite perle, tu descends d'une lignée de poètes D'idéalistes en tout genre, de chercheurs de conquêtes Lève les yeux, une aïeule brille pour toi Suzana comme un nom au reflet d'autrefois IBUKA, souviens-toi, le prélude à ta vie Suzana c'est le nom d'un immortel atavisme Petite fille pardonne-nous pour ce monde dérisoire Pour tes épaules bien trop frêles face au poids de l'Histoire Petite princesse au royaume de mes mots A tous les fleuves qui t'irriguent, à tes rivières indigo A nos droits de douter, à nos rages d'exister A nos chants de clarté que je t'offre en bouquet Petite plante céleste aux yeux de rubis Bienvenue ma princesse, bienvenue dans la vie... X3</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Isimbi</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>J'ai vécu sur la grève, les yeux dans mes rêves A écouter le vague à l'âme que les vents soulèvent Je pensais m'être échoué à jamais dans l'estuaire Quand cette femme m'a dit viens, viens prendre la mer Alors nos mains d'amoureux ont sculpté une pirogue Au début le ciel est bleu, tu pars et tu vogues On a glissé sur une mer d'huile, un miroir onduleux Et bientôt au fil de l'eau, le ciel devint nébuleux Y'a la mer en furie, puis les tempêtes que l'on brave Et de la poupe à la proue, on s'accroche, on en bave L'équipage se renforce, apprend avec l'âge Que l'océan est sauvage lorsqu'on quitte ses rivages Puis un jour on s'amarre au-dessus d'un champ de lumières Les amants qui s'aimèrent d'un scintillement lunaire Plongent ensemble dans l'azur aux ressacs éphémères Et remontent à la surface une perle solaire Oh... Isimbi, Isimbi Oh... Isimbi, Isimbi Oh... Le noyau de mon fruit de vie Isimbi... Isimbi... La plus belle perle du monde à m'en brûler les prunelles Je le jure sur ma vie que la mienne sera pour elle Six heures trente, six décembre, c'est un ange qui descend Dans ma vie, dans cette chambre, je ne sais plus ce que je ressens Un sentiment d'embrasement bien plus fort que l'amour Je fus Dieu un instant... c'était peut-être pour toujours C'est la chair de ma chair, le sang de mon sang Et j'en perds mes repères à être père d'un enfant Révolution accomplie! Mon Grand Soir le voici Parce que l'on meurt tous un jour, je riposte par la vie Isimbi, c'est ton nom, la perle éternelle Ou la neige des volcans sur le toit de ma Terre mère A la mère de ma fève, à ses talents d'orfèvres La rosée de sa fleur est la perle de ma fièvre Parce que l'on était elle et moi, parce que l'on s'aimait à l'étroit Parce qu'il fallait être deux pour faire trois Petite perle nacrée, si le ciel me soustrait Je serais toujours près, près de toi en secret Petite perle, tu descends d'une lignée de poètes D'idéalistes en tout genre, de chercheurs de conquêtes Lève les yeux, une aïeule brille pour toi Suzana comme un nom au reflet d'autrefois IBUKA, souviens-toi, le prélude à ta vie Suzana c'est le nom d'un immortel atavisme Petite fille pardonne-nous pour ce monde dérisoire Pour tes épaules bien trop frêles face au poids de l'Histoire Petite princesse au royaume de mes mots A tous les fleuves qui t'irriguent, à tes rivières indigo A nos droits de douter, à nos rages d'exister A nos chants de clarté que je t'offre en bouquet Petite plante céleste aux yeux de rubis Bienvenue ma princesse, bienvenue dans la vie... X3</t>
+          <t>Même au fin fond de mon petit pays, je regardais ma lucarne Les convulsions du monde nous parvenaient comme un lointain vacarme Souvent la télé s'partageait avec l'ensemble du voisinage La mondovision canapé transforme le globe en un village Les fractions d'imaginaires partageant tous la même doxa Roger Milla en Coupe du Monde et le monde danse le makossa La Guerre du Golfe de Mister Bush, avant fiston y'avait papa Et j'mattais le pillage des pipelines en bouffant mes papayes Nous étions tous les mêmes gamins rêvant d'entrer dans la Dream team Malgré l'arceau dans mon jardin j'ai jamais vu Patrick Ewing J'me suis accroché à des rêves souvent très loin d'mon quotidien J'connaissais bien moins ma culture que le western hollywoodien On pensait tenir aucun rôle dans le programme de leurs feuilletons Mais un jour en Gaule à La Baule y'a eu le discours de tonton Démocratie multipartisme, il fallait ranger les pistolets Comme rien n'est simple la guerre a éclaté, j'ai éteint ma télé C'est cool... C'est cool... Ma jeunesse s'écoule... C'est cool... Entre un mur qui tombe et deux tours qui s'écroulent Pendant qu'on s'débattait dans une fournaise Les autres nous regardaient assis en charentaises À s'demander Y'a quoi à la télé ? C'est quoi ces peuples qui crient à l'aide entre le fromage et le dessert ? L'humanité est plus fragile qu'une orchidée dans le désert Et quand le drame est bien trop grand, il se transforme en statistiques Et Lady Di a plus de poids qu'un million de morts en Afrique L'ignorance est moins mortelle que l'indifférence aux sanglots Les hommes sont des hommes pour les hommes et les loups ne sont que des chiots Alors on agonise en silence dans un cri sans écho Et même si la technique avance, elle ne changera pas la déco On a grandi avec le poids de nos démons sur le roc des coteaux Alors donnez-nous des mots pour qu'on vous change la photo! Pour qu'on écrive à hauteur d'homme ce que la télé ne montre pas Les battements du cur de mon âme est une info qui ne ment pas J'venais d'Afrique mais sans connaître Kouchner et puis son sac de riz J'ai débarqué un soir d'hiver ici avec mon sac de rimes J'ai perdu mon Jardin d'Eden où je me nourrissais de mangues Je suis prisonnier de mes chaînes vu qu'ici la télé commande J'l'ai rallumé dans un trois pièces de cet immeuble surchauffé J'l'ai entretenue comme le feu parce que dehors j'me les congelais Loin dans mon exil, je zappe ceux qui ont pris ma place Et quand on joue sur leur terrain c'est souvent rare qu'on te remplace J'fais une pause, le temps d'une pub Coca Cola Insérée entre un mur qui tombe et la sortie de Mandela On a vécu en continu, comme un flot d'informations Et j'me suis perdu dans ma rue, sous un amas de béton Les souvenirs de ma vie s'mélangent à toutes ces images diffusées Vivre hors champ d'la caméra c'est souvent ne pas exister On nous gave d'images à satiété, de sexe, de fric et de faucheuse Alors j'écris des textes comme un écho de nos vies silencieuses Sur leur écran on est des bouts d'pixels perdus dans la foule Et nos vies s'écoulent, coulent pendant qu'le monde s'écroule 4</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Slowoperation</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Même au fin fond de mon petit pays, je regardais ma lucarne Les convulsions du monde nous parvenaient comme un lointain vacarme Souvent la télé s'partageait avec l'ensemble du voisinage La mondovision canapé transforme le globe en un village Les fractions d'imaginaires partageant tous la même doxa Roger Milla en Coupe du Monde et le monde danse le makossa La Guerre du Golfe de Mister Bush, avant fiston y'avait papa Et j'mattais le pillage des pipelines en bouffant mes papayes Nous étions tous les mêmes gamins rêvant d'entrer dans la Dream team Malgré l'arceau dans mon jardin j'ai jamais vu Patrick Ewing J'me suis accroché à des rêves souvent très loin d'mon quotidien J'connaissais bien moins ma culture que le western hollywoodien On pensait tenir aucun rôle dans le programme de leurs feuilletons Mais un jour en Gaule à La Baule y'a eu le discours de tonton Démocratie multipartisme, il fallait ranger les pistolets Comme rien n'est simple la guerre a éclaté, j'ai éteint ma télé C'est cool... C'est cool... Ma jeunesse s'écoule... C'est cool... Entre un mur qui tombe et deux tours qui s'écroulent Pendant qu'on s'débattait dans une fournaise Les autres nous regardaient assis en charentaises À s'demander Y'a quoi à la télé ? C'est quoi ces peuples qui crient à l'aide entre le fromage et le dessert ? L'humanité est plus fragile qu'une orchidée dans le désert Et quand le drame est bien trop grand, il se transforme en statistiques Et Lady Di a plus de poids qu'un million de morts en Afrique L'ignorance est moins mortelle que l'indifférence aux sanglots Les hommes sont des hommes pour les hommes et les loups ne sont que des chiots Alors on agonise en silence dans un cri sans écho Et même si la technique avance, elle ne changera pas la déco On a grandi avec le poids de nos démons sur le roc des coteaux Alors donnez-nous des mots pour qu'on vous change la photo! Pour qu'on écrive à hauteur d'homme ce que la télé ne montre pas Les battements du cur de mon âme est une info qui ne ment pas J'venais d'Afrique mais sans connaître Kouchner et puis son sac de riz J'ai débarqué un soir d'hiver ici avec mon sac de rimes J'ai perdu mon Jardin d'Eden où je me nourrissais de mangues Je suis prisonnier de mes chaînes vu qu'ici la télé commande J'l'ai rallumé dans un trois pièces de cet immeuble surchauffé J'l'ai entretenue comme le feu parce que dehors j'me les congelais Loin dans mon exil, je zappe ceux qui ont pris ma place Et quand on joue sur leur terrain c'est souvent rare qu'on te remplace J'fais une pause, le temps d'une pub Coca Cola Insérée entre un mur qui tombe et la sortie de Mandela On a vécu en continu, comme un flot d'informations Et j'me suis perdu dans ma rue, sous un amas de béton Les souvenirs de ma vie s'mélangent à toutes ces images diffusées Vivre hors champ d'la caméra c'est souvent ne pas exister On nous gave d'images à satiété, de sexe, de fric et de faucheuse Alors j'écris des textes comme un écho de nos vies silencieuses Sur leur écran on est des bouts d'pixels perdus dans la foule Et nos vies s'écoulent, coulent pendant qu'le monde s'écroule 4</t>
+          <t>Je vis dans mon exil, de luxe, de bas-résilles Ici lon se résigne à fumer de la résine Jai gratté trop de faf et noirci trop de pages Sentez le message, le propos, le propane se propage Le sentiment de ma révolte nest pas très clair, il est diffus Je suffoque à mon époque, la refuse, et la réfute Jai pris lavion au vol pour devenir clando dans la soute Jveux pas devenir un passager, jveux pas finir cracheur de soupe Jai rêvé de dissidence en me goinfrant de mes pop-corn Lintégrité sest faite lennemi, je suis cocu et jai des cornes La transgression nexiste plus, le système nous avale Nous recrache en ronds de fumée, épais cigare de la Havane Dans la savane de Paname, sur le goudron, le macadam Jarpente les rues en toutes saisons dans le chaudron de mes états dâmes Je me revois un peu débile, trainant dans le quartier latin Entre les bouquins, les vinyles ou bien Bastille au petit matin Avec cette bande de copains parlant des connards quon adule On était tous un peu crétin de se gargariser de nos vies dadultes On débattait sur les pogroms, de concept et de leurs nuances On discutait aussi football, sexe, argent et vacances On se dandinait comme des dandys, on se voulait fluide et nomade On rêvait tous de jet-lag et de sextraire de la vie normale Mais de New York à Moscou et de Shanghai à London Les mojitos ont le même goût, les bars diffusent Gilles Peterson On sest jeté dans la vie de con, horaires-bureaux-aseptisés On en voulait au monde entier en faisant plaisir à son banquier Puis de Before en After, Caïpirinhas ou Bavaria Sur les murs Lounge des clubs tendance ya Casus Clay, Che Guevara A 5 euros le Petit Negro , ils ont fait fort au Café Flore Eh ! Jean-Sol Partre cest décidé, je vais devenir un Picaflore Slowoperation Slowoperation Slowoperation Mmmhh... Javancerais sans balises, quand la musique te marginalise Le jour de ma mort sur mon cur je naurais pas de valises Je partirais léger quand dautres se sentiront lésés Se sentiront pleins de regrets, peut-être de navoir pas osé Jai jamais trop rêvé davoir lappart et la voiture Je suis à coté de mes pompes, moi jaime la gratte et les ratures Et laventure, un jour se lève, un jour nouveau Un jour dadolescence ou sur un banc jai rêvé de Revo Mais les épreuves de la vie, des ouragans qui font péter les digues Me fatigue, et je le vois, mes textes nont plus dintrigues Les révoltes sont diluées, nuages de lait dans un café Tu ne signes pas des autographes quand tas lavenir autodafé Moi je suis un peu paumé et jai le cur à la renverse Mais tinquiètes pas, je sais que la vie est une tempête que lon traverse Ce monde il est vulgaire, cest un tapin dans un motel Je fais partie de ces jeunes-là qui ont grandi sans un modèle Pour mes enfants je lespère, je serais un exemple Et de mes larmes et de mon sang, ok! De ça, je les exempte Je suis pessimiste... Ce monde il se barre en cacahuète Je file vers ma planète, appelez-moi dès que ça sarrête Génération résignation, sans notion ni passion Trop-plein dinformations, environnement en détérioration Condamner à trouver du sens dans ce non-sens Certains brûlent la France à lessence, ou consomment à outrance Ou veulent acquérir de largent, du pouvoir ou de la gloire Mais laissez-moi que je me barre, je veux juste perfectionner mon art Certains appelleront ça lâcheté ou égoïsme Je le répète, si je pouvais, jachèterais de lhéroïsme !2</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Slowoperation</t>
+          <t>#55 “Solidarité”</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Je vis dans mon exil, de luxe, de bas-résilles Ici lon se résigne à fumer de la résine Jai gratté trop de faf et noirci trop de pages Sentez le message, le propos, le propane se propage Le sentiment de ma révolte nest pas très clair, il est diffus Je suffoque à mon époque, la refuse, et la réfute Jai pris lavion au vol pour devenir clando dans la soute Jveux pas devenir un passager, jveux pas finir cracheur de soupe Jai rêvé de dissidence en me goinfrant de mes pop-corn Lintégrité sest faite lennemi, je suis cocu et jai des cornes La transgression nexiste plus, le système nous avale Nous recrache en ronds de fumée, épais cigare de la Havane Dans la savane de Paname, sur le goudron, le macadam Jarpente les rues en toutes saisons dans le chaudron de mes états dâmes Je me revois un peu débile, trainant dans le quartier latin Entre les bouquins, les vinyles ou bien Bastille au petit matin Avec cette bande de copains parlant des connards quon adule On était tous un peu crétin de se gargariser de nos vies dadultes On débattait sur les pogroms, de concept et de leurs nuances On discutait aussi football, sexe, argent et vacances On se dandinait comme des dandys, on se voulait fluide et nomade On rêvait tous de jet-lag et de sextraire de la vie normale Mais de New York à Moscou et de Shanghai à London Les mojitos ont le même goût, les bars diffusent Gilles Peterson On sest jeté dans la vie de con, horaires-bureaux-aseptisés On en voulait au monde entier en faisant plaisir à son banquier Puis de Before en After, Caïpirinhas ou Bavaria Sur les murs Lounge des clubs tendance ya Casus Clay, Che Guevara A 5 euros le Petit Negro , ils ont fait fort au Café Flore Eh ! Jean-Sol Partre cest décidé, je vais devenir un Picaflore Slowoperation Slowoperation Slowoperation Mmmhh... Javancerais sans balises, quand la musique te marginalise Le jour de ma mort sur mon cur je naurais pas de valises Je partirais léger quand dautres se sentiront lésés Se sentiront pleins de regrets, peut-être de navoir pas osé Jai jamais trop rêvé davoir lappart et la voiture Je suis à coté de mes pompes, moi jaime la gratte et les ratures Et laventure, un jour se lève, un jour nouveau Un jour dadolescence ou sur un banc jai rêvé de Revo Mais les épreuves de la vie, des ouragans qui font péter les digues Me fatigue, et je le vois, mes textes nont plus dintrigues Les révoltes sont diluées, nuages de lait dans un café Tu ne signes pas des autographes quand tas lavenir autodafé Moi je suis un peu paumé et jai le cur à la renverse Mais tinquiètes pas, je sais que la vie est une tempête que lon traverse Ce monde il est vulgaire, cest un tapin dans un motel Je fais partie de ces jeunes-là qui ont grandi sans un modèle Pour mes enfants je lespère, je serais un exemple Et de mes larmes et de mon sang, ok! De ça, je les exempte Je suis pessimiste... Ce monde il se barre en cacahuète Je file vers ma planète, appelez-moi dès que ça sarrête Génération résignation, sans notion ni passion Trop-plein dinformations, environnement en détérioration Condamner à trouver du sens dans ce non-sens Certains brûlent la France à lessence, ou consomment à outrance Ou veulent acquérir de largent, du pouvoir ou de la gloire Mais laissez-moi que je me barre, je veux juste perfectionner mon art Certains appelleront ça lâcheté ou égoïsme Je le répète, si je pouvais, jachèterais de lhéroïsme !2</t>
+          <t>Oublie l'État, il s'désengage, il a coupé les ponts Place aux charités, business, showbiz et Téléthon Au festival du sparadrap sur les jambes de bois C'est toujours les conséquences et pas les causes que l'on combat Dans c'pays en pièces jaunes, David Douillet trouve un prétexte pour faire l'aumône Y'a du business sur le cur des gens et même si Les indigents tirent un peu d'profit Ils quitteront la misère quand la charité n'passera plus par la money XXX ta vocalise et entre doigts Sucez-vous, 'gue-shla', votre skeud tourne toujours sur celui-là J'charrie par charité, non, j'jure de charte de qualité Comme chiffrer sur la précarité, dealer d'la solidarité Moi, pour offrir, j'ai pas besoin d'attendre les fêtes, puis Pour dire merci, j'ai pas besoin d'attendre leur Thanksgiving Fais c'qu'il faut, sinon les enfoirés vont t'la mettre profond Donc, pour ma prochaine Rolex, je lance un appel au dons Il est aisé de s'indigner, l'hiver, autour d'un feu de cheminée Plus difficile d'inviter à dormir et dîner des sans-logis sans rechigner On voudrait venir en aide à ceux qui squattent l'hôtel courant d'air Mais on préfère adopter des sapins que des solutions qui nous emmerdent Maintenant qu'on s'pèle le cul, tu t'es trouvé une conscience Un beau dimanche, en offrant un pull à ceux qui font la manche, mais bon Une seule chose doit être répétée si tu les aides En hiver, mon pote, n'oublie pas de les aider l'été1</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#55 “Solidarité”</t>
+          <t>#8 “Gégé reviens !”</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Oublie l'État, il s'désengage, il a coupé les ponts Place aux charités, business, showbiz et Téléthon Au festival du sparadrap sur les jambes de bois C'est toujours les conséquences et pas les causes que l'on combat Dans c'pays en pièces jaunes, David Douillet trouve un prétexte pour faire l'aumône Y'a du business sur le cur des gens et même si Les indigents tirent un peu d'profit Ils quitteront la misère quand la charité n'passera plus par la money XXX ta vocalise et entre doigts Sucez-vous, 'gue-shla', votre skeud tourne toujours sur celui-là J'charrie par charité, non, j'jure de charte de qualité Comme chiffrer sur la précarité, dealer d'la solidarité Moi, pour offrir, j'ai pas besoin d'attendre les fêtes, puis Pour dire merci, j'ai pas besoin d'attendre leur Thanksgiving Fais c'qu'il faut, sinon les enfoirés vont t'la mettre profond Donc, pour ma prochaine Rolex, je lance un appel au dons Il est aisé de s'indigner, l'hiver, autour d'un feu de cheminée Plus difficile d'inviter à dormir et dîner des sans-logis sans rechigner On voudrait venir en aide à ceux qui squattent l'hôtel courant d'air Mais on préfère adopter des sapins que des solutions qui nous emmerdent Maintenant qu'on s'pèle le cul, tu t'es trouvé une conscience Un beau dimanche, en offrant un pull à ceux qui font la manche, mais bon Une seule chose doit être répétée si tu les aides En hiver, mon pote, n'oublie pas de les aider l'été1</t>
+          <t>Putain Gérard tu déconnes, tu fais la une de ces petits ragots Mais là où j'te préfère c'est dans le rôle de Cyrano Tu vas faire le beau en Russie mais à la fois je doute Que tu n'finisses pas saoul, à la fin de l'envoi je touche Gégé reviens, au fond j'crois bien que t'es XXX Car chez nous on est tous les jours fonce-dé aux substances che-lou J'comprends pourquoi tu nous quittes et que tu t'exiles au pays de la Vodka Si l'Etat te taxe pire qu'une 'tasse, toi qui rêves de la vida loca J'arrive en camping car avec un verre de Ricard Jette un il dans l'Canard, quoi y a plus d'Gérard ? Ben alors mon nanar, t'as fais dans ton falzar ? J'vais trinquer avec qui maintenant avec tes problèmes de papelard ? Obélix est tombé dans la marmite de Vodka magique Encore une idée plus tordue que la faucille soviétique Il va conduire sa Lada en totale ébriété Et finir mal comme les filles de l'est, allez na zdorovje Sur la plage d'un paradis fiscal, je ferai mon débarquement 75 c'est le taux d'imposition, pas mon département Je chie sur l'UMP, le FN, le mouvement Bleu Marine Mais j'veux l'chalet en Suisse et la villa sur les îles Kornati Encore une fois j'entends jacter, jetez vos JT me bassinent Pendant qu'on bouffe des pesticides et qu'on étouffe les génocides Les médias sont fous, nous enfument d'infos que l'on hypertrophie Bon départ à Depardieu ou Bardot dont je me contrefous</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#8 “Gégé reviens !”</t>
+          <t>Allumez les briquets</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Putain Gérard tu déconnes, tu fais la une de ces petits ragots Mais là où j'te préfère c'est dans le rôle de Cyrano Tu vas faire le beau en Russie mais à la fois je doute Que tu n'finisses pas saoul, à la fin de l'envoi je touche Gégé reviens, au fond j'crois bien que t'es XXX Car chez nous on est tous les jours fonce-dé aux substances che-lou J'comprends pourquoi tu nous quittes et que tu t'exiles au pays de la Vodka Si l'Etat te taxe pire qu'une 'tasse, toi qui rêves de la vida loca J'arrive en camping car avec un verre de Ricard Jette un il dans l'Canard, quoi y a plus d'Gérard ? Ben alors mon nanar, t'as fais dans ton falzar ? J'vais trinquer avec qui maintenant avec tes problèmes de papelard ? Obélix est tombé dans la marmite de Vodka magique Encore une idée plus tordue que la faucille soviétique Il va conduire sa Lada en totale ébriété Et finir mal comme les filles de l'est, allez na zdorovje Sur la plage d'un paradis fiscal, je ferai mon débarquement 75 c'est le taux d'imposition, pas mon département Je chie sur l'UMP, le FN, le mouvement Bleu Marine Mais j'veux l'chalet en Suisse et la villa sur les îles Kornati Encore une fois j'entends jacter, jetez vos JT me bassinent Pendant qu'on bouffe des pesticides et qu'on étouffe les génocides Les médias sont fous, nous enfument d'infos que l'on hypertrophie Bon départ à Depardieu ou Bardot dont je me contrefous</t>
+          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Allumez les briquets</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
+          <t>I said it's a heavy burden to bear When the whole world knows you're next up I compare it to telling someone manic depressive to get up Because it's not as tough as writing a set-up On how you got set up I'll kick his corpse, no remorse, this shit is gift-wrapped I'm on his porch, Trojan Horse this shit is gift-trapped Oh, now you get it? I mean, how specific Can I possibly get when I only got about a minute? Tell Lux I don't need coffins I'm a cannibal, I don't just kill, I feed off it That was in poor taste, let's cut to the chase, I'm a cold killer Here to shed light using no filler I had to take dog out back and shoot him Since he ain't shit but an old yeller! Now how many of you caught that shed connection in the building? None of you okay, one of you, I'm not judgin' you But that's what makes the top tier uncomfortable So, try and convince them I'm too specific or overuse religion Well, let me ask you something, bitch How do you spend all this time travelling And never came up with shit futuristic? Speaking of, if I'm you, then I'm a real-life looper Sent to bury the past See, that meaning was genius, but you compare me to trash Organik had faith I wouldn't bury his ass But Donatello's goin' to die tryin' to carry the staff So, Splinter Cell black ops, or Sleeper Cell Matlock? A modern-day David, slayin' Goliath with a crack rock You fuckin' junkie, the truth is ugly Too bad you and your Lush buddy snorted up the hush money So make them laugh, because you're fuckin' funny And they can all relate Enough bodies to stretch across China, yet they try to stall a great Walls replaced doors that were never open for you and me I took the tunnel underground, fans said foolish me You climbed abruptly that's Humpty-Dumpty The fall's not confusing, see Crack's got you pouring out your insides And now you're a shell of what you used to be You'll never get it together, stop tryin' Stick to being Lebanon-violent, it's already looking lopsided I ain't dissin' you when I say, shots fired That .38 Special treatment with the rubber grip My cousin dumpin' it Diplomatic immunity, capital punishment? Naw passport, Visa, luggages, trust me If shit get raw, Tim McGraw I got faith he'll get out the country It's gettin' ugly, because pen-wise I'm better than everyone That's a hell of a standard, and I'm settin' one A rise as quick as mine was never done They said have a war, I'm Marcus Lattimore I hit the big leagues and could never run What, did I end it badly? Okay, two-dollar hooker this shit extra nasty For those sayin' we're the same and are never happy You're Marcus Lattimore, too your career ends in Cali, early! Check it out, hummus-breath! They got me over here at Back to BAYsics Getting my film on with a perfect stranger Look, everybody, it's Balki Davids I'll admit, the last couple of years, I've been real sloppy I gave all these people a reason to sleep on me But now, I promise you a jellyfish Because this here is about to be a real body I told this bitch, he said he want to get it to pop He said Norbes said we could get you the guap. I was like, Alright, then, let's get this shit locked. He was like, For real, you gon' do it, Diz? I was like, Yeah on King of the Dot! All the way from the one stage that matters Oh, shut the fuck up! Time for you to fuckin' face your master Your name is Gjulaghula But the Mayan civilization used to have an ancient calendar Which should've been the only thing they ever named you after Because ever since 2012 you haven't been shit but a fake Dizaster Trust me, after this, you gon' get your wish And become a famous rapper But to get in the spotlight, you needed a star with a big name So I'm not your god, I'm your Big Bang Bitch, I'm what made you matter! You little fuckin' ungrateful bastard At least you could've gave me a little fuckin' thankyou after Because, bitch, I helped you climb up the rankings faster But this a fucked up game I should've never gave these snakes a ladder Listen, I'll slap this furry little fuckin' Persian in his furry face For tryin' to regurgitate every verse I made This person's fake, he catches bodies But off an image that's not yours you're a surrogate Pay attention, this shit's karate This is like Daniel-san versus Mr. Miyagi If Daniel LaRusso's role was played by Gilbert Gottfried Suck a dick, Mr. Peabody! You're like John F. Kennedy, because your voice is the reason you're goin' to end up gettin' bodied And trust me, your homies told you that you gon' 3-0 dude They told you that your pen had enough bars in it to hold you But you El Chapo you lettin' your friends dig your hole for you And now it's over, because you gon' get smashed that simple I swear to God hashtag symbol this Christian could die I'll put your wings in the sky like a Batman signal You think you're on the level I'm on? You're mental I'm monumental, I'll Ichabod chop off your temple You'll see nothing but stares as his head rolls Like a scene from Apocalypto Because you ain't the original OG you been claimin' to be You like Cassidy, because 90 percent of your shit is trash But the best shit you ever had was your imitation of me! Just admit taking me was bad advice You want the aura back you see I have, I'm fightin' a stereotype In a fucked up way, it's like we battled twice But you're jealous of my success, I guess you're mad I made it I walked the road less traveled, and you claimed you paved it You're scared of me One second I'm your favorite, next second you hated So I waited, and baited 'til your fears made you write demands You threw subliminals, instead of squarin' up like a man Bitch, I'm not Kitana I ain't here to fight with a fan But I'm good with these hands, who you intimidatin'? I only fear God and immigration They say you're the best, somethin' I've never seen before I figured you'd bring up that fuckin' line in your battle, right? You know what line I'm talkin' about? Couple retreat like Vince Vaughn? Yeah, of course Like I'd spit a line of yours that didn't have any force Don't you find it funny That the worst bar of my P.G. was actually yours? Suck a dick! When the rules are fine I choose the spine I hate it when they call me Dizaster It makes me want to lose my mind I'm not Gjonaj or Dizaster I'm the two combined I'm an upgrade, and I'm a new design I take some of your rhymes and take some of mine I do it like how your eyebrows used to be and fuse the line He couldn't come to Detroit, so I brought the war to your premises I am more than your nemesis I bit your Vince Vaughn line And acted like I didn't know that you said the shit The West Coast don't respect me So how am I supposed to accept this shit? I'm underrated, because I'm over-affectionate Pay attention, I said under then I said over That's how I go over heads with it! Reality is, I took this for fun And I'm embarrassed that they even comparin' cats When beyond our heritage and appearance Well, there's a gap between us, and here's the fact They got me starin' back at a parallel mirror match With another Arab cat, it's Yasser Arafat in a New Era hat He got the 22-inch rim on his prayer mat There's a difference between us He acts like a terrorist, I do terrorist acts You don't carry gats or ever air your straps And if you did, it would be at a range Like the marriage that your parents had But I can tell you're mentally prepared From the fucking amount of cologne you got on And the fucking pound of gel that's in your hair Outside of your home turf, you ain't respected anywhere Even in Detroit, they don't take you seriously You ain't even the best from over there You're like a periodic table Because even in your own element you're a square He wants to be like Dizaster Waiting for a natural Dizaster to happen When they ask him, Why do you act like Dizaster? He says, I don't act like Dizaster, it just naturally happens. Hangin' out in Detroit, he's tryin' to be hard Tryin' to show all his black friends he got street smarts When he's kickin' it with them He keeps his green card tucked under his EBT card Fuck you, Vlade Divac, Ginobli! And whatever this faggot looks like, it's all part of my story They try to copy the form But what they got in store for me was a Kinko's Something went wrong when they cloned me I told you, he came out looking like a fucking retarded Ginobli Comparing us is like a knockoff to a Rollie See, we look the same from far 'Til you get all up in his face and start watching him slowly You can tell by the way the hands move that he's obviously phony Listen, you and what squad gon' destroy me? You and all of your homies look like the iPhone 6 Punjabi emojis Bitch, you picked when and where I'm surprised the contract didn't have an outfit you picked to wear And a stipulation on how I did my hair Bitch, three weeks and two minutes? Just admit you were fucking scared And thought I'd be less prepared But like Will Graham, I got a killer kind of vision I stalk each and every one of my blind victims You take too long to punch, you use multis as a crutch To disguise filler and I'm fine with it Because I realized that's why you're so fuckin' scared of time limits And you're a snake to a whole new scale, and you hide in it Waiting to strike, you turned your back on Daylyt in five minutes You marked out, Day loaned me a cal With a note on the revolver It read, Diz, Total Slaughter, did you get the theme? Show up at his fucking house and let it sing Are you religious? Because here's where I connect the scheme That 40 Day lent me will have you give up everything It's all over, I began to script your death in structured verses Judgment day, you rapped your ass off for what it's worth I'll reign longer than God when he flooded Earth Kings get thrown from chairs they sit on Face it, you're basically gettin' spit on All them views, and fell off, we should've battled on the rooftop Because you ain't had a decent punch since Billy Boondocks This is suicide, you knew you'd die, it's a cry for help You lost everything and everyone, you're all by yourself It's like Waldo playing Where's Waldo? you had to find yourself Because that old Diz is dead You're not a killer, so you had to play pretend I'm talkin' to you like a child, I know you feel that way again Because we've never seen the bodies that's imaginary friends With that being said, if you didn't think I could battle with a vet Show me some actual respect Or get a fuckin' life, like the Lazarus Effect How long did the dead last in the first place? Are you impressed? That just goes to show you I got a sick sense I'll kill them all, and just wrote big checks If we talkin' bread inbred, your family fuckin' dead necro-incest Fuck who been next, the future of battle rap, who's stoppin' me? I'm intellect, introspect, disrespect, philosophy You hear Homer and think Simpson, I think Odyssey You honestly probably thought he would body me But I showed you the difference between us is quality, goodnight! I guess it's safe to say I'm already up 2-0 So if I was you, I would just start takin' cover Y'all heard of the Jonas Brothers? Well, these guys are the Gjonaj's Brothers I am jealous of you, because I could never get a cab driver like you Shit, your cab drivers drive you to the battle Then walk inside the venue and stand behind you And for them cats that keep on bringin' up the Math shit Cats like you, you did it on stage, faggot, what's your deal? For Christ's sakes, throw hands with me, then If that's how passionate you feel Exactly, you cats act like me until you have to scrap like me Then your personality's revealed One sandy hook on this stage will prove this Dizaster isn't real! You're like a German Jew you let your people gas you up for real Just like Chuckie in the last Child's Play Because your fans gon' get you killed Clap with the steel Backshots leave his stomach empty like Ally McBeal I don't play games, they train me to kill From long range hittin' shit It's like watchin' Limitless your brain will get peeled Bullets break through the shield You get away, then I'm sendin' four giant shells Comin' after you like April O'Neal You say you got skill And you called yourself something from Looper So you ain't the future, you Bruce Willis from Looper Because you haven't been yet engaged in this field I'm goin' to show you how to hit him in the head Because that's the best shot That's the best spot, hit the vet's top Hit the top of the windshield, because that's the best spot It's not like it's the tires I'm after I'm an aspiring actor I'm just lookin' for that perfect headshot Open the door, then the lead pop, it's a leg shot His homie drive off with his feet danglin' under the car like Bedrock Headshot, he can get it at any time of the night that's a Redbox If I bring the toys, you're fucked that's a sex shop I'll chop this camel's head off, then put it on my shelftop That's a cigarette shop that you guys own I can never get washed I'm a dreadlock If your homies don't start actin' down-to-earth Then they can get dropped Then I'll send both of their bags upstairs like a bellhop3</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Big Bang</t>
+          <t>Blend</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>I said it's a heavy burden to bear When the whole world knows you're next up I compare it to telling someone manic depressive to get up Because it's not as tough as writing a set-up On how you got set up I'll kick his corpse, no remorse, this shit is gift-wrapped I'm on his porch, Trojan Horse this shit is gift-trapped Oh, now you get it? I mean, how specific Can I possibly get when I only got about a minute? Tell Lux I don't need coffins I'm a cannibal, I don't just kill, I feed off it That was in poor taste, let's cut to the chase, I'm a cold killer Here to shed light using no filler I had to take dog out back and shoot him Since he ain't shit but an old yeller! Now how many of you caught that shed connection in the building? None of you okay, one of you, I'm not judgin' you But that's what makes the top tier uncomfortable So, try and convince them I'm too specific or overuse religion Well, let me ask you something, bitch How do you spend all this time travelling And never came up with shit futuristic? Speaking of, if I'm you, then I'm a real-life looper Sent to bury the past See, that meaning was genius, but you compare me to trash Organik had faith I wouldn't bury his ass But Donatello's goin' to die tryin' to carry the staff So, Splinter Cell black ops, or Sleeper Cell Matlock? A modern-day David, slayin' Goliath with a crack rock You fuckin' junkie, the truth is ugly Too bad you and your Lush buddy snorted up the hush money So make them laugh, because you're fuckin' funny And they can all relate Enough bodies to stretch across China, yet they try to stall a great Walls replaced doors that were never open for you and me I took the tunnel underground, fans said foolish me You climbed abruptly that's Humpty-Dumpty The fall's not confusing, see Crack's got you pouring out your insides And now you're a shell of what you used to be You'll never get it together, stop tryin' Stick to being Lebanon-violent, it's already looking lopsided I ain't dissin' you when I say, shots fired That .38 Special treatment with the rubber grip My cousin dumpin' it Diplomatic immunity, capital punishment? Naw passport, Visa, luggages, trust me If shit get raw, Tim McGraw I got faith he'll get out the country It's gettin' ugly, because pen-wise I'm better than everyone That's a hell of a standard, and I'm settin' one A rise as quick as mine was never done They said have a war, I'm Marcus Lattimore I hit the big leagues and could never run What, did I end it badly? Okay, two-dollar hooker this shit extra nasty For those sayin' we're the same and are never happy You're Marcus Lattimore, too your career ends in Cali, early! Check it out, hummus-breath! They got me over here at Back to BAYsics Getting my film on with a perfect stranger Look, everybody, it's Balki Davids I'll admit, the last couple of years, I've been real sloppy I gave all these people a reason to sleep on me But now, I promise you a jellyfish Because this here is about to be a real body I told this bitch, he said he want to get it to pop He said Norbes said we could get you the guap. I was like, Alright, then, let's get this shit locked. He was like, For real, you gon' do it, Diz? I was like, Yeah on King of the Dot! All the way from the one stage that matters Oh, shut the fuck up! Time for you to fuckin' face your master Your name is Gjulaghula But the Mayan civilization used to have an ancient calendar Which should've been the only thing they ever named you after Because ever since 2012 you haven't been shit but a fake Dizaster Trust me, after this, you gon' get your wish And become a famous rapper But to get in the spotlight, you needed a star with a big name So I'm not your god, I'm your Big Bang Bitch, I'm what made you matter! You little fuckin' ungrateful bastard At least you could've gave me a little fuckin' thankyou after Because, bitch, I helped you climb up the rankings faster But this a fucked up game I should've never gave these snakes a ladder Listen, I'll slap this furry little fuckin' Persian in his furry face For tryin' to regurgitate every verse I made This person's fake, he catches bodies But off an image that's not yours you're a surrogate Pay attention, this shit's karate This is like Daniel-san versus Mr. Miyagi If Daniel LaRusso's role was played by Gilbert Gottfried Suck a dick, Mr. Peabody! You're like John F. Kennedy, because your voice is the reason you're goin' to end up gettin' bodied And trust me, your homies told you that you gon' 3-0 dude They told you that your pen had enough bars in it to hold you But you El Chapo you lettin' your friends dig your hole for you And now it's over, because you gon' get smashed that simple I swear to God hashtag symbol this Christian could die I'll put your wings in the sky like a Batman signal You think you're on the level I'm on? You're mental I'm monumental, I'll Ichabod chop off your temple You'll see nothing but stares as his head rolls Like a scene from Apocalypto Because you ain't the original OG you been claimin' to be You like Cassidy, because 90 percent of your shit is trash But the best shit you ever had was your imitation of me! Just admit taking me was bad advice You want the aura back you see I have, I'm fightin' a stereotype In a fucked up way, it's like we battled twice But you're jealous of my success, I guess you're mad I made it I walked the road less traveled, and you claimed you paved it You're scared of me One second I'm your favorite, next second you hated So I waited, and baited 'til your fears made you write demands You threw subliminals, instead of squarin' up like a man Bitch, I'm not Kitana I ain't here to fight with a fan But I'm good with these hands, who you intimidatin'? I only fear God and immigration They say you're the best, somethin' I've never seen before I figured you'd bring up that fuckin' line in your battle, right? You know what line I'm talkin' about? Couple retreat like Vince Vaughn? Yeah, of course Like I'd spit a line of yours that didn't have any force Don't you find it funny That the worst bar of my P.G. was actually yours? Suck a dick! When the rules are fine I choose the spine I hate it when they call me Dizaster It makes me want to lose my mind I'm not Gjonaj or Dizaster I'm the two combined I'm an upgrade, and I'm a new design I take some of your rhymes and take some of mine I do it like how your eyebrows used to be and fuse the line He couldn't come to Detroit, so I brought the war to your premises I am more than your nemesis I bit your Vince Vaughn line And acted like I didn't know that you said the shit The West Coast don't respect me So how am I supposed to accept this shit? I'm underrated, because I'm over-affectionate Pay attention, I said under then I said over That's how I go over heads with it! Reality is, I took this for fun And I'm embarrassed that they even comparin' cats When beyond our heritage and appearance Well, there's a gap between us, and here's the fact They got me starin' back at a parallel mirror match With another Arab cat, it's Yasser Arafat in a New Era hat He got the 22-inch rim on his prayer mat There's a difference between us He acts like a terrorist, I do terrorist acts You don't carry gats or ever air your straps And if you did, it would be at a range Like the marriage that your parents had But I can tell you're mentally prepared From the fucking amount of cologne you got on And the fucking pound of gel that's in your hair Outside of your home turf, you ain't respected anywhere Even in Detroit, they don't take you seriously You ain't even the best from over there You're like a periodic table Because even in your own element you're a square He wants to be like Dizaster Waiting for a natural Dizaster to happen When they ask him, Why do you act like Dizaster? He says, I don't act like Dizaster, it just naturally happens. Hangin' out in Detroit, he's tryin' to be hard Tryin' to show all his black friends he got street smarts When he's kickin' it with them He keeps his green card tucked under his EBT card Fuck you, Vlade Divac, Ginobli! And whatever this faggot looks like, it's all part of my story They try to copy the form But what they got in store for me was a Kinko's Something went wrong when they cloned me I told you, he came out looking like a fucking retarded Ginobli Comparing us is like a knockoff to a Rollie See, we look the same from far 'Til you get all up in his face and start watching him slowly You can tell by the way the hands move that he's obviously phony Listen, you and what squad gon' destroy me? You and all of your homies look like the iPhone 6 Punjabi emojis Bitch, you picked when and where I'm surprised the contract didn't have an outfit you picked to wear And a stipulation on how I did my hair Bitch, three weeks and two minutes? Just admit you were fucking scared And thought I'd be less prepared But like Will Graham, I got a killer kind of vision I stalk each and every one of my blind victims You take too long to punch, you use multis as a crutch To disguise filler and I'm fine with it Because I realized that's why you're so fuckin' scared of time limits And you're a snake to a whole new scale, and you hide in it Waiting to strike, you turned your back on Daylyt in five minutes You marked out, Day loaned me a cal With a note on the revolver It read, Diz, Total Slaughter, did you get the theme? Show up at his fucking house and let it sing Are you religious? Because here's where I connect the scheme That 40 Day lent me will have you give up everything It's all over, I began to script your death in structured verses Judgment day, you rapped your ass off for what it's worth I'll reign longer than God when he flooded Earth Kings get thrown from chairs they sit on Face it, you're basically gettin' spit on All them views, and fell off, we should've battled on the rooftop Because you ain't had a decent punch since Billy Boondocks This is suicide, you knew you'd die, it's a cry for help You lost everything and everyone, you're all by yourself It's like Waldo playing Where's Waldo? you had to find yourself Because that old Diz is dead You're not a killer, so you had to play pretend I'm talkin' to you like a child, I know you feel that way again Because we've never seen the bodies that's imaginary friends With that being said, if you didn't think I could battle with a vet Show me some actual respect Or get a fuckin' life, like the Lazarus Effect How long did the dead last in the first place? Are you impressed? That just goes to show you I got a sick sense I'll kill them all, and just wrote big checks If we talkin' bread inbred, your family fuckin' dead necro-incest Fuck who been next, the future of battle rap, who's stoppin' me? I'm intellect, introspect, disrespect, philosophy You hear Homer and think Simpson, I think Odyssey You honestly probably thought he would body me But I showed you the difference between us is quality, goodnight! I guess it's safe to say I'm already up 2-0 So if I was you, I would just start takin' cover Y'all heard of the Jonas Brothers? Well, these guys are the Gjonaj's Brothers I am jealous of you, because I could never get a cab driver like you Shit, your cab drivers drive you to the battle Then walk inside the venue and stand behind you And for them cats that keep on bringin' up the Math shit Cats like you, you did it on stage, faggot, what's your deal? For Christ's sakes, throw hands with me, then If that's how passionate you feel Exactly, you cats act like me until you have to scrap like me Then your personality's revealed One sandy hook on this stage will prove this Dizaster isn't real! You're like a German Jew you let your people gas you up for real Just like Chuckie in the last Child's Play Because your fans gon' get you killed Clap with the steel Backshots leave his stomach empty like Ally McBeal I don't play games, they train me to kill From long range hittin' shit It's like watchin' Limitless your brain will get peeled Bullets break through the shield You get away, then I'm sendin' four giant shells Comin' after you like April O'Neal You say you got skill And you called yourself something from Looper So you ain't the future, you Bruce Willis from Looper Because you haven't been yet engaged in this field I'm goin' to show you how to hit him in the head Because that's the best shot That's the best spot, hit the vet's top Hit the top of the windshield, because that's the best spot It's not like it's the tires I'm after I'm an aspiring actor I'm just lookin' for that perfect headshot Open the door, then the lead pop, it's a leg shot His homie drive off with his feet danglin' under the car like Bedrock Headshot, he can get it at any time of the night that's a Redbox If I bring the toys, you're fucked that's a sex shop I'll chop this camel's head off, then put it on my shelftop That's a cigarette shop that you guys own I can never get washed I'm a dreadlock If your homies don't start actin' down-to-earth Then they can get dropped Then I'll send both of their bags upstairs like a bellhop3</t>
+          <t>Tes tellement piteux ti-peu que je vais te pé-ta petit type Petit à petit, tu titubes et tu te demandes qui tes ? Quitter vite, éviter léquipe rythmique épileptique On pique et kick léthique étique dune société trop inique Je suis le Bic pas de panique un peu de beat un peu de feat Et moi jhésite en ego trip, je mégosille pour les gros titres Je prends la fuite, pars sur orbite sans quon minvite, voici le pitre Voici mes disques et puis ma zic le piment pique à pic, incite ! Jsuis lflow qui copie les tams-tams Jsuis lchaud qui tbâche par des tas dvannes Peut-être beau mais moche pour des tas dfemmes Vote sans états dâme, perds sans être un âne La fin dun monde, man, qui se trame Des bombes qui grondent en mélodrame Meeny, miny, moe, on a les minima sociaux On perd tous nos idéaux, on vit comme des animaux Okay so you had no stuff Like that growing up But you managed Sure Nuff! Yeah! So your van broke down Favourite band broke up But you managed Sure Nuff! Okay so have no luck And your plans go bust But you managed Sure Nuff! Go head let your hand go up If your life seem tough And you still standing up If you Rambo tough And still standing up Its like they favorite song Getting played all day long You hear it just came on Then you get enough and turn it off When the whole world goes wrong And all your faith is gone You cant just wait on God Gotta get yourself up get involved Y'a le name droping, les mails en copie La France qui cotise, la famille quon se coltine Les frères qui cantinent, les quelques centimes La physique quantique, les prix quon estime Les gens que lon tue, les fêtes confettis Les ordres de Poutine, le plutonium sushi La guerre, le sida, Darfour et Biafra Et puis dans tout ça lopinion du quidam Bistrot, troquet, la merde, le réel Quand jenlève la virgule la merde est réelle Objectifs, chiffres, rafles, écoles ADN, fichage, charters qui décollent Ralliement, connivence, collusion, dissension Hutu ou Tutsi, me pose jamais la question Les amours, le cur, les amis, les tourments Et lespoir dune victoire des Dinkas du Soudan Okay so you had no stuff Like that growing up But you managed Sure Nuff! Yeah! So your van broke down Favourite band broke up But you managed Sure Nuff! Okay so have no luck And your plans go bust But you managed Sure Nuff! Go head let your hand go up If your life seem tough And you still standing up If you Rambo tough And still standing up Ah Yeah! Get involved Life is hard listen When it throws rocks Get involved Carry on lift them You aint no victim We all living Trying to beat the system Youll get your highs and lows Youll win and some you wont Its like they favorite song Getting played all day long You hear it just came on Then you get enough and turn it off When the whole world goes wrong And all your faith is gone You cant just wait on God Gotta get yourself up get involved2</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Blend</t>
+          <t>Boomer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tes tellement piteux ti-peu que je vais te pé-ta petit type Petit à petit, tu titubes et tu te demandes qui tes ? Quitter vite, éviter léquipe rythmique épileptique On pique et kick léthique étique dune société trop inique Je suis le Bic pas de panique un peu de beat un peu de feat Et moi jhésite en ego trip, je mégosille pour les gros titres Je prends la fuite, pars sur orbite sans quon minvite, voici le pitre Voici mes disques et puis ma zic le piment pique à pic, incite ! Jsuis lflow qui copie les tams-tams Jsuis lchaud qui tbâche par des tas dvannes Peut-être beau mais moche pour des tas dfemmes Vote sans états dâme, perds sans être un âne La fin dun monde, man, qui se trame Des bombes qui grondent en mélodrame Meeny, miny, moe, on a les minima sociaux On perd tous nos idéaux, on vit comme des animaux Okay so you had no stuff Like that growing up But you managed Sure Nuff! Yeah! So your van broke down Favourite band broke up But you managed Sure Nuff! Okay so have no luck And your plans go bust But you managed Sure Nuff! Go head let your hand go up If your life seem tough And you still standing up If you Rambo tough And still standing up Its like they favorite song Getting played all day long You hear it just came on Then you get enough and turn it off When the whole world goes wrong And all your faith is gone You cant just wait on God Gotta get yourself up get involved Y'a le name droping, les mails en copie La France qui cotise, la famille quon se coltine Les frères qui cantinent, les quelques centimes La physique quantique, les prix quon estime Les gens que lon tue, les fêtes confettis Les ordres de Poutine, le plutonium sushi La guerre, le sida, Darfour et Biafra Et puis dans tout ça lopinion du quidam Bistrot, troquet, la merde, le réel Quand jenlève la virgule la merde est réelle Objectifs, chiffres, rafles, écoles ADN, fichage, charters qui décollent Ralliement, connivence, collusion, dissension Hutu ou Tutsi, me pose jamais la question Les amours, le cur, les amis, les tourments Et lespoir dune victoire des Dinkas du Soudan Okay so you had no stuff Like that growing up But you managed Sure Nuff! Yeah! So your van broke down Favourite band broke up But you managed Sure Nuff! Okay so have no luck And your plans go bust But you managed Sure Nuff! Go head let your hand go up If your life seem tough And you still standing up If you Rambo tough And still standing up Ah Yeah! Get involved Life is hard listen When it throws rocks Get involved Carry on lift them You aint no victim We all living Trying to beat the system Youll get your highs and lows Youll win and some you wont Its like they favorite song Getting played all day long You hear it just came on Then you get enough and turn it off When the whole world goes wrong And all your faith is gone You cant just wait on God Gotta get yourself up get involved2</t>
+          <t>Casse ton pied, ta tête, ta nuque... tout l'monde, tout l'monde... À l'époque ils voulaient pas trop, le rap, la musique afro Maintenant que tout l'monde est accroc, ouais dis-nous qui sont les patrons ? Le style un blanc bazin boubou, on fait tout appelle-nous FUBU J'fous les subs que tout bouge et secoue, j'mets le fire dans ton igloo J'frappe à coup de japs comme un nunchaku, tcheck si tu connais la ref Mwana Mboka le monde est fou t'inquiète on va réparer sa tête Allez mets tes pas dans mes pas, Kigali jusqu'à Goma Décibels à dose létale, yeah! Boumer boumer les baffes Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers Mets du sel dans ta vie tant mieux, bébé j'mets du pili-pili J'fais danser les jeunes et les vieux comme le Staff Benda Bilili Chez nous y'a pas d'tubes de l'été, non, toute l'année c'est l'été Si tu libères un peu ton esprit ton cul suivra la mélodie J'vais t'faire courber un peu l'échine mais cette fois c'est pas pour bosser Poésie pour bouger les reins, du Rhin jusqu'à la Rusizi Viens m'coller un billet sur l'front, paraît qu'bientôt le monde s'effondre Sur fond de fonte de glaçon, j'fais boumer boumer l'caisson Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers Les infrabasses, les boomers vibrent, fais péter Allumez les briquets, l'bal masqué v'nez fêter J'construis ma vie, mon oeuvre j'suis dans le BTP Mon son lourd, mon gros boucan vous laisse hébétés C'est chaud, c'est sale, c'est sueur, suave, c'est l'été Coup dans les flancs, les dents, l'style est cap et d'épée Vos flows sont clonés, pompés, arrêtez d'téter Sans l'r.a.p j'me d'mande c'que j'aurais été J'me la coule à la douce, à la cool, je me roule, je roucoule dans mon coin Quand la foule est debout, je l'avoue, me défoule, me dévoue, lève le poing Quand y'a doute, je déroute, je dérive, je m'arrête et puis je refais le plein Puis le groove reprend, il me grise et il roule et il roule sans son frein Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Boomer</t>
+          <t>Bouge à Buja</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Casse ton pied, ta tête, ta nuque... tout l'monde, tout l'monde... À l'époque ils voulaient pas trop, le rap, la musique afro Maintenant que tout l'monde est accroc, ouais dis-nous qui sont les patrons ? Le style un blanc bazin boubou, on fait tout appelle-nous FUBU J'fous les subs que tout bouge et secoue, j'mets le fire dans ton igloo J'frappe à coup de japs comme un nunchaku, tcheck si tu connais la ref Mwana Mboka le monde est fou t'inquiète on va réparer sa tête Allez mets tes pas dans mes pas, Kigali jusqu'à Goma Décibels à dose létale, yeah! Boumer boumer les baffes Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers Mets du sel dans ta vie tant mieux, bébé j'mets du pili-pili J'fais danser les jeunes et les vieux comme le Staff Benda Bilili Chez nous y'a pas d'tubes de l'été, non, toute l'année c'est l'été Si tu libères un peu ton esprit ton cul suivra la mélodie J'vais t'faire courber un peu l'échine mais cette fois c'est pas pour bosser Poésie pour bouger les reins, du Rhin jusqu'à la Rusizi Viens m'coller un billet sur l'front, paraît qu'bientôt le monde s'effondre Sur fond de fonte de glaçon, j'fais boumer boumer l'caisson Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers Les infrabasses, les boomers vibrent, fais péter Allumez les briquets, l'bal masqué v'nez fêter J'construis ma vie, mon oeuvre j'suis dans le BTP Mon son lourd, mon gros boucan vous laisse hébétés C'est chaud, c'est sale, c'est sueur, suave, c'est l'été Coup dans les flancs, les dents, l'style est cap et d'épée Vos flows sont clonés, pompés, arrêtez d'téter Sans l'r.a.p j'me d'mande c'que j'aurais été J'me la coule à la douce, à la cool, je me roule, je roucoule dans mon coin Quand la foule est debout, je l'avoue, me défoule, me dévoue, lève le poing Quand y'a doute, je déroute, je dérive, je m'arrête et puis je refais le plein Puis le groove reprend, il me grise et il roule et il roule sans son frein Chanter, danser yeah! Fais boumer les boomers Sl'lâcher, s'égayer, fais boumer les boomers La vie c'est veiller, fais boumer les boomers Ça y est mal est fait, fais boumer les boomers</t>
+          <t>Jai réservé deux billets, ouais je sais déjà Que cet été où que jaille, on bouge à Buja Bujumbura capitale de mon petit pays Moi je taime aussi de Bubanza jusquà Bururi Et jai ramené trois tondeuses à mon grand Willy Qui veut ouvrir son salon de coiffure à Buyenzi Je connais ladresse des bonnes brochettes quartier asiatique Et la Primus cest la meilleure que tu trouves en Afrique Et le dimanche Regina Mundi pour prier Après tenfiles le jogging pour courir jusquau cabaret Là-bas jhabite avenue de la Paix quartier Rohero Je la dédicace au padre car cest mon héros Ego Sha ! Eméché, fatigué pour kécher On svoit demain kecho, petite soirée Kanyosha Tes un nouvel arrivage venu pour te ressourcer Buja pour sévader tous les week-ends, ok Tugende ! Après le couvre-feu ne fait pas de gaffes, soldats peu loquaces Allô gars, viens boire un café local à lOCAF à loccaz Remonter le moral, diaspora tous en choral Tous àl de Buja Centre ou pourquoi pas Buja rural Cest la fête de Kamenge à Ngagara Venez vite au cercle nautique on fait frire le ndagala Prenez le taxi-vélo car on joue pas les riches Rendez-vous dimanche après-midi, 15h à Saga Beach Bujumbura ma vie, elle est belle ma ville Et du monde à mon avis ya les plus belles des filles Un peu de fruito, du Nido, partie de foot à Kinindo Kamambili trouées, jles ai achetées au Soko Ya des grands bwana à Kiriri et des masikinis Ya du français, du kirundi, un peu de swahili Tu peux acheter à lunité Supermatch, Ambassy Moi jpréfère de loin manger sombé et bugari Avant le départ un peu dAmstel, un pilao de mama solo A la sortie du Havana, laisse un pourboire au Maibobo Bujumbura thésites encore, moi je te dis pas la peine Tu vas aimer mon pays de la colline à la plaine</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bouge à Buja</t>
+          <t>Butare</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jai réservé deux billets, ouais je sais déjà Que cet été où que jaille, on bouge à Buja Bujumbura capitale de mon petit pays Moi je taime aussi de Bubanza jusquà Bururi Et jai ramené trois tondeuses à mon grand Willy Qui veut ouvrir son salon de coiffure à Buyenzi Je connais ladresse des bonnes brochettes quartier asiatique Et la Primus cest la meilleure que tu trouves en Afrique Et le dimanche Regina Mundi pour prier Après tenfiles le jogging pour courir jusquau cabaret Là-bas jhabite avenue de la Paix quartier Rohero Je la dédicace au padre car cest mon héros Ego Sha ! Eméché, fatigué pour kécher On svoit demain kecho, petite soirée Kanyosha Tes un nouvel arrivage venu pour te ressourcer Buja pour sévader tous les week-ends, ok Tugende ! Après le couvre-feu ne fait pas de gaffes, soldats peu loquaces Allô gars, viens boire un café local à lOCAF à loccaz Remonter le moral, diaspora tous en choral Tous àl de Buja Centre ou pourquoi pas Buja rural Cest la fête de Kamenge à Ngagara Venez vite au cercle nautique on fait frire le ndagala Prenez le taxi-vélo car on joue pas les riches Rendez-vous dimanche après-midi, 15h à Saga Beach Bujumbura ma vie, elle est belle ma ville Et du monde à mon avis ya les plus belles des filles Un peu de fruito, du Nido, partie de foot à Kinindo Kamambili trouées, jles ai achetées au Soko Ya des grands bwana à Kiriri et des masikinis Ya du français, du kirundi, un peu de swahili Tu peux acheter à lunité Supermatch, Ambassy Moi jpréfère de loin manger sombé et bugari Avant le départ un peu dAmstel, un pilao de mama solo A la sortie du Havana, laisse un pourboire au Maibobo Bujumbura thésites encore, moi je te dis pas la peine Tu vas aimer mon pays de la colline à la plaine</t>
+          <t>Un rayon de soleil, le coq, le balai qui gratte Dehors plein de bruits qui courent, dans la cour le chien à trois pattes Margarine et pain trempés dans du thé pour p'tit déjeuner La maison s'éveille et mamie sert le lait Aux murs Marie, doux Jésus, fils de Dieu le Père Et toujours en continu la radio déblatère Sur un napperon, vase de fleurs en plastique Tu égrènes ton chapelet, mamie, t'énumères tes principes Le respect, la famille, le mariage Le jacaranda en fleur déploie son ombrage C'est pas une chanson triste C'est juste un temps d'arrêt Une journée à Butare Midi pile, sonne l'Angélus Et le fond de l'air sent l'eucalyptus On part en promenade sous la voûte des arbres Je t'emmène en balade sur le grand boulevard Quand ton visage sévère se fend d'un sourire Les jacarandas se mettent à fleurir J'voudrais tout savoir d'un grand-père que j'connais pas Y'a des absents que tu ne racontes pas Et l'après-midi s'épuise lentement Aujourd'hui encore ton visage me manque C'est pas une chanson triste, c'est juste une pause, un temps d'arrêt Une journée à Butare Le soleil se couche, Dieu rentre au Rwanda Le ciel a des teintes mauve jacaranda Quand les chauves-souris commencent leur raffut C'est l'heure des lumières blafardes qui s'allument Dans ta grande maison où tombe la nuit Passe à l'improviste quelques amies Un thé citronnelle, une mousse Amstel On parle tout bas, d'untel et untel Demain je repars vers la France lointaine Tu vas me manquer mamie comme je t'aime Comme je t'ai aimée toutes ces années C'est pas une chanson triste, c'est un temps d'arrêt</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Butare</t>
+          <t>By</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Un rayon de soleil, le coq, le balai qui gratte Dehors plein de bruits qui courent, dans la cour le chien à trois pattes Margarine et pain trempés dans du thé pour p'tit déjeuner La maison s'éveille et mamie sert le lait Aux murs Marie, doux Jésus, fils de Dieu le Père Et toujours en continu la radio déblatère Sur un napperon, vase de fleurs en plastique Tu égrènes ton chapelet, mamie, t'énumères tes principes Le respect, la famille, le mariage Le jacaranda en fleur déploie son ombrage C'est pas une chanson triste C'est juste un temps d'arrêt Une journée à Butare Midi pile, sonne l'Angélus Et le fond de l'air sent l'eucalyptus On part en promenade sous la voûte des arbres Je t'emmène en balade sur le grand boulevard Quand ton visage sévère se fend d'un sourire Les jacarandas se mettent à fleurir J'voudrais tout savoir d'un grand-père que j'connais pas Y'a des absents que tu ne racontes pas Et l'après-midi s'épuise lentement Aujourd'hui encore ton visage me manque C'est pas une chanson triste, c'est juste une pause, un temps d'arrêt Une journée à Butare Le soleil se couche, Dieu rentre au Rwanda Le ciel a des teintes mauve jacaranda Quand les chauves-souris commencent leur raffut C'est l'heure des lumières blafardes qui s'allument Dans ta grande maison où tombe la nuit Passe à l'improviste quelques amies Un thé citronnelle, une mousse Amstel On parle tout bas, d'untel et untel Demain je repars vers la France lointaine Tu vas me manquer mamie comme je t'aime Comme je t'ai aimée toutes ces années C'est pas une chanson triste, c'est un temps d'arrêt</t>
+          <t>Parce que chaque mot est important, je le grave en italique Je viens de là où la vie ne tient qu'à une trajectoire d'objet métallique Là où la corruption, n'est qu'une gangrène, une métastase Où on te vole tout, même les points à la fin de tes phrases L'opinion publique, parait cynique, indifférente Dénoncer le mal et faire le bien sont deux choses différentes J'vais pas vous charmer, j'ai le cur décharné Depuis que mon peuple est sorti des charniers Rouget de Lisle, j'entonnerai pas ton chant de guerre à tue-tête J'suis de cette époque où la moitié du globe vit toujours sous tutelle Avec leurs droits à polluer ils nous en remettent de plus belle Nous étions déjà des damnés maintenant nous devenons leurs poubelles Y'en a ras-bord la coupelle vu toujours plus quand tout s'fait rare Ils veulent soigner tout nos problèmes mais leurs remèdes c'est du curare Mais s'ils bousillent nos fusibles pour que l'on vive dans le noir J'allumerai ma bougie pour lire, aux parois de la mémoire Le monde, j'trouve ça fade et les saletés s'affalent Parait que les peuples ça fane me disait un frère Baye Fall Ouais ça va, je fais mon temps, jamais mon argent J'attends, j'contemple donc j'apprends, j'entreprends Rien, à vrai dire, j'm'en bats les reins Dehors c'est Dublin, y'a du crachin et puis des lois d'airain J'dirais rien, j'reste pas, la vie c'est C.D.D Il me reste qu'un vieux souvenir comme un cliché de Malick Sidibé Si c'était à refaire, on viendrait parfaire Les mêmes erreurs juste frère, on viendrait pas r'faire Depuis tantôt, j'claque ma langue comme un hottentot Vu que la souche contient l'homme où on bouffe que du Monsanto Réussir c'est s'rater, c'est rapper J'fais du rap karaté à scratcher sur un Serato C'est bateau tout c'que j'dis donc j'finis la bouteille au goulot Et à la mer, mon frère, j'envoie mes skeudis J'brise la coquille, j'mélange le jaune et le blanc C'est la crise copine, les jeunes chôment sur des bancs Désolé, ce doit être un problème d'emplacement Mais vu d'ici je ne sens qu'un système oppressant On est tous à zoner, assommés On sera où quand l'heure de nous-même aura sonnée? On est tous à zoner, assommés Mais dis moi, on sera où quand l'heure de nous-même aura sonnée ?</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>By</t>
+          <t>C’est cool</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Parce que chaque mot est important, je le grave en italique Je viens de là où la vie ne tient qu'à une trajectoire d'objet métallique Là où la corruption, n'est qu'une gangrène, une métastase Où on te vole tout, même les points à la fin de tes phrases L'opinion publique, parait cynique, indifférente Dénoncer le mal et faire le bien sont deux choses différentes J'vais pas vous charmer, j'ai le cur décharné Depuis que mon peuple est sorti des charniers Rouget de Lisle, j'entonnerai pas ton chant de guerre à tue-tête J'suis de cette époque où la moitié du globe vit toujours sous tutelle Avec leurs droits à polluer ils nous en remettent de plus belle Nous étions déjà des damnés maintenant nous devenons leurs poubelles Y'en a ras-bord la coupelle vu toujours plus quand tout s'fait rare Ils veulent soigner tout nos problèmes mais leurs remèdes c'est du curare Mais s'ils bousillent nos fusibles pour que l'on vive dans le noir J'allumerai ma bougie pour lire, aux parois de la mémoire Le monde, j'trouve ça fade et les saletés s'affalent Parait que les peuples ça fane me disait un frère Baye Fall Ouais ça va, je fais mon temps, jamais mon argent J'attends, j'contemple donc j'apprends, j'entreprends Rien, à vrai dire, j'm'en bats les reins Dehors c'est Dublin, y'a du crachin et puis des lois d'airain J'dirais rien, j'reste pas, la vie c'est C.D.D Il me reste qu'un vieux souvenir comme un cliché de Malick Sidibé Si c'était à refaire, on viendrait parfaire Les mêmes erreurs juste frère, on viendrait pas r'faire Depuis tantôt, j'claque ma langue comme un hottentot Vu que la souche contient l'homme où on bouffe que du Monsanto Réussir c'est s'rater, c'est rapper J'fais du rap karaté à scratcher sur un Serato C'est bateau tout c'que j'dis donc j'finis la bouteille au goulot Et à la mer, mon frère, j'envoie mes skeudis J'brise la coquille, j'mélange le jaune et le blanc C'est la crise copine, les jeunes chôment sur des bancs Désolé, ce doit être un problème d'emplacement Mais vu d'ici je ne sens qu'un système oppressant On est tous à zoner, assommés On sera où quand l'heure de nous-même aura sonnée? On est tous à zoner, assommés Mais dis moi, on sera où quand l'heure de nous-même aura sonnée ?</t>
+          <t>Même au fin fond de mon petit pays, je regardais ma lucarne Les convulsions du monde nous parvenaient comme un lointain vacarme Souvent la télé s'partageait avec l'ensemble du voisinage La mondovision canapé transforme le globe en un village Les fractions d'imaginaires partageant tous la même doxa Roger Milla en Coupe du Monde et le monde danse le makossa La Guerre du Golfe de Mister Bush, avant fiston y'avait papa Et j'mattais le pillage des pipelines en bouffant mes papayes Nous étions tous les mêmes gamins rêvant d'entrer dans la Dream team Malgré l'arceau dans mon jardin j'ai jamais vu Patrick Ewing J'me suis accroché à des rêves souvent très loin d'mon quotidien J'connaissais bien moins ma culture que le western hollywoodien On pensait tenir aucun rôle dans le programme de leurs feuilletons Mais un jour en Gaule à La Baule y'a eu le discours de tonton Démocratie multipartisme, il fallait ranger les pistolets Comme rien n'est simple la guerre a éclaté, j'ai éteint ma télé C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Pendant qu'on s'débattait dans une fournaise les autres nous regardaient Assis en charentaises à s'demander c'est quoi à la télé ? C'est quoi ces peuples qui crient à l'aide entre le fromage et le dessert ? L'humanité est plus fragile qu'une orchidée dans le désert Quand le drame est bien trop grand, il se transforme en statistiques Et Lady Di a plus de poids qu'un million de morts en Afrique L'ignorance est moins mortelle que l'indifférence aux sanglots Les hommes sont des hommes pour les hommes et les loups ne sont que des chiots Alors on agonise en silence dans un cri sans écho Et même si la technique avance, elle ne changera pas la déco On a grandi avec le poids de nos démons sur le roc des coteaux Alors donnez-nous des mots pour qu'on vous change la photo Pour qu'on écrive à hauteur d'homme ce que la télé ne montre pas Les battements du cur de mon âme est une info qui ne ment pas J'venais d'Afrique mais sans connaître Kouchner et puis son sac de riz J'ai débarqué un soir d'hiver ici avec un sac de rimes C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule J'ai perdu mon Jardin d'Eden où je me nourrissais de mangues Je suis prisonnier de mes chaînes vu qu'ici la télé commande J'l'ai rallumé dans un trois pièces d'un immeuble surchauffé J'l'ai entretenue comme le feu parce que dehors j'me les congelais Loin dans mon exil, je zappe ceux qui ont pris ma place Et quand on joue sur leur terrain c'est souvent rare qu'on te remplace J'fais une pause, le temps d'une pub Coca Cola Insérée entre un mur qui tombe et la sortie de Mandela On a grandi en continu, comme un flot d'informations Et j'me suis perdu dans ma rue, sous un amas de béton Les souvenirs de ma vie s'mélangent à toutes ces images diffusées Vivre hors champ d'la caméra c'est souvent ne pas exister On nous gave d'images à satiété, de sexe, de fric et de faucheuse Alors j'écris des textes comme un écho de nos vies silencieuses Sur leur écran on est des bouts d'pixels perdus dans la foule Et nos vies s'écoulent, coulent pendant qu'le monde s'écroule C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Et deux tours qui s'écroulent Ma jeunesse s'écoule Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent C'est cool C'est cool C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Ma jeunesse s'écoule Ma jeunesse s'écoule C'est cool C'est cool C'est cool C'est cool</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>C’est cool</t>
+          <t>Charivari</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Même au fin fond de mon petit pays, je regardais ma lucarne Les convulsions du monde nous parvenaient comme un lointain vacarme Souvent la télé s'partageait avec l'ensemble du voisinage La mondovision canapé transforme le globe en un village Les fractions d'imaginaires partageant tous la même doxa Roger Milla en Coupe du Monde et le monde danse le makossa La Guerre du Golfe de Mister Bush, avant fiston y'avait papa Et j'mattais le pillage des pipelines en bouffant mes papayes Nous étions tous les mêmes gamins rêvant d'entrer dans la Dream team Malgré l'arceau dans mon jardin j'ai jamais vu Patrick Ewing J'me suis accroché à des rêves souvent très loin d'mon quotidien J'connaissais bien moins ma culture que le western hollywoodien On pensait tenir aucun rôle dans le programme de leurs feuilletons Mais un jour en Gaule à La Baule y'a eu le discours de tonton Démocratie multipartisme, il fallait ranger les pistolets Comme rien n'est simple la guerre a éclaté, j'ai éteint ma télé C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Pendant qu'on s'débattait dans une fournaise les autres nous regardaient Assis en charentaises à s'demander c'est quoi à la télé ? C'est quoi ces peuples qui crient à l'aide entre le fromage et le dessert ? L'humanité est plus fragile qu'une orchidée dans le désert Quand le drame est bien trop grand, il se transforme en statistiques Et Lady Di a plus de poids qu'un million de morts en Afrique L'ignorance est moins mortelle que l'indifférence aux sanglots Les hommes sont des hommes pour les hommes et les loups ne sont que des chiots Alors on agonise en silence dans un cri sans écho Et même si la technique avance, elle ne changera pas la déco On a grandi avec le poids de nos démons sur le roc des coteaux Alors donnez-nous des mots pour qu'on vous change la photo Pour qu'on écrive à hauteur d'homme ce que la télé ne montre pas Les battements du cur de mon âme est une info qui ne ment pas J'venais d'Afrique mais sans connaître Kouchner et puis son sac de riz J'ai débarqué un soir d'hiver ici avec un sac de rimes C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule J'ai perdu mon Jardin d'Eden où je me nourrissais de mangues Je suis prisonnier de mes chaînes vu qu'ici la télé commande J'l'ai rallumé dans un trois pièces d'un immeuble surchauffé J'l'ai entretenue comme le feu parce que dehors j'me les congelais Loin dans mon exil, je zappe ceux qui ont pris ma place Et quand on joue sur leur terrain c'est souvent rare qu'on te remplace J'fais une pause, le temps d'une pub Coca Cola Insérée entre un mur qui tombe et la sortie de Mandela On a grandi en continu, comme un flot d'informations Et j'me suis perdu dans ma rue, sous un amas de béton Les souvenirs de ma vie s'mélangent à toutes ces images diffusées Vivre hors champ d'la caméra c'est souvent ne pas exister On nous gave d'images à satiété, de sexe, de fric et de faucheuse Alors j'écris des textes comme un écho de nos vies silencieuses Sur leur écran on est des bouts d'pixels perdus dans la foule Et nos vies s'écoulent, coulent pendant qu'le monde s'écroule C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Eh ouais c'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Et deux tours qui s'écroulent Ma jeunesse s'écoule Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent C'est cool C'est cool C'est cool Ma jeunesse s'écoule Entre un mur qui tombe et deux tours qui s'écroulent Ma jeunesse s'écoule Ma jeunesse s'écoule C'est cool C'est cool C'est cool C'est cool</t>
+          <t>MC agrégé de flow, diplômé de style Jai le style hostile au stylo quon veut rendre docile En un cil et son battement je te rends fossile Je vois rouge comme le printemps, le marteau, la faucille Là, faut sy faire vu que cest fort et que ça vocifère Contre les affaires de létat, les frères ont pris si ferme Les cadenas vont té-sau, Madame la Garde des Sceaux Bobodioulasso, Sankara, Burkina Faso Jsuis lassé, harassé de ma vie prise au lasso De la somme dennuis, jte fais la bise et donne lassaut Jai le seum comme les soms soms de Mogadiscio Mes mots, gars, disent cheum vu qucest chaud, jai un cur dartichaut Jviens mtarguer datterrir sur le tarmac comme un cargo Mon argot négro fait bouger le tarma de ta go Ouais jsuis le MC concis, jsuis les pompes quon cire, les lyrics quon cite Et ton flow MC bah jte le circoncis Ah ouais! Ouais j'arrive à rire, c'est l'charivari, ya! J'arrive à rive surtout, quand Paris chavire Et rien à foutre de ta iv', de ta vie naïve Rien à claquer j'suis venu enterrer Bonaparte aux Gonaïves Jai commencé à rapper pour le de-blé pour le Padre Je viens de loin tu te souviens ce que disais mon compadre Ya pas de répit dans mon combat, que des histoires de pierres tombales Du Burundi au Rwanda, guerrier je danse le Douga A la Douma cest pas détails, cest coup dthéâtre et vendetta Attends-toi à des attentats cest coup détat pour coup déclat Ecoutez bien si vous pensiez que tout est bien que tout est beau Votre dédain déteint le ciel et je deviens corbeau Esclave du paradis, paraît que cest beau sous les tropiques Des dominés sans dominants cest un équilibre estropié Trop près de mon trépas, mon pe-ra devient trépied Jai décrété que lopprimé serait sujet, que je traiterais Que je prêterais ma voix aux crève-la-faim et traîne-savates Mais au train où ça va, faut les crever tous les porte-cravates Car ce monde quils nous réservent cest de largent, cest du pouvoir Ne peuvent plus voir et ces messieurs nous emmènent tous vers un trou noir X2 Jrappe depuis mes dents de lait, depuis Pendez-les ! Bandez-les ! Ingé ste plaît mets-moi le delay que je délègue mon flow sans délai La télé embellit ces laids qui ne savent que bêler Appeler, épeler leur nom, voter pour des artistes ratés Au rabais jai gratté, jai taffé, jai tâté, jai gâté, jai goûté Ecoutez ma clique, egotrip mathématique Jsuis lflow MC carabiné atteint par un carabinier Carlo Giulani est tué par des policiers avinés Altermondialisé la terre a de quoi baliser A Gênes on a gêné les gens, maintenant faudrait faucher les champs J'suis OGM José Bové, le monde a de quoi paniquer Lhumanité en manque didées, les catastrophes en quantité Qui télécommande? Quittez le camp! Vite dans l'élan! foutez le camp! Vite, il est temps quon décampe avant que le big bang nous pète dans les dents Cest le rap game coco, cest mon charivari Jarrive à rire, ouais jarrive à rive ! X2</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Charivari</t>
+          <t>Comportement à risque</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MC agrégé de flow, diplômé de style Jai le style hostile au stylo quon veut rendre docile En un cil et son battement je te rends fossile Je vois rouge comme le printemps, le marteau, la faucille Là, faut sy faire vu que cest fort et que ça vocifère Contre les affaires de létat, les frères ont pris si ferme Les cadenas vont té-sau, Madame la Garde des Sceaux Bobodioulasso, Sankara, Burkina Faso Jsuis lassé, harassé de ma vie prise au lasso De la somme dennuis, jte fais la bise et donne lassaut Jai le seum comme les soms soms de Mogadiscio Mes mots, gars, disent cheum vu qucest chaud, jai un cur dartichaut Jviens mtarguer datterrir sur le tarmac comme un cargo Mon argot négro fait bouger le tarma de ta go Ouais jsuis le MC concis, jsuis les pompes quon cire, les lyrics quon cite Et ton flow MC bah jte le circoncis Ah ouais! Ouais j'arrive à rire, c'est l'charivari, ya! J'arrive à rive surtout, quand Paris chavire Et rien à foutre de ta iv', de ta vie naïve Rien à claquer j'suis venu enterrer Bonaparte aux Gonaïves Jai commencé à rapper pour le de-blé pour le Padre Je viens de loin tu te souviens ce que disais mon compadre Ya pas de répit dans mon combat, que des histoires de pierres tombales Du Burundi au Rwanda, guerrier je danse le Douga A la Douma cest pas détails, cest coup dthéâtre et vendetta Attends-toi à des attentats cest coup détat pour coup déclat Ecoutez bien si vous pensiez que tout est bien que tout est beau Votre dédain déteint le ciel et je deviens corbeau Esclave du paradis, paraît que cest beau sous les tropiques Des dominés sans dominants cest un équilibre estropié Trop près de mon trépas, mon pe-ra devient trépied Jai décrété que lopprimé serait sujet, que je traiterais Que je prêterais ma voix aux crève-la-faim et traîne-savates Mais au train où ça va, faut les crever tous les porte-cravates Car ce monde quils nous réservent cest de largent, cest du pouvoir Ne peuvent plus voir et ces messieurs nous emmènent tous vers un trou noir X2 Jrappe depuis mes dents de lait, depuis Pendez-les ! Bandez-les ! Ingé ste plaît mets-moi le delay que je délègue mon flow sans délai La télé embellit ces laids qui ne savent que bêler Appeler, épeler leur nom, voter pour des artistes ratés Au rabais jai gratté, jai taffé, jai tâté, jai gâté, jai goûté Ecoutez ma clique, egotrip mathématique Jsuis lflow MC carabiné atteint par un carabinier Carlo Giulani est tué par des policiers avinés Altermondialisé la terre a de quoi baliser A Gênes on a gêné les gens, maintenant faudrait faucher les champs J'suis OGM José Bové, le monde a de quoi paniquer Lhumanité en manque didées, les catastrophes en quantité Qui télécommande? Quittez le camp! Vite dans l'élan! foutez le camp! Vite, il est temps quon décampe avant que le big bang nous pète dans les dents Cest le rap game coco, cest mon charivari Jarrive à rire, ouais jarrive à rive ! X2</t>
+          <t>Marre de m'entendre dire ce qu'il ne faut pas Parents poules improvisés, faites-vous cuire un uf au plat Laissez moi être l'exception qui infirme la règle Un atome de plus qui souhaite imprimer la flegme Vous vous foutez de moi à coups d'où tu fous tes doigts? Dites-moi plutôt vos folies et rêves, vos doutes et foi J'repense à toute les fois où l'on m'disait t'es fou d'être toi Quand j'ai tout fait pour éviter d'étouffer sous les étoiles Je voulais parler d'amour, j'ai vomi de la bile A croire que j'ai trop respiré l'air de la ville Peine à s'orienter en zone occidentale Pris le large, côtoyé toute une faune accidentelle Tordre les mots plutôt que mordre létau Depuis très tôt j'ai discuté les ordres Époque où l'on écope des pensées de hordes En pleine guerre des métaux, l'heure de couper les cordes Dans un décor aride Refleurir les déserts Comportement à risque Dis-moi quelle est ma place? Je crois que j'suis paumé Entre le vieux sage fainéant et l'ignare diplômé Mon Dieu pardonne-moi tous les matins j'ai pêché Des poissons irréels auxquels je me suis harponné J'veux plus m'aplatir, mon horizon est vertical Leur seul Éden terrestre est un paradis fiscal L'artiste est un adulte qui crache les rêves d'un marmot Donc j'ai cassé ma voix, par terre des vers et des bris de mots Leur nez dans la poudreuse c'est tout schuss vers l'extase Les soirs de mélancolie j'me tape que des lignes de basses Souvent j'me perds moi le triste clown Entre le rap de Baudelaire et les poèmes de MF Doom J'ai peur d'être cynique, pessimiste ou défaitiste D'être un chiffre, une croix, un nom sur une liste J'ai peur mais j'me soigne Je suis un nuage de rêves suspendu à l'orage Dans un décor aride Refleurir les déserts Comportement à risque Ma musique n'est pas neutre, elle ne le sera jamais Reflet d'mon âme elle est un cheval, je n'lui mets pas d'harnais J'la monte à cru, même sur des pentes ardues Ressens l'présent, ne m'soucies pas de c'que le monde a cru Laisse l'instant me guider, mes rêves d'enfants filer On s'redéfinit en retrouvant l'sens de l'inné Débarrassé du surplus d'culpabilité J'n'essaie plus d'faire l'unanimité Juste d'être moi-même, au delà des barrières Conditionné par hier, je pars, demande à Gaël Faye Crache un arrière goût de moyen âge Comment avancer si on ne tourne pas les pages Bas les pattes, ne touches pas à mon âme si ce n'est avec douceur Je n'veux plus porter les stigmates de la douleur Dans le calme, je me reconnecte à mon être Et là vois qu'en l'autre je peux me reconnaître Jassombris lEgo pour mensoleiller La lumière cest les autres, embrasse-moi pour essayer Chérie, cest de lamour que je charrie dans mes écrits Je renverse le Ciel, quand je rappe une étoile atterrit Des astres, cest ce quon était avant le désastre Avant que le chiffre dun pays ne remplace lÉtat de grâce Remplace les rêves en fouillis, les rêves qui fourmillent Aujourdhui, les beautés humaines sont enfouies Ou en fuite, je les retrouve chez le soldat de pacifisme Le muslim qui shalom, lartiste idéaliste Mes pensées, des bégonias Offertes en bouquets de rimes aux condamnés du procès de Rivonia Culture plurielle comme ma pigmentation Tu tinterroges sur ma peau car elle te remet en question Pupille de deux Nations, je garde un il sur chacune Dans un désert de poésie, fais donation dune lagune</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comportement à risque</t>
+          <t>Des graines</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Marre de m'entendre dire ce qu'il ne faut pas Parents poules improvisés, faites-vous cuire un uf au plat Laissez moi être l'exception qui infirme la règle Un atome de plus qui souhaite imprimer la flegme Vous vous foutez de moi à coups d'où tu fous tes doigts? Dites-moi plutôt vos folies et rêves, vos doutes et foi J'repense à toute les fois où l'on m'disait t'es fou d'être toi Quand j'ai tout fait pour éviter d'étouffer sous les étoiles Je voulais parler d'amour, j'ai vomi de la bile A croire que j'ai trop respiré l'air de la ville Peine à s'orienter en zone occidentale Pris le large, côtoyé toute une faune accidentelle Tordre les mots plutôt que mordre létau Depuis très tôt j'ai discuté les ordres Époque où l'on écope des pensées de hordes En pleine guerre des métaux, l'heure de couper les cordes Dans un décor aride Refleurir les déserts Comportement à risque Dis-moi quelle est ma place? Je crois que j'suis paumé Entre le vieux sage fainéant et l'ignare diplômé Mon Dieu pardonne-moi tous les matins j'ai pêché Des poissons irréels auxquels je me suis harponné J'veux plus m'aplatir, mon horizon est vertical Leur seul Éden terrestre est un paradis fiscal L'artiste est un adulte qui crache les rêves d'un marmot Donc j'ai cassé ma voix, par terre des vers et des bris de mots Leur nez dans la poudreuse c'est tout schuss vers l'extase Les soirs de mélancolie j'me tape que des lignes de basses Souvent j'me perds moi le triste clown Entre le rap de Baudelaire et les poèmes de MF Doom J'ai peur d'être cynique, pessimiste ou défaitiste D'être un chiffre, une croix, un nom sur une liste J'ai peur mais j'me soigne Je suis un nuage de rêves suspendu à l'orage Dans un décor aride Refleurir les déserts Comportement à risque Ma musique n'est pas neutre, elle ne le sera jamais Reflet d'mon âme elle est un cheval, je n'lui mets pas d'harnais J'la monte à cru, même sur des pentes ardues Ressens l'présent, ne m'soucies pas de c'que le monde a cru Laisse l'instant me guider, mes rêves d'enfants filer On s'redéfinit en retrouvant l'sens de l'inné Débarrassé du surplus d'culpabilité J'n'essaie plus d'faire l'unanimité Juste d'être moi-même, au delà des barrières Conditionné par hier, je pars, demande à Gaël Faye Crache un arrière goût de moyen âge Comment avancer si on ne tourne pas les pages Bas les pattes, ne touches pas à mon âme si ce n'est avec douceur Je n'veux plus porter les stigmates de la douleur Dans le calme, je me reconnecte à mon être Et là vois qu'en l'autre je peux me reconnaître Jassombris lEgo pour mensoleiller La lumière cest les autres, embrasse-moi pour essayer Chérie, cest de lamour que je charrie dans mes écrits Je renverse le Ciel, quand je rappe une étoile atterrit Des astres, cest ce quon était avant le désastre Avant que le chiffre dun pays ne remplace lÉtat de grâce Remplace les rêves en fouillis, les rêves qui fourmillent Aujourdhui, les beautés humaines sont enfouies Ou en fuite, je les retrouve chez le soldat de pacifisme Le muslim qui shalom, lartiste idéaliste Mes pensées, des bégonias Offertes en bouquets de rimes aux condamnés du procès de Rivonia Culture plurielle comme ma pigmentation Tu tinterroges sur ma peau car elle te remet en question Pupille de deux Nations, je garde un il sur chacune Dans un désert de poésie, fais donation dune lagune</t>
+          <t>Les âmes s'assoupissent sous la chaleur intense Et les palmiers sen balancent, des rigoles d'immondices Notre pays embourbé où le peuple est un gueux Et le ciel est suspect d'être si beau et si bleu Chaque jour est une peine, veine sous lastre brillant On muselle les rêveries depuis bien longtemps Le futur paraît vain, le tyran si puissant Mais d'où proviennent ces chants, ces voix que l'on entend ? Et sous ce grand soleil, dictateur comme un père La bouche pâteuse de rêve un jour se désaltère Humidifie ces lèvres, libère ce qu'elles retient Les formules qu'elles célèbrent et le pays qui vient Renverse la dictature, piétine ses statues On repeindra les murs m'a dit l'homme de la rue Dépoter le despote, planter des fleurs nouvelles Additionner nos cur, en faire des archipels Le soleil au zénith, la rue nous invite Nous abrite un jour, on se lève pour être libre On débat on s'agite, au départ on évite La violence quils impliquent, quils renvoient, qu'ils appliquent On répond par des rimes, on sinvente des rites On déconstruit leurs mythes, on refuse la fuite Ils nous traquent aux satellites, nous envoie l'armée, les flics L'humeur est sismique donc un jour on réplique C'est le fracas dans la ville, la bravoure du civil Et la force vient de loin, de lamour de la vie On affronte le destin chauffé à blanc sont les poings Et l'on frappe, on risposte le regard vers demain Et l'espoir qui nous porte nous aide à tenir On écrit aujourd'hui les poèmes à venir Bien qu'on tombe constamment sous le feu de leur haine S'ils nous enterrent ils perdront car nous sommes des graines</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Des graines</t>
+          <t>Dinosaures</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Les âmes s'assoupissent sous la chaleur intense Et les palmiers sen balancent, des rigoles d'immondices Notre pays embourbé où le peuple est un gueux Et le ciel est suspect d'être si beau et si bleu Chaque jour est une peine, veine sous lastre brillant On muselle les rêveries depuis bien longtemps Le futur paraît vain, le tyran si puissant Mais d'où proviennent ces chants, ces voix que l'on entend ? Et sous ce grand soleil, dictateur comme un père La bouche pâteuse de rêve un jour se désaltère Humidifie ces lèvres, libère ce qu'elles retient Les formules qu'elles célèbrent et le pays qui vient Renverse la dictature, piétine ses statues On repeindra les murs m'a dit l'homme de la rue Dépoter le despote, planter des fleurs nouvelles Additionner nos cur, en faire des archipels Le soleil au zénith, la rue nous invite Nous abrite un jour, on se lève pour être libre On débat on s'agite, au départ on évite La violence quils impliquent, quils renvoient, qu'ils appliquent On répond par des rimes, on sinvente des rites On déconstruit leurs mythes, on refuse la fuite Ils nous traquent aux satellites, nous envoie l'armée, les flics L'humeur est sismique donc un jour on réplique C'est le fracas dans la ville, la bravoure du civil Et la force vient de loin, de lamour de la vie On affronte le destin chauffé à blanc sont les poings Et l'on frappe, on risposte le regard vers demain Et l'espoir qui nous porte nous aide à tenir On écrit aujourd'hui les poèmes à venir Bien qu'on tombe constamment sous le feu de leur haine S'ils nous enterrent ils perdront car nous sommes des graines</t>
+          <t>J'ai des touracos dans lthorax quand j'embrasse des libellules Mets des lettres d'amour pleines danthrax, c'est du poison dans mes cellules Je tutoie les ouragans depuis qu'j'ai oublié mon nom J'suis à la mode, j'suis dans le vent, j'suis l'éolienne des pharaons Jai des colères insoumises dans mon goître de pélican Depuis qula mort fait des remises, j'achète mes cancers à trente ans Jsuis l'épilogue de mon époque, assis à la table des matières J'ai fait de mes dieux des microbes sous l'hélice des coléoptères Jsuis le rugissement de la foule, la solitude des grands félins Et dans la rumeur de la houle j'entends la mer des orphelins J'suis l'eczéma dans les nuages, j'ai des smartphones dans mon coltan À vouloir chevaucher l'orage j'ai dix mille volts dans mon sang Je suis le fils des antipodes, au fond des yeux j'ai des tympans La canne à sucre avait ses Code noir, caoutchouc de roues de paons Mémoire de larmes à la dérive, j'suis le déclin du nénuphar J'ai du lyrisme dans l'iris et le port de tête d'un Afar Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ? J'ai braconné la bête immonde dans l'terrier des peurs calfeutrées Les cancrelats sont vagabonds et leurs contours sont à la craie J'ai les névroses de l'écureuil qui vit à l'orée des chaos Dans le ventre de ces villes mille-feuilles aussi belles que des calaos Je suis l'errance de la cigogne frappée du diadème de l'exil Et j'ai la tolérance frivole sous mes plumes samba du Brésil Sans terre on finit sous le sable, dans la forêt trop capitale Paysan sous l'arbre à palabres, je cultive mon champ lexical Extraction des matières dernières, le carnassier ne voit plus ses proies J'ai dit Bye-bye, à la prochaine comme le chat du resto chinois Dans mon regard marécageux, y a l'évidence du long sommeil L'origami n'est plus un jeu quand l'incendie est un soleil J'enfile des yeux canadair pour aller chanter nos abîmes Autant pêcher dans le désert quand on s'enfonce dans nos ravines Je suis la tragédie d'une pomme, celle qui m'attire comme un aimant Je meurs de la folie des hommes et de la furie des éléments Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ? C'est l'chaos sur un teint Pepsi, moins le quart avant l'apocalypse En me disant Peut-être qu'un messie viendra Donc à quoi bon vouloir prendre des risques ? Je remets mes deux écouteurs, posé parce que dehors ça gronde et J'reste à côté du radiateur dans l'carré V.I.P. du monde L'ours bounce, bounce, bounce sur la banquise, offre des mabroukas Le tigre danse, danse, danse, dans la forêt danse le makossa La râleuse pique pense, pense, sur un air de bossa nova Qu'il n'reste que lui et lance C'est la fin des feijoadas ! Les animaux sont des punks No future pour le panda La jungle danse la funk L'insurrection ne vient pas Le colibri éteint le brasier Avec des gouttes de Coca Le gorille ne veut plus la télé Mais lire Francis Fukuyama, ah-ah-ah-ah-ah Dehors y a grabuge Mais personne ne bouge Oui monsieur le juge, après moi le déluge Dehors y a grabuge Mais personne ne bouge Oui monsieur le juge, après nous le déluge Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ?</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dinosaures</t>
+          <t>En Résidence (freestyle)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>J'ai des touracos dans lthorax quand j'embrasse des libellules Mets des lettres d'amour pleines danthrax, c'est du poison dans mes cellules Je tutoie les ouragans depuis qu'j'ai oublié mon nom J'suis à la mode, j'suis dans le vent, j'suis l'éolienne des pharaons Jai des colères insoumises dans mon goître de pélican Depuis qula mort fait des remises, j'achète mes cancers à trente ans Jsuis l'épilogue de mon époque, assis à la table des matières J'ai fait de mes dieux des microbes sous l'hélice des coléoptères Jsuis le rugissement de la foule, la solitude des grands félins Et dans la rumeur de la houle j'entends la mer des orphelins J'suis l'eczéma dans les nuages, j'ai des smartphones dans mon coltan À vouloir chevaucher l'orage j'ai dix mille volts dans mon sang Je suis le fils des antipodes, au fond des yeux j'ai des tympans La canne à sucre avait ses Code noir, caoutchouc de roues de paons Mémoire de larmes à la dérive, j'suis le déclin du nénuphar J'ai du lyrisme dans l'iris et le port de tête d'un Afar Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ? J'ai braconné la bête immonde dans l'terrier des peurs calfeutrées Les cancrelats sont vagabonds et leurs contours sont à la craie J'ai les névroses de l'écureuil qui vit à l'orée des chaos Dans le ventre de ces villes mille-feuilles aussi belles que des calaos Je suis l'errance de la cigogne frappée du diadème de l'exil Et j'ai la tolérance frivole sous mes plumes samba du Brésil Sans terre on finit sous le sable, dans la forêt trop capitale Paysan sous l'arbre à palabres, je cultive mon champ lexical Extraction des matières dernières, le carnassier ne voit plus ses proies J'ai dit Bye-bye, à la prochaine comme le chat du resto chinois Dans mon regard marécageux, y a l'évidence du long sommeil L'origami n'est plus un jeu quand l'incendie est un soleil J'enfile des yeux canadair pour aller chanter nos abîmes Autant pêcher dans le désert quand on s'enfonce dans nos ravines Je suis la tragédie d'une pomme, celle qui m'attire comme un aimant Je meurs de la folie des hommes et de la furie des éléments Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ? C'est l'chaos sur un teint Pepsi, moins le quart avant l'apocalypse En me disant Peut-être qu'un messie viendra Donc à quoi bon vouloir prendre des risques ? Je remets mes deux écouteurs, posé parce que dehors ça gronde et J'reste à côté du radiateur dans l'carré V.I.P. du monde L'ours bounce, bounce, bounce sur la banquise, offre des mabroukas Le tigre danse, danse, danse, dans la forêt danse le makossa La râleuse pique pense, pense, sur un air de bossa nova Qu'il n'reste que lui et lance C'est la fin des feijoadas ! Les animaux sont des punks No future pour le panda La jungle danse la funk L'insurrection ne vient pas Le colibri éteint le brasier Avec des gouttes de Coca Le gorille ne veut plus la télé Mais lire Francis Fukuyama, ah-ah-ah-ah-ah Dehors y a grabuge Mais personne ne bouge Oui monsieur le juge, après moi le déluge Dehors y a grabuge Mais personne ne bouge Oui monsieur le juge, après nous le déluge Où sont les dinosaures ? Où sont les dinosaures ? Où sont les dinosaures ?</t>
+          <t>Parce que chaque mot est important, je le grave en italique Je viens de là où la vie ne tient qu'à une trajectoire d'objet métallique Là où la corruption, n'est qu'une gangrène métastase Où on te vole tout, même les points à la fin de tes phrases L'opinion publique, parait cynique, indifférente Dénoncer le mal et faire le bien sont deux choses différentes J'vais pas vous charmer, j'ai le cur décharné Depuis que mon peuple est sorti des charniers Rouget de Lisle j'entonnerai pas ton chant de guerre à tue-tête J'suis de cette époque où la moitié du globe vit toujours sous tutelle Avec leurs droits pollués ils nous en remettent de plus belle Nous étions déjà des damnés maintenant nous devenons leur poubelle Y'en a ras-bord la coupelle vu toujours plus quand tout s'fait rare Ils veulent soigner tout nos problèmes mais leurs remèdes c'est du curare Mais s'ils bousillent nos fusibles pour que l'on vive dans le noir J'allumerai ma bougie pour lire, au paroi de la mémoire Le monde, j'trouve ça fade et les saletés s'affalent Parait que les fleuves ça fane me disait un frère Baye Fall Ouais ça va, je fais mon temps, jamais mon argent J'attends, j'contemple donc j'apprends, j'entreprends Rien, à vrai dire, j'm'en bats les reins Dehors c'est du blin, y'a du crachin et puis des lois d'airain J'dirai rien, j'reste pas, la vie c'est C.D.D Il me reste qu'un vieux souvenir comme un cliché de Malick Sidibé Si c'était à refaire, on viendrait parfaire Les mêmes erreurs juste frère, on viendrait pas r'faire Depuis tantôt, j'claque ma langue comme un hottentot Vu que la souche contient l'homme où on bouffe que du Monsanto Réussir c'est s'rater, c'est rapper J'fais du rap karaté à scratcher sur un Serato C'est bateau tout c'que j'dis donc j'finis la bouteille au goulot Et à la mère, mon frère, j'envoie mes skeudis J'brise la coquille, j'mélange le jaune et le blanc C'est la crise copine, les jeunes chôment sur des bancs Désolé, ce doit être un problème d'emplacement Mais vu d'ici je ne sens qu'un système oppressant On est tous à zoner, assommés On sera où quand l'heure de nous-même aura sonnée? On est tous à zoner, assommés Mais dis moi, on sera où quand l'heure de nous-même aura sonnée?</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>En Résidence (freestyle)</t>
+          <t>Éphémère</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Parce que chaque mot est important, je le grave en italique Je viens de là où la vie ne tient qu'à une trajectoire d'objet métallique Là où la corruption, n'est qu'une gangrène métastase Où on te vole tout, même les points à la fin de tes phrases L'opinion publique, parait cynique, indifférente Dénoncer le mal et faire le bien sont deux choses différentes J'vais pas vous charmer, j'ai le cur décharné Depuis que mon peuple est sorti des charniers Rouget de Lisle j'entonnerai pas ton chant de guerre à tue-tête J'suis de cette époque où la moitié du globe vit toujours sous tutelle Avec leurs droits pollués ils nous en remettent de plus belle Nous étions déjà des damnés maintenant nous devenons leur poubelle Y'en a ras-bord la coupelle vu toujours plus quand tout s'fait rare Ils veulent soigner tout nos problèmes mais leurs remèdes c'est du curare Mais s'ils bousillent nos fusibles pour que l'on vive dans le noir J'allumerai ma bougie pour lire, au paroi de la mémoire Le monde, j'trouve ça fade et les saletés s'affalent Parait que les fleuves ça fane me disait un frère Baye Fall Ouais ça va, je fais mon temps, jamais mon argent J'attends, j'contemple donc j'apprends, j'entreprends Rien, à vrai dire, j'm'en bats les reins Dehors c'est du blin, y'a du crachin et puis des lois d'airain J'dirai rien, j'reste pas, la vie c'est C.D.D Il me reste qu'un vieux souvenir comme un cliché de Malick Sidibé Si c'était à refaire, on viendrait parfaire Les mêmes erreurs juste frère, on viendrait pas r'faire Depuis tantôt, j'claque ma langue comme un hottentot Vu que la souche contient l'homme où on bouffe que du Monsanto Réussir c'est s'rater, c'est rapper J'fais du rap karaté à scratcher sur un Serato C'est bateau tout c'que j'dis donc j'finis la bouteille au goulot Et à la mère, mon frère, j'envoie mes skeudis J'brise la coquille, j'mélange le jaune et le blanc C'est la crise copine, les jeunes chôment sur des bancs Désolé, ce doit être un problème d'emplacement Mais vu d'ici je ne sens qu'un système oppressant On est tous à zoner, assommés On sera où quand l'heure de nous-même aura sonnée? On est tous à zoner, assommés Mais dis moi, on sera où quand l'heure de nous-même aura sonnée?</t>
+          <t>Si les nuits d'été on passe des heures à regarder l'ciel À attendre le passage éclaire des étoiles filantes C'est qu'le charme de la vie à un plus beau potentiel Quand les choses sont fragiles et les secondes fuyantes L'étoile filante ne s'installe pas, elle s'envole et disparait On l'attend, on l'espère pour un plaisir furtif Il faut saisir l'instant, pas la seconde d'après Les bonheurs les plus intenses sont souvent fugitifs Le précaire ça génère, l'émotion s'accélère Pour défaire et refaire, laisser faire l'éphémère Pour se sentir vivant loin des routines amères Laisser taire l'ordinaire, laisser faire l'éphémère Rien n'est jamais fini, jamais figé, jamais éternel C'est juste un prêt la vie, un trait léger de craie dans le ciel Rien n'est jamais perdu, jamais foutu, jamais immobile Y a pas d'avant, pas d'après, rien d'indélébile sur cette Terre Que de l'éphémère Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Que de l'éphémère Laisser faire l'éphémère Les jours passent et tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Éphémère</t>
+          <t>Freelipilistyle “10 ans”</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Si les nuits d'été on passe des heures à regarder l'ciel À attendre le passage éclaire des étoiles filantes C'est qu'le charme de la vie à un plus beau potentiel Quand les choses sont fragiles et les secondes fuyantes L'étoile filante ne s'installe pas, elle s'envole et disparait On l'attend, on l'espère pour un plaisir furtif Il faut saisir l'instant, pas la seconde d'après Les bonheurs les plus intenses sont souvent fugitifs Le précaire ça génère, l'émotion s'accélère Pour défaire et refaire, laisser faire l'éphémère Pour se sentir vivant loin des routines amères Laisser taire l'ordinaire, laisser faire l'éphémère Rien n'est jamais fini, jamais figé, jamais éternel C'est juste un prêt la vie, un trait léger de craie dans le ciel Rien n'est jamais perdu, jamais foutu, jamais immobile Y a pas d'avant, pas d'après, rien d'indélébile sur cette Terre Que de l'éphémère Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Il ne restera rien de nos livres, de nos rimes, de nos lignes, de nos vies furtives et fragiles On s'en va dans l'abime, dans le vide mais qui sait, on laissera même un film, un faisceau dans la nuit Que de l'éphémère Laisser faire l'éphémère Les jours passent et tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent et tout s'efface, tout s'efface Les jours passent</t>
+          <t>Je cherche le miracle mais je ne trouve que du trivial J'ai cherché mon oracle mais je n'ai trouvé qu'un rival Paraphraser son coeur c'est le foutre dans l'étau Si le coeur est le moteur il y a de la fumée sous le capot A vivre sous l'orage je ne sais que faire de l'azur Une fois cicatrisé devrais-je faire pousser des blessures Si je vide mon sac j'irais taper dans le vent Et comme l'arbre dans la plaine je repousserais obstinément Ecrire des textes, c'est enterrer des cadavres Difficle vu le contexte comme la Palestine sur le cadastre J'veux pas tourner la page, non, je referme le livre Eduquer ma rage, lui enseigner à devenir libre J'reprends du service, je vais chauffer la feuille blanche Ouvrir de nouvelles pistes, affuter mon éloquence Je reprends du début, je déconstruis, je désapprends Les phrases pour le moment sont cachées dans ma tête, je les attends.. Dix ans, dix ans, dix ans, dix ans Souvent j'ai perdu pied mais je remercie les miens J'ai fait de mes larmes de l'art, dixit un empereur éthiopien Tout ça est impudique comme de se produire en public D'où vient cette maladie de nous déverser en musique? Excusez moi famille si des fois j'en dis un peu trop J'ai remodelé ma vie avec ces mots que je pétris Peu importe le bonheur si je ne trouve pas le sens Notre monde sommeil par manque d'imprudence Merci grand Jacques pour cette grande phrase ressassée Que j'ai prise à mon compte pour essayer d'avancer Pour enfin briser mes putains d'déterminismes Les esclaves affranchis se reléveront de tout séisme J'avais des scènes de vies tatouées sous la paupière Qu'il fallait que je libère pour leur faire prendre la lumière Ce fut l'album des choix décisifs de ma vie J'ai refermé une décennie au gout du pili pili Dix ans, dix ans, dix ans, dix ans</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Freelipilistyle “10 ans”</t>
+          <t>Freelipilistyle avec Nemir</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Je cherche le miracle mais je ne trouve que du trivial J'ai cherché mon oracle mais je n'ai trouvé qu'un rival Paraphraser son coeur c'est le foutre dans l'étau Si le coeur est le moteur il y a de la fumée sous le capot A vivre sous l'orage je ne sais que faire de l'azur Une fois cicatrisé devrais-je faire pousser des blessures Si je vide mon sac j'irais taper dans le vent Et comme l'arbre dans la plaine je repousserais obstinément Ecrire des textes, c'est enterrer des cadavres Difficle vu le contexte comme la Palestine sur le cadastre J'veux pas tourner la page, non, je referme le livre Eduquer ma rage, lui enseigner à devenir libre J'reprends du service, je vais chauffer la feuille blanche Ouvrir de nouvelles pistes, affuter mon éloquence Je reprends du début, je déconstruis, je désapprends Les phrases pour le moment sont cachées dans ma tête, je les attends.. Dix ans, dix ans, dix ans, dix ans Souvent j'ai perdu pied mais je remercie les miens J'ai fait de mes larmes de l'art, dixit un empereur éthiopien Tout ça est impudique comme de se produire en public D'où vient cette maladie de nous déverser en musique? Excusez moi famille si des fois j'en dis un peu trop J'ai remodelé ma vie avec ces mots que je pétris Peu importe le bonheur si je ne trouve pas le sens Notre monde sommeil par manque d'imprudence Merci grand Jacques pour cette grande phrase ressassée Que j'ai prise à mon compte pour essayer d'avancer Pour enfin briser mes putains d'déterminismes Les esclaves affranchis se reléveront de tout séisme J'avais des scènes de vies tatouées sous la paupière Qu'il fallait que je libère pour leur faire prendre la lumière Ce fut l'album des choix décisifs de ma vie J'ai refermé une décennie au gout du pili pili Dix ans, dix ans, dix ans, dix ans</t>
+          <t>Ecoute bien ce qu'on dit ici y a pas de mots doux C'est la danse du zombie à la fête du vaudou Ouh sortez les chats c'est la razzia j'allume un brasier Moi c'est les chars comme XXX au Congo Brazza' Blah blah flow kamikaze, kalash sans par balle Ici cest lvacarme, sorti du local pour la cavale J'balance des rafales la musique est belle comme un scandale Et pour elle ma caille j'ferais Paris-Bruxelles en sandale Peu' peu' j'rappe des postillons, quand lauditeur est parapluie Jprends le taureau par les cornes et la vache par les pies Jdois trouver l'angle pour ma langue avant de faire couler l'encre Prendre de l'élan, la pensée est une coulée lente Donc où est le bic ? Où est la page ? Où est le battement de mon cur ? Où est le fric sur la table ? Où est la France de l'auteur ? Ma musique se mange avec les doigts comme du fufu Le projet c'est nous qu'on la fait appelle nous fubu Ici on boxe à la Rocky mec, donc pas besoin de ta fuckin' aide Si les condés toc en bas des blocs, cest pas pour copiner J'accumule les fausses notes, les clopinettes Les procès des trop funestes, les pauses clopes et les coffee nègres Les poches vides, trop diraient quon stagne mais les robinets sont stables On s'active et bosse depuis long time Y a que comme comme comme ça qu'on peut peaufiner son style Depuis gosse gosse j'bosse comme un forcené nostalgique Sur les mains jcomptais les clopes par dix Posté comme un tox ou un pauvre artiste J'ai vu des rhos virés atroces et des potes partir Des gamines fêlées qu'on accoste à des heures tardives Déconné, malgré les connes, les plans sales Les échecs à lécole, voyez les coups donnés dans le sac Avoue qu'il serait temps qu'on décolle tout donner dans ça Les poumons goudronnés, j'fume la prod comme une drogue indispensable Eh yo, check ma team, si tu coopères, on te laisse la vie J'évite les faux frères comme les go aux fesses fragiles La miss m'a trouvé très agile Facile, sous Range Rover, j'ai beaucoup plus de sex-appeal J'gravite autour des mêmes trafics, y'a que pour les miens que je rapplique On se couvre les uns, les autres, évite les fins tragiques Pleins sagitent, les brailleries dgadjis C'est pourtant simple lami tu me trahis, j'agis En conséquence de cause, on s'invente des torts Un conseil planque tes gosses, jvais foncer dans le décor Bande de porcs, j'peux même plus vous serrer la main A croire que j'avais déjà flairer la fin merde Pour un plein d'air, tu serais prêt à suce tout pleins de verges Refais les tes excuses ou bien crève Pleins de rêves de Berlines et de 'tasses Qui splaignent khey à XXX XXX</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Freelipilistyle avec Nemir</t>
+          <t>Freestyle Planète Rap du 26/08/2019</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ecoute bien ce qu'on dit ici y a pas de mots doux C'est la danse du zombie à la fête du vaudou Ouh sortez les chats c'est la razzia j'allume un brasier Moi c'est les chars comme XXX au Congo Brazza' Blah blah flow kamikaze, kalash sans par balle Ici cest lvacarme, sorti du local pour la cavale J'balance des rafales la musique est belle comme un scandale Et pour elle ma caille j'ferais Paris-Bruxelles en sandale Peu' peu' j'rappe des postillons, quand lauditeur est parapluie Jprends le taureau par les cornes et la vache par les pies Jdois trouver l'angle pour ma langue avant de faire couler l'encre Prendre de l'élan, la pensée est une coulée lente Donc où est le bic ? Où est la page ? Où est le battement de mon cur ? Où est le fric sur la table ? Où est la France de l'auteur ? Ma musique se mange avec les doigts comme du fufu Le projet c'est nous qu'on la fait appelle nous fubu Ici on boxe à la Rocky mec, donc pas besoin de ta fuckin' aide Si les condés toc en bas des blocs, cest pas pour copiner J'accumule les fausses notes, les clopinettes Les procès des trop funestes, les pauses clopes et les coffee nègres Les poches vides, trop diraient quon stagne mais les robinets sont stables On s'active et bosse depuis long time Y a que comme comme comme ça qu'on peut peaufiner son style Depuis gosse gosse j'bosse comme un forcené nostalgique Sur les mains jcomptais les clopes par dix Posté comme un tox ou un pauvre artiste J'ai vu des rhos virés atroces et des potes partir Des gamines fêlées qu'on accoste à des heures tardives Déconné, malgré les connes, les plans sales Les échecs à lécole, voyez les coups donnés dans le sac Avoue qu'il serait temps qu'on décolle tout donner dans ça Les poumons goudronnés, j'fume la prod comme une drogue indispensable Eh yo, check ma team, si tu coopères, on te laisse la vie J'évite les faux frères comme les go aux fesses fragiles La miss m'a trouvé très agile Facile, sous Range Rover, j'ai beaucoup plus de sex-appeal J'gravite autour des mêmes trafics, y'a que pour les miens que je rapplique On se couvre les uns, les autres, évite les fins tragiques Pleins sagitent, les brailleries dgadjis C'est pourtant simple lami tu me trahis, j'agis En conséquence de cause, on s'invente des torts Un conseil planque tes gosses, jvais foncer dans le décor Bande de porcs, j'peux même plus vous serrer la main A croire que j'avais déjà flairer la fin merde Pour un plein d'air, tu serais prêt à suce tout pleins de verges Refais les tes excuses ou bien crève Pleins de rêves de Berlines et de 'tasses Qui splaignent khey à XXX XXX</t>
+          <t>Viens, passe dans mon block, première tour à droite Au 19 Verlaine Paul, où le hall fait squat Premier arrêt rez-de-chaussée, famille marocaine, les Houcine Qui, pour que tchi peuvent te ken', mais tout l'monde rêve de check leurs cousines Prends l'temps, monte dun étage, ça sent le mafé La famille Traoré a faim, mange, Africain naime pas les muffins Au-d'ssus, les Drouot sdéfoncent à la morphine Veulent en finir, croient le faire en finesse mais ça svoit comme un non-fumeur Le quatrième étage a brûlé Ces enculés de la Semino nont pas jugé bon d'changer d'cheminée Si tu veux piner et qu'tes pas mignon, va voir Ignès au cinquième Elle est ignoble mais, passé minuit, plein d''sky, ten as qui aiment David, au sixième, cest love story entre lui et ses chiennes Et sa PlayStation, normal, sa meuf est cheum Au septième, ça se déchaîne, Mamadou fait des siennes A la main dure sur sa femme encore un couple qui se décime Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ... Un-deux, un-deux, test micro, postillons d'antipop Textes de Pete Rock, jazzy, be-bop, pop, hip-hop Boycotteur de litotes, lyrics explicites à la Rick Ross On t'chicote, hé chica, c'était chicos Pose comme une avenue fun unity un mot Le rappeur pipelette sa devise, c'est cause toujours Les frangins, les frangins, les anciens, les anciens Et l'respect dans tout ça ? Mais on s'en pète les enceintes À digger, à sampler, archiver, à chopper H-I-P H-O-P comme chopper une H.I.V Un virus, une passion qui remplit l'espace son Des coulures de colère sur flancs d'métro et d'stations Expression d'la rue, quand le feu s'éteint pas Me dis pas qu'j'suis sympa, j'ai tous mes sens à l'affût Esclave de la cale qui s'enfuit de son étale Le hip-hop, c'est un caniveau qui vise les étoiles Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ... Ce nsont pas des grottes mais bel et bien des halls Bienvenue dans la zone à risques abritant les vestiges dune architecture dautochtones Laccent local est glauque dans lcoin, cest plutôt grec-frites Pour les matières premières, prière de se reporter au lexique Ici, le folklore déplore son côté hardcore Les colonnes de ses propres blocs sont gavées de trésors hors-normes Les légendes les plus étranges arpentent les sous-sols Où certains testaient leur coupole, les pucelles perdaient la boussole Cette bourgade nest autre quun havre de paix Le genre dart contemporain fait par de biens piètres architectes C'est dans ces HLM que nos familles élèvent leurs petits Prenez donc des clichés, je vous souhaite un bon appétit Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ...</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Freestyle Planète Rap du 26/08/2019</t>
+          <t>Garde tes larmes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Viens, passe dans mon block, première tour à droite Au 19 Verlaine Paul, où le hall fait squat Premier arrêt rez-de-chaussée, famille marocaine, les Houcine Qui, pour que tchi peuvent te ken', mais tout l'monde rêve de check leurs cousines Prends l'temps, monte dun étage, ça sent le mafé La famille Traoré a faim, mange, Africain naime pas les muffins Au-d'ssus, les Drouot sdéfoncent à la morphine Veulent en finir, croient le faire en finesse mais ça svoit comme un non-fumeur Le quatrième étage a brûlé Ces enculés de la Semino nont pas jugé bon d'changer d'cheminée Si tu veux piner et qu'tes pas mignon, va voir Ignès au cinquième Elle est ignoble mais, passé minuit, plein d''sky, ten as qui aiment David, au sixième, cest love story entre lui et ses chiennes Et sa PlayStation, normal, sa meuf est cheum Au septième, ça se déchaîne, Mamadou fait des siennes A la main dure sur sa femme encore un couple qui se décime Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ... Un-deux, un-deux, test micro, postillons d'antipop Textes de Pete Rock, jazzy, be-bop, pop, hip-hop Boycotteur de litotes, lyrics explicites à la Rick Ross On t'chicote, hé chica, c'était chicos Pose comme une avenue fun unity un mot Le rappeur pipelette sa devise, c'est cause toujours Les frangins, les frangins, les anciens, les anciens Et l'respect dans tout ça ? Mais on s'en pète les enceintes À digger, à sampler, archiver, à chopper H-I-P H-O-P comme chopper une H.I.V Un virus, une passion qui remplit l'espace son Des coulures de colère sur flancs d'métro et d'stations Expression d'la rue, quand le feu s'éteint pas Me dis pas qu'j'suis sympa, j'ai tous mes sens à l'affût Esclave de la cale qui s'enfuit de son étale Le hip-hop, c'est un caniveau qui vise les étoiles Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ... Ce nsont pas des grottes mais bel et bien des halls Bienvenue dans la zone à risques abritant les vestiges dune architecture dautochtones Laccent local est glauque dans lcoin, cest plutôt grec-frites Pour les matières premières, prière de se reporter au lexique Ici, le folklore déplore son côté hardcore Les colonnes de ses propres blocs sont gavées de trésors hors-normes Les légendes les plus étranges arpentent les sous-sols Où certains testaient leur coupole, les pucelles perdaient la boussole Cette bourgade nest autre quun havre de paix Le genre dart contemporain fait par de biens piètres architectes C'est dans ces HLM que nos familles élèvent leurs petits Prenez donc des clichés, je vous souhaite un bon appétit Oulalala Féfé, Leeroy, Gaël Faye tu peux pas tester Oulalala En direct sur Planète Rap, on vient tout péter Oulalala Lalalala lalalalala Si, si, ok ...</t>
+          <t>Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui Il n'y a rien d plus beau que de voir Ds joues mouillées par la joie Dans fou rire il y a fou la folie a du bon parfois Sortir de sa zone de confort, plus rien maitriser Etre heureux, c'est se sentir léger Au dessus des préjugés on vole Quand le ventre se contracte non pas par angoisse Mais parce que l'on rigole Allez-viens on se marre Les barres de rires enivrent Viens on se barre allons vivre là où les blagues défilent Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde tes larmes On m'avait dit ouais ravale-les ouais petit! J'ai chanté mes drames Maintenant je plane moi qui battait de l'aile à vrai dire J'ai chanté ma rage et mes cris Mon cur, mon espoir et mes tripes J'ai shooté le shérif, maîtrise mes rimes Mon art, mes coups, mes prises J'ai foulé de mes pas le monde Moi l'homme qui trouvait pas les mots Et j'danse, ouais j'danse coincé dans l'étau Enfonce-toi pleins d'souvenirs dans l'crâne Des lumières, des lueurs, des sourires Qu'on s'crame, qu'on s'brûle à la vie À la vue des soleils levants Ici-bas on louvoie à l'aveugle Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui...</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Garde tes larmes</t>
+          <t>Histoire d’amour</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui Il n'y a rien d plus beau que de voir Ds joues mouillées par la joie Dans fou rire il y a fou la folie a du bon parfois Sortir de sa zone de confort, plus rien maitriser Etre heureux, c'est se sentir léger Au dessus des préjugés on vole Quand le ventre se contracte non pas par angoisse Mais parce que l'on rigole Allez-viens on se marre Les barres de rires enivrent Viens on se barre allons vivre là où les blagues défilent Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde tes larmes On m'avait dit ouais ravale-les ouais petit! J'ai chanté mes drames Maintenant je plane moi qui battait de l'aile à vrai dire J'ai chanté ma rage et mes cris Mon cur, mon espoir et mes tripes J'ai shooté le shérif, maîtrise mes rimes Mon art, mes coups, mes prises J'ai foulé de mes pas le monde Moi l'homme qui trouvait pas les mots Et j'danse, ouais j'danse coincé dans l'étau Enfonce-toi pleins d'souvenirs dans l'crâne Des lumières, des lueurs, des sourires Qu'on s'crame, qu'on s'brûle à la vie À la vue des soleils levants Ici-bas on louvoie à l'aveugle Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Ce soir j'ai peur dans le noir Une lumière s'est éteinte Je m'accroche aux souvenirs Aux photos que le soleil va déteindre Je sais Tu ne comprends rien à la vie moi non plus à vrai dire Tu sais, garde tes larmes pour pleurer de rire Garde les... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui... Garde les! Garde tes larmes oui Garde les! Garde tes larmes oui...</t>
+          <t>Histoire d'amour Tu sais c'qu'on dit y a pas d'amour Y a que des preuves d'après le juge Toi t'existais depuis toujours Moi j'te cherchais comme une excuse Médicament sans ordonnance Evidemment t'es l'évidence Téléguidée par tes pouvoirs Auprès de toi chaque jour est victoire J'veux m'endormir à tes té-cô Eternité, coeur en dépôt Terrain miné sera notre histoire Oh, terminé de douter pour une fois Histoire d'amour Histoire d'amour Histoire d'amour Ooh Histoire d'amour Histoire d'amour Histoire d'amour Ooh J'ai trébuché, je suis tombé Tu m'as touché, j'ai succombé Obsolescence déprogrammée Je t'aime à la perpétuité Même si le monde est contre nous Je serai fort près contre toi J'me fous de la mort qui dénoue On s'dira oui comme autrefois Elles poucavent les étoiles entre elles Ont balancé c'que j'voulais te dire Toutes les belles choses que porte le ciel Ne font qu'imiter ton sourire Histoire d'amour Histoire d'amour Histoire d'amour Ooh Histoire d'amour Histoire d'amour Histoire d'amour Ooh Alléluia Ave Maria Femme-jardin ma malaria À toutes les saintes de Bahia Couleur café, parfum vanilla Ô mi Amor aux milles manies Vivre sans toi c'est mimer la vie C'est les pêchés, pire c'est l'hérésie Oh, c'est les loas loin d'Haïti Alléluia Ave Maria Femme-jardin ma malaria À toutes les saintes de Bahia Couleur café, parfum vanilla Ô mi Amor aux milles manies Vivre sans toi c'est mimer la vie C'est les pêchés, pire c'est l'hérésie Oh, c'est les loas loin d'Haïti C'est les loas loin d'Haïti Histoire d'amour</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Histoire d’amour</t>
+          <t>Hope Anthem</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Histoire d'amour Tu sais c'qu'on dit y a pas d'amour Y a que des preuves d'après le juge Toi t'existais depuis toujours Moi j'te cherchais comme une excuse Médicament sans ordonnance Evidemment t'es l'évidence Téléguidée par tes pouvoirs Auprès de toi chaque jour est victoire J'veux m'endormir à tes té-cô Eternité, coeur en dépôt Terrain miné sera notre histoire Oh, terminé de douter pour une fois Histoire d'amour Histoire d'amour Histoire d'amour Ooh Histoire d'amour Histoire d'amour Histoire d'amour Ooh J'ai trébuché, je suis tombé Tu m'as touché, j'ai succombé Obsolescence déprogrammée Je t'aime à la perpétuité Même si le monde est contre nous Je serai fort près contre toi J'me fous de la mort qui dénoue On s'dira oui comme autrefois Elles poucavent les étoiles entre elles Ont balancé c'que j'voulais te dire Toutes les belles choses que porte le ciel Ne font qu'imiter ton sourire Histoire d'amour Histoire d'amour Histoire d'amour Ooh Histoire d'amour Histoire d'amour Histoire d'amour Ooh Alléluia Ave Maria Femme-jardin ma malaria À toutes les saintes de Bahia Couleur café, parfum vanilla Ô mi Amor aux milles manies Vivre sans toi c'est mimer la vie C'est les pêchés, pire c'est l'hérésie Oh, c'est les loas loin d'Haïti Alléluia Ave Maria Femme-jardin ma malaria À toutes les saintes de Bahia Couleur café, parfum vanilla Ô mi Amor aux milles manies Vivre sans toi c'est mimer la vie C'est les pêchés, pire c'est l'hérésie Oh, c'est les loas loin d'Haïti C'est les loas loin d'Haïti Histoire d'amour</t>
+          <t>In the beginning, God created the heavens and earth You sang 7 notes, the big bang in your throat, framed in creation and proclaim that it's dope The word was God and the beginning when He spoke Through the quote of a quote, the quote of a quote You sang 7 notes, the big bang in your throat, framed and creation and proclaim that its dope The word was God and the beginning when He spoke Through the quote of a quote, the quote of the quote On the first day of creation, he created the light it's day 1 It all started with a formless void, until the Lord clapped His hands together, joy jumping outta the noise Heard the face of the deep water reflected His poise, while He hovered over silence, still selecting His choice Touch His hands to His eye just to ready His sight and let His voice rang out now let there be light And it was good, dark split apart quick fast leavin' thus He separated the morning from the evening Breathe in another gale force into His chest, called the light day, God almighty still described it best He called the dark night like only He could Yeah, 1 day down and He saw that it was good On the second day, he created the firmament And when the morning face came in and blow kisses to its ebony now mister and misses, this is a new birth Water was broken, yoke equally given to earth when His word was spoke, separation, expansion from land to sky Was now made in His perfect plan, so when we see the stars, a view from a collection of atmospheric sessions We recognize His blessings, it's not a simple thought, we brainstorm in clouds as He delivers every thunderous rain, it's all now I'm seeing, all of this shall work as it should Yeah, 2 days down and he found that it was good On the third day, He created the land, trees and the waters There was evening and morning, it came without warning, in perfect series the earth was dawnin', from one thought, everything One breath is all of breathing, words can't come close to the gifts You were leaving, in one hand, every mountain The other, all the seas, You thunder-clapped them together, flooded it with trees The rocks hug side by side and packed themselves in dirt and hold on for life to build the earth for what it's worth The seas stretched out fingers grasping for the rivers, the crops bow down to the sun so fruit that can deliver At first light the invention, earth and water has been glued 3 days down and He saw that it was good On the fourth day, He created the sun, moon and stars Diggin' deep, both hands in the sky's expansion, the shimmerin' glimmer deliver lights that's dancin' The flash and the crack, deep space looking desolate, the night He called it a day, ripped 'em until they're separate The light of the world with darkness to kill, marking days into years, before it, time stood still Sun for the measurement, moon like it's heaven sent, reason for the season and He made where the weather went The moon took over when the sun need a getaway, licked his palm, smudged the stars in the milky way Two lights govern, night and morning understood 4 days down and He said that it was good On the fifth day, He created the fishes of the mighty deep and the birds of the air Day 5, I watch as the waters explode with a swell, the breath of life blown across the sea floor shelves Every kind of sea creature from marlins to whales, from sharks to dolphins and manatees to snails God prevails in His timing and precision creating all species so I stay careful to listen Not a single one missin' 'cause I've counted 'em all and I look up to the sky 'cause I hear Him sounding the call With a rush I see airborn life in a winged form, He told them to be fruitful so new seeds could be born He spoke life with authority and all was understood 5 days down and He found that it was good On the sixth day, He created the animals and late that evening He made man in His own image and man became a living soul 4 rivers convened in the garden of Eden, all the brush needs tending and the soil needs seedin' Rain never left a cloud, this world reflects its infancy, the moisture from the ground manifested in its destiny One being of flesh to monitor the harvest, to name all the beasts, no job could be hardest, the Master said to do it It was no questions asked, he had respect for his Maker and his difficult task, fell into a deep sleep, awoken with help A beautiful creation built from inside of himself, the two became flesh as God said that it should 6 days down and He saw that it was good The artist is divine, reclined on the downs, the grass spilled a dewy hill that pillowed His crown He blew a cloud billow, r.e.m. sleeping so sound, stretched His legs across a winding river finding the ground Six days grinding down, finally surrounded Himself with the masterpiece of peaceful renown No equal found and He knew that it was perfect, so He set apart the seventh day for worship The cure fit to recharge the circuits, starving for their purpose, we're the many verses in this lullaby to earth It's slumbered in the thunder, heaven's under the hood 7 days down and He said that it was good You sang 7 notes, the big bang in Your throat, framed in creation the genesis of our hope The word was God in the beginning when He spoke Through the quote of a quote, the quote of a quote You sang 7 notes, the big bang in Your throat, framed in creation the genesis of all hope The word was God in the beginning when He spoke Through the quote of a quote, the quote of unquote</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hope Anthem</t>
+          <t>Jackie Jacky Jack</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>In the beginning, God created the heavens and earth You sang 7 notes, the big bang in your throat, framed in creation and proclaim that it's dope The word was God and the beginning when He spoke Through the quote of a quote, the quote of a quote You sang 7 notes, the big bang in your throat, framed and creation and proclaim that its dope The word was God and the beginning when He spoke Through the quote of a quote, the quote of the quote On the first day of creation, he created the light it's day 1 It all started with a formless void, until the Lord clapped His hands together, joy jumping outta the noise Heard the face of the deep water reflected His poise, while He hovered over silence, still selecting His choice Touch His hands to His eye just to ready His sight and let His voice rang out now let there be light And it was good, dark split apart quick fast leavin' thus He separated the morning from the evening Breathe in another gale force into His chest, called the light day, God almighty still described it best He called the dark night like only He could Yeah, 1 day down and He saw that it was good On the second day, he created the firmament And when the morning face came in and blow kisses to its ebony now mister and misses, this is a new birth Water was broken, yoke equally given to earth when His word was spoke, separation, expansion from land to sky Was now made in His perfect plan, so when we see the stars, a view from a collection of atmospheric sessions We recognize His blessings, it's not a simple thought, we brainstorm in clouds as He delivers every thunderous rain, it's all now I'm seeing, all of this shall work as it should Yeah, 2 days down and he found that it was good On the third day, He created the land, trees and the waters There was evening and morning, it came without warning, in perfect series the earth was dawnin', from one thought, everything One breath is all of breathing, words can't come close to the gifts You were leaving, in one hand, every mountain The other, all the seas, You thunder-clapped them together, flooded it with trees The rocks hug side by side and packed themselves in dirt and hold on for life to build the earth for what it's worth The seas stretched out fingers grasping for the rivers, the crops bow down to the sun so fruit that can deliver At first light the invention, earth and water has been glued 3 days down and He saw that it was good On the fourth day, He created the sun, moon and stars Diggin' deep, both hands in the sky's expansion, the shimmerin' glimmer deliver lights that's dancin' The flash and the crack, deep space looking desolate, the night He called it a day, ripped 'em until they're separate The light of the world with darkness to kill, marking days into years, before it, time stood still Sun for the measurement, moon like it's heaven sent, reason for the season and He made where the weather went The moon took over when the sun need a getaway, licked his palm, smudged the stars in the milky way Two lights govern, night and morning understood 4 days down and He said that it was good On the fifth day, He created the fishes of the mighty deep and the birds of the air Day 5, I watch as the waters explode with a swell, the breath of life blown across the sea floor shelves Every kind of sea creature from marlins to whales, from sharks to dolphins and manatees to snails God prevails in His timing and precision creating all species so I stay careful to listen Not a single one missin' 'cause I've counted 'em all and I look up to the sky 'cause I hear Him sounding the call With a rush I see airborn life in a winged form, He told them to be fruitful so new seeds could be born He spoke life with authority and all was understood 5 days down and He found that it was good On the sixth day, He created the animals and late that evening He made man in His own image and man became a living soul 4 rivers convened in the garden of Eden, all the brush needs tending and the soil needs seedin' Rain never left a cloud, this world reflects its infancy, the moisture from the ground manifested in its destiny One being of flesh to monitor the harvest, to name all the beasts, no job could be hardest, the Master said to do it It was no questions asked, he had respect for his Maker and his difficult task, fell into a deep sleep, awoken with help A beautiful creation built from inside of himself, the two became flesh as God said that it should 6 days down and He saw that it was good The artist is divine, reclined on the downs, the grass spilled a dewy hill that pillowed His crown He blew a cloud billow, r.e.m. sleeping so sound, stretched His legs across a winding river finding the ground Six days grinding down, finally surrounded Himself with the masterpiece of peaceful renown No equal found and He knew that it was perfect, so He set apart the seventh day for worship The cure fit to recharge the circuits, starving for their purpose, we're the many verses in this lullaby to earth It's slumbered in the thunder, heaven's under the hood 7 days down and He said that it was good You sang 7 notes, the big bang in Your throat, framed in creation the genesis of our hope The word was God in the beginning when He spoke Through the quote of a quote, the quote of a quote You sang 7 notes, the big bang in Your throat, framed in creation the genesis of all hope The word was God in the beginning when He spoke Through the quote of a quote, the quote of unquote</t>
+          <t>Entendez le tic-tac du pic du talon qui claque Laissant derrière soit un cadavre chaud dans des draps de soie La lune s'incline, une silhouette de femme s'éclipse Et les réverbères illuminent les pas de la fleur de lys Aucun indice dans cette chambre de rez-de-chaussée Si ce n'est un café brûlant sur la table de l'achevé La nuit s'enfonce un peu plus vers l'aube qui s'annonce Et demain sur les lieux du crime on cherchera des réponses Mais pour l'instant, l'assassine, hèle d'un signe Le premier taxi qui s'arrête, elle assise, il repart de suite Rétroviseur de sa pensée, aucun flash-back Ce serait méconnaître Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack L'inspecteur Harry Ndongala est chargé de l'enquête Bientôt des mois qu'il se tire le peu de cheveux lui restant sur la tête Ça fait ses crimes et six victimes, sans crier, sans hémoglobine Sacristie, il se dit qu'c'est digne d'un Agatha Christie Le mode opératoire, un café noir à boire, un motel ou un bar Peu importe pour l'instant, les preuves sont dérisoires C'est la gadji à la PJ, comme dans sa vie Alors il abuse du whisky et prend congé de son médecin légiste Une fois n'est pas coutume, ce soir il dîne en charmante compagnie D'une jolie brune rencontrée un soir de pluie Il ignore encore tout de celle qui met son cur en vrac Mais ce soir, Harry Ndongala rencontre Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack D'elle, il admire tout les gestes de ses mains Ou cette mouche au coin supérieur de sa bouche carmin Ses lèvres sont des brasiers qu'il rêverait d'embrasser Au fond de ce troquet coquet aux lumières tamisées Elle tient du bout des doigts un porte cigarette Il parle, elle le regarde mystérieuse et le temps s'arrête Subjugué, l'inspecteur en oublie son enquête Mais une intuition, un élément vient troubler la fête Il flanche, comprend ce qu'il vient d'avaler En reposant sur la nappe blanche, sa tasse de café Quand elle se lève, il tombe, arrêt cardiaque Lui aussi succombe à Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Jackie Jacky Jack</t>
+          <t>Jump In The Line</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Entendez le tic-tac du pic du talon qui claque Laissant derrière soit un cadavre chaud dans des draps de soie La lune s'incline, une silhouette de femme s'éclipse Et les réverbères illuminent les pas de la fleur de lys Aucun indice dans cette chambre de rez-de-chaussée Si ce n'est un café brûlant sur la table de l'achevé La nuit s'enfonce un peu plus vers l'aube qui s'annonce Et demain sur les lieux du crime on cherchera des réponses Mais pour l'instant, l'assassine, hèle d'un signe Le premier taxi qui s'arrête, elle assise, il repart de suite Rétroviseur de sa pensée, aucun flash-back Ce serait méconnaître Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack L'inspecteur Harry Ndongala est chargé de l'enquête Bientôt des mois qu'il se tire le peu de cheveux lui restant sur la tête Ça fait ses crimes et six victimes, sans crier, sans hémoglobine Sacristie, il se dit qu'c'est digne d'un Agatha Christie Le mode opératoire, un café noir à boire, un motel ou un bar Peu importe pour l'instant, les preuves sont dérisoires C'est la gadji à la PJ, comme dans sa vie Alors il abuse du whisky et prend congé de son médecin légiste Une fois n'est pas coutume, ce soir il dîne en charmante compagnie D'une jolie brune rencontrée un soir de pluie Il ignore encore tout de celle qui met son cur en vrac Mais ce soir, Harry Ndongala rencontre Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack D'elle, il admire tout les gestes de ses mains Ou cette mouche au coin supérieur de sa bouche carmin Ses lèvres sont des brasiers qu'il rêverait d'embrasser Au fond de ce troquet coquet aux lumières tamisées Elle tient du bout des doigts un porte cigarette Il parle, elle le regarde mystérieuse et le temps s'arrête Subjugué, l'inspecteur en oublie son enquête Mais une intuition, un élément vient troubler la fête Il flanche, comprend ce qu'il vient d'avaler En reposant sur la nappe blanche, sa tasse de café Quand elle se lève, il tombe, arrêt cardiaque Lui aussi succombe à Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack Personne ne connaît Jackie Jacky Jack Mais méfiez vous si vous rencontrez Jackie Jacky Jack Jackie Jacky Jack, Jackie Jacky Jack Tout le monde va aimer Jackie Jacky Jack</t>
+          <t>Shake Senora ... Senora, viens on saute sur la piste On se prouve que l'on vit, qu'on existe On résiste, bien qu'on doute, qu'on hésite On écoute les battements d'coeur, les signes Tant d'hélas , d' à quoi bon qu'on remplacera Par nos rêves qu'on embrassera Viens on danse sur ces mots doux Cette santeria, cette magie noire, ce vaudou Shake Senora ... J'ai chanté les hauts, j'ai chanté les bas Sans attendre la victoire Inventer des mondes, ré-enchanter l'aube Sans attendre le grand soir J'ai bravé tous les dangers Senora Toute cette beauté qu'on a fait c'est nos larmes Venant de l'au-delà, la musique est pour l'âme Des chants d'Alabama aux prières de Brahmanes J'avance, marche sur des lames, enjambe des coulées d'lave Le diable dans les parages frotte façon Kizumba Je vis dans mes chaos, je rembobine mes larmes, je reprends à zéro Je tire à rêves réels, la gâchette à mes lèvres Les mots fusent dans le ciel, se logent dans des comètes Shake Senora ... Jump in the line Rock you body in time De la mer brillante Caraïbe aux rives Tanganyika Combien de fois sommes-nous tombés ? et pourtant ... Nous venons de si loin que l'on s'étonne encore d'être là Juchés sur les épaules des géants ... Jump in the line Rock you body in time</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Jump In The Line</t>
+          <t>Kerozen</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Shake Senora ... Senora, viens on saute sur la piste On se prouve que l'on vit, qu'on existe On résiste, bien qu'on doute, qu'on hésite On écoute les battements d'coeur, les signes Tant d'hélas , d' à quoi bon qu'on remplacera Par nos rêves qu'on embrassera Viens on danse sur ces mots doux Cette santeria, cette magie noire, ce vaudou Shake Senora ... J'ai chanté les hauts, j'ai chanté les bas Sans attendre la victoire Inventer des mondes, ré-enchanter l'aube Sans attendre le grand soir J'ai bravé tous les dangers Senora Toute cette beauté qu'on a fait c'est nos larmes Venant de l'au-delà, la musique est pour l'âme Des chants d'Alabama aux prières de Brahmanes J'avance, marche sur des lames, enjambe des coulées d'lave Le diable dans les parages frotte façon Kizumba Je vis dans mes chaos, je rembobine mes larmes, je reprends à zéro Je tire à rêves réels, la gâchette à mes lèvres Les mots fusent dans le ciel, se logent dans des comètes Shake Senora ... Jump in the line Rock you body in time De la mer brillante Caraïbe aux rives Tanganyika Combien de fois sommes-nous tombés ? et pourtant ... Nous venons de si loin que l'on s'étonne encore d'être là Juchés sur les épaules des géants ... Jump in the line Rock you body in time</t>
+          <t>Ce soir c'est la pression Je vois le réel de trop près Les insignes des agents Au sol, nos silhouettes à la craie Jai beau fermer les yeux Je néchappe jamais du ciment Et au loin, le chant des sirènes Ne vient jamais de locéan Ici tout a un prix Même lorsquon se dit je taime On vit tous dans le gaz On fait des rêves kerozen Eh eh eh, eh eh, eh h Rêves kerozen Eh h eh, eh eh, eh eh Rêves kerozen Eh eh eh, eh eh, eh eh Rêves kerozen Eh eh eh, eh eh Mon cur est sous pression Jembrasse ton visage cagoulé Ton âme est une prison Tes yeux des vitres teintées Je regarde au fin fond Je ne vois rien dautre que mon reflet On marche ensemble sans se parler Des mots tranchants râpent le palais Je voudrais comprendre tes sanglots, tes soupirs, tes silences Avoir les sous-titres Je veux tenvoler loin dici, du ciment Au-delà des forêts de bâtiments Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Ton silence est dor et la route est sombre Lexistence mord comme un coup de tesson Je rêve, je dors, je vis sous pression La ville dehors est comme sous caisson Un croissant de lune séteint et sallume Donne moi lamour que je nai pas eu Et je toffrirai ce que tu nas jamais vu Un vaste horizon caché derrière le talus Je veux tenvoler Tinventer des contrées Temmener, tévader Au large, au large, au large Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kerozen</t>
+          <t>Kongo feat Gaël Faye</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ce soir c'est la pression Je vois le réel de trop près Les insignes des agents Au sol, nos silhouettes à la craie Jai beau fermer les yeux Je néchappe jamais du ciment Et au loin, le chant des sirènes Ne vient jamais de locéan Ici tout a un prix Même lorsquon se dit je taime On vit tous dans le gaz On fait des rêves kerozen Eh eh eh, eh eh, eh h Rêves kerozen Eh h eh, eh eh, eh eh Rêves kerozen Eh eh eh, eh eh, eh eh Rêves kerozen Eh eh eh, eh eh Mon cur est sous pression Jembrasse ton visage cagoulé Ton âme est une prison Tes yeux des vitres teintées Je regarde au fin fond Je ne vois rien dautre que mon reflet On marche ensemble sans se parler Des mots tranchants râpent le palais Je voudrais comprendre tes sanglots, tes soupirs, tes silences Avoir les sous-titres Je veux tenvoler loin dici, du ciment Au-delà des forêts de bâtiments Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Ton silence est dor et la route est sombre Lexistence mord comme un coup de tesson Je rêve, je dors, je vis sous pression La ville dehors est comme sous caisson Un croissant de lune séteint et sallume Donne moi lamour que je nai pas eu Et je toffrirai ce que tu nas jamais vu Un vaste horizon caché derrière le talus Je veux tenvoler Tinventer des contrées Temmener, tévader Au large, au large, au large Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles Je tinventerai des exils Des archipels fragiles</t>
+          <t>Je t'ai dans les os Un peu malgré moi L'appel est si fort Que je me perds un peu parfois Qui on est où l'on va ? Au moins je sais qu'un bout de mon âme demeure chez toi Kongo A l'image de ton fleuve Ton tumulte m'émeut Et arrache tous mes masques À nue je me jette à l'eau Quel rôle m'offres-tu ? Quel enfant suis-je pour toi ? Le sage ou le têtu ? Clui qui t'aime en tout cas, te l'ai-j dis, le sais-tu ? Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai danser Kongo Avec toi j'aimerai avancer vers des jours plus beaux Au pays mien Présent passé Le futur un sentier de Bohémiens Bout de toi, bout de ton âme Je suis Ta sueur et tes larmes j'essuie Enfant du fleuve des forêts et des villes Cupidon a dévoré nos vies J'ai lu chaque ligne de la lettre à Pauline Au fond de l'abîme, j'ai vu l'aurore opaline Avance Je trébuche, mais j'avance Vers des jours plus heureux Je danse des rwomba raturées aux guitares saturées Mégaphone à tue-tête pour chanter Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Je vais pas dévoiler les trésors de mon âme Ce secret qui n'en est plus un Ton cur qui bat au même rythme que le mien Oh non nous ne sommes pas séparés Congolaises, Congolais Honorons notre royaume de secrets Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Avec toi j'aimerai me lever Kongo Avec toi j'aimerai danser Kongo Avec toi j'aimerai avancer vers des jours plus beaux</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kongo feat Gaël Faye</t>
+          <t>Kwibuka</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Je t'ai dans les os Un peu malgré moi L'appel est si fort Que je me perds un peu parfois Qui on est où l'on va ? Au moins je sais qu'un bout de mon âme demeure chez toi Kongo A l'image de ton fleuve Ton tumulte m'émeut Et arrache tous mes masques À nue je me jette à l'eau Quel rôle m'offres-tu ? Quel enfant suis-je pour toi ? Le sage ou le têtu ? Clui qui t'aime en tout cas, te l'ai-j dis, le sais-tu ? Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai danser Kongo Avec toi j'aimerai avancer vers des jours plus beaux Au pays mien Présent passé Le futur un sentier de Bohémiens Bout de toi, bout de ton âme Je suis Ta sueur et tes larmes j'essuie Enfant du fleuve des forêts et des villes Cupidon a dévoré nos vies J'ai lu chaque ligne de la lettre à Pauline Au fond de l'abîme, j'ai vu l'aurore opaline Avance Je trébuche, mais j'avance Vers des jours plus heureux Je danse des rwomba raturées aux guitares saturées Mégaphone à tue-tête pour chanter Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Je vais pas dévoiler les trésors de mon âme Ce secret qui n'en est plus un Ton cur qui bat au même rythme que le mien Oh non nous ne sommes pas séparés Congolaises, Congolais Honorons notre royaume de secrets Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Kongo Kongo Kongo Avec toi j'aimerai me lever Kongo Avec toi j'aimerai la paix Avec toi j'aimerai me lever Kongo Avec toi j'aimerai danser Kongo Avec toi j'aimerai avancer vers des jours plus beaux</t>
+          <t>Au-dessus d'ces collines s'élève ma voix à jamais Ô mon petit pays, ô Rwanda bien-aimé Un million de gouttes d'eau qui tombent de terre en ciel Un million de nos tombes en trombes torrentielles De nos fosses profondes à nos points culminants Nous sommes debout maintenant les cheveux dans le vent À conjurer le sort qu'un désastre englouti À se dire qu'on est fort, qu'on vient de l'infini Je rêve de vous kwibuka I'm dreamin' of you kwibuka Je rêve de vous, chanson d'un soir d'ivoire Je rêve de vous, mes mots sont dérisoires Je rêve de vous quand l'Histoire nous égare Je rêve debout au jardin des mémoires Et vu que je renais déjà de nos abysses Je fais de nos sourires d'éternelles cicatrices Et j'arpente la vie sans jamais oublier Qu'un orage en avril, qu'un soleil en juillet Tuzahora tubashimira tubazirikana Tubibuka mubihe byiza twagiranye Tuzahora tubahesha agaciro Tubibuka n'ubupfura bubaranga Je rêve de vous kwibuka I'm dreamin' of you kwibuka Je rêve de vous Vous mes lumières invaincues Mon souvenir Mes silences nus Je rêve de vous Dissipe les ténèbres Je n'oublie pas Je m'habille de vos rêves</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kwibuka</t>
+          <t>La cause</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Au-dessus d'ces collines s'élève ma voix à jamais Ô mon petit pays, ô Rwanda bien-aimé Un million de gouttes d'eau qui tombent de terre en ciel Un million de nos tombes en trombes torrentielles De nos fosses profondes à nos points culminants Nous sommes debout maintenant les cheveux dans le vent À conjurer le sort qu'un désastre englouti À se dire qu'on est fort, qu'on vient de l'infini Je rêve de vous kwibuka I'm dreamin' of you kwibuka Je rêve de vous, chanson d'un soir d'ivoire Je rêve de vous, mes mots sont dérisoires Je rêve de vous quand l'Histoire nous égare Je rêve debout au jardin des mémoires Et vu que je renais déjà de nos abysses Je fais de nos sourires d'éternelles cicatrices Et j'arpente la vie sans jamais oublier Qu'un orage en avril, qu'un soleil en juillet Tuzahora tubashimira tubazirikana Tubibuka mubihe byiza twagiranye Tuzahora tubahesha agaciro Tubibuka n'ubupfura bubaranga Je rêve de vous kwibuka I'm dreamin' of you kwibuka Je rêve de vous Vous mes lumières invaincues Mon souvenir Mes silences nus Je rêve de vous Dissipe les ténèbres Je n'oublie pas Je m'habille de vos rêves</t>
+          <t>Grands corps malade Ils m'ont dit pourquoi tu parles pas de ça, pourquoi tu t'engages pas Tu vois bien qu'y a une urgence, pourquoi tu rentres pas dans le débat Alors c'est ça les artistes hein, ça fait genre ça se questionne Mais dès que faut prendre position ça y est y'a plus personne On m'appelle pour mettre mon nom sur des tas de pétitions On me force à mettre tout un tas de bonnes causes en compétition Et pourquoi aux élections t'as pas choisi ton candidat Vins pas t'plaindre quand tu verras dans quel mond ton fils grandira Ils m'ont dit mais t'es qui toi pour nous donner ton avis Vas-y casse nous pas les couilles arrête de raconter ta vie T'as vendu quelques albums, tu te sens fort et tu te sens chaud Et tu donnes ta petite opinion d'artiste bobo gaucho Allez, c'est ça commente-nous l'actu, fais ton p'tit son mensuel Sors-nous ta science sur quelques sujets pas trop consensuels On m'a dit laisse parler ceux qui savent, t'invente pas une utilité Je me perds dans toutes ces questions de légitimité Ben Mazué Je sais un peu l'amour je peux en parler j'ai vécu quelques trucs Je sais un peu les enfants Je sais un peu la mort je peux en parler J'ai vécu quelques trucs J'ai passé 10 ans A plus dormir à l'hôpital que dans ma maison Forcément je sais de quoi on parle quand c'est de la chanson Mais c'est tout ce que je sais C'est tout ce que je dirai C'est tout ce que je connais C'est tout ce que je connais Et dans tout ce que je fais J'essaie de taffer le sujet Y'a rien qui me plait moins Que celui qui se permet De parler de ce qu'il a sur-survolé Qui montre du doigt Qui condamne et qui sait Y'a les méchants là-bas Les gentils on les connaît Gaël Faye Aucune chanson ne transforme le monde J'suis un artiste, j'suis pas de l'ornement Alors même si j'vis pas sous les bombes J'peux dénoncer, m'indigner sincèrement Entre les vents froids de la banquise Et l'édredon de nos couardises Souvent j'hésite, me ravise Tourne sept fois ma langue Me méfie de ma propre bêtise Parler c'est prendre position Se taire c'est prendre position J'crois aux rêves pas aux révolutions J'veux des réponses donc j'fabrique des questions Qu'est-ce qu'on attend pour foutre le zbeul J'veux chanter, j'veux rapper, alerter, témoigner J'veux cracher des tempêtes, allumer des brasiers Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Extraits d'interviews Moi j'aurai pas l'temps, je l'sais déjà qu'j'ai pas l'temps, j'ai juste le temps de me mettre en colère J'me suis pas dit un jour Tiens j'vais faire des chansons engagées Alors quand on vient m'parler de chansons engagées à l'heure actuelle Lengagement en scène c'est pas du martyre hein faut pas exagérer J'vais vous dire le terme engagé m'a toujours embêté Y'a trente ans jamais on n'aurait imaginé que des musiciens aient autant la parole et se mêlent autant de politique Quand j'aurai le temps une minute de m'énerver J'ai écrit des chansons sur ce que j'avais envie de dire</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>La cause</t>
+          <t>L’âge diluvien</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Grands corps malade Ils m'ont dit pourquoi tu parles pas de ça, pourquoi tu t'engages pas Tu vois bien qu'y a une urgence, pourquoi tu rentres pas dans le débat Alors c'est ça les artistes hein, ça fait genre ça se questionne Mais dès que faut prendre position ça y est y'a plus personne On m'appelle pour mettre mon nom sur des tas de pétitions On me force à mettre tout un tas de bonnes causes en compétition Et pourquoi aux élections t'as pas choisi ton candidat Vins pas t'plaindre quand tu verras dans quel mond ton fils grandira Ils m'ont dit mais t'es qui toi pour nous donner ton avis Vas-y casse nous pas les couilles arrête de raconter ta vie T'as vendu quelques albums, tu te sens fort et tu te sens chaud Et tu donnes ta petite opinion d'artiste bobo gaucho Allez, c'est ça commente-nous l'actu, fais ton p'tit son mensuel Sors-nous ta science sur quelques sujets pas trop consensuels On m'a dit laisse parler ceux qui savent, t'invente pas une utilité Je me perds dans toutes ces questions de légitimité Ben Mazué Je sais un peu l'amour je peux en parler j'ai vécu quelques trucs Je sais un peu les enfants Je sais un peu la mort je peux en parler J'ai vécu quelques trucs J'ai passé 10 ans A plus dormir à l'hôpital que dans ma maison Forcément je sais de quoi on parle quand c'est de la chanson Mais c'est tout ce que je sais C'est tout ce que je dirai C'est tout ce que je connais C'est tout ce que je connais Et dans tout ce que je fais J'essaie de taffer le sujet Y'a rien qui me plait moins Que celui qui se permet De parler de ce qu'il a sur-survolé Qui montre du doigt Qui condamne et qui sait Y'a les méchants là-bas Les gentils on les connaît Gaël Faye Aucune chanson ne transforme le monde J'suis un artiste, j'suis pas de l'ornement Alors même si j'vis pas sous les bombes J'peux dénoncer, m'indigner sincèrement Entre les vents froids de la banquise Et l'édredon de nos couardises Souvent j'hésite, me ravise Tourne sept fois ma langue Me méfie de ma propre bêtise Parler c'est prendre position Se taire c'est prendre position J'crois aux rêves pas aux révolutions J'veux des réponses donc j'fabrique des questions Qu'est-ce qu'on attend pour foutre le zbeul J'veux chanter, j'veux rapper, alerter, témoigner J'veux cracher des tempêtes, allumer des brasiers Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Je pense donc je suis, je danse donc je crie Je chante donc je fuis, j'invente donc j'appuie Extraits d'interviews Moi j'aurai pas l'temps, je l'sais déjà qu'j'ai pas l'temps, j'ai juste le temps de me mettre en colère J'me suis pas dit un jour Tiens j'vais faire des chansons engagées Alors quand on vient m'parler de chansons engagées à l'heure actuelle Lengagement en scène c'est pas du martyre hein faut pas exagérer J'vais vous dire le terme engagé m'a toujours embêté Y'a trente ans jamais on n'aurait imaginé que des musiciens aient autant la parole et se mêlent autant de politique Quand j'aurai le temps une minute de m'énerver J'ai écrit des chansons sur ce que j'avais envie de dire</t>
+          <t>Burundi, Bujumbura Un cimetière sest formé entre NACO et moustiquaire La névralgie du robinet cest le bruit de ma rivière Le vent danse dans les rideaux, le grelot de la tringle Dehors grésille la radio de quelques voix que je distingue Des oiseaux dans la volière, le perroquet fait du boucan Si le frigo ne bourdonne guère cest quil y a coupure de courant Rayon de soleil en suspension, filaments de poussières dans lair Qui traversent le salon pour zébrer dombre et de lumière À lheure de la sieste japprivoise le silence Petit Prince dennui modeste entre mouton et somnolence Dans la vieille maison de briques, de la Belgique sous les tropiques À lheure des choses statiques jinvente, je me fabrique Petit garçon, genoux cagneux, il fait trop chaud sous mes cheveux Nos jeux sont souvent poussiéreux sous un soleil de plomb teigneux Les excursions chevaleresques, les fous rires, les pactes de sang Copain ça compte, copain ça reste, copain cest dabord un mot denfant Dans le ventre de la maison, les adultes en digestion Et moi coincé dans mes questions, prisonnier dune toile au plafond Capharnaüm de la déco, les masques, les trophées, les geckos Je joue au GI Joe dans le crâne dun hippo À lintérieur il fait frais, le carrelage une mosaïque Sur lequel mes voitures jouets dessinent des routes périphériques Torpeur daprès-midi sous un ciel bleu paradis Parade levée dans le taillis, 14 Juillet chez les fourmis Dans mon jardin dEden ya des serpents à tous les angles Et faute de pomme Golden je trahis Dieu avec des mangues Toute lannée dans mon jardin je vis à ciel ouvert Sous le ficus je suis un nain, arbre temple, arbre univers La citronnelle borde la rigole entourant la maison La pluie sabstient ou dégringole, les pizzas nont que deux saisons Mais quand les trombes sabattent, elles tambourinent le toit de tôle Les bananiers deviennent frégates et leau cascade sur mes épaules Une planche à voile sur le toit dun combi Volkswagen Des photos jaunies, le petit chien sappelle Amstel Pas de 4 heures, pas de goûter, pas de pâte à tartiner Pas de chaîne, pas de télé, ya que laquarium à regarder Pas de parfum que lon humecte, jécris des lettres à une maman À une absence, apprendre à faire avec cétait apprendre à faire sans Cétait ma vie, cétait la vie, cétait le train-train quotidien Cétait lennui de lâge diluvien. Gaël Picaflore FayeFrance, Puteaux Des meubles gribouillés rabougris par lencombre Deux lits superposés pleins de sacs qui font nombre De mexiguïter, le manque dair métrangle Après-midi dété dune chambre sans angle Camarde tite mort, jembarque ta galère Nayant personne à bord je minvente un faux frère On joue avec nos doigts parfois avec des Bic On joue à Cantona jusquà Omam-Biyik Mais une envie pressée me prend, et me transpire Dun match à reporter, au trône que je cire Je men vais aux oublis, jai un canard à lire Et Picsou des latrines va rentrer anobli Au silence, en chahut, je jette des prières Je lance mes obus comme on lance des pierres Ça lui fait des beaux bleus Jésus Marie Joseph Les soupirs de lodieux ont beaucoup de reliefs Plus aucun chuchotis quand Billie Jean larsen Avec mon walkman gris je me rêve sur scène Play stop et rembobine à mes pieds qui sactionnent Un bout de miroir filme appelez-moi Jackson Ballet démesuré pour ma poche gruyère Poche à trous serrurier où quelques francs sinsèrent Je ramasse monnaie je maccroupis par terre Puis, de mes mains balais, la fais vriller en lair Des rires familiaux coupent ma jonglerie Ils ont un tel écho quils percent murs maigris Ils tombent du salon et je cherche parfois À retrouver le nom de ceux qui les envoient Je vois les traits grenat dun tracé pointillé Le temps navance pas, ses chiffres ont rouillé Le digital cadran, je le connais par cur Quatre 8 bien en grand ny peuvent donner lheure Se déposant tout près, mouche dune minute Je naurai quun essai, concentré je la scrute, Jattends le top-départ, mains dans le starting-block Et dun coup je la chope, elle ne fait pas décart Au ras des matelas je plonge dans labsence Je saute et mets à plat mes vagues dinnocence Me baigne à mépuiser de tout ce qui me vient De lennui à noyer dans lâge diluvien. Suga le Sucre moisi</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>L’âge diluvien</t>
+          <t>La vague</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Burundi, Bujumbura Un cimetière sest formé entre NACO et moustiquaire La névralgie du robinet cest le bruit de ma rivière Le vent danse dans les rideaux, le grelot de la tringle Dehors grésille la radio de quelques voix que je distingue Des oiseaux dans la volière, le perroquet fait du boucan Si le frigo ne bourdonne guère cest quil y a coupure de courant Rayon de soleil en suspension, filaments de poussières dans lair Qui traversent le salon pour zébrer dombre et de lumière À lheure de la sieste japprivoise le silence Petit Prince dennui modeste entre mouton et somnolence Dans la vieille maison de briques, de la Belgique sous les tropiques À lheure des choses statiques jinvente, je me fabrique Petit garçon, genoux cagneux, il fait trop chaud sous mes cheveux Nos jeux sont souvent poussiéreux sous un soleil de plomb teigneux Les excursions chevaleresques, les fous rires, les pactes de sang Copain ça compte, copain ça reste, copain cest dabord un mot denfant Dans le ventre de la maison, les adultes en digestion Et moi coincé dans mes questions, prisonnier dune toile au plafond Capharnaüm de la déco, les masques, les trophées, les geckos Je joue au GI Joe dans le crâne dun hippo À lintérieur il fait frais, le carrelage une mosaïque Sur lequel mes voitures jouets dessinent des routes périphériques Torpeur daprès-midi sous un ciel bleu paradis Parade levée dans le taillis, 14 Juillet chez les fourmis Dans mon jardin dEden ya des serpents à tous les angles Et faute de pomme Golden je trahis Dieu avec des mangues Toute lannée dans mon jardin je vis à ciel ouvert Sous le ficus je suis un nain, arbre temple, arbre univers La citronnelle borde la rigole entourant la maison La pluie sabstient ou dégringole, les pizzas nont que deux saisons Mais quand les trombes sabattent, elles tambourinent le toit de tôle Les bananiers deviennent frégates et leau cascade sur mes épaules Une planche à voile sur le toit dun combi Volkswagen Des photos jaunies, le petit chien sappelle Amstel Pas de 4 heures, pas de goûter, pas de pâte à tartiner Pas de chaîne, pas de télé, ya que laquarium à regarder Pas de parfum que lon humecte, jécris des lettres à une maman À une absence, apprendre à faire avec cétait apprendre à faire sans Cétait ma vie, cétait la vie, cétait le train-train quotidien Cétait lennui de lâge diluvien. Gaël Picaflore FayeFrance, Puteaux Des meubles gribouillés rabougris par lencombre Deux lits superposés pleins de sacs qui font nombre De mexiguïter, le manque dair métrangle Après-midi dété dune chambre sans angle Camarde tite mort, jembarque ta galère Nayant personne à bord je minvente un faux frère On joue avec nos doigts parfois avec des Bic On joue à Cantona jusquà Omam-Biyik Mais une envie pressée me prend, et me transpire Dun match à reporter, au trône que je cire Je men vais aux oublis, jai un canard à lire Et Picsou des latrines va rentrer anobli Au silence, en chahut, je jette des prières Je lance mes obus comme on lance des pierres Ça lui fait des beaux bleus Jésus Marie Joseph Les soupirs de lodieux ont beaucoup de reliefs Plus aucun chuchotis quand Billie Jean larsen Avec mon walkman gris je me rêve sur scène Play stop et rembobine à mes pieds qui sactionnent Un bout de miroir filme appelez-moi Jackson Ballet démesuré pour ma poche gruyère Poche à trous serrurier où quelques francs sinsèrent Je ramasse monnaie je maccroupis par terre Puis, de mes mains balais, la fais vriller en lair Des rires familiaux coupent ma jonglerie Ils ont un tel écho quils percent murs maigris Ils tombent du salon et je cherche parfois À retrouver le nom de ceux qui les envoient Je vois les traits grenat dun tracé pointillé Le temps navance pas, ses chiffres ont rouillé Le digital cadran, je le connais par cur Quatre 8 bien en grand ny peuvent donner lheure Se déposant tout près, mouche dune minute Je naurai quun essai, concentré je la scrute, Jattends le top-départ, mains dans le starting-block Et dun coup je la chope, elle ne fait pas décart Au ras des matelas je plonge dans labsence Je saute et mets à plat mes vagues dinnocence Me baigne à mépuiser de tout ce qui me vient De lennui à noyer dans lâge diluvien. Suga le Sucre moisi</t>
+          <t>Donc on avait parlé une fois des vagues. L'idée que, si t'apprends pas à nager, tu t'prends les vagues dans la gueule. quelques fois t'es emporté, quelques fois t'as la tête sous l'eau. Tu bois la tasse, tu vas t'noyer, vraiment en crever. Dire que l'instant ça suffit pas, parce que l'instant, c'est la vague dans la gueule. En revanche, composer avec la vague, apprendre à nager, ou à surfer. Ça, ça demande une durée J'attends qu'j'm'arrache en m'harnachant Sur l'dos d'une beauté monstrueuse J'attends la vague comme Kardashian Attend la première page de vogue Des flocons d'écume de silence, avalanche d'un mont enneigé Qui replonge dans le silence et rend ce monde plus léger J'attends d'arracher de la vague Un peu d'sa chaire au creux des mains Afin d'rafraîchir mon pelage brûlant, de taureau d'airain J'plonge un couteau entre les dents Dans la vague graver mes initiales Et affronter dans l'ouragan Tout mon traumatisme initial J'rap pour toutes les petites bottes Que le juge plonge dans la trempette On reconnait les bons pilotes que lorsqu'ils affrontent la tempête Et j'ignore encore si la vague s'ra renaissance ou bien suicide Quand elle me crachera sur la plage de par ses ténèbres liquides J'lève pas le pouce, mais le majeur En dédicace aux douanes volantes Car je suis devenu nageur Qu'au milieu de ses eaux violentes Ne viens pas si t'es trop âgé Pour affronter la médusa On pèche des enfants naufragés Sur les plages de Lampedusa De Mayotte ou de Djerba Du Pas-De-Calais ou de Turquie Chaque jour ma souffrance est sans fin Pour le petit Alan Kurdi Je veux vous fuir, vous ma douleur Vous les humains qui m'écorchez J'essaie d'retrouver des couleurs Au fond d'une machine à laver J'attends la vague J'attends la vague J'attends la vague J'attends la vague J'attends la vague Qu'elle m'emporte au large Loin à la dérive Loin à la dérive Au delà des marges Qu'elle me déporte sur un nuage de coton Loin des champs de cana, de Paname et du béton Je flotterai sous l'écume Dans ces rouleaux d'océan Ni ancre, ni enclume Je serai homme de plein vent Sous l'effet de la lune Ballotté par les marées Elle m'emmènera loin comme des fumées envolées Mais, fond d'un abysse, j'ai vu leur monde Ce qu'ils battissent sur nos décombres Cap d'un navire, nos vieux démons Mon coeur s'épuise et coule au fond Peuple sans nom, cimetière de l'ombre Un désert vide peuple et déco Mais je remonte, je me déploie Cherche la lumière, puis la reçoit Grise est la vie, rose est le rêve Briser la vitre, bosser le verbe Gifler l'abîme, oser le faire Risque la lutte, croiser le fer Chemin de vie, j'arpente Les nerfs à vif, à cran Quand c'est la merde, j'apprends Où est la vague, j'attends Profiter du présent, bien sûr Mais l'idée c'est quand même d'avoir une affirmation ou une volonté Une recherche de sens, pur Parce que si tu veux comprendre le sens de la série des accidents Et si tu veux être préparé, essayer de, ouais, de se composer avec les accidents Parce que la volonté ou le désire, la voilà la lutte Ça se trouve on compose avec les accidents Tu prends part? Sinon à chaque seconde tu prends dans la gueule tu comprends pas T'y arrives pas On est du continu dans tous ces trucs discontinus qui nous arrivent dans la gueule Et c'est ça l'identité, elle est pas donnée au départ l'identité</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>La vague</t>
+          <t>L’ennui des après-midi sans fin</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Donc on avait parlé une fois des vagues. L'idée que, si t'apprends pas à nager, tu t'prends les vagues dans la gueule. quelques fois t'es emporté, quelques fois t'as la tête sous l'eau. Tu bois la tasse, tu vas t'noyer, vraiment en crever. Dire que l'instant ça suffit pas, parce que l'instant, c'est la vague dans la gueule. En revanche, composer avec la vague, apprendre à nager, ou à surfer. Ça, ça demande une durée J'attends qu'j'm'arrache en m'harnachant Sur l'dos d'une beauté monstrueuse J'attends la vague comme Kardashian Attend la première page de vogue Des flocons d'écume de silence, avalanche d'un mont enneigé Qui replonge dans le silence et rend ce monde plus léger J'attends d'arracher de la vague Un peu d'sa chaire au creux des mains Afin d'rafraîchir mon pelage brûlant, de taureau d'airain J'plonge un couteau entre les dents Dans la vague graver mes initiales Et affronter dans l'ouragan Tout mon traumatisme initial J'rap pour toutes les petites bottes Que le juge plonge dans la trempette On reconnait les bons pilotes que lorsqu'ils affrontent la tempête Et j'ignore encore si la vague s'ra renaissance ou bien suicide Quand elle me crachera sur la plage de par ses ténèbres liquides J'lève pas le pouce, mais le majeur En dédicace aux douanes volantes Car je suis devenu nageur Qu'au milieu de ses eaux violentes Ne viens pas si t'es trop âgé Pour affronter la médusa On pèche des enfants naufragés Sur les plages de Lampedusa De Mayotte ou de Djerba Du Pas-De-Calais ou de Turquie Chaque jour ma souffrance est sans fin Pour le petit Alan Kurdi Je veux vous fuir, vous ma douleur Vous les humains qui m'écorchez J'essaie d'retrouver des couleurs Au fond d'une machine à laver J'attends la vague J'attends la vague J'attends la vague J'attends la vague J'attends la vague Qu'elle m'emporte au large Loin à la dérive Loin à la dérive Au delà des marges Qu'elle me déporte sur un nuage de coton Loin des champs de cana, de Paname et du béton Je flotterai sous l'écume Dans ces rouleaux d'océan Ni ancre, ni enclume Je serai homme de plein vent Sous l'effet de la lune Ballotté par les marées Elle m'emmènera loin comme des fumées envolées Mais, fond d'un abysse, j'ai vu leur monde Ce qu'ils battissent sur nos décombres Cap d'un navire, nos vieux démons Mon coeur s'épuise et coule au fond Peuple sans nom, cimetière de l'ombre Un désert vide peuple et déco Mais je remonte, je me déploie Cherche la lumière, puis la reçoit Grise est la vie, rose est le rêve Briser la vitre, bosser le verbe Gifler l'abîme, oser le faire Risque la lutte, croiser le fer Chemin de vie, j'arpente Les nerfs à vif, à cran Quand c'est la merde, j'apprends Où est la vague, j'attends Profiter du présent, bien sûr Mais l'idée c'est quand même d'avoir une affirmation ou une volonté Une recherche de sens, pur Parce que si tu veux comprendre le sens de la série des accidents Et si tu veux être préparé, essayer de, ouais, de se composer avec les accidents Parce que la volonté ou le désire, la voilà la lutte Ça se trouve on compose avec les accidents Tu prends part? Sinon à chaque seconde tu prends dans la gueule tu comprends pas T'y arrives pas On est du continu dans tous ces trucs discontinus qui nous arrivent dans la gueule Et c'est ça l'identité, elle est pas donnée au départ l'identité</t>
+          <t>Un cimetière sest formé entre NACO et moustiquaire La névralgie du robinet cest le bruit de ma rivière Le vent danse dans les rideaux, le grelot de la tringle Dehors grésille la radio de quelques voix que je distingue Des oiseaux dans la volière, le kasuku fait du boucan Si le frigo ne bourdonne guère cest quil y a coupure de courant Rayon de soleil en suspension, filaments de poussière dans lair Qui traversent le salon pour zébrer dombre et de lumière A lheure de la sieste, japprivoise le silence Petit Prince dennui modeste entre mouton et somnolence Dans la vieille maison de briques, de la Belgique sous les tropiques A lheure des choses statiques jinvente, je me fabrique Petit garçon, genoux cagneux, il fait trop chaud sous mes cheveux Nos jeux sont souvent poussiéreux sous un soleil de plomb teigneux Les excursions chevaleresques, les fous rires, les pactes de sang Copain ça compte, copain ça reste, copain cest dabord un mot denfant Dans le ventre de la maison, les adultes en digestion Et moi coincé dans mes questions, prisonnier dune toile au plafond Capharnaüm de la déco, les masques, les trophées, les geckos Je joue au GI Joe dans le crâne dun hippo A lintérieur il fait frais, le carrelage une mosaïque Sur lequel mes voitures jouets dessinent des routes périphériques Torpeur daprès-midi sous un ciel bleu paradis Parade levée dans le taillis, 14 Juillet chez les fourmis Dans mon jardin dEden ya des serpents à tous les angles Et faute de pomme Golden, je trahis Dieu avec des mangues Toute lannée dans mon jardin je vis à ciel ouvert Sous le Ficus je suis un nain, arbre temple, arbre univers La citronnelle borde la rigole entourant la maison La pluie sabstient ou dégringole, les pizzas nont que deux saisons Mais quand les trombes sabattent, elles tambourinent le toit de tôle Les bananiers deviennent frégates et leau cascade sur mes épaules Une planche à voile sur le toit dun combi Volkswagen Des photos jaunies, le petit chien sappelle Amstel Pas de 4 heures, pas de goûter, pas de pâte à tartiner Pas de chaîne, pas de télé, ya que laquarium à regarder Pas de parfum que lon humecte, jécris des lettres à une maman A une absence, apprendre à faire avec , cétait apprendre à faire sans Cétait ma vie, cétait la vie, cétait le train-train quotidien Cétait lennui des après-midi sans fin</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>L’ennui des après-midi sans fin</t>
+          <t>Le silence des mots</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Un cimetière sest formé entre NACO et moustiquaire La névralgie du robinet cest le bruit de ma rivière Le vent danse dans les rideaux, le grelot de la tringle Dehors grésille la radio de quelques voix que je distingue Des oiseaux dans la volière, le kasuku fait du boucan Si le frigo ne bourdonne guère cest quil y a coupure de courant Rayon de soleil en suspension, filaments de poussière dans lair Qui traversent le salon pour zébrer dombre et de lumière A lheure de la sieste, japprivoise le silence Petit Prince dennui modeste entre mouton et somnolence Dans la vieille maison de briques, de la Belgique sous les tropiques A lheure des choses statiques jinvente, je me fabrique Petit garçon, genoux cagneux, il fait trop chaud sous mes cheveux Nos jeux sont souvent poussiéreux sous un soleil de plomb teigneux Les excursions chevaleresques, les fous rires, les pactes de sang Copain ça compte, copain ça reste, copain cest dabord un mot denfant Dans le ventre de la maison, les adultes en digestion Et moi coincé dans mes questions, prisonnier dune toile au plafond Capharnaüm de la déco, les masques, les trophées, les geckos Je joue au GI Joe dans le crâne dun hippo A lintérieur il fait frais, le carrelage une mosaïque Sur lequel mes voitures jouets dessinent des routes périphériques Torpeur daprès-midi sous un ciel bleu paradis Parade levée dans le taillis, 14 Juillet chez les fourmis Dans mon jardin dEden ya des serpents à tous les angles Et faute de pomme Golden, je trahis Dieu avec des mangues Toute lannée dans mon jardin je vis à ciel ouvert Sous le Ficus je suis un nain, arbre temple, arbre univers La citronnelle borde la rigole entourant la maison La pluie sabstient ou dégringole, les pizzas nont que deux saisons Mais quand les trombes sabattent, elles tambourinent le toit de tôle Les bananiers deviennent frégates et leau cascade sur mes épaules Une planche à voile sur le toit dun combi Volkswagen Des photos jaunies, le petit chien sappelle Amstel Pas de 4 heures, pas de goûter, pas de pâte à tartiner Pas de chaîne, pas de télé, ya que laquarium à regarder Pas de parfum que lon humecte, jécris des lettres à une maman A une absence, apprendre à faire avec , cétait apprendre à faire sans Cétait ma vie, cétait la vie, cétait le train-train quotidien Cétait lennui des après-midi sans fin</t>
+          <t>Bâillonner les poèmes On n'écrit pas La mort affreuse La violence inouïe La spirale du feu Le déluge d'acier Les vents mauvais Les canines limées du diable Et les ricanements de Dieu Bâillonner les poèmes On n'écrit pas Les enfants en charpie Les bébés pilés au mortier Les pieux enfoncés dans les femmes Les vieillards écartelés Les gesticulations des agonisants Les crépitements des flammes sur la peau Les chairs labourées au gourdin Les tendons sectionnés à la machette Les fosses débordant d'un limon de sang et de boue Les orbites évidées Les bras sans les mains Les pieds sans les jambes Les têtes sans les corps Le monde sans la raison Bâillonner les poèmes On n'écrit pas Les momies saupoudrées de chaux Les ossements empilés Les fagots de fémurs Les copeaux de crânes Les pierres tombales invisibles Les gerbes de fleurs inutiles La solitude des survivants Leurs curs en lambeaux Emmurmurés dans des cauchemars impossibles à guérir Bâillonner les poèmes Ceux qui se regardent écrire Avec leurs effets de manche Leurs figures de style Leurs rimes plates Leurs césures Leur lyrisme Et leurs pieds à compter du bout des doigts Bâillonnez les poèmes ! Qu'ils se taisent Qu'ils se taisent Qu'ils se taisent Afin qu'il ne reste qu'un silence de mots</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Le silence des mots</t>
+          <t>Let’s go to work</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bâillonner les poèmes On n'écrit pas La mort affreuse La violence inouïe La spirale du feu Le déluge d'acier Les vents mauvais Les canines limées du diable Et les ricanements de Dieu Bâillonner les poèmes On n'écrit pas Les enfants en charpie Les bébés pilés au mortier Les pieux enfoncés dans les femmes Les vieillards écartelés Les gesticulations des agonisants Les crépitements des flammes sur la peau Les chairs labourées au gourdin Les tendons sectionnés à la machette Les fosses débordant d'un limon de sang et de boue Les orbites évidées Les bras sans les mains Les pieds sans les jambes Les têtes sans les corps Le monde sans la raison Bâillonner les poèmes On n'écrit pas Les momies saupoudrées de chaux Les ossements empilés Les fagots de fémurs Les copeaux de crânes Les pierres tombales invisibles Les gerbes de fleurs inutiles La solitude des survivants Leurs curs en lambeaux Emmurmurés dans des cauchemars impossibles à guérir Bâillonner les poèmes Ceux qui se regardent écrire Avec leurs effets de manche Leurs figures de style Leurs rimes plates Leurs césures Leur lyrisme Et leurs pieds à compter du bout des doigts Bâillonnez les poèmes ! Qu'ils se taisent Qu'ils se taisent Qu'ils se taisent Afin qu'il ne reste qu'un silence de mots</t>
+          <t>Au boulot MC agrégé de flow, diplômé de style Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot au goulot Au goulot au goulot Qu'ce soit au pôle Nord ou au pôle Sud Ou au Pôle Emploi, t'es au bon endroit Parait qu'le boulanger, Paul emploie Donc va gagner ton pain, ton RSA Les miettes font la baguette Pas sûr que quand tu y seras, p-p-pépère tu kifferas ta retraite Le travail, c'est la Santé ou bien Fleury-Mérogis Pour tous les banquiers qui s'prennent pour des numéros dix Puis ça licncie à tours de bras dans les ntreprises Et la France en bas se retrouve let's go to work les deux doigts dans la crise Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot let's go to work J'vais pas vous faire un tableau C'est la crise de bas en haut La société est en sanglots let's go to work Faut y aller au culot On passe du rire au trémolo Donc sortons vite de nos enclos let's go to work Y'a de l'espoir dans mon stylo Il faisait noir dans mon silo Aujourd'hui le printemps éclot Ce monde est bancal Une minorité domine tous les autres On trouve ça normal Que le gramme l'emporte sur le kilo Quand ça spécule à Londres, on licencie À pronto compo, de l'effet papillon, on passe à l'effet domino Toi, société, mon train, wagon J'étais ton cheminot, et tu m'as pris pour un con Tu m'as plumé comme un bobinot Dix ans de loyauté, de bon boulot derrière un bureau Moi, l'bon blaireau qu'on envoie valser comme un boléro T'as voulu que j'me barre, baisse le volume que je te parle On évolue puis l'on s'égare Sous des volutes de cigare Café moulu que je prépare Du lait, du sucre, comme un nectar Il a fallu qu'on se sépare Sous l'clair de lune d'un quai de gare Pour que j'allume enfin mes phares Que j'te salue et que j'reparte Loin des talus qui font rempart Qui gène la vue et le regard Toi que j'ai lu, papier buvard Toi mon élu, mon étendard Tu m'a exclu tel un clochard On l'aura mal lu ton revanchard let's go to work Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot let's go to work J'vais pas vous faire un tableau C'est la crise de bas en haut La société est en sanglots let's go to work Faut y aller au culot On passe du rire au trémolo Donc sortons vite de nos enclos let's go to work Y'a de l'espoir dans mon stylo Il faisait noir dans mon silo Aujourd'hui le printemps éclot Oh Spring's eternal, from the lover's kiss Though, we are far away from paradise Life is short, we cannot die Une barre de barbare, le flot de bâbord à tribord Le papier par bacs, le BIC est carnivore J'ai le vacarme de la musique pour me reposer On m'avait dit faut prendre des risques Je n'ai jamais osé, je n'ai pas pu avancer Parce que j'avais les jambes arquées J'étais coincé comme la monnaie dans les rainures de mon parquet Je ne regarde pas les journaux, je ne lis pas la télé Je vis loin du troupeau à qui l'on apprend à bêler Le soleil se lève et je ferme les volets Et j'écris, j'écris ma descente vers les sommets Toute la journée, je suis coincé entre une chaise et bureau Le stylo BIC est une épée que je sors de son fourreau Que vais-je bien pouvoir dire à cette feuille blanche qui veut que je la souille ? Que je suis flic, qu'elle est suspect, qu'il faut que je la fouille Les mains sur le capot, ça va tourner à la bavure Il n'est question que de violences, quand on en vient à l'écriture J'repars au boulot, au casse-pipe, au charbon Pour cracher ma silicose dans mon cornet à piston J'voulais mourir jeune au fond, pour pas devenir vieux et con Mais le comble, je m'en rends compte, c'est que je vais mourir jeune et con Alors, j'ai déserté les perspectives d'un monde balisé Pour devenir le cliché du rappeur emmerdant l'Élysée Le cliché de ce poète chantant les printemps éternels Les utopies, le paradis, le monde fraternel Oh, spring's eternal Oh, spring's eternal Engoncé dans un costume Spring's eternal Je suis un être post-moderne aux allures posthumes Je me réveille par coutume Spring's eternal Endosse les habits ternes de mes habitudes Je suis l'esclave de ce monde que je n'ai pas choisi L'économie, une religion, ma poésie, une hérésie Désenchantement de ma génération Fichée à la banque de ses rêves, à découvert d'illusions Lundi matin, j'ai tout stoppé J'ai raccroché les gants à mi-chemin de mon trajet Je me suis assis sur un banc et je me suis mis à gratter ces rimes surannées Pour vous parler à bout portant de ma langue sur-armée J'ai mal à mon époque, le capital marque de son sceau Sous le règne du ciseau, je veux recoller les morceaux Quand mon âme est asthmatique, ma musique est Ventoline Les cartésiens sont des grains de folie, préservez-moi de l'embolie Moi, j'ai le cur qui palpite, entre une main-basse qui me précipite À sortir vite de l'impasse et quand le boulot est retraite Mettre un terme à cette dernière, s'arrêter pour voir naitre Les printemps éternels</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Let’s go to work</t>
+          <t>Lueurs</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Au boulot MC agrégé de flow, diplômé de style Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot au goulot Au goulot au goulot Qu'ce soit au pôle Nord ou au pôle Sud Ou au Pôle Emploi, t'es au bon endroit Parait qu'le boulanger, Paul emploie Donc va gagner ton pain, ton RSA Les miettes font la baguette Pas sûr que quand tu y seras, p-p-pépère tu kifferas ta retraite Le travail, c'est la Santé ou bien Fleury-Mérogis Pour tous les banquiers qui s'prennent pour des numéros dix Puis ça licncie à tours de bras dans les ntreprises Et la France en bas se retrouve let's go to work les deux doigts dans la crise Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot let's go to work J'vais pas vous faire un tableau C'est la crise de bas en haut La société est en sanglots let's go to work Faut y aller au culot On passe du rire au trémolo Donc sortons vite de nos enclos let's go to work Y'a de l'espoir dans mon stylo Il faisait noir dans mon silo Aujourd'hui le printemps éclot Ce monde est bancal Une minorité domine tous les autres On trouve ça normal Que le gramme l'emporte sur le kilo Quand ça spécule à Londres, on licencie À pronto compo, de l'effet papillon, on passe à l'effet domino Toi, société, mon train, wagon J'étais ton cheminot, et tu m'as pris pour un con Tu m'as plumé comme un bobinot Dix ans de loyauté, de bon boulot derrière un bureau Moi, l'bon blaireau qu'on envoie valser comme un boléro T'as voulu que j'me barre, baisse le volume que je te parle On évolue puis l'on s'égare Sous des volutes de cigare Café moulu que je prépare Du lait, du sucre, comme un nectar Il a fallu qu'on se sépare Sous l'clair de lune d'un quai de gare Pour que j'allume enfin mes phares Que j'te salue et que j'reparte Loin des talus qui font rempart Qui gène la vue et le regard Toi que j'ai lu, papier buvard Toi mon élu, mon étendard Tu m'a exclu tel un clochard On l'aura mal lu ton revanchard let's go to work Sortir la tête de l'eau Quand la rime est au kilo Le feu se boit au goulot let's go to work J'vais pas vous faire un tableau C'est la crise de bas en haut La société est en sanglots let's go to work Faut y aller au culot On passe du rire au trémolo Donc sortons vite de nos enclos let's go to work Y'a de l'espoir dans mon stylo Il faisait noir dans mon silo Aujourd'hui le printemps éclot Oh Spring's eternal, from the lover's kiss Though, we are far away from paradise Life is short, we cannot die Une barre de barbare, le flot de bâbord à tribord Le papier par bacs, le BIC est carnivore J'ai le vacarme de la musique pour me reposer On m'avait dit faut prendre des risques Je n'ai jamais osé, je n'ai pas pu avancer Parce que j'avais les jambes arquées J'étais coincé comme la monnaie dans les rainures de mon parquet Je ne regarde pas les journaux, je ne lis pas la télé Je vis loin du troupeau à qui l'on apprend à bêler Le soleil se lève et je ferme les volets Et j'écris, j'écris ma descente vers les sommets Toute la journée, je suis coincé entre une chaise et bureau Le stylo BIC est une épée que je sors de son fourreau Que vais-je bien pouvoir dire à cette feuille blanche qui veut que je la souille ? Que je suis flic, qu'elle est suspect, qu'il faut que je la fouille Les mains sur le capot, ça va tourner à la bavure Il n'est question que de violences, quand on en vient à l'écriture J'repars au boulot, au casse-pipe, au charbon Pour cracher ma silicose dans mon cornet à piston J'voulais mourir jeune au fond, pour pas devenir vieux et con Mais le comble, je m'en rends compte, c'est que je vais mourir jeune et con Alors, j'ai déserté les perspectives d'un monde balisé Pour devenir le cliché du rappeur emmerdant l'Élysée Le cliché de ce poète chantant les printemps éternels Les utopies, le paradis, le monde fraternel Oh, spring's eternal Oh, spring's eternal Engoncé dans un costume Spring's eternal Je suis un être post-moderne aux allures posthumes Je me réveille par coutume Spring's eternal Endosse les habits ternes de mes habitudes Je suis l'esclave de ce monde que je n'ai pas choisi L'économie, une religion, ma poésie, une hérésie Désenchantement de ma génération Fichée à la banque de ses rêves, à découvert d'illusions Lundi matin, j'ai tout stoppé J'ai raccroché les gants à mi-chemin de mon trajet Je me suis assis sur un banc et je me suis mis à gratter ces rimes surannées Pour vous parler à bout portant de ma langue sur-armée J'ai mal à mon époque, le capital marque de son sceau Sous le règne du ciseau, je veux recoller les morceaux Quand mon âme est asthmatique, ma musique est Ventoline Les cartésiens sont des grains de folie, préservez-moi de l'embolie Moi, j'ai le cur qui palpite, entre une main-basse qui me précipite À sortir vite de l'impasse et quand le boulot est retraite Mettre un terme à cette dernière, s'arrêter pour voir naitre Les printemps éternels</t>
+          <t>Eteignez les lumières, j'viens chanter mes pogos Sur les rails de l'enfer, l'océan est Congo Bien avant ma mort, mes rimes et mes vers me dévorent J'enferme le monde dans mon corps jusqu'à ce que les mots me débordent Transforme la chair en verbe, la douleur en arme l'ombre en lumière J'ai traversé les mers, j'en ai pleuré des rivières Vous finirez seuls et vaincus dans vos délires de sang impur Et la haine que vos bouches écument n'aura plus prise sur nos vécus Ronronne l'histoire et elle cale et les cales Enchainés dans bateaux faits d'un bois fait d'un arbre Où l'on pend d'étranges fruits distillés et broyés Des cadavres empilés des pelletées de charniers Regardez les exodes, papillons volent et voguent Regardez devant l'homme comment Dieu se dérobe Comme il pleure en tornades nos ruines et nos guerres Comme il pleure chaque soir un soleil incendiaire J'peux plus respirer Leur genou sur mon cou leur permis de tuer Le réel est violent comme une jungle à Calais Un Congo-océan, tant d'offenses à laver J'essuie les crachats, j'arrache des murs de France les sourires Banania Et nos enfants qui viennent seront dignes et debout Debout, dignes, dignes et debout Je connais les entailles, les encoches de nos coeurs Si leurs ténèbres m'assaillent, j'irai chanter mes lueurs Invincible est notre ardeur L'éclat de nos vies entêtées Invincible est notre ardeur Eblouira vos en-dedans Invincible est notre ardeur L'éclat de nos vies entêtées Invincible est notre ardeur Eblouira vos en-dedans</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lueurs</t>
+          <t>Lundi méchant</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Eteignez les lumières, j'viens chanter mes pogos Sur les rails de l'enfer, l'océan est Congo Bien avant ma mort, mes rimes et mes vers me dévorent J'enferme le monde dans mon corps jusqu'à ce que les mots me débordent Transforme la chair en verbe, la douleur en arme l'ombre en lumière J'ai traversé les mers, j'en ai pleuré des rivières Vous finirez seuls et vaincus dans vos délires de sang impur Et la haine que vos bouches écument n'aura plus prise sur nos vécus Ronronne l'histoire et elle cale et les cales Enchainés dans bateaux faits d'un bois fait d'un arbre Où l'on pend d'étranges fruits distillés et broyés Des cadavres empilés des pelletées de charniers Regardez les exodes, papillons volent et voguent Regardez devant l'homme comment Dieu se dérobe Comme il pleure en tornades nos ruines et nos guerres Comme il pleure chaque soir un soleil incendiaire J'peux plus respirer Leur genou sur mon cou leur permis de tuer Le réel est violent comme une jungle à Calais Un Congo-océan, tant d'offenses à laver J'essuie les crachats, j'arrache des murs de France les sourires Banania Et nos enfants qui viennent seront dignes et debout Debout, dignes, dignes et debout Je connais les entailles, les encoches de nos coeurs Si leurs ténèbres m'assaillent, j'irai chanter mes lueurs Invincible est notre ardeur L'éclat de nos vies entêtées Invincible est notre ardeur Eblouira vos en-dedans Invincible est notre ardeur L'éclat de nos vies entêtées Invincible est notre ardeur Eblouira vos en-dedans</t>
+          <t>Comment ça va ? Lundi ? Mardi ? Mercredi ? Jeudi ? Vendredi ? Bien dormi ? Le week-end, bien passé ? T'as glandé ? La famille ? Les enfants ?Les amis ? Le barbec' annulé par la pluie ? Est-ce que ça va ? T'es sûr que ça va ? Tu m'caches pas quelque chose que je devrais savoir ? Un divorce ? Un cancer ? Ta belle-mère ? Une mauvaise dépression ? Le moral est-il bon? Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Et chaque semaine on reprend la rengaine En se disant demain sera peut-être mieux On affronte et combat certains problèmes En achetant de petites pilules bleues On n'est pas toujours aussi fort qu'on veut l'être On essaye de faire comme l'on peut On court après le bonheur à tout prix Le lundi au soleil le moral est pluvieux Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Une semaine s'achève, au compteur s'ajoute On nous parle de crise et tout le monde a la frousse On s'endort dans des volutes de drogues douces Pour oublier que tous les jours l'État détrousse On se console en consommant, notre confort Nous rend souvent si seuls et puis sans solution Chaque dimanche revient ce cafard incessant Demain, lundi sera méchant J'vais pas m'laisser démonter Par bad vibes et morosité Pas s'contenter mais tenter Sinon tes rêves enterrés Chauffez, chauffez ouais t'entends Les pulsations dans tes tympans Chantez, chantez ce cancan Écoutez, goûtez lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Lundi méchant</t>
+          <t>Marée Haute</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Comment ça va ? Lundi ? Mardi ? Mercredi ? Jeudi ? Vendredi ? Bien dormi ? Le week-end, bien passé ? T'as glandé ? La famille ? Les enfants ?Les amis ? Le barbec' annulé par la pluie ? Est-ce que ça va ? T'es sûr que ça va ? Tu m'caches pas quelque chose que je devrais savoir ? Un divorce ? Un cancer ? Ta belle-mère ? Une mauvaise dépression ? Le moral est-il bon? Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Et chaque semaine on reprend la rengaine En se disant demain sera peut-être mieux On affronte et combat certains problèmes En achetant de petites pilules bleues On n'est pas toujours aussi fort qu'on veut l'être On essaye de faire comme l'on peut On court après le bonheur à tout prix Le lundi au soleil le moral est pluvieux Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Une semaine s'achève, au compteur s'ajoute On nous parle de crise et tout le monde a la frousse On s'endort dans des volutes de drogues douces Pour oublier que tous les jours l'État détrousse On se console en consommant, notre confort Nous rend souvent si seuls et puis sans solution Chaque dimanche revient ce cafard incessant Demain, lundi sera méchant J'vais pas m'laisser démonter Par bad vibes et morosité Pas s'contenter mais tenter Sinon tes rêves enterrés Chauffez, chauffez ouais t'entends Les pulsations dans tes tympans Chantez, chantez ce cancan Écoutez, goûtez lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant Comme un lundi, comme un lundi Comme un lundi, un lundi méchant</t>
+          <t>Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de lamour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il n'existe que nous ? Alors trinquons à la nôtre Tous les deux, nous, oui rien que tous les deux Dans ce feu fou, à nous brûler amoureux On se tient par les yeux, comme des amants fiévreux Chant de Morna, un air de cavaquinho Que mes grands bras ouverts de Corcovado Senroulent autour de toi Comme un foulard de soie Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de l'amour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il n'existe que nous ? Alors trinquons à la nôtre Que les vents nous emmènent Au loin, au large, bateau sur la mer Et nous deux sous le ciel Oui nous deux au milieu du vent On ne joue qu'à nos jeux De grands oiseaux de feu Si tout est grave, on s'en fout Si tout est grave, on s'en remettra Pour nous du soleil partout Et le soir mon cur est en proie Aux grands sables mouvants De tes envoûtements Tant de démons sont sur nos côtes, veulent nous traîner dans la boue Jai de lamour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il nexiste que nous ? Alors trinquons à la nôtre Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de l'amour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il nexiste que nous ? Alors trinquons à la nôtre, à la vie, à l'amour À la vie, à l'amour x8 Couplet 3 Goutte de rhum pour nos étoiles Pour ces lumières dans le ciel À nos nuits noires, à nos nuits pâles À nos jours éphémères Entends l'écho de mes je t'aime Dans le sillage de tous mes mots Regarde les démons que l'on sème Accourir après l'objet de l'amour à marée haute Ô mon amour, ô mon extase Fuyons les diables sur nos côtes Danger l'eau qui bout sur le gaz Mon cur un puit de pétrole qui brûle Pour toi qui donne sens à mes jours Alors de l'aube au crépuscule À la vie, à l'amour x8</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marée Haute</t>
+          <t>Mon Terroir</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de lamour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il n'existe que nous ? Alors trinquons à la nôtre Tous les deux, nous, oui rien que tous les deux Dans ce feu fou, à nous brûler amoureux On se tient par les yeux, comme des amants fiévreux Chant de Morna, un air de cavaquinho Que mes grands bras ouverts de Corcovado Senroulent autour de toi Comme un foulard de soie Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de l'amour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il n'existe que nous ? Alors trinquons à la nôtre Que les vents nous emmènent Au loin, au large, bateau sur la mer Et nous deux sous le ciel Oui nous deux au milieu du vent On ne joue qu'à nos jeux De grands oiseaux de feu Si tout est grave, on s'en fout Si tout est grave, on s'en remettra Pour nous du soleil partout Et le soir mon cur est en proie Aux grands sables mouvants De tes envoûtements Tant de démons sont sur nos côtes, veulent nous traîner dans la boue Jai de lamour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il nexiste que nous ? Alors trinquons à la nôtre Tant de démons sont sur nos côtes, veulent nous traîner dans la boue J'ai de l'amour à marée haute, sur le feu y a l'eau qui bout Pourquoi parlerions-nous des autres, quand il nexiste que nous ? Alors trinquons à la nôtre, à la vie, à l'amour À la vie, à l'amour x8 Couplet 3 Goutte de rhum pour nos étoiles Pour ces lumières dans le ciel À nos nuits noires, à nos nuits pâles À nos jours éphémères Entends l'écho de mes je t'aime Dans le sillage de tous mes mots Regarde les démons que l'on sème Accourir après l'objet de l'amour à marée haute Ô mon amour, ô mon extase Fuyons les diables sur nos côtes Danger l'eau qui bout sur le gaz Mon cur un puit de pétrole qui brûle Pour toi qui donne sens à mes jours Alors de l'aube au crépuscule À la vie, à l'amour x8</t>
+          <t>Enfant, j'inventais des espaces En dessinant des monts violets Des arbres bleus, des vaches grasses Et des chemins qui serpentaient Mais ma campagne, ma nature Quand je me prends à y songer Est un pauvre coin de verdure Un maigre jardin potager Ce lopin, ce bout de clairière C'est tout ce que j'ai pour terroir Puisque ma famille ouvrière Prend souche sur du goudron noir Ce minuscule coin champêtre Pris dans un pâté de maisons On l'aperçoit de ma fenêtre Fermé dans ses murs en béton Là ne planent point de légendes Où l'âme puise et s'aguerrit Il donne ce qu'on lui demande Quatre tomates, trois radis Ce petit morceau de culture Ce fut ma part de merveilleux Tout le reste est littérature On triche quand on devient vieux Je ne suis pas né en Provence En Savoie ni en Beaujolais Mon sang a l'odeur de l'essence Et mon pays est gris et laid J'ai grandi parmi les usines Au deuxième chez mes parents Une chambre et une cuisine D'où l'on voit ce petit arpent Ce clos de rêves et de salades C'est mon paradis défendu Était à un voisin maussade Je n'y suis jamais descendu</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mon Terroir</t>
+          <t>Nuit sans lune</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Enfant, j'inventais des espaces En dessinant des monts violets Des arbres bleus, des vaches grasses Et des chemins qui serpentaient Mais ma campagne, ma nature Quand je me prends à y songer Est un pauvre coin de verdure Un maigre jardin potager Ce lopin, ce bout de clairière C'est tout ce que j'ai pour terroir Puisque ma famille ouvrière Prend souche sur du goudron noir Ce minuscule coin champêtre Pris dans un pâté de maisons On l'aperçoit de ma fenêtre Fermé dans ses murs en béton Là ne planent point de légendes Où l'âme puise et s'aguerrit Il donne ce qu'on lui demande Quatre tomates, trois radis Ce petit morceau de culture Ce fut ma part de merveilleux Tout le reste est littérature On triche quand on devient vieux Je ne suis pas né en Provence En Savoie ni en Beaujolais Mon sang a l'odeur de l'essence Et mon pays est gris et laid J'ai grandi parmi les usines Au deuxième chez mes parents Une chambre et une cuisine D'où l'on voit ce petit arpent Ce clos de rêves et de salades C'est mon paradis défendu Était à un voisin maussade Je n'y suis jamais descendu</t>
+          <t>J'sors la nuit comme le virus du P4 Et les chats sont tous gris métal Comme d'hab j'vais brûler l'mic mon amour Gros son indigeste et lourd Mets tes boules Quies si t'aimes pas bien mon boucan Fire ! décongèle les cold cases Vitres fumées, furtif comme Banksy Bande de bandits dans la berline Allemande, calmement, humblement, simplement, noooon Fond d'sky, laisse les culs d'clopes dans l'gobelet Le son est tellemnt lourd j'ai besoin d'un monte-charge Fil droit sur la route, mets les grosses basses dans la Subaru Fuck les racistes boogaloos Les flics m'encerclent comme des hula hoop Rodney King tard dans ma rue Reflets d'lune sur les jantes alu Nuit sans nom, nuit sans lune... Violence latente, gare aux brebis les loups salivent Tout est possible quand l'avenue s'anime Coups de calibre comme dans les rues de Cali La nuit s'embrase prends ta Ritaline Sheitan ne fait qu'imiter l'ange Beat lent, flow Michel-Ange Bouillant, dégel du permafrost J'bois cul sec après l'toast À la vie, à la santé, l'chaïm, l'chaïm Rude boy dans l'attente qu'on me ravitaille Je sers les dents j'tiens les barricades Je nage le crawl dans leurs marécages J'prépare la guerre quand tout paraît calme T'échoues si t'arrêtes d'essayer La nuit c'est plein de cow-boys et de Cheyennes J'combats l'insomnie le vague à l'âme Tison ardent, rougeoie le makala Nuit sans nom, nuit sans lune... I make a million bucks, best drop de tout l'univers J'descends la vitre pour respirer l'air frais Je sors dehors à l'heure des fermetures Fumer tue, l'habitacle est une étuve Check la rime j'extrais l'or de la mine Fais belek, je traine en horde la nuit Sans l'sous en soum soum 5h du mat j'm'endors sur du Oum Kalthoum</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nuit sans lune</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>J'sors la nuit comme le virus du P4 Et les chats sont tous gris métal Comme d'hab j'vais brûler l'mic mon amour Gros son indigeste et lourd Mets tes boules Quies si t'aimes pas bien mon boucan Fire ! décongèle les cold cases Vitres fumées, furtif comme Banksy Bande de bandits dans la berline Allemande, calmement, humblement, simplement, noooon Fond d'sky, laisse les culs d'clopes dans l'gobelet Le son est tellemnt lourd j'ai besoin d'un monte-charge Fil droit sur la route, mets les grosses basses dans la Subaru Fuck les racistes boogaloos Les flics m'encerclent comme des hula hoop Rodney King tard dans ma rue Reflets d'lune sur les jantes alu Nuit sans nom, nuit sans lune... Violence latente, gare aux brebis les loups salivent Tout est possible quand l'avenue s'anime Coups de calibre comme dans les rues de Cali La nuit s'embrase prends ta Ritaline Sheitan ne fait qu'imiter l'ange Beat lent, flow Michel-Ange Bouillant, dégel du permafrost J'bois cul sec après l'toast À la vie, à la santé, l'chaïm, l'chaïm Rude boy dans l'attente qu'on me ravitaille Je sers les dents j'tiens les barricades Je nage le crawl dans leurs marécages J'prépare la guerre quand tout paraît calme T'échoues si t'arrêtes d'essayer La nuit c'est plein de cow-boys et de Cheyennes J'combats l'insomnie le vague à l'âme Tison ardent, rougeoie le makala Nuit sans nom, nuit sans lune... I make a million bucks, best drop de tout l'univers J'descends la vitre pour respirer l'air frais Je sors dehors à l'heure des fermetures Fumer tue, l'habitacle est une étuve Check la rime j'extrais l'or de la mine Fais belek, je traine en horde la nuit Sans l'sous en soum soum 5h du mat j'm'endors sur du Oum Kalthoum</t>
+          <t>Yeah Ah Où sont les couleurs vives, les rues des couloirs vides ? La ville est verticale, je me casse les cervicales Dans mon cahier à spirales, j'écris mal inspiré Je veux fuir la mitraille pour les plages de Nosy Be Je regarde la skyline, les reflets dans le fleuve La prochaine fois, le feu, moi, j'ai grandi dans le zbeul l zbeul Toujours en moi la rage comm à mes quinze piges ah Depuis, d'l'eau a coulé face au Queensbridge Les poings dans les poches ah, la tête sous la capuche ah J'ai le cerveau qui bûche, mes rimes dans la sacoche Cette ville est comme un fruit, un défi fou, un film Et j'ai comme l'ego qui fuit par ses bouches d'égouts qui fument J'écoute en boucle mes bootlegs j'écoute, j'écoute Vas-y copain, file la bouteille file la bouteille J'écoute en boucle mes bootlegs Et dans la nuit flotte un air de Wu-Tang Ah, ah, ah Ah, ah, un air de Wu-Tang Ah, ah, ah Ah, ah, ah Et dans cette ville de N-Y-C, assis à l'arrière d'un taxi Tous ces gratte-ciel, forêt de cimes, toutes ces lumières à l'infini Surgissent d'abîmes menaçants comme des milliards de galaxies Un Baron Minuit me conduit vers cette nuit qui s'épaissit Le froid des chambres d'autopsie, le confort des banlieues paisibles Un homeless poussant son Caddie, les allées d'Little Italy Un corps rossé par les képis, un sommeil cousin du décès Cette ville sans répit tout à coup surgit de ma mine</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NYC</t>
+          <t>On a pris le temps</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Yeah Ah Où sont les couleurs vives, les rues des couloirs vides ? La ville est verticale, je me casse les cervicales Dans mon cahier à spirales, j'écris mal inspiré Je veux fuir la mitraille pour les plages de Nosy Be Je regarde la skyline, les reflets dans le fleuve La prochaine fois, le feu, moi, j'ai grandi dans le zbeul l zbeul Toujours en moi la rage comm à mes quinze piges ah Depuis, d'l'eau a coulé face au Queensbridge Les poings dans les poches ah, la tête sous la capuche ah J'ai le cerveau qui bûche, mes rimes dans la sacoche Cette ville est comme un fruit, un défi fou, un film Et j'ai comme l'ego qui fuit par ses bouches d'égouts qui fument J'écoute en boucle mes bootlegs j'écoute, j'écoute Vas-y copain, file la bouteille file la bouteille J'écoute en boucle mes bootlegs Et dans la nuit flotte un air de Wu-Tang Ah, ah, ah Ah, ah, un air de Wu-Tang Ah, ah, ah Ah, ah, ah Et dans cette ville de N-Y-C, assis à l'arrière d'un taxi Tous ces gratte-ciel, forêt de cimes, toutes ces lumières à l'infini Surgissent d'abîmes menaçants comme des milliards de galaxies Un Baron Minuit me conduit vers cette nuit qui s'épaissit Le froid des chambres d'autopsie, le confort des banlieues paisibles Un homeless poussant son Caddie, les allées d'Little Italy Un corps rossé par les képis, un sommeil cousin du décès Cette ville sans répit tout à coup surgit de ma mine</t>
+          <t>J'ai pris du temps pour mon métier J'ai pris du temps pour mes chansons Ce qui allait pas j'ai pris du temps pour le changer J'ai pris du temps, ça prend du temps d'essayer C'est tellement rare quand ça marche C'est tellement rare que quand ça marche faudra Battre le fer tant qu'il est chaud Le fer tant qu'il est chaud Parce que l'enfer, c'est pas d'échouer C'est d'pas tout faire pour essayer Alors j'ai tout fait, tout fait Jusqu'à étouffer, étouffer Ah oui, j'ai tout fait, tout fait Et j'aimerais souffler, souffler J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part, un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps J'ai pris rencard chez le docteur, chez le coiffeur, chez le véto Hier, j'ai éteint très tard, aujourd'hui je me suis levé tôt J'ai pris ma douche, j'ai pris la mouche, j'ai pris la route, mes affaires J'ai pris le train, le taxi, j'ai trop pris, j'ai pris cher J'ai pris mon fils par la main, pour sa fête et son tournoi J'ai pris le courage à 2 mains, le mal de tête, c'est pour moi J'ai pris mes doutes enfouis sous les t-shirts dans ma valise J'ai pris l'Tour-Bus dans une ambiance que souvent j'idéalise J'ai pris du retard dans ma journée, dans mon planning, dans mon sommeil J'ai pris de l'avance sur la fatigue, mais pas vraiment sur le réveil J'ai pris une allure, une cadence, un rythme entêtant Mais c'est vrai, J'ai pas pris le temps depuis longtemps J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde Allonger les secondes On a pris le temps</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>On a pris le temps</t>
+          <t>Only Way Is Up</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>J'ai pris du temps pour mon métier J'ai pris du temps pour mes chansons Ce qui allait pas j'ai pris du temps pour le changer J'ai pris du temps, ça prend du temps d'essayer C'est tellement rare quand ça marche C'est tellement rare que quand ça marche faudra Battre le fer tant qu'il est chaud Le fer tant qu'il est chaud Parce que l'enfer, c'est pas d'échouer C'est d'pas tout faire pour essayer Alors j'ai tout fait, tout fait Jusqu'à étouffer, étouffer Ah oui, j'ai tout fait, tout fait Et j'aimerais souffler, souffler J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part, un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps J'ai pris rencard chez le docteur, chez le coiffeur, chez le véto Hier, j'ai éteint très tard, aujourd'hui je me suis levé tôt J'ai pris ma douche, j'ai pris la mouche, j'ai pris la route, mes affaires J'ai pris le train, le taxi, j'ai trop pris, j'ai pris cher J'ai pris mon fils par la main, pour sa fête et son tournoi J'ai pris le courage à 2 mains, le mal de tête, c'est pour moi J'ai pris mes doutes enfouis sous les t-shirts dans ma valise J'ai pris l'Tour-Bus dans une ambiance que souvent j'idéalise J'ai pris du retard dans ma journée, dans mon planning, dans mon sommeil J'ai pris de l'avance sur la fatigue, mais pas vraiment sur le réveil J'ai pris une allure, une cadence, un rythme entêtant Mais c'est vrai, J'ai pas pris le temps depuis longtemps J'me souviens de ce rendez-vous pris La promesse d'une pause, d'un répit Du repos pour mon esprit Comme une bulle au milieu du bruit Au milieu de la furie Mais quelque part un coin de paradis M'attendait comme une feuille blanche Une feuille blanche Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde et là, et là Allonger les secondes et là, et là On a pris le temps Et là On a pris le temps Et là, au milieu du monde Pour que la vie réponde On a pris le temps Et là, au milieu du monde Allonger les secondes On a pris le temps</t>
+          <t>Tu tournes en rond, tu tournes en rond comme un triste vinyle Still I feel alive Even when the walls keeps falling I thought youth will never die So we jumped into fire to feel something And we crashed into the night But tomorrow never stops it keeps coming Falling through the sky Is the only to fly Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Y'a la vie donc y'a la lutte Mais j'ai comme envie d'dormir Avant qu'le soleil ne chute J'ai des buts en ligne de mire Dans leur monde sans espoir Il voudrait qu'on s'alarme Mais rien de grave se prépare Bébé, tout est déjà là Pas de refrain lalalère Ou bien de bons sentiments Tous nos rêves vont à la mer Forment un sixième continent Je n'me mets plus de limite J'ai l'horizon du Bédouin Faner vite, renaître plus loin Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Only way is up Je vis dans le noir d'où la lumière jaillit Je t'offre l'aube et j'retourne à ma nuit La vie un fragment, on passe tous en coupe-vent Souvent enfoncé dans nos sables émouvants Nos corps désarmés font de nous des proies Des pétales de roses posées sur des ghettos froids Reste pas apeuré, fourbi tes armes Et si ta vie c'est pleurer ouvre un musée d'larmes ! Poésie muselée Je cherche l'oasis dans ces déserts désolés Et toi t'es une étoile étiolée Ton ciel est délavé, ton soleil délabré Tu tournes en rond Tu tournes en rond comme un triste vinyle Tu tournes en rond Viens dans mon lagon j'y ai planté quelques îles Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Only way is up1</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Only Way Is Up</t>
+          <t>Parce Que</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tu tournes en rond, tu tournes en rond comme un triste vinyle Still I feel alive Even when the walls keeps falling I thought youth will never die So we jumped into fire to feel something And we crashed into the night But tomorrow never stops it keeps coming Falling through the sky Is the only to fly Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Y'a la vie donc y'a la lutte Mais j'ai comme envie d'dormir Avant qu'le soleil ne chute J'ai des buts en ligne de mire Dans leur monde sans espoir Il voudrait qu'on s'alarme Mais rien de grave se prépare Bébé, tout est déjà là Pas de refrain lalalère Ou bien de bons sentiments Tous nos rêves vont à la mer Forment un sixième continent Je n'me mets plus de limite J'ai l'horizon du Bédouin Faner vite, renaître plus loin Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Only way is up Je vis dans le noir d'où la lumière jaillit Je t'offre l'aube et j'retourne à ma nuit La vie un fragment, on passe tous en coupe-vent Souvent enfoncé dans nos sables émouvants Nos corps désarmés font de nous des proies Des pétales de roses posées sur des ghettos froids Reste pas apeuré, fourbi tes armes Et si ta vie c'est pleurer ouvre un musée d'larmes ! Poésie muselée Je cherche l'oasis dans ces déserts désolés Et toi t'es une étoile étiolée Ton ciel est délavé, ton soleil délabré Tu tournes en rond Tu tournes en rond comme un triste vinyle Tu tournes en rond Viens dans mon lagon j'y ai planté quelques îles Guess the only way is up In between the silence I am still yours Guess the only way is up We'll outrun the sirens We could be more Only way is up1</t>
+          <t>Si ce monde est trop dur pour le prendre tel quel On peut enterrer l'obscur en se roulant quelques pelles Exister n'est pas drôle mais ça en vaut la peine On souffre pour s'rapp'ler la taille humaine Profite du bonheur car il va s'éloigner L'argent se paye cher, demande à ton loyer Retiens le secret des gens heureux qui savent que ça s'ra rarement comme on veut Jamais Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable C'est des fleurs et des barils de poudre C'est la nuit où j'ai vu l'jour C'est des coups d'boules ou des coups d'foudres C'est un vaudeville, c'est un chaos toujours J'veux pas la grande, j'veux la bonne vie tout court On naît seul, on meurt seul Dansons, nos langues sans bois râpent des copeaux d'émotion Bout de chanson pour tromper le sablier Comme un esthète au dessus de la mêlée, hein Quand j'ai le cur à plat Je cherche le bréviaire ou le mode d'emploi J'ai posé mes questions aux comètes Aux étoiles, aux grimoires, aux poètes Inexplicable, vis à la vie, aux amis, à la mille-fa Rien ne vaut la vie donc viva la vida Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable L'amour, on en parle Ainsi, je cours Le manque de temps inclut le manque de tout Je propose un départ au quart de tour Les casseurs d'extase, partez, ou cassez-vous Je propose du bon vieux temps Pardonne les cons qui me demandent On commence quand ? Entre le tout et son contraire Tu vas y arriver même si t'aimes pas ton père Skrr Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Parce Que</t>
+          <t>Parce que la vie</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Parce que la vie</t>
+          <t>Pemmican</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Si ce monde est trop dur pour le prendre tel quel On peut enterrer l'obscur en se roulant quelques pelles Exister n'est pas drôle mais ça en vaut la peine On souffre pour s'rapp'ler la taille humaine Profite du bonheur car il va s'éloigner L'argent se paye cher, demande à ton loyer Retiens le secret des gens heureux qui savent que ça s'ra rarement comme on veut Jamais Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable C'est des fleurs et des barils de poudre C'est la nuit où j'ai vu l'jour C'est des coups d'boules ou des coups d'foudres C'est un vaudeville, c'est un chaos toujours J'veux pas la grande, j'veux la bonne vie tout court On naît seul, on meurt seul Dansons, nos langues sans bois râpent des copeaux d'émotion Bout de chanson pour tromper le sablier Comme un esthète au dessus de la mêlée, hein Quand j'ai le cur à plat Je cherche le bréviaire ou le mode d'emploi J'ai posé mes questions aux comètes Aux étoiles, aux grimoires, aux poètes Inexplicable, vis à la vie, aux amis, à la mille-fa Rien ne vaut la vie donc viva la vida Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable L'amour, on en parle Ainsi, je cours Le manque de temps inclut le manque de tout Je propose un départ au quart de tour Les casseurs d'extase, partez, ou cassez-vous Je propose du bon vieux temps Pardonne les cons qui me demandent On commence quand ? Entre le tout et son contraire Tu vas y arriver même si t'aimes pas ton père Skrr Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Parce que la vie c'est Inexplicable Inexplicable</t>
+          <t>J'ai des visions de Fin du monde Jai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde Jai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde Jai des visions de Fin du monde Jai des visions d'un Nouveau monde Vision de chaman Dans la fumée âcre Plantation de canne à sucre Chant de Blancs, de Noirs couleur ocre Jai la plume incandescente, mes yeux s'écarquillent Dans mes rêves fluorescents y'a des jaguars au ralenti La Terre est en détresse j'entends geindre les Dieux La colère, la tendresse, laisse-moi joindre les deux Jai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde Le rythme est syncopé, ma voix est une galaxie Les yeux sont révulsés, j'ai fumé de la magie J'ai fumé de la magie jusqu'à jusqu'à l'aphasie J'entends le coeur qui s'en va Tremblent les fleurs, j'me sens mal La fin du temps qui s'emballe J'écrase le cône dans le cendar Comme des forêts qui s'embrasent Et le mercure qui s'enflamme Laisse le monde sans âme J'ai les visions du chaman J'fais de la vie un prétexte pour écrire des poèmes J'fais d'mes textes des tempêtes, des rivières, des totems J'fais de la vie un prétexte pour écrire des poèmes J'fais d'mes textes des tempêtes, des rivières, des totems On joue à crache-crache fumée de H Détache mon HH, lâche des lignes comme des punchlines J'parle de c'qui fâche même si les mots j'mâche J'fais des textes aussi longs que le blaze d'un malgache Tchin, y'a du champagne dans ma calebasse, caisse claire C'est d'la cosa no stress, laisse faire! J'prends mon barda, m'casse, me fout d'leurs promesses On sauvegarde pas la planète avec des pommes S J'viens remettre le couvert Dehors c'est plus tout vert, paraît qu'le temps est nucléaire J'suis assis sous la pluie acide, assiste à ce monde qu'on décime Au choix qu'on décide, à la fin qu'on dessine Si si, mes multi-syllabes en sursis s'asphyxient dans ce monde absurde de Sisyphe Et s'ils sont aussi cons que l'on s'imagine On ira tous en Enfer suer comme au club gym! J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pemmican</t>
+          <t>Porte du soleil</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>J'ai des visions de Fin du monde Jai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde Jai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde Jai des visions de Fin du monde Jai des visions d'un Nouveau monde Vision de chaman Dans la fumée âcre Plantation de canne à sucre Chant de Blancs, de Noirs couleur ocre Jai la plume incandescente, mes yeux s'écarquillent Dans mes rêves fluorescents y'a des jaguars au ralenti La Terre est en détresse j'entends geindre les Dieux La colère, la tendresse, laisse-moi joindre les deux Jai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde Le rythme est syncopé, ma voix est une galaxie Les yeux sont révulsés, j'ai fumé de la magie J'ai fumé de la magie jusqu'à jusqu'à l'aphasie J'entends le coeur qui s'en va Tremblent les fleurs, j'me sens mal La fin du temps qui s'emballe J'écrase le cône dans le cendar Comme des forêts qui s'embrasent Et le mercure qui s'enflamme Laisse le monde sans âme J'ai les visions du chaman J'fais de la vie un prétexte pour écrire des poèmes J'fais d'mes textes des tempêtes, des rivières, des totems J'fais de la vie un prétexte pour écrire des poèmes J'fais d'mes textes des tempêtes, des rivières, des totems On joue à crache-crache fumée de H Détache mon HH, lâche des lignes comme des punchlines J'parle de c'qui fâche même si les mots j'mâche J'fais des textes aussi longs que le blaze d'un malgache Tchin, y'a du champagne dans ma calebasse, caisse claire C'est d'la cosa no stress, laisse faire! J'prends mon barda, m'casse, me fout d'leurs promesses On sauvegarde pas la planète avec des pommes S J'viens remettre le couvert Dehors c'est plus tout vert, paraît qu'le temps est nucléaire J'suis assis sous la pluie acide, assiste à ce monde qu'on décime Au choix qu'on décide, à la fin qu'on dessine Si si, mes multi-syllabes en sursis s'asphyxient dans ce monde absurde de Sisyphe Et s'ils sont aussi cons que l'on s'imagine On ira tous en Enfer suer comme au club gym! J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions de Fin du monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde J'ai des visions d'un Nouveau monde</t>
+          <t>Les mots secs, idées noires, mes pages blanches La gorge nouée, la pensée en avalanche Je sais même plus quoi en croire Jai même plus envie de voir Mon cur est délavé, et jai dévié de trajectoire Et quand on coupe la cordée Où est lHomme libre, prêt à déjouer les artefacts ? Est-ce que tu vois tant de joie ici, toi ? Pour continuer à danser Pousser la voix, jai les épaules solides Mais jen peux plus tu vois De noyer ça dans du liquide Tequila Alors je laisse sur le piano, un bouquet de camélias Pas de lettres, pas de mots, il est tôt ce matin-là Le cur plein et silencieux, la voie lactée dans les yeux Il fait nuit sur mes jours, et je pars pour Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Je voulais voir demain, à lombre dautres ciels En agitant mes mains, deviendront-elles des ailes Je voulais voir le monde, lui qui brûle lentement Réveille-moi tout gronde, je quitte le banc, le rang Allumer, allumer, allumer les lampes Lever, lever, lever nos ancres Et glisser, garder lélan, embrasser lerrance Alors je laisse sur le piano, un bouquet de camélias Pas de lettres, pas de mots, il est tôt ce matin-là Le cur plein et silencieux, la voie lactée dans les yeux Il fait nuit sur mes jours, et je pars pour Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles O tempo dos homens é igual a eternidade dobrada E você O que está fazendo do seu tempo? Preso entre o absurdo e o sublime É verdade, mas o teu amanhã é seu É seu o sonho, sua estrada e sua viajem</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Porte du soleil</t>
+          <t>Président</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Les mots secs, idées noires, mes pages blanches La gorge nouée, la pensée en avalanche Je sais même plus quoi en croire Jai même plus envie de voir Mon cur est délavé, et jai dévié de trajectoire Et quand on coupe la cordée Où est lHomme libre, prêt à déjouer les artefacts ? Est-ce que tu vois tant de joie ici, toi ? Pour continuer à danser Pousser la voix, jai les épaules solides Mais jen peux plus tu vois De noyer ça dans du liquide Tequila Alors je laisse sur le piano, un bouquet de camélias Pas de lettres, pas de mots, il est tôt ce matin-là Le cur plein et silencieux, la voie lactée dans les yeux Il fait nuit sur mes jours, et je pars pour Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Je voulais voir demain, à lombre dautres ciels En agitant mes mains, deviendront-elles des ailes Je voulais voir le monde, lui qui brûle lentement Réveille-moi tout gronde, je quitte le banc, le rang Allumer, allumer, allumer les lampes Lever, lever, lever nos ancres Et glisser, garder lélan, embrasser lerrance Alors je laisse sur le piano, un bouquet de camélias Pas de lettres, pas de mots, il est tôt ce matin-là Le cur plein et silencieux, la voie lactée dans les yeux Il fait nuit sur mes jours, et je pars pour Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles Un jardin à la mer, une porte du soleil Du temps et du silence, des monts et merveilles O tempo dos homens é igual a eternidade dobrada E você O que está fazendo do seu tempo? Preso entre o absurdo e o sublime É verdade, mas o teu amanhã é seu É seu o sonho, sua estrada e sua viajem</t>
+          <t>Il sappelle Président Il tient les rênes du pays depuis 10 à 40 ans Il est élu à 99 Lethnie dont il est issu est qualifiée de pur-sang Son pays est soi-disant démocratique Les opposants, les critiques Cest soit la mort, soit lexil politique Il est en place depuis son putsch, son coup détat Lui sest enrichi mais son pays sest endetté Embêtées sont les puissances occidentales Sponsorisées par sa rente dhydrocarbures et de métal Les connivences mafieuses, militaro-financières Le népotisme, les barbouzes et les mercenaires Président à vie est son mandat Il quitte le pouvoir par mort naturelle ou assassinat Quand cest la paix, les dirigeants dirigent Quand cest la guerre, cest la guerre qui dirige Aqui Assim A sentir também Ndengue ja uàba A bixila boba A zuela kiambote Oh África balumukenu Ndengue ja uàba A bixila boba A zuela kiambote Oh África balumuka Et quand le père meurt, le peuple pleure La radio exploite la peur, lennemi est à lintérieur Les rancurs et la terreur viennent chasser la paix Les barrages sont dressés, le voisin devient suspect On décrète la ville morte et le couvre-feu Les ambassades se remplissent et tous les blancs fuient Il y a des rumeurs de pillages, des viols, des pénuries Les gens ont peur, le peuple voit la paix mourir Des jours de grèves, des lynchages de plus en plus fréquents La guerre civile est imminente, info mondiale sur les fréquences LONU sinquiète, engage des pourparlers Faut-il agir ? Sabstenir ? Y a-t-il des intérêts ? Le cessez-le feu est violé par les belligérants Ya plus de gérance dans le pays qui part en déshérence La guerre est là, tout le monde la sent Encore une fois, ce sera la mort la mort des innocents Muxima uami olo kata Mukonda tua zuela oh kide Ai Muxima uami olo kata Mukonda tua zuela oh kide Balumukenu África África balumukenu Ngo diondo Ngo diondo Aiué nakuetenu Tenham pena de mim Tenham pena do povo... Ai ué nakuetenu Ma bien-aimée, j'écris cette lettre avec l'espoir que tu puisses me lire Les hommes sont bêtes, l'Afrique est belle, fais pas l'erreur de la haïr Avec toi je voulais vieillir sur ces collines, dans cette maison Mais l'horizon s'arrête ici, je suis venu chanter mon oraison Il m'enlève le galbe de tes hanches, le suave de tes lèvres Sans trêve, Umugwaneza , lumière de tous mes rêves Je dois quitter ce port, mon âme quitte son corps Mais mon amour je resterai toujours à deux encablures de ton cur Je vais partir dans les minutes qui suivent Ma peine est lourde, j'espère que tu recevras cette missive J'écris ces vers d'espoirs, des fleuves de tourterelles Des tours de rêves, de brèves trêves de querelles Il est trop tard les soldats envahissent la parcelle Ma belle, j'écris des mots d'amours que je parsème Sur ce cahier, je finis ma vie et ce poème La guerre m'a pris de court pour te dire je taime Ngo diondo Ngo diondo nakuetenu Ngo diondo África Tenham pena do povo Tenham pena de mim Ngo diondo Nakuetenu nakuetenu Tenham pena do povo África balumukenu Di di di di di di - Aiué Ngo diondo nakuetenu Tenham pena de mim1</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Président</t>
+          <t>Qui a kidnappé Benjamin Biolay !</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Il sappelle Président Il tient les rênes du pays depuis 10 à 40 ans Il est élu à 99 Lethnie dont il est issu est qualifiée de pur-sang Son pays est soi-disant démocratique Les opposants, les critiques Cest soit la mort, soit lexil politique Il est en place depuis son putsch, son coup détat Lui sest enrichi mais son pays sest endetté Embêtées sont les puissances occidentales Sponsorisées par sa rente dhydrocarbures et de métal Les connivences mafieuses, militaro-financières Le népotisme, les barbouzes et les mercenaires Président à vie est son mandat Il quitte le pouvoir par mort naturelle ou assassinat Quand cest la paix, les dirigeants dirigent Quand cest la guerre, cest la guerre qui dirige Aqui Assim A sentir também Ndengue ja uàba A bixila boba A zuela kiambote Oh África balumukenu Ndengue ja uàba A bixila boba A zuela kiambote Oh África balumuka Et quand le père meurt, le peuple pleure La radio exploite la peur, lennemi est à lintérieur Les rancurs et la terreur viennent chasser la paix Les barrages sont dressés, le voisin devient suspect On décrète la ville morte et le couvre-feu Les ambassades se remplissent et tous les blancs fuient Il y a des rumeurs de pillages, des viols, des pénuries Les gens ont peur, le peuple voit la paix mourir Des jours de grèves, des lynchages de plus en plus fréquents La guerre civile est imminente, info mondiale sur les fréquences LONU sinquiète, engage des pourparlers Faut-il agir ? Sabstenir ? Y a-t-il des intérêts ? Le cessez-le feu est violé par les belligérants Ya plus de gérance dans le pays qui part en déshérence La guerre est là, tout le monde la sent Encore une fois, ce sera la mort la mort des innocents Muxima uami olo kata Mukonda tua zuela oh kide Ai Muxima uami olo kata Mukonda tua zuela oh kide Balumukenu África África balumukenu Ngo diondo Ngo diondo Aiué nakuetenu Tenham pena de mim Tenham pena do povo... Ai ué nakuetenu Ma bien-aimée, j'écris cette lettre avec l'espoir que tu puisses me lire Les hommes sont bêtes, l'Afrique est belle, fais pas l'erreur de la haïr Avec toi je voulais vieillir sur ces collines, dans cette maison Mais l'horizon s'arrête ici, je suis venu chanter mon oraison Il m'enlève le galbe de tes hanches, le suave de tes lèvres Sans trêve, Umugwaneza , lumière de tous mes rêves Je dois quitter ce port, mon âme quitte son corps Mais mon amour je resterai toujours à deux encablures de ton cur Je vais partir dans les minutes qui suivent Ma peine est lourde, j'espère que tu recevras cette missive J'écris ces vers d'espoirs, des fleuves de tourterelles Des tours de rêves, de brèves trêves de querelles Il est trop tard les soldats envahissent la parcelle Ma belle, j'écris des mots d'amours que je parsème Sur ce cahier, je finis ma vie et ce poème La guerre m'a pris de court pour te dire je taime Ngo diondo Ngo diondo nakuetenu Ngo diondo África Tenham pena do povo Tenham pena de mim Ngo diondo Nakuetenu nakuetenu Tenham pena do povo África balumukenu Di di di di di di - Aiué Ngo diondo nakuetenu Tenham pena de mim1</t>
+          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Qui a kidnappé Benjamin Biolay !</t>
+          <t>Respire</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nommé pour la victoire de l'album - Lundi Méchant - Gaël Faye - Mesdames - Grand Corps Malade - Paradis - Ben Mazué - Grand Prix - Benjamin Biolay Alors une victoire de l'album c'est toujours un événement dans une carrière, des années de travail récompensées Le grand prix revient à Benjamin Biolay Ben On n'a pas gagné mais on s'est bien marré. C'était quand même historique cette soirée Gaël Ha c'est cool qu'à 3h22 du matin je sois pas seul à galérer. T'es là Fabien ? Ben Moi ça fait deux semaines que j'ose plus m'endormir parce quà chaque fois que je m'endors je fais le même rêve, horrible. Mais bon c'est relou les gens qui racontent leurs rêves. Vous voulez qu'j'vous raconte Fabien - c'est vrai qu'c'est relou les gens qui racontent leurs rêves Gaël - Ha, insomnie générale Fabien - Bon les gars si vous dormez pas, est-ce que vous pouvez venir chez moi là tout de suite ? J'ai quelque chose à vous montrer. Tout de suite 9ème étage - J'suis invité à cet anniversaire mais mon père me force à me déguiser en mur.. de la façade. Tu vois j'ai des briques sur le corps. Au dessus j'ai un pot de fleurs - Salut les gars - Tu voulais nous montrer quoi ? - Voilà regardez, c'est la victoire de la musique de Benjamin Biolay. Album de l'année. J'suis passé d'vant sa loge, elle était là sur la table posée. Lui il était en interview au point presse à côté. Moi à la base cétait pour déconner, c'était surtout pour vous la montrer. Puis quand j'l'ai prise, quand j'l'ai eu, j'sais pas j'ai eu envie d'la garder - Ha ouais OK. Donc t'as officiellement craqué - Ha ça va. On peut la garder quelques temps. Tu vois, j'veux dire le gars il était pas vigilant. Il se l'est faite volée. Voilà. En plus il saura jamais vraiment qui c'est Moi j'pense que comme personne n'est légitime vraiment pour la garder on pourrait faire une sorte de garde partagée -Très bonne idée ! On va faire comme pour les enfants. Semaine A, semaine B, semaine C - Pendant qu'j'y pense, moi si j'pouvais l'avoir pendant la semaine du 26 mai. Parce que j'ai mon oncle et ma tante qui doivent passer - Non mais moi j'approuve carrément pas - Ha c'est bon Gaël ! Allez venez on va boire un coup. On va trinquer à Biolay - Elle est en quoi cette victoire ? Parce qu'elle est lourde ! - Messieurs je lève mon verre à Benjamin Biolay - Et à la Superbe - Ha oui ! - Ha ouais La Superbe quelle chanson ! - Ouais et rien qu'pour celle là on devrait lui rendre - Ha ouais tu lâches pas laffaire - Non, j'en fais une question de principe. Et on va lui rendre ce soir sonnette - Ouais c'est qui ? - C'est Grand Corps Malade, Gaël Faye et Ben Mazué. On voulait savoir, est-ce que tu peux descendre ? Désolé d'te déranger. On a un peu merdé. On est là tous les trois on a un truc à te rendre C'est bon les gars il arrive. Il a l'air un peu vénère. Mais bon il descend, c'est l'principal. On lui rend sa victoire. On n'en fait pas une affaire - Laissez les gars, c'est moi qui lui parle - Toi Ben t'es bourré. Tais toi ! - Salut. Ha ben désolé hein, j'imagine que tu sais pourquoi on est là - Hé tu sais pourquoi t'as gagné ? T'as gagné parce que t'as appelé ton album Grand Prix - Arrête ! - Tu vois moi l'prochain j'vais l'appeler Gros lot mon album - Arrête ! Fais pas l'gamin Ben laisse le - Mais rends lui, rend lui. Lâche la victoire. Lâche - Quest-ce que t'es en train de faire ? - Non c'est bon enlève ta main - Pourquoi tu m'touches les cheveux là ? - J'crois qu'il est bourré. Enlève ta main. J'crois qu'il est bourré, enlève ta main - ... m'a tiré les ch'veux - 'Tain mais qu'est-ce que tu ? 'Tain mais qu'est-ce tu ? - Ho ho ho !!! - Vos gueules ! -Arrête de m'pousser ! - Mais putain Gaël pourquoi t'as fait ça ? - Ha la vache tu lui as mis la victoire dans la gueule - Mais putain tu l'as tué, regarde il bouge pas ! - Si si il respire encore mais faut pas l'laisser seul - Gaël, tu fais chier mais pourquoi putain ?Pourquoi ? - Ha ça va toi j'ai pas fait exprès ! Il allait étrangler Ben tu voulais qu'j'fasse quoi ? C'est parti tout seul, il nous manquait d'respect ! - J'ai pas fait exprès c'est parfait comme excuse ! - C'est parti tout seul ça c'est pas mal aussi ! - Ça va très bien passer quand tu seras devant le juge... - Ha ouais c'est nickel. Vraiment Gaël, merci ! - Ha d'accord parfait. On m'laisse tomber. J'vois qu'c'est dans les vraies épreuves qu'on s'reconnait. J'rappelle que rien de tout ça n'serait arrivé ce soir si personne n'avait volé cette putain d'victoire ! - Ça va c'est de la faute de personne. Pas de panique ! On va régler ça calmement et tous les 3. Ben t'es médecin, c'est quoi ton diagnostique ? Il se réveille dans 2 minutes ou c'est plus grave que ça ? - Non j'appelle le 15 y'a du sang qui coule de l'oreille - Arrête, on n'a pas l'temps j'entends des gens qui viennent - Mais regarde ses pupilles. J't'assure que c'est pas du sommeil - Venez on l'porte dans ma caisse et on l'emmène - Ouvre la portière qu'on l'mette sur la banquette arrière - Laisse tomber j'ai les sièges bébé, ça va être une galère - T'as qu'à les retirer - J'ai mis 7 heures à les installer j'te jure c'est un calvaire - Mais faut bien qu'on l'mette quelque part. Qu'est-ce que tu veux faire ? - On va l'mettre dans l'coffre ! On va l'mettre dans l'coffre ! On l'a mis dans l'coffre ! On va l'mettre dans l'coffre ! - Je sais pas si vous vous rendez compte les amis. J'prends un peu d'recul. Je veux pas vous affoler. Il est 5 heures du matin. On roule en plein Paris et on a dans mon coffre Benjamin Biolay - Il faut arrêter les conneries. Faut foncer à l'hosto - Ouais mais aux urgences on va s'faire arrêter - On l'dépose devant la porte et on part incognito - Non les gars. J'ai une meilleure idée... Qui a kidnappé Benjamin Biolay ? La question est sur toutes les lèvres et ce matin l'affaire connaît un incroyable rebondissement . Un message diffusé par les ravisseurs. Ils libéreront Benjamin Biolay si celui-ci leur cède les droits de sa célèbre chanson La Superbe . Quelle étrange demande !</t>
+          <t>Respire, respire, respire, espère Encore linsomnie, sonnerie du matin Le corps engourdi, toujours endormi, miroir, salle de bain Triste face à face, angoisse du réveil Reflet dans la glace, les années qui passent ternissent le soleil OK Aux flashs dinfos les crises, le chômage La fonte des glaces, les particules fines Courir après lhure, les rames bondés Les bastons dregards, la vie cest lusine Hamster dans sa roue Ptit chef, grand bourreau Faire la queue partout, font la gueule partout La vie cest robot Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Encore fatigué, la cloche du midi Le corps assommé, toujours épuisé, les masques sont mis Triste face à face, poursuite du bonheur Reflet dans la glace, les années qui passent flétrissent les fleurs OK Les écrans, le bruit, largent, les crédits Les phrases assassines, les cons, les cancers Le temps qui sécoule, le vide qui se fait Le silence épais, la vie cest la guerre Tourner dans ltambour Amour placébo Faire semblant pour tout, cest violent partout La vie cest Rambo Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Les yeux ouverts, ne trouve pas lsommeil, dans le lit tourne tout ltemps Les phares des voitures balayent le plafond de leurs ombres dansantes La nuit étouffe, la chaleur est lourde, lorage est en suspens Où sont les rêves ? Où sont nos rêves denfants ? Séchapper, déserter les rangs Sévader des tapis roulants Chercher le silence et lerrance Raccrocher, trouver sa cadence Se foutre des codes, des routines étroites Quitter son rôle, les cases et les boîtes Ne pas craquer, claquer, cramer Desserre ton col pour respirer Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Respire</t>
+          <t>Seuls et vaincus</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Respire, respire, respire, espère Encore linsomnie, sonnerie du matin Le corps engourdi, toujours endormi, miroir, salle de bain Triste face à face, angoisse du réveil Reflet dans la glace, les années qui passent ternissent le soleil OK Aux flashs dinfos les crises, le chômage La fonte des glaces, les particules fines Courir après lhure, les rames bondés Les bastons dregards, la vie cest lusine Hamster dans sa roue Ptit chef, grand bourreau Faire la queue partout, font la gueule partout La vie cest robot Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Encore fatigué, la cloche du midi Le corps assommé, toujours épuisé, les masques sont mis Triste face à face, poursuite du bonheur Reflet dans la glace, les années qui passent flétrissent les fleurs OK Les écrans, le bruit, largent, les crédits Les phrases assassines, les cons, les cancers Le temps qui sécoule, le vide qui se fait Le silence épais, la vie cest la guerre Tourner dans ltambour Amour placébo Faire semblant pour tout, cest violent partout La vie cest Rambo Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Les yeux ouverts, ne trouve pas lsommeil, dans le lit tourne tout ltemps Les phares des voitures balayent le plafond de leurs ombres dansantes La nuit étouffe, la chaleur est lourde, lorage est en suspens Où sont les rêves ? Où sont nos rêves denfants ? Séchapper, déserter les rangs Sévader des tapis roulants Chercher le silence et lerrance Raccrocher, trouver sa cadence Se foutre des codes, des routines étroites Quitter son rôle, les cases et les boîtes Ne pas craquer, claquer, cramer Desserre ton col pour respirer Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère Tas le souffle court respire Quand rien nest facile respire Même si tu te perds respire Et si tout empire espère</t>
+          <t>Vous finirez seuls et vaincus, sourds aux palpitations du monde A ses hoquets, ses hauts ses bas, ses haussements d'épaules veules Au recensement des ossements qui tapissent le fond des eaux Vous finirez seuls et vaincus, aveugles aux débris tenaces De ces vies qui têtues s'enlacent, de ces amours qui ne se lassnt Même lacérées de s hisser à la cime des songeries Vous finirez seuls et vaincus, grands éructants rudimentaires Insouciants face à nos errances sur la rude écale de la Terre Indifférents aux pulsations qui lâchent laisse à l'espérance Vous finirez seuls et vaincus car longue longue est la mémoire Des pieds des peaux des au-revoir, et de ces temps itinérants Où devisant et divisant, vous créez un monde en noir et blanc Vous finirez seuls et vaincus, vos cris vos cors et vos crédos Autorité en toc et broc ne sauront vous sauver de rien L'éclat de nos vies entêtées éblouira vos en-dedans Et vos enfants joyeux et vifs feront rondes et farandoles Avec nos enfants et leurs chants, et s'aimant sans y prendre garde Vous puniront en vous offrant des petits-enfants chatoyants Vous finirez seuls et vaincus car invincible est notre ardeur Et si ardent notre présent, incandescent notre avenir Grâce à la tendresse qui survit à ce passé simple et composé While you're holding on to your bones Holding on to what you know We won't make the same mistakes Stakes are high we claim our fates While you're holding on to your bones seuls Holding on to what you know We won't make the same mistakes seuls Stakes are high we claim our fates vaincus While you're holding on to your bones seuls Holding on to what you know vaincus We won't make the same mistakes seuls Stakes are high we claim our fates Vous finirez seuls et vaincus</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Restavec</t>
+          <t>Solstice</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sandhyas! Sandhyas! Sandhyas! Calling all downs. Calling all downs to dayne. Array! Surrection! Eireweeker to the wohld bludyn world. O rally, O rally, O rally! Phlenxty, O rally! To what lifelike thyne of the bird can be. Seek you somany matters. Haze sea east to Osseania. Here! Here! Tass, Patt, Staff, Woff, Havv, Bluvv and Rutter. The smog is lofting. And already the oldumans olduman has godden up on othertimes to litanate the bonnamours. Sonne feine, somme feehn avaunt! Guld modning, have yous viewsed Piers aube? Thane yaars agon we have used yoors up since when we have fused now orther. Calling all daynes. Calling all daynes to dawn. The old breeding bradsted culminwillth of natures to Foyn MacHooligan. The leader, the leader! Securest jubilends albas Te moram. Clogan slogan. Quake up, dim dusky, wook doom for husky! And let Billey Feghin be baallad out of his humuluation. Confindention to churchen. We have highest gratifications in announcing to pewtewr publikumst of pratician pratyusers, gen-ghis is ghoon for you. A hand from the cloud emerges, holding a chart expanded. The eversower of the seeds of light to the cowld owld sowls that are in the domnatory of Defmut after the night of the carrying of the word of Nuahs and the night of making Mehs to cuddle up in a coddlepot, Pu Nuseht, lord of risings in the yonderworld of Ntamplin, tohp triumphant, speaketh. Vah! Suvarn Sur! Scatter brand to the reneweller of the sky, thou who agnitest! Dah! Arcthuris comeing! Be! Verb umprin-cipiant through the trancitive spaces! Kilt by kelt shell kithagain with kinagain. We elect for thee, Tirtangel. Svadesia salve! We Durbalanars, theeadjure. A way, the Margan, from our astamite, through dimdom done till light kindling light has led we hopas but hunt me the journeyon, iteritinerant, the kal his course, amid the semitary of Somnionia. Even unto Heliotropolis, the castellated, the enchanting. Now if soomone felched a twoel and soomonelses warmet watter we could, while you was saying Morkret Miry or Smud, Brunt and Rubbinsen, make sunlike sylp om this warful dunes battam. Yet clarify begins at. Whither the spot for? Whence the hour by? See but! Lever hulme! Take in. Respassers should be pursaccoutred. Qui stabat Meins quan-tum qui stabat Peins. As of yours. We annew. Our shades of minglings mengle them and help help horizons. A flasch and, rasch, it shall come to pasch, as hearth by hearth leaps live. For the tanderest stock with the rosinost top Ahlen Hills, clubpub-ber, in general stores and. Atriathroughwards, Lugh the Brathwacker will be the listened after and he larruping sparks out of his teiney ones. The spearspid of dawnfire totouches ain the tablestoane ath the centre of the great circle of the macroliths of Helusbelus in the boshiman brush on this our peneplain by Fan-galuvu Bight whence the horned cairns erge, stanserstanded, to floran frohn, idols of isthmians. Overwhere. Gaunt grey ghostly gossips growing grubber in the glow. Past now pulls. Cur one beast, even Dane the Great, may treadspath with sniffer he snout impursuant to byelegs. Edars chuckal humuristic. But why pit the cur afore the noxe? Let shrill their duan Gallus, han, and she, hou the Sassqueehenna, makes ducks-runs at crooked. Once for the chantermale, twoce for the pother and once twoce threece for the waither. So an inedible yellow-meat turns out the invasable blackth. Kwhat serves to rob with Alliman, saelior, a turnkeyed trot to Seapoint, pierrotettes, means Noels Bar and Julepunsch, by Joge, if youve tippertaps in your head or starting kursses, tailour, youre silenced at Henge Ceol- leges, Exmooth, Ostbys for ost, boys, each and one? Death banes and the quick quoke. But life wends and the dombs spake! Whake? Hill of Hafid, knock and knock, nachasach, gives relief to the langscape as he strauches his lamusong untoupon gazelle channel and the bride of the Bryne, shin high shake, is dotter than evar for a damse wed her farther. Lambel on the up! We may plesently heal Geoglyphys twentynine ways to say good-bett an wassing seoosoon liv. With the forty wonks winking please me your much as to. With her tup. Its a long long ray to Newirglands premier. For korps, for streamfish, for confects, for bullyoungs, for smearsassage, for patates, for steaked pig, for men, for limericks, for waterfowls, for wagsfools, for louts, for cold airs, for late trams, for curries, for curlews, for leekses, for orphalines, for tunnygulls, for clear goldways, for lungfortes, for moonyhaunts, for fairmoneys, for coffins, for tantrums, for armaurs, for waglugs, for rogues comings, for sly goings, for larksmathes, for homdsmeethes, for quailsmeathes, kilalooly. Tep! Come lead, crom lech! Top. Wisely for us Old Bruton has withdrawn his theory. You are alpsulumply wroght! Amsu-lummmm. But this is perporteroguing youpoorapps? Naman tanai. Sure its not revieng your? Amslu! Good all so. We seem to understand apad vellumtomes muniment, Arans Duhkha, among hoseshoes, cheriotiers and etceterogenious bargainbout-barrows, ofver and umnder, since, evenif or although, in double preposition as in triple conjunction, how the mudden research in the topaia that was Mankaylands has gone to prove from the picalava present in the maramara melma that while a successive generation has been in the deep deep deeps of Deepereras. Buried hearts. Rest here. Conk a dook hell doo. Svap. So let him slap, the sap! Till they take down his shatter from his shap. He canease. Fill stap. Thus faraclacks the friarbird. Listening, Syd! The child, a natural child, thenown by the mnames of, aya! aya!, wouldbewas kidnapped at an age of recent probably, possibly remoter or he conjured himself from seight by slide at hand for which thetheatron is a lemoronage at milch-goat fairmesse in full dogdhis sod on a fall pat the hundering blundering dunderfunder of plundersundered manhood behold, he returns renascenent fincarnate still foretold around the hearth-side at matin a fact hailed chimers ersekind foe purmanant, fum in his mow awike in wave risurging into chrest victis poenis hesternis fostfath of solas fram choicest of wiles with warmen and sogns til Banba, burial aranging under articles thirtynine of the reconstitution by the lords order of the canon consecrand-able earthlost that we thought him pesternost, the noneknown worrier from Tumbarumba mountain in persence of whole landslots forebe all the rassias sire of leery subs of dub the Dig-gins, Woodenhenge, as to hang out at with spawnish oel full his angalach the sousenugh gnomeosulphidosalamermauderman the big brucer, fert in fort Gunnar, of The Gunnings, Gund one of the two or three forefivest fellows a bloke could in holiday crowd encounter benedicted be the barrel kilderkins, lids off a roache, an oxmaster, a sort of heaps, a pamphilius, a vintivat niviceny, a hygiennic contrivance socalled from the editor the thick of your thigh you knox quite talking to the vicars joy and ruth the gren, woid and glue been broking by the maybole gards he when no crane in Elga is heard upout to speak this lay without links, without impediments, with gygantogyres, with freeflawformsparasama to himself atman as evars whom otherwise becauses no puler as of old but as of young a palatin whitelock not lacked nor temperasoleon though he appears a funny colourstoatters some but a quite a big bug after the dahlias place inspectorum sarchent also the hullow chyst ex-cavement astronomically fabulafigured as Jambudvispa Vipra foresaw of him the last half versicle repurchasing his pawned word sorensplit and paddypatched and pfor to pfinish our pfun of a pfan coalding the keddle mickwhite sure, straight, slim, sturdy, serene, synthetical, swift. By the antar of Yasas! Ruse made him worthily achieve inherited wish. The drops upon that mantle rained never around Fingal. Goute! Loughlins Salts, Will, make a newman if any- worn. Soe? La! Lamfadars arm it has cocoincidences. You mean to see we have been hadding a sound nights sleep? You may so. It is just, it is just about to, it is just about to rolywholyover. Svapnasvap. Of all the stranger things that ever not even in the hundrund and badst pageans of unthowsent and wonst nice or in eddas and oddes bokes of tomb, dyke and hollow to be have happened! The untireties of livesliving being the one substrance of a streamsbecoming. Totalled in toldteld and teldtold in tittle-tell tattle. Why? Because, graced be Gad and all giddy gadgets, in whose words were the beginnings, there are two signs to tum to, the yest and the ist, the wright side and the wronged side, feeling aslip and wauking up, so an, so farth. Why? On the sourd-site we have the Moskiosk Djinpalast with its twin adjacencies, the bathouse and the bazaar, allahallahallah, and on the sponthe-site it is the alcovan and the rosegarden, boony noughty, all pura puthry. Why? Ones apurr apuss a story about brid and break fedes and parricombating and coushcouch but others is of tholes and oubworn buyings, dolings and chafferings in heat, contest and enmity. Why? Every talk has his stay, vidnis Shavarsanjivana, and all-a-dreams perhapsing under lucksloop at last are through. Why? It is a sot of a swigswag, systomy dystomy, which evera-body you ever anywhere at all doze. Why? Such me. And howpsadrowsay. Lok! A shaft of shivery in the act, anilancinant. Colds sleuth! Vayuns! Where did thots come from? It is infinitesimally fevers, resty fever, risy fever, a coranto of aria, sleeper awakening, in the smalls of ones back presentiment, gip, and again, geip, a flash from a future of maybe mahamayability through the windr of a wondr in a wildr is a weltr as a wirbl of a warbl is a world. Tom. It is perfect degrees excelsius. A jaladaew still stilleth. Cloud lay but mackrel are. Anemone activescent, the torporature is re-turning to mornal. Humid nature is feeling itself freely at ease with the all fresco. The vervain is to herald as the grass admini-sters. They say, they say in effect, they really say. You have eaden fruit. Say whuit. You have snakked mid a fish. Telle whish. Every those personal place objects if nonthings where soevers and they just done been doing being in a dromo of todos with-outen a bound to be your trowers. Forswundled. You hald him by the tap of the tang. Not a salutary sellable sound is since. In-steed for asteer, adrift with adraft. Nuctumbulumbumus wander wards the Nil. Victorias neanzas. Alberths neantas. It was a long, very long, a dark, very dark, an allburt unend, scarce endurable, and we could add mostly quite various and somenwhat stumble-tumbling night. Endee he sendee. Diu! The has goning at gone, the is coming to come. Greets to ghastern, hie to morgning. Dor-midy, destady. Doom is the faste. Well down, good other! Now day, slow day, from delicate to divine, divases. Padma, brighter and sweetster, this flower that bells, it is our hour or risings. Tickle, tickle. Lotus spray. Till herenext. Adya. Take thanks, thankstum, thamas. In that earopean end meets Ind. There is something supernoctural about whatever you called him it. Panpan and vinvin are not alonety vanvan and pinpin in your Tamal without tares but simplysoley they are they. This-utter followis that odder fellow. Himkim kimkim. Old yeaster loaves may be a stale as a stub and the pitcher go to aftoms on the wall. Mildew, murk, leak and yarn now want the bad that they lied on. And your last words todate in camparative accousto-mology are going to tell stretch of a fancy through strength to wards joyance, adyatants, where he gets up. Allay for allay, a threat for a throat. Tim! To them in Ysat Loka. Hearing. The urb it orbs. Thens now with nows then in tense continuant. Heard. Who having has he shall have had. Hear! Upon the thuds trokes truck, chim, it will be exactlyso fewer hours by so many minutes of the ope of the diurn of the sennight of the maaned of the yere of the age of the madamanvantora of Grossguy and Littleylady, our hugibus hugibum and our weewee mother, actaman house-truewith, and their childer and their napirs and their napirs childers napirs and their chattels and their servance and their cognance and their ilks and their orts and their everythings that is be will was theirs. Much obliged. Time-o-Thay! But wherth, O clerk? Whithr a clonk? Vartman! See you not soo the pfath they pfunded, oura vatars that arred in Himmal, harruad bathar na-mas, the gow, the stiar, the tigara, the liofant, when even thurst was athar vetals, mid trefoils slipped the sable rampant, hoof, hoof, hoof, hoof, padapodopudupedding on fattafottafutt. Ere we are! Signifying, if tungs may tolkan, that, primeval condi-tions having gradually receded but nevertheless the emplacement of solid and fluid having to a great extent persisted through intermittences of sullemn fulminance, sollemn nuptialism, sallemn sepulture and providential divining, making possible and ever inevitable, after his a time has a tense haves and havenots hesitency, at the place and period under consideration a socially organic entity of a millenary military maritory monetary morphological circumformation in a more or less settled state of equonomic ecolube equalobe equilab equilibbrium. Gam on, Gearge! Nomo-morphemy for me! Lessnatbe angardsmanlake! You jast gat a tache of army on the stumuk. To the Angar at Anker. Aecquo-tincts. Seeworthy. Lots thankyouful, polite pointsins! Theres a tavarn in the tarn. Tip. Take Tamotimos topical. Tip. Browne yet Noland. Tip. Advert. Where. Cumulonubulocirrhonimbant heaven electing, the dart of desire has gored the heart of secret waters and the poplarest wood in the entire district is being grown at present, eminently adapted for the requirements of pacnincstricken humanity and, between all the goings up and the whole of the comings down and the fog of the cloud in which we toil and the cloud of the fog under which we labour, bomb the things to be domb about it so that, beyond indicating the locality, it is felt that one cannot with advantage add a very great deal to the aforegoing by what, such as it is to be, follows, just mentioning however that the old man of the sea and the old woman in the sky if they dont say nothings about it they dont tell us lie, the gist of the pantomime, from cannibal king to the property horse, being, slumply and slopely, to remind us how, in this drury world of ours, Father Times and Mother Spacies boil their kettle with their crutch. Which every lad and lass in the lane knows. Hence. Polycarp pool, the pool of Innalavia, Saras the saft as, of meadewy marge, atween Deltas Piscium and Sagittariastrion, whereinn once we lave tis alve and vale, minnyhahing here from hiarwather, a poddlebridges in a passabed, the river of lives, the regenerations of the incarnations of the emanations of the appa-rentations of Funn and Nin in Cleethabala, the kongdomain of the Alieni, an accorsaired race, infester of Libnud Ocean, Moyla-more, let it be! Where Allbroggt Neandser tracking Viggynette Neeinsee gladsighted her Linfian Fall and a teamdiggingharrow turned the first sod. Sluce! Caughterect! Goodspeed the blow! Incidentally tis believed that his harpened before Gages Fane for it has to be over this booty spotch, though some hours to the wester, that ex-Colonel Houses preterpost heiress is to re-turn unto the outstretcheds of Dweyr OMichaels loinsprung the blunterbusted pikehead which his had hewn in hers, pro-longed laughter words. There an alomdree begins to green, soreen seen for loveseat, as we know that should she, for by essentience his law, so it make all. It is scainted to Vitalba. And her little white bloomkins, twittersky trimmed, are hobdoblins hankypanks. Saxenslyke our anscessers thought so darely on now theyre going soever to Anglesen, free of juties, dyrt chapes. There too a slab slobs, immermemorial, the only in all swamp. But so bare, so boulder, brag sagging such a brr bll bmm show that, of Barindens, the white alfred, it owed to have at leased some butchups upperon. Homos Circas Elochlannensis! His showplace at Leeambye. Old Wommany Wyes. Pfif! But, while gleam with gloom swan here and there, this shame rock and that whispy planter tell Paudheen Steel-the-Poghue and his perty Molly Vardant, in goodbroomirish, arrah, this place is a proper and his feist a ferial for curdnal communial, so be who would celibrate the holy mystery upon or that the pirigrim from Mainy-lands beatend, the calmleaved hutcaged by that look whose glaum is sure he means bisnisgels to empalmover. A naked yogpriest, clothed of sundust, his oakey doaked with frondest leoves, offrand to the ewon of her owen. Tasyam kuru salilakriyamu! Pfaf! Bring about it to be brought about and it will be, loke, our lake lemanted, that greyt lack, the citye of Is is issuant atlanst!, urban and orbal, through seep froms umber under wasseres of Erie. Lough! Hwo! Hwy, dairmaidens? Asthoreths, assay! Earthsigh to is heavened. Hillsengals, the daughters of the cliffs, responsen. Longsome the samphire coast. From thee to thee, thoo art it thoo, that thouest there. The like the near, the liker nearer. O sosay! A family, a band, a school, a clanagirls. Fiftines andbut fortines by novanas andor vantads by octettes ayand decadendecads by a lunary with last a lone. Whose every has herdifferent from the similies with her site. Sicut campanulae petalliferentes they coroll in caroll round Botany Bay. A dweam of dose innocent dirly dirls. Keavn! Keavn! And they all setton voicies about singsing music was Keavn! He. Only he. Ittle he. Ah! The whole clangalied. Oh! S. Wilhelminas, S. Gardenias, S. Phibias, S. Veslandruas, S. Clarindas, S. Immeculas, S. Dolores Delphins, S. Perlan-throas, S. Errands Gays, S. Eddaminivas, S. Rhodamenas, S. Ruadagaras, S. Drimicumtras, S. Una Vestitys, S. Mintargisias, S. MishaLa-Valses, S. Churstrys, S. Clouonaskieyms, S. Bella-visturas, S. Santamontas, S. Ringsingsunds, S. Heddadin Drades, S. Glacianivias, S. Waidafriras, S. Thomassabbesss and trema! unloud!! pepet!!! S. Loellisotoelles! Prayfulness! Prayfulness! Euh! Thaet is seu whaet shaell one naeme it! The meidinogues have tingued togethering. Ascend out of your bed, cavern of a trunk, and shrine! Kathlins is kitchin. Soros cast, ma brone! You must exterra acquarate to interirigate all the arkypelicans. The austrologer Wallaby by Tolan, who farshook our showrs from Newer Aland, has signed the you and the now our mandate. Milenesia waits. Be smark. One seekings. Not the lithe slender, not the broad roundish near the lithe slender, not the fairsized fullfeatured to the leeward of the broad roundish but, indeed and inneed, the curling, perfect-portioned, flowerfleckled, shapely highhued, delicate features swaying to the windward of the fairsized fullfeatured. Was that in the air about when something is to be said for it or is it someone imparticular who will somewherise for the whole anyhow? What does Coemghen? Tell his hidings clearly! A woodtoo-gooder. Is his moraltack still his best of weapons? How about a little more goaling goold? Rowlins tun he gadder no must. It is the voice of Roga. His face is the face of a son. Be thine the silent hall, O Jarama! A virgin, the one, shall mourn thee. Rogas stream is solence. But Croona is in adestance. The ass of the ODwyer of Greyglens is abrowtobayse afeald in his terroirs of the Potter-tons forecoroners, the reeks around the burleyhearthed. When visited by an indepondant reporter, Mike Portlund, to burrow burning the lattermans Resterant so is called the gortan in ques-ture he mikes the fallowing for the Durban Gazette? firstcoming issue. From a collispendent. Any were. Deemsday. Bosse of Upper and Lower Byggotstrade, Ciwareke, may he live for river! The Games funeral at Valleytemple. Saturnights pomps, exhabiting that corricatore of a harss, revealled by Oscur Camerad. The last of Dutch Schulds, perhumps. Pipe in Dream Cluse. Uncovers Pub History. The Outrage, at Length. Affected Mob Follows in Reli-gious Sullivence. Rinvention of vestiges by which they drugged the buddhy. Moviefigure on in scenic section. By Patathicus. And there, from out of the scuity, misty Londan, along the canavan route, that is with the years gone, mild beam of the wave his polar bearing, steerner among stars, trust touthena and you tread true turf, comes the sorter, Mr Hurr Hansen, talking allthe-ways in himself of his hopes to fall in among a merryfoule of maidens happynghome from the dance, his knyckle allaready in his knackskey fob, a passable compatriate proparly of the Grimstad galleon, old pairs frieze, feed up to the noxer with their geese and peeas and oats upon a trencher and the toyms hed lust in Wooming but with that smeoil like a grace of backoning over his egglips of the sunsoonshine. Heres heering you in a guessmasque, latterman! And such an improofment! As royt as the mail and as fat as a fuddle! Schoen! Shoan! Shoon the Puzt! A penny for your thought abouts! Tay, tibby, tanny, tummy, tasty, tosty, tay. Batch is for Baker who baxters our bread. O, what an ovenly odour! Butter butter! Bring us this days our maily bag! But receive me, my frensheets, from the emerald dark winterlong! For diss is the doss for Eilder Downes and dass is it duss, as singen sengers, what the hardworking straightwalking stoutstamping securelysealing officials who trow to form our G.M.P.s pass muster generally shay for shee and sloo for slee when butting their headd to the pillow for a night-shared nakeshift with the alter girl they tuck in for sweepsake. Dutiful wealker for his hydes of march. Haves you the time. Hans ahike? Heard you the crime, senny boy? The man was giddy on letties on the dewry of the duary, be pursueded, whethered with entrenous, midgreys, dagos, teatimes, shadows, nocturnes or samoans, if wellstocked fillerouters plushfeverfraus with dopy chonks, and this, that and the other pigskin or muffle kinkles, taking a pipe course or doing an anguish, seen to his fleece in after his foull, when Dr Chart of Greet Chorsles street he changed his backbone at a citting. He had not the declaination, as what with the foos as whet with the fays, but so far as hanging a goobes on the precedings, wherethen the lag allows, it mights be anything after darks. Which the deers alones they sees and the darkies they is snuffing of the wind up. Debbling. Greanteavvents! Hyacinssies with heliotrollops! Not once fullvixen freakings and but dubbledecoys! It is a lable iction on the porte of the cuthulic church and summum most atole for it. Where is that blinketey blanketer, that quound of a pealer, the sunt of a hunt whant foxes good men! Where or he, our loved among many? But what does Coemghem, the fostard? Tyro a tora. The novened iconostase of his blueygreyned vitroils but begins in feint to light his legend. Let Phosphoron proclaim! Peechy peechy. Say he that saw him that saw! Man shall sharp run do a get him. Ask no more, Jerry mine, Rogas voice! No pice soorkabatcha. The bog which puckerooed the posy. The vinebranch of Heremonheber on Bregias plane where Teffia lies is leaved invert and fructed proper but the cublic hatches endnot open yet for hourly rincers mess. Read Higgins, Cairns and Egen. Malthus is yet lukked in close. Withun. How swathed there-answer alcove makes theirinn! Besoakers loiter on. And primi libatory solicates of limon sodias will be absorbable. It is not even yet the engine of the load with haled morries full of crates, you mattinmummur, for dombell dumbs? Sure and tis not then. The greek Sideral Reulthway, as it havvents, will soon be starting a smooth with its first single hastencraft. Danny buz-zers instead of the vialact coloured milk train on the fartykket plan run with its endless gallaxion of rotatorattlers and the smool-troon our elderens rememberem as the scream of the service, Strubry Bess. Also the waggonwobblers are still yet everdue to precipitate after nights combustion. Aspect, Shamus Rogua or! Taceate and! Hagiographice canat Ecclesia. Which aubrey our first shall show. Inattendance who is who is will play thats whats that to whats that, what. Oyes! Oyeses! Oyesesyeses! The primace of the Gaulls, pro-tonotorious, I yam as I yam, mitrogenerand in the free state on the air, is now aboil to blow a Gael warning. Inoperation Eyr-lands Eyot, Meganesia, Habitant and the onebut thousand insels, Western and Osthern Approaches. Of Kevin, of increate God the servant, of the Lord Creator a filial fearer, who, given to the growing grass, took to the tall tim-ber, slippery dick the springy heeler, as we have seen, so we have heard, what we have received, that we have transmitted, thus we shall hope, this we shall pray till, in the search for love of knowledge through the comprehension of the unity in altruism through stupefaction, it may again how it may again, shearing aside the four wethers and passing over the dainty daily dairy and dropping by the way the lapful of live coals and smoothing out Nelly Nettle and her lad of mettle, full of stings, fond of stones, friend of gnewgnawns bones and leaving all the messy messy to look after our douche douche, the miracles, death and life are these. Yad. Procreated on the ultimate ysland of Yreland in the en-cyclical yrish archipelago, come their feast of precreated holy whiteclad angels, whomamong the christener of his, voluntarily poor Kevin, having been graunted the praviloge of a priests postcreated portable altare cum balneo, when espousing the one true cross, invented and exalted, in celibate matrimony at matin chime arose and westfrom went and came in alb of cloth of gold to our own midmost Glendalough-le-vert by archangelical guid-ance where amiddle of meeting waters of river Yssia and Essia river on this one of eithers lone navigable lake piously Kevin, lawding the triune trishagion, amidships of his conducible altar super bath, rafted centripetally, diaconal servent of orders hiber-nian, midway across the subject lake surface to its supreem epi centric lake Ysle, whereof its lake is the ventrifugal principality, whereon by prime, powerful in knowledge, Kevin came to where its centre is among the circumfluent watercourses of Yshgafiena and Yshgafiuna, an enysled lakelet yslanding a lacustrine yslet, whereupon with beached raft subdiaconal bath propter altar, with oil extremely anointed, accompanied by prayer, holy Kevin bided till the third morn hour but to build a rubric penitential honeybeehivehut in whose enclosure to live in fortitude, acolyte of cardinal virtues, whereof the arenary floor, most holy Kevin excavated as deep as to the depth of a seventh part of one full fathom, which excavated, venerable Kevin, anchorite, taking counsel, proceded towards the lakeside of the ysletshore whereat seven several times he, eastward genuflecting, in entire ubidience at sextnoon collected gregorian water sevenfold and with am-brosian eucharistic joy of heart as many times receded, carrying that privileged altar unacumque bath, which severally seven timcs into the cavity excavated, a lector of water levels, most venerable Kevin, then effused thereby letting there be water where was there-tofore dry land, by him so concreated, who now, confirmed a strong and perfect christian, blessed Kevin, exorcised his holy sister water, perpetually chaste, so that, well understanding, she should fill to midheight his tubbathaltar, which hanbathtub, most blessed Kevin, ninthly enthroned, in the concentric centre of the trans-lated water, whereamid, when violet vesper vailed, Saint Kevin, Hydrophilos, having girded his sable cappa magna as high as to his cherubical loins, at solemn compline sat in his sate of wis-dom, that handbathtub, whereverafter, recreated doctor insularis of the universal church, keeper of the door of meditation, memory extempore proposing and intellect formally considering, recluse, he meditated continuously with seraphic ardour the primal sacra-ment of baptism or the regeneration of all man by affusion of water. Yee. Bisships, bevel to rocks rite! Sarver buoy, extinguish! Nuota-bene. The rare view from the three Benns under the bald heaven is on the other end, askan your blixom on dimmen and blastun, something to right hume about. They were erected in a purvious century, as a hen fine coops and, if you know your Bristol and have trudged the trolly ways and elventurns of that old cobbold city, you will sortofficially scribble a mental PenyKnox-Gore. Whether they were franklings by name also has not been fully probed. Their design is a whosold word and the charming de-tails of light in dark are freshed from the feminiairity which breathes content. O ferax cupla! Ah, fairypair! The first exploder to make his ablations in these parks was indeed that lucky mortal which the monster trial showed on its first day out. What will not arky paper, anticidingly inked with penmark, push, per sample prof, kuvertly falted, when style, stink and stigmataphoron are of one sum in the same person? He comes out of the soil very well after all just where Old Toffler is to come shuffling along-soons Panniquanne starts showing of her peequuliar talonts. Awaywrong wandler surking to a rightrare rute for his plain utterrock sukes, appelled to by her fancy claddaghs. You plied that pokar, gamesy, swell as aye did, while there were flickars to the flores. He may be humpy, nay, he may be dumpy but there is always something racey about, say, a sailor on a horse. As soon as we sale him geen we gates a sprise! He brings up tofatufa and that is how we get to Missas in Massas. The old Marino tale. We veriters verity notefew demmed lustres priorly magistrite maxi-mollient in ludubility learned. Facst. Teak off that wise head! Great sinner, good sonner, is in effect the motto of the MacCowell family. The gloved fist skrimmhandsker was intraduced into their socerdatal tree before the fourth of the twelfth and it is even a little odd all four horolodgeries still gonging restage Jakob van der Bethel, smolking behing his pipe, with Essav of Messagepostumia, lentling out his borrowed chafingdish, before cymbaloosing the apostles at every hours of changeover. The first and last rittlerattle of the anniverse when is a nam nought a nam whenas it is a. Watch! Heroes Highway where our fleshers leave their bonings and every bob and joan to fill the bumper fair. It is their segnall for old Champelysied to seek the shades of his retirement and for young Chappielassies to tear a round and tease their partners lovesoftfun at Finnegans Wake. And its high tigh tigh. Titley hi ti ti. That my dig pressed in your dag si. Gnug of old Gnig. Ni, gnid mig brawly! I bag your burden. Mees is thees knees. Thi is Mi. We have caught one-selves, Sveasmeas, in somes incontigruity coumplegs of heopon hurrish marrage from whose I most sublumbunate. A polog, my engl! Excutes. Om still so sovvy. Whyle om till ti ti. Ha! Dayagreening gains in schlimninging. A summerwint spring-falls, abated. Hail, regn of durknass, snowly receassing, thund lightening thund, into the dimbelowstard departamenty whither-out, soon hist, soon mist, to the hothehill from the hollow, Solsking the Frist attempted by the admirable Captive Bunting and LoftonantCornel Blaire will processingly show up above Tumplen Bar whereupont he was much jubilated by Boerge-mester Dyk ffogg of Isoles, now Eisold, looking most plussed with exhib 39 a clout capped sunbubble anaccanponied from his bequined torse. Up. Blanchardstown mewspeppers pleads coppyl. Gracest good-ness, heave mensy upponnus! Grand old Manbutton, give your bowlers a rest! It is a mere mienerism of this vague of visibilities, mark you, as accorded to by moisturologist of the Brehons Assorceration for the advauncement of scayence because, my dear, mentioning of it under the breath, as in pure what bunkum! essenesse, there have been disselving forenenst you just the draeper, the two drawpers assisters and the three droopers assessors confraterni-tisers. Who are, of course, Uncle Arth, your two cozes from Niece and kunject a bit now! our own familiars, Billyhealy, Bally-hooly and Bullyhowley, surprised in an indecorous position by the Sigurd Sigerson Sphygmomanometer Society for bled-prusshers. Knightsmore. Haventyne? Ha ha! This Mister Ireland? And a live? Ay, ay. Aye, aye, baas. The cry of Stena chills the vitals of slumbring off the motther has been pleased into the harms of old salaciters, meassurers soon and soon, but the voice of Alina gladdens the cockly-hearted dreamerish for that magic moning with its ching chang chap sugay kaow laow milkee muchee bringing becker-brose, the brew with the foochoor in it. Sawyest? Nodt? Nyets, I dhink I sawn to remumb or sumbsuch. A kind of a thinglike all traylogged then pubably it resymbles a pe</t>
+          <t>Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Knowledge of the infinite Even if you got it just a little bit Soon as you feel the ground start shaking All your doubts and fears start waking Baby cries through the concrete Genocide, lost the breath of life under Gods feet Genocide of the angels Even murdered instruments, trumpets, banjos But I still hear singing Mixed between the crying Sirens ringing Buried my whole tribe I'm crying, thinking Rescue us from Zion God ain't blinking Bodies, how they pile on Clock ain't ticking On face had a smile on Plot just thickened Courage of a lion, nine-life kitten Wandering through iron bars, once prison Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Ils comprennent rien les soumis, les idiots, les vulgaires A la tristesse de l'Eden, aux clartés de l'Enfer Il faut goûter son sang car le sang est esprit On suicide un silence en accouchant d'un cri J'habite un désastre sous la colère des Dieux Où le monde doit s'éteindre pour qu'on ouvre les yeux Et le vin à la bouche, et le coeur sous le pieu On fera voeu de renaître de quelques cendres de feu J'effeuille les corolles de ce qu'on veut de la vie Un peu de vent sur la peau, les caresses d'une fille S'envolaient tout là haut pour gratter l'équinoxe Etre un arbre écrivain en s'écorchant l'écorce Mais tout ça s'est cassé en un éclair, coincé Sous une chape de béton armé Mes enfants, le solstice c'est dans longtemps Mais longtemps c'est maintenant Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Seuls et vaincus</t>
+          <t>Tailler la route</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Vous finirez seuls et vaincus, sourds aux palpitations du monde A ses hoquets, ses hauts ses bas, ses haussements d'épaules veules Au recensement des ossements qui tapissent le fond des eaux Vous finirez seuls et vaincus, aveugles aux débris tenaces De ces vies qui têtues s'enlacent, de ces amours qui ne se lassnt Même lacérées de s hisser à la cime des songeries Vous finirez seuls et vaincus, grands éructants rudimentaires Insouciants face à nos errances sur la rude écale de la Terre Indifférents aux pulsations qui lâchent laisse à l'espérance Vous finirez seuls et vaincus car longue longue est la mémoire Des pieds des peaux des au-revoir, et de ces temps itinérants Où devisant et divisant, vous créez un monde en noir et blanc Vous finirez seuls et vaincus, vos cris vos cors et vos crédos Autorité en toc et broc ne sauront vous sauver de rien L'éclat de nos vies entêtées éblouira vos en-dedans Et vos enfants joyeux et vifs feront rondes et farandoles Avec nos enfants et leurs chants, et s'aimant sans y prendre garde Vous puniront en vous offrant des petits-enfants chatoyants Vous finirez seuls et vaincus car invincible est notre ardeur Et si ardent notre présent, incandescent notre avenir Grâce à la tendresse qui survit à ce passé simple et composé While you're holding on to your bones Holding on to what you know We won't make the same mistakes Stakes are high we claim our fates While you're holding on to your bones seuls Holding on to what you know We won't make the same mistakes seuls Stakes are high we claim our fates vaincus While you're holding on to your bones seuls Holding on to what you know vaincus We won't make the same mistakes seuls Stakes are high we claim our fates Vous finirez seuls et vaincus</t>
+          <t>Entre deux gros concerts, entre deux courants d'air Entre ceux qui disent oui qui disent non j'ai fait l'inventaire Si rester c'est l'enfer, si partir c'est dans l'air Est-ce que je dois secouer 40 années de ma vie de sédentaire ? Et pourquoi je quitterais la vue que j'ai depuis ma terrasse ? Elle est très bien ma vue, il est très bien mon quartier Et pourquoi je quitterais mes potes et mon voisin d'en face ? C'est ici qu'j'suis moi-même et serein et entier Et pourtant ça me tente, et pourtant ça me chante Et pourtant ça rentre pas dans mon schéma et c'est ça qui se tente Et pourtant je le sens, je le crains, je le fuis et je le veux Tailler un peu la route avant d'être vieux Comprendre les couleurs et les douceurs des lointaines chaleurs Apprendre les lumières lunaires des cités étrangères Voir avec bonheur comment les enfants dansent ailleurs Me fabriquer d'autres repères pour quand je ferme les paupières Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Il ne savent pas que je mords, que ma vie sent le souffre Je passe en météore comme on passera tous J'suis fait de pierre granit mais d'un cur grenadine Quand t'effriteras ton shit moi je taillerai ma mine Ouais je taillerai la route, ici j'ai plus d'attache J'irai m'planquer dans la soute si pour moi y'a plus la place Qu'ils aillent gratter leurs croûtes cette bande de fils de lâches Obsédés par leur souche moi j'suis amoureux du large J'veux faire des milliers de miles, me languir de mille romans M'arrimer au rythme lent, l'ire en moi la calmer de milliers de mots Admirer le monde, la lune, l'onde de la mer au loin La lumière de l'aube sur l'eau en naviguant d'îles en îlots Éviter les vagues et livrer combat à l'hydre du Mal J'ai vidé les larmes, de longue date j'habite le large S'attifer de l'or des jours qui passent pour raviver l'âme Marcher le feu dans la lanterne jusqu'à Lalilbela On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va J'aime être seul partir à la pêche Même si je pêche pas partir à la fraîche Moi j'ai la parole sèche Quand mon apparence triche Je fais pas très bien semblant Quand mon apparence flanche Je prends pas souvent sur moi Je prends trop souvent sur ceux qui m'entourent et qui m'aiment Et pour qu'ils se ressourcent eux de mes tristes rengaines Régulièrement je me retire Je pars ou je peux dire Rien si je veux Régulièrement je me retire Désolé mais sans rire Je te dirai jamais Viens si tu veux Ça veut dire que je t'aime mais que je me connais Passée la quarantaine je vais pas beaucoup changer Je vais quitter là mes chaînes, là mes chaînes, là mes chaînes Et quand je reviendrai l'âme saine, l'âme saine, l'âme saine C'est que j'aurais voyagé Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Solstice</t>
+          <t>Take Me To Paris - Episode 6 - “Freedom”</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Knowledge of the infinite Even if you got it just a little bit Soon as you feel the ground start shaking All your doubts and fears start waking Baby cries through the concrete Genocide, lost the breath of life under Gods feet Genocide of the angels Even murdered instruments, trumpets, banjos But I still hear singing Mixed between the crying Sirens ringing Buried my whole tribe I'm crying, thinking Rescue us from Zion God ain't blinking Bodies, how they pile on Clock ain't ticking On face had a smile on Plot just thickened Courage of a lion, nine-life kitten Wandering through iron bars, once prison Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Ils comprennent rien les soumis, les idiots, les vulgaires A la tristesse de l'Eden, aux clartés de l'Enfer Il faut goûter son sang car le sang est esprit On suicide un silence en accouchant d'un cri J'habite un désastre sous la colère des Dieux Où le monde doit s'éteindre pour qu'on ouvre les yeux Et le vin à la bouche, et le coeur sous le pieu On fera voeu de renaître de quelques cendres de feu J'effeuille les corolles de ce qu'on veut de la vie Un peu de vent sur la peau, les caresses d'une fille S'envolaient tout là haut pour gratter l'équinoxe Etre un arbre écrivain en s'écorchant l'écorce Mais tout ça s'est cassé en un éclair, coincé Sous une chape de béton armé Mes enfants, le solstice c'est dans longtemps Mais longtemps c'est maintenant Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day Stackerlee losin' money And he throwed the cards away Now Stackerlee, he told Billy Lyon Billy, Im sho' gonna take yo' life Now Stackerlee, Lord, and Billy Lyon They were gamblin' early one day</t>
+          <t>Freedom, freedom, freedom, freedom Freedom, freedom, freedom, freedom Sometimes I feel like a motherless child Sometimes I feel like a motherless child Sometimes I feel like a motherless child And it's a long way from my home Freedom freedom freedom freedom Freedom freedom freedom freedom Insaisissable, poussière de sable dans le vent J'suis vainqueur de mes enclaves Insaisissable, poussière de sable dans le vent J'suis chrysalide d'esclave Je suis l'homme debout, effronté et fier Ma liberté n'a pas genou à terre Je suis dans le besoin d'me réparer J'suis le peuple, j'restaure ma souveraineté Je suis celui que je n'osais plus Ma vie de sécheresse j'l'arroserai plus Dignité héroïque je piétine ma misère XXX mental en ruine j'm'affranchis d'mes frères Émancipé, pas sein d'esprit, soumis d'office Et la mort anticipé pour purger la joie qui guérit les destins J'deviens Gandhi des grands chemins Freedom, freedom, freedom, freedom Freedom, freedom, freedom, freedom Liberté, est un mot qui se crie Tuez nous que les poèmes s'écrivent Qu'ils remplissent de nos mondes tout vos livres Dans la moiteur des nuits et les matins de givre Que les peintres nous rendent la vie Sur les mers de l'oubli qu'ils dessinent des navires Tuez nous qu'on invente des chants Les générations à venir feront de nous des martyrs Debout digne XXX debout Les silhouettes se dessinent pour se souvenir de nous Des hommes géants sortent du néant De la blessure du monde et de son trou béant Des ombres au tableau, des sorcières à Salem Redoutable comme un seul homme se lève La liberté est une formule magique Pour nos curs détenus dans nos cages thoraciques x2</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tailler la route</t>
+          <t>Taxiphone</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Entre deux gros concerts, entre deux courants d'air Entre ceux qui disent oui qui disent non j'ai fait l'inventaire Si rester c'est l'enfer, si partir c'est dans l'air Est-ce que je dois secouer 40 années de ma vie de sédentaire ? Et pourquoi je quitterais la vue que j'ai depuis ma terrasse ? Elle est très bien ma vue, il est très bien mon quartier Et pourquoi je quitterais mes potes et mon voisin d'en face ? C'est ici qu'j'suis moi-même et serein et entier Et pourtant ça me tente, et pourtant ça me chante Et pourtant ça rentre pas dans mon schéma et c'est ça qui se tente Et pourtant je le sens, je le crains, je le fuis et je le veux Tailler un peu la route avant d'être vieux Comprendre les couleurs et les douceurs des lointaines chaleurs Apprendre les lumières lunaires des cités étrangères Voir avec bonheur comment les enfants dansent ailleurs Me fabriquer d'autres repères pour quand je ferme les paupières Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Il ne savent pas que je mords, que ma vie sent le souffre Je passe en météore comme on passera tous J'suis fait de pierre granit mais d'un cur grenadine Quand t'effriteras ton shit moi je taillerai ma mine Ouais je taillerai la route, ici j'ai plus d'attache J'irai m'planquer dans la soute si pour moi y'a plus la place Qu'ils aillent gratter leurs croûtes cette bande de fils de lâches Obsédés par leur souche moi j'suis amoureux du large J'veux faire des milliers de miles, me languir de mille romans M'arrimer au rythme lent, l'ire en moi la calmer de milliers de mots Admirer le monde, la lune, l'onde de la mer au loin La lumière de l'aube sur l'eau en naviguant d'îles en îlots Éviter les vagues et livrer combat à l'hydre du Mal J'ai vidé les larmes, de longue date j'habite le large S'attifer de l'or des jours qui passent pour raviver l'âme Marcher le feu dans la lanterne jusqu'à Lalilbela On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va J'aime être seul partir à la pêche Même si je pêche pas partir à la fraîche Moi j'ai la parole sèche Quand mon apparence triche Je fais pas très bien semblant Quand mon apparence flanche Je prends pas souvent sur moi Je prends trop souvent sur ceux qui m'entourent et qui m'aiment Et pour qu'ils se ressourcent eux de mes tristes rengaines Régulièrement je me retire Je pars ou je peux dire Rien si je veux Régulièrement je me retire Désolé mais sans rire Je te dirai jamais Viens si tu veux Ça veut dire que je t'aime mais que je me connais Passée la quarantaine je vais pas beaucoup changer Je vais quitter là mes chaînes, là mes chaînes, là mes chaînes Et quand je reviendrai l'âme saine, l'âme saine, l'âme saine C'est que j'aurais voyagé Tailler la route Tailler la route On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va On va, on va, on va Tailler la route On va, on va, on va Tailler la route On va, on va, on va</t>
+          <t>Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones Je sortais des rimes pleins de ken ta race dans mes coups d'essai J'étais sapé en baggy Carhartt, shoes sans les lacets Je venais d'Afrique, on me disait tu sais, t'es sous-développé Donc révolté, j'ai dû travailler pour fermer des clapets J'étais la risée de tout le collège, qui, déraciné Qui d'africain dans la cour de récré, mineur isolé Ça jouait les durs, ça parlait de racket et de crans d'arrêt Je venais de là où soufflaient les obus et roulaient les blindés OK OK, la France c'est la paix, la sécurité Mais c'est aussi la morsure du froid et la solitude L'Eldorado n'était pas si beau, nan, Papa nous mentait Si je reste ici, c'est pas pour rapper mais piller les études Les années passent et les feuilles tombent à tous les automnes Et moi je m'étonne d'être encore ici, voyelles et consonnes Ma vie s'écrit sur des bouts de papier, je chante et fredonne Un blues qui ne me quitte plus depuis les bancs d'école, eh ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones Et puis je prends racine dans le bitume, faut chercher la thune Acheter des pulls, ouais le froid nous tue, jamais je ne m'habitue Et toutes les nuits je fais des cauchemars de mes antécédents Je pisse au lit, je rêve qu'Edouard Norton va me casser les dents J'écris pour petite sur, toujours amère, ma vie est insipide Tout m'écure et sans le stylo, ma mère, je vous le jure, je me suicide À l'école je me dissipe, à l'époque, je veux me casser d'ici Tu veux devenir mon pote impossible, ce soir j'ai piscine Je perds la raison, à la maison plein de cadavres dans le placard Nos passés de génocide, d'exil, tout ça n'est que blackout Je cherche le vacarme de la rue, le silence des livres J'habite une cabane sur la lune quand le monde se délite J'ai vu les fins de monde, les carnages, les lynchages à l'essence Et j'observe les jeunes de mon âge, j'envie leur innocence Ne savent pas que tout est possible, que tout peut s'effondrer D'un jour un l'autre, comme dans un roman de Chinua Achebe, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones J'appelle mon père au bled, je rêve de rentrer mais c'est cher le kérosène, t'façon c'est dead Au Nord, l'armée se bat contre les rebelles, c'est le bordel Gosse sans repère, pas bien dans ses Corteiz Entre parenthèses, vivre l'exil c'est être en quarantaine Faut avancer, me répète ma mère, mentalité guerrière Je suis cadenassé par mon passé, j'avance en marche arrière Arraché de mes racines comme brûlé à l'acide Y a pas de psy, seule la musique sera ma catharsis Maintenant j'écris comme je respire, mais je respire empêché Tout m'inspire, j'aspire la vie, j'apprends à l'encaisser Paname, un champ de canne à l'été, je reste assis sur le canapé Je repense à ces années passées, mes premiers textes rappés Quand je sortais plein de ken ta race dans mes coups d'essai J'étais sapé en baggy Carhartt, shoes sans les lacets Je venais d'Afrique, on me disait tu sais, t'es sous-développé Donc révolté, je me suis mis à rapper pour fermer des clapets Souffle</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Take Me To Paris - Episode 6 - “Freedom”</t>
+          <t>Tropical</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Freedom, freedom, freedom, freedom Freedom, freedom, freedom, freedom Sometimes I feel like a motherless child Sometimes I feel like a motherless child Sometimes I feel like a motherless child And it's a long way from my home Freedom freedom freedom freedom Freedom freedom freedom freedom Insaisissable, poussière de sable dans le vent J'suis vainqueur de mes enclaves Insaisissable, poussière de sable dans le vent J'suis chrysalide d'esclave Je suis l'homme debout, effronté et fier Ma liberté n'a pas genou à terre Je suis dans le besoin d'me réparer J'suis le peuple, j'restaure ma souveraineté Je suis celui que je n'osais plus Ma vie de sécheresse j'l'arroserai plus Dignité héroïque je piétine ma misère XXX mental en ruine j'm'affranchis d'mes frères Émancipé, pas sein d'esprit, soumis d'office Et la mort anticipé pour purger la joie qui guérit les destins J'deviens Gandhi des grands chemins Freedom, freedom, freedom, freedom Freedom, freedom, freedom, freedom Liberté, est un mot qui se crie Tuez nous que les poèmes s'écrivent Qu'ils remplissent de nos mondes tout vos livres Dans la moiteur des nuits et les matins de givre Que les peintres nous rendent la vie Sur les mers de l'oubli qu'ils dessinent des navires Tuez nous qu'on invente des chants Les générations à venir feront de nous des martyrs Debout digne XXX debout Les silhouettes se dessinent pour se souvenir de nous Des hommes géants sortent du néant De la blessure du monde et de son trou béant Des ombres au tableau, des sorcières à Salem Redoutable comme un seul homme se lève La liberté est une formule magique Pour nos curs détenus dans nos cages thoraciques x2</t>
+          <t>Freestyle tropical pour le guide du routard La patrie est bancale comme le discours de Dakar Il fait chaud je transpire à grosses gouttes de Mützig Zao, les salops piquent, les soûlards sont des moustiques J'suis coincé au village DJ fais tourner le sample boom-bap du vieux sage Je rappe nonchalamment Jai pas besoin de bonheur, regarde l'espace entre mes dents Je casse casse des nuques Musique de transe, yes passe-passe chamanique J'ai quitté mes bocages loccident luxueux pour mes poisseux marécages J'veux tout laisser derrière j'veux groover sa terre mère le nez dans la poussière La torpeur est torride la sueur aride perle en collier de cauris Tropical... Tropical... Tropical... Tropical... Cool cool je roule boule en foufou Les mots à ma sauce et ma langue fait du kung-fu Ici tout est chinois la route l'hôpital le stade bienvenue chez moi Chez eux Mon village est global assieds-toi mon frère tu veux du thé ou du cobalt Le rythme est dans le pot le pilon le mortier la berceuse des marmots J'mets ma boucle en repeat le village, un cypher, autour du feu qui crépite J't'explique l'esprit de lancêtre a mal à lâme le cybercafé a remplacé l'arbre à palabre Laisse moi zoom zoom zen jte vendrai tout appelle moi mama Benz Ce rap du diable ce gospel du Sahel Cette musique d'ange auréoles sous les aisselles Tropical... Tropical... Tropical... Tropical... Les pales d'un ventilo brassent de l'air trop chaud Tu perds tous tes kilos de muscles Brumeux est ton cerveau la tête dans le frigo pour faire tomber quelques Celsius Les pales dun ventilo brassent de l'air trop chaud Tu perds tous tes kilos de muscles Brumeux est ton cerveau la tête dans le frigo pour faire tomber quelques Celsius Tropical... Tropical... Tropical... Tropical... Tropical... Tropical... Tropical... Tropical...</t>
         </is>
       </c>
     </row>
@@ -1716,61 +1716,10 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Taxiphone</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
-        <is>
-          <t>Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones Je sortais des rimes pleins de ken ta race dans mes coups d'essai J'étais sapé en baggy Carhartt, shoes sans les lacets Je venais d'Afrique, on me disait tu sais, t'es sous-développé Donc révolté, j'ai dû travailler pour fermer des clapets J'étais la risée de tout le collège, qui, déraciné Qui d'africain dans la cour de récré, mineur isolé Ça jouait les durs, ça parlait de racket et de crans d'arrêt Je venais de là où soufflaient les obus et roulaient les blindés OK OK, la France c'est la paix, la sécurité Mais c'est aussi la morsure du froid et la solitude L'Eldorado n'était pas si beau, nan, Papa nous mentait Si je reste ici, c'est pas pour rapper mais piller les études Les années passent et les feuilles tombent à tous les automnes Et moi je m'étonne d'être encore ici, voyelles et consonnes Ma vie s'écrit sur des bouts de papier, je chante et fredonne Un blues qui ne me quitte plus depuis les bancs d'école, eh ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones Et puis je prends racine dans le bitume, faut chercher la thune Acheter des pulls, ouais le froid nous tue, jamais je ne m'habitue Et toutes les nuits je fais des cauchemars de mes antécédents Je pisse au lit, je rêve qu'Edouard Norton va me casser les dents J'écris pour petite sur, toujours amère, ma vie est insipide Tout m'écure et sans le stylo, ma mère, je vous le jure, je me suicide À l'école je me dissipe, à l'époque, je veux me casser d'ici Tu veux devenir mon pote impossible, ce soir j'ai piscine Je perds la raison, à la maison plein de cadavres dans le placard Nos passés de génocide, d'exil, tout ça n'est que blackout Je cherche le vacarme de la rue, le silence des livres J'habite une cabane sur la lune quand le monde se délite J'ai vu les fins de monde, les carnages, les lynchages à l'essence Et j'observe les jeunes de mon âge, j'envie leur innocence Ne savent pas que tout est possible, que tout peut s'effondrer D'un jour un l'autre, comme dans un roman de Chinua Achebe, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones, ouais Ma vie c'est des trains de banlieue Des pavillons gris, des murs tagués, des ciels pluvieux Tellement saudade, on m'appelle Lisbonne Le peu que je gagne, je le claque dans les taxiphones J'appelle mon père au bled, je rêve de rentrer mais c'est cher le kérosène, t'façon c'est dead Au Nord, l'armée se bat contre les rebelles, c'est le bordel Gosse sans repère, pas bien dans ses Corteiz Entre parenthèses, vivre l'exil c'est être en quarantaine Faut avancer, me répète ma mère, mentalité guerrière Je suis cadenassé par mon passé, j'avance en marche arrière Arraché de mes racines comme brûlé à l'acide Y a pas de psy, seule la musique sera ma catharsis Maintenant j'écris comme je respire, mais je respire empêché Tout m'inspire, j'aspire la vie, j'apprends à l'encaisser Paname, un champ de canne à l'été, je reste assis sur le canapé Je repense à ces années passées, mes premiers textes rappés Quand je sortais plein de ken ta race dans mes coups d'essai J'étais sapé en baggy Carhartt, shoes sans les lacets Je venais d'Afrique, on me disait tu sais, t'es sous-développé Donc révolté, je me suis mis à rapper pour fermer des clapets Souffle</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Gaël Faye</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Tropical</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Freestyle tropical pour le guide du routard La patrie est bancale comme le discours de Dakar Il fait chaud je transpire à grosses gouttes de Mützig Zao, les salops piquent, les soûlards sont des moustiques J'suis coincé au village DJ fais tourner le sample boom-bap du vieux sage Je rappe nonchalamment Jai pas besoin de bonheur, regarde l'espace entre mes dents Je casse casse des nuques Musique de transe, yes passe-passe chamanique J'ai quitté mes bocages loccident luxueux pour mes poisseux marécages J'veux tout laisser derrière j'veux groover sa terre mère le nez dans la poussière La torpeur est torride la sueur aride perle en collier de cauris Tropical... Tropical... Tropical... Tropical... Cool cool je roule boule en foufou Les mots à ma sauce et ma langue fait du kung-fu Ici tout est chinois la route l'hôpital le stade bienvenue chez moi Chez eux Mon village est global assieds-toi mon frère tu veux du thé ou du cobalt Le rythme est dans le pot le pilon le mortier la berceuse des marmots J'mets ma boucle en repeat le village, un cypher, autour du feu qui crépite J't'explique l'esprit de lancêtre a mal à lâme le cybercafé a remplacé l'arbre à palabre Laisse moi zoom zoom zen jte vendrai tout appelle moi mama Benz Ce rap du diable ce gospel du Sahel Cette musique d'ange auréoles sous les aisselles Tropical... Tropical... Tropical... Tropical... Les pales d'un ventilo brassent de l'air trop chaud Tu perds tous tes kilos de muscles Brumeux est ton cerveau la tête dans le frigo pour faire tomber quelques Celsius Les pales dun ventilo brassent de l'air trop chaud Tu perds tous tes kilos de muscles Brumeux est ton cerveau la tête dans le frigo pour faire tomber quelques Celsius Tropical... Tropical... Tropical... Tropical... Tropical... Tropical... Tropical... Tropical...</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Gaël Faye</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Want It Back (French Version)</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>He drained his third cup of watery tea to the dregs and set to chewing the crusts of fried bread that were scattered near him, staring into the dark pool of the jar. The yellow dripping had been scooped out like a boghole and the pool under it brought back to his memory the dark turf-coloured water of the bath in Clongowes. The box of pawn tickets at his elbow had just been rifled and he took up idly one after another in his greasy fingers the blue and white dockets, scrawled and sanded and creased and bearing the name of the pledger as Daly or MacEvoy. 1 Pair Buskins 1 D. Coat 3 Articles and White 1 Man's Pants Then he put them aside and gazed thoughtfully at the lid of the box, speckled with louse marks, and asked vaguely How much is the clock fast now? His mother straightened the battered alarm clock that was lying on its side in the middle of the mantelpiece until its dial showed a quarter to twelve and then laid it once more on its side. An hour and twenty-five minutes, she said. The right time now is twenty past ten. The dear knows you might try to be in time for your lectures. Fill out the place for me to wash, said Stephen. Katey, fill out the place for Stephen to wash. Boody, fill out the place for Stephen to wash. I can't, I'm going for blue. Fill it out, you, Maggy. When the enamelled basin had been fitted into the well of the sink and the old washing glove flung on the side of it he allowed his mother to scrub his neck and root into the folds of his ears and into the interstices at the wings of his nose. Well, it's a poor case, she said, when a university student is so dirty that his mother has to wash him. But it gives you pleasure, said Stephen calmly. An ear-splitting whistle was heard from upstairs and his mother thrust a damp overall into his hands, saying Dry yourself and hurry out for the love of goodness. A second shrill whistle, prolonged angrily, brought one of the girls to the foot of the staircase. Yes, father? Is your lazy bitch of a brother gone out yet? Yes, father. Sure? Yes, father. Hm! The girl came back, making signs to him to be quick and go out quietly by the back. Stephen laughed and said He has a curious idea of genders if he thinks a bitch is masculine. Ah, it's a scandalous shame for you, Stephen, said his mother, and you'll live to rue the day you set your foot in that place. I know how it has changed you. Good morning, everybody, said Stephen, smiling and kissing the tips of his fingers in adieu. The lane behind the terrace was waterlogged and as he went down it slowly, choosing his steps amid heaps of wet rubbish, he heard a mad nun screeching in the nuns' madhouse beyond the wall. Jesus! O Jesus! Jesus! He shook the sound out of his ears by an angry toss of his head and hurried on, stumbling through the mouldering offal, his heart already bitten by an ache of loathing and bitterness. His father's whistle, his mother's mutterings, the screech of an unseen maniac were to him now so many voices offending and threatening to humble the pride of his youth. He drove their echoes even out of his heart with an execration but, as he walked down the avenue and felt the grey morning light falling about him through the dripping trees and smelt the strange wild smell of the wet leaves and bark, his soul was loosed of her miseries. The rain-laden trees of the avenue evoked in him, as always, memories of the girls and women in the plays of Gerhart Hauptmann and the memory of their pale sorrows and the fragrance falling from the wet branches mingled in a mood of quiet joy. His morning walk across the city had begun, and he foreknew that as he passed the sloblands of Fairview he would think of the cloistral silver-veined prose of Newman that as he walked along the North Strand Road, glancing idly at the windows of the provision shops, he would recall the dark humour of Guido Cavalcanti and smile that as he went by Baird's stonecutting works in Talbot Place the spirit of Ibsen would blow through him like a keen wind, a spirit of wayward boyish beauty and that passing a grimy marine dealer's shop beyond the Liffey he would repeat the song by Ben Jonson which begins I was not wearier where I lay His mind when wearied of its search for the essence of beauty amid the spectral words of Aristotle or Aquinas turned often for its pleasure to the dainty songs of the Elizabethans. His mind, in the vesture of a doubting monk, stood often in shadow under the windows of that age, to hear the grave and mocking music of the lutenists or the frank laughter of waist-coateers until a laugh too low, a phrase, tarnished by time, of chambering and false honour stung his monkish pride and drove him on from his lurking-place The lore which he was believed to pass his days brooding upon so that it had rapt him from the companionship of youth was only a garner of slender sentences from Aristotle's poetics and psychology and a SYNOPSIS PHILOSOPHIAE SCHOLASTICAE AD MENTEM DIVI THOMAE. His thinking was a dusk of doubt and self-mistrust, lit up at moments by the lightnings of intuition, but lightnings of so clear a splendour that in those moments the world perished about his feet as if it had been fire-consumed and thereafter his tongue grew heavy and he met the eyes of others with unanswering eyes, for he felt that the spirit of beauty had folded him round like a mantle and that in revery at least he had been acquainted with nobility. But when this brief pride of silence upheld him no longer he was glad to find himself still in the midst of common lives, passing on his way amid the squalor and noise and sloth of the city fearlessly and with a light heart Near the hoardings on the canal he met the consumptive man with the doll's face and the brimless hat coming towards him down the slope of the bridge with little steps, tightly buttoned into his chocolate overcoat, and holding his furled umbrella a span or two from him like a divining rod. It must be eleven, he thought, and peered into a dairy to see the time. The clock in the dairy told him that it was five minutes to five but, as he turned away, he heard a clock somewhere near him, but unseen, beating eleven strokes in swift precision. He laughed as he heard it for it made him think of McCann, and he saw him a squat figure in a shooting jacket and breeches and with a fair goatee, standing in the wind at Hopkins' corner, and heard him say Dedalus, you're an antisocial being, wrapped up in yourself. I'm not. I'm a democrat and I'll work and act for social liberty and equality among all classes and sexes in the United States of the Europe of the future Eleven! Then he was late for that lecture too. What day of the week was it? He stopped at a newsagent's to read the headline of a placard. Thursday. Ten to eleven, English eleven to twelve, French twelve to one, physics. He fancied to himself the English lecture and felt, even at that distance, restless and helpless. He saw the heads of his classmates meekly bent as they wrote in their notebooks the points they were bidden to note, nominal definitions, essential definitions and examples or dates of birth or death, chief works, a favourable and an unfavourable criticism side by side. His own head was unbent for his thoughts wandered abroad and whether he looked around the little class of students or out of the window across the desolate gardens of the green an odour assailed him of cheerless cellar-damp and decay. Another head than his, right before him in the first benches, was poised squarely above its bending fellows like the head of a priest appealing without humility to the tabernacle for the humble worshippers about him. Why was it that when he thought of Cranly he could never raise before his mind the entire image of his body but only the image of the head and face? Even now against the grey curtain of the morning he saw it before him like the phantom of a dream, the face of a severed head or death-mask, crowned on the brows by its stiff black upright hair as by an iron crown. It was a priest-like face, priest-like in its palor, in the wide winged nose, in the shadowings below the eyes and along the jaws, priest-like in the lips that were long and bloodless and faintly smiling and Stephen, remembering swiftly how he had told Cranly of all the tumults and unrest and longings in his soul, day after day and night by night, only to be answered by his friend's listening silence, would have told himself that it was the face of a guilty priest who heard confessions of those whom he had not power to absolve but that he felt again in memory the gaze of its dark womanish eyes Through this image he had a glimpse of a strange dark cavern of speculation but at once turned away from it, feeling that it was not yet the hour to enter it. But the nightshade of his friend's listlessness seemed to be diffusing in the air around him a tenuous and deadly exhalation and He found himself glancing from one casual word to another on his right or left in stolid wonder that they had been so silently emptied of instantaneous sense until every mean shop legend bound his mind like the words of a spell and his soul shrivelled up sighing with age as he walked on in a lane among heaps of dead language. His own consciousness of language was ebbing from his brain and trickling into the very words themselves which set to band and disband themselves in wayward rhythms The ivy whines upon the wall And whines and twines upon the wall The yellow ivy upon the wall Ivy, ivy up the wall Did anyone ever hear such drivel? Lord Almighty! Who ever heard of ivy whining on a wall? Yellow ivy that was all right. Yellow ivory also. And what about ivory ivy? The word now shone in his brain, clearer and brighter than any ivory sawn from the mottled tusks of elephants. IVORY, IVOIRE, AVORIO, EBUR. One of the first examples that he had learnt in Latin had run INDIA MITTIT EBUR and he recalled the shrewd northern face of the rector who had taught him to construe the Metamorphoses of Ovid in a courtly English, made whimsical by the mention of porkers and potsherds and chines of bacon. He had learnt what little he knew of the laws of Latin verse from a ragged book written by a Portuguese priest Contrahit orator, variant in carmine vates The crises and victories and secessions in Roman history were handed on to him in the trite words IN TANTO DISCRIMINE and he had tried to peer into the social life of the city of cities through the words IMPLERE OLLAM DENARIORUM which the rector had rendered sonorously as the filling of a pot with denaries. The pages of his time-worn Horace never felt cold to the touch even when his own fingers were cold they were human pages and fifty years before they had been turned by the human fingers of John Duncan Inverarity and by his brother, William Malcolm Inverarity. Yes, those were noble names on the dusky flyleaf and, even for so poor a Latinist as he, the dusky verses were as fragrant as though they had lain all those years in myrtle and lavender and vervain but yet it wounded him to think that he would never be but a shy guest at the feast of the world's culture and that the monkish learning, in terms of which he was striving to forge out an esthetic philosophy, was held no higher by the age he lived in than the subtle and curious jargons of heraldry and falconry The grey block of Trinity on his left, set heavily in the city's ignorance like a dull stone set in a cumbrous ring, pulled his mind downward and while he was striving this way and that to free his feet from the fetters of the reformed conscience he came upon the droll statue of the national poet of Ireland He looked at it without anger for, though sloth of the body and of the soul crept over it like unseen vermin, over the shuffling feet and up the folds of the cloak and around the servile head, it seemed humbly conscious of its indignity. It was a Firbolg in the borrowed cloak of a Milesian and he thought of his friend Davin, the peasant student. It was a jesting name between them, but the young peasant bore with it lightly Go on, Stevie, I have a hard head, you tell me. Call me what you will The homely version of his christian name on the lips of his friend had touched Stephen pleasantly when first heard for he was as formal in speech with others as they were with him. Often, as he sat in Davin's rooms in Grantham Street, wondering at his friend's well-made boots that flanked the wall pair by pair and repeating for his friend's simple ear the verses and cadences of others which were the veils of his own longing and dejection, the rude Firbolg mind of his listener had drawn his mind towards it and flung it back again, drawing it by a quiet inbred courtesy of attention or by a quaint turn of old English speech or by the force of its delight in rude bodily skillfor Davin had sat at the feet of Michael Cusack, the Gaelrepelling swiftly and suddenly by a grossness of intelligence or by a bluntness of feeling or by a dull stare of terror in the eyes, the terror of soul of a starving Irish village in which the curfew was still a nightly fear Side by side with his memory of the deeds of prowess of his uncle Mat Davin, the athlete, the young peasant worshipped the sorrowful legend of Ireland. The gossip of his fellow-students which strove to render the flat life of the college significant at any cost loved to think of him as a young fenian. His nurse had taught him Irish and shaped his rude imagination by the broken lights of Irish myth. He stood towards the myth upon which no individual mind had ever drawn out a line of beauty and to its unwieldy tales that divided against themselves as they moved down the cycles in the same attitude as towards the Roman catholic religion, the attitude of a dull-witted loyal serf. Whatsoever of thought or of feeling came to him from England or by way of English culture his mind stood armed against in obedience to a password and of the world that lay beyond England he knew only the foreign legion of France in which he spoke of serving Coupling this ambition with the young man's humour Stephen had often called him one of the tame geese and there was even a point of irritation in the name pointed against that very reluctance of speech and deed in his friend which seemed so often to stand between Stephen's mind, eager of speculation, and the hidden ways of Irish life One night the young peasant, his spirit stung by the violent or luxurious language in which Stephen escaped from the cold silence of intellectual revolt, had called up before Stephen's mind a strange vision. The two were walking slowly towards Davin's rooms through the dark narrow streets of the poorer jews A thing happened to myself, Stevie, last autumn, coming on winter, and I never told it to a living soul and you are the first person now I ever told it to. I disremember if it was October or November. It was October because it was before I came up here to join the matriculation class Stephen had turned his smiling eyes towards his friend's face, flattered by his confidence and won over to sympathy by the speaker's simple accent I was away all that day from my own place over in Buttevant I don't know if you know where that isat a hurling match between the Croke's Own Boys and the Fearless Thurles and by God, Stevie, that was the hard fight. My first cousin, Fonsy Davin, was stripped to his buff that day minding cool for the Limericks but he was up with the forwards half the time and shouting like mad. I never will forget that day. One of the Crokes made a woeful wipe at him one time with his caman and I declare to God he was within an aim's ace of getting it at the side of his temple. Oh, honest to God, if the crook of it caught him that time he was done for I am glad he escaped, Stephen had said with a laugh, but surely that's not the strange thing that happened you? Well, I suppose that doesn't interest you, but leastways there was such noise after the match that I missed the train home and I couldn't get any kind of a yoke to give me a lift for, as luck would have it, there was a mass meeting that same day over in Castletownroche and all the cars in the country were there. So there was nothing for it only to stay the night or to foot it out. Well, I started to walk and on I went and it was coming on night when I got into the Ballyhoura hills, that's better than ten miles from Kilmallock and there's a long lonely road after that. You wouldn't see the sign of a christian house along the road or hear a sound. It was pitch dark almost. Once or twice I stopped by the way under a bush to redden my pipe and only for the dew was thick I'd have stretched out there and slept. At last, after a bend of the road, I spied a little cottage with a light in the window. I went up and knocked at the door. A voice asked who was there and I answered I was over at the match in Buttevant and was walking back and that I'd be thankful for a glass of water. After a while a young woman opened the door and brought me out a big mug of milk. She was half undressed as if she was going to bed when I knocked and she had her hair hanging and I thought by her figure and by something in the look of her eyes that she must be carrying a child. She kept me in talk a long while at the door, and I thought it strange because her breast and her shoulders were bare. She asked me was I tired and would I like to stop the night there. She said she was all alone in the house and that her husband had gone that morning to Queenstown with his sister to see her off. And all the time she was talking, Stevie, she had her eyes fixed on my face and she stood so close to me I could hear her breathing. When I handed her back the mug at last she took my hand to draw me in over the threshold and said 'COME IN AND STAY THE NIGHT HERE. YOU'VE NO CALL TO BE FRIGHTENED. THERE'S NO ONE IN IT BUT OURSELVES...' I didn't go in, Stevie. I thanked her and went on my way again, all in a fever. At the first bend of the road I looked back and she was standing at the door The last words of Davin's story sang in his memory and the figure of the woman in the story stood forth reflected in other figures of the peasant women whom he had seen standing in the doorways at Clane as the college cars drove by, as a type of her race and of his own, a bat-like soul waking to the consciousness of itself in darkness and secrecy and loneliness and, through the eyes and voice and gesture of a woman without guile, calling the stranger to her bed A hand was laid on his arm and a young voice cried Ah, gentleman, your own girl, sir! The first handsel today, gentleman. Buy that lovely bunch. Will you, gentleman? The blue flowers which she lifted towards him and her young blue eyes seemed to him at that instant images of guilelessness, and he halted till the image had vanished and he saw only her ragged dress and damp coarse hair and hoydenish face Do, gentleman! Don't forget your own girl, sir! I have no money, said Stephen Buy them lovely ones, will you, sir? Only a penny Did you hear what I said? asked Stephen, bending towards her. I told you I had no money. I tell you again now Well, sure, you will some day, sir, please God, the girl answered after an instant Possibly, said Stephen, but I don't think it likely He left her quickly, fearing that her intimacy might turn to jibing and wishing to be out of the way before she offered her ware to another, a tourist from England or a student of Trinity. Grafton Street, along which he walked, prolonged that moment of discouraged poverty. In the roadway at the head of the street a slab was set to the memory of Wolfe Tone and he remembered having been present with his father at its laying. He remembered with bitterness that scene of tawdry tribute. There were four French delegates in a brake and one, a plump smiling young man, held, wedged on a stick, a card on which were printed the words VIVE L'IRLANDE! But the trees in Stephen's Green were fragrant of rain and the rain-sodden earth gave forth its mortal odour, a faint incense rising upward through the mould from many hearts. The soul of the gallant venal city which his elders had told him of had shrunk with time to a faint mortal odour rising from the earth and he knew that in a moment when he entered the sombre college he would be conscious of a corruption other than that of Buck Egan and Burnchapel Whaley It was too late to go upstairs to the French class. He crossed the hall and took the corridor to the left which led to the physics theatre. The corridor was dark and silent but not unwatchful. Why did he feel that it was not unwatchful? Was it because he had heard that in Buck Whaley's time there was a secret staircase there? Or was the jesuit house extra-territorial and was he walking among aliens? The Ireland of Tone and of Parnell seemed to have receded in space He opened the door of the theatre and halted in the chilly grey light that struggled through the dusty windows. A figure was crouching before the large grate and by its leanness and greyness he knew that it was the dean of studies lighting the fire. Stephen closed the door quietly and approached the fireplace Good morning, sir! Can I help you? The priest looked up quickly and said One moment now, Mr Dedalus, and you will see. There is an art in lighting a fire. We have the liberal arts and we have the useful arts. This is one of the useful arts I will try to learn it, said Stephen Not too much coal, said the dean, working briskly at his task, that is one of the secrets He produced four candle-butts from the side-pockets of his soutane and placed them deftly among the coals and twisted papers. Stephen watched him in silence. Kneeling thus on the flagstone to kindle the fire and busied with the disposition of his wisps of paper and candle-butts he seemed more than ever a humble server making ready the place of sacrifice in an empty temple, a levite of the Lord. Like a levite's robe of plain linen the faded worn soutane draped the kneeling figure of one whom the canonicals or the bell-bordered ephod would irk and trouble. His very body had waxed old in lowly service of the Lordin tending the fire upon the altar, in bearing tidings secretly, in waiting upon worldlings, in striking swiftly when biddenand yet had remained ungraced by aught of saintly or of prelatic beauty. Nay, his very soul had waxed old in that service without growing towards light and beauty or spreading abroad a sweet odour of her sanctitya mortified will no more responsive to the thrill of its obedience than was to the thrill of love or combat his ageing body, spare and sinewy, greyed with a silver-pointed down The dean rested back on his hunkers and watched the sticks catch. Stephen, to fill the silence, said I am sure I could not light a fire You are an artist, are you not, Mr Dedalus? said the dean, glancing up and blinking his pale eyes. The object of the artist is the creation of the beautiful. What the beautiful is is another question He rubbed his hands slowly and drily over the difficulty Can you solve that question now? he asked Aquinas, answered Stephen, says PULCRA SUNT QUAE VISA PLACENT This fire before us, said the dean, will be pleasing to the eye. Will it therefore be beautiful? In so far as it is apprehended by the sight, which I suppose means here esthetic intellection, it will be beautiful. But Aquinas also says BONUM EST IN QUOD TENDIT APPETITUS. In so far as it satisfies the animal craving for warmth fire is a good. In hell, however, it is an evil Quite so, said the dean, you have certainly hit the nail on the head He rose nimbly and went towards the door, set it ajar and said A draught is said to be a help in these matters As he came back to the hearth, limping slightly but with a brisk step, Stephen saw the silent soul of a jesuit look out at him from the pale loveless eyes. Like Ignatius he was lame but in his eyes burned no spark of Ignatius's enthusiasm. Even the legendary craft of the company, a craft subtler and more secret than its fabled books of secret subtle wisdom, had not fired his soul with the energy of apostleship. It seemed as if he used the shifts and lore and cunning of the world, as bidden to do, for the greater glory of God, without joy in their handling or hatred of that in them which was evil but turning them, with a firm gesture of obedience back upon themselves and for all this silent service it seemed as if he loved not at all the master and little, if at all, the ends he served. SIMILITER ATQUE SENIS BACULUS, he was, as the founder would have had him, like a staff in an old man's hand, to be leaned on in the road at nightfall or in stress of weather, to lie with a lady's nosegay on a garden seat, to be raised in menace The dean returned to the hearth and began to stroke his chin When may we expect to have something from you on the esthetic question? he asked From me! said Stephen in astonishment. I stumble on an idea once a fortnight if I am lucky These questions are very profound, Mr Dedalus, said the dean. It is like looking down from the cliffs of Moher into the depths. Many go down into the depths and never come up. Only the trained diver can go down into those depths and explore them and come to the surface again If you mean speculation, sir, said Stephen, I also am sure that there is no such thing as free thinking inasmuch as all thinking must be bound by its own laws Ha! For my purpose I can work on at present by the light of one or two ideas of Aristotle and Aquinas I see. I quite see your point I need them only for my own use and guidance until I have done something for myself by their light. If the lamp smokes or smells I shall try to trim it. If it does not give light enough I shall sell it and buy another Epictetus also had a lamp, said the dean, which was sold for a fancy price after his death. It was the lamp he wrote his philosophical dissertations by. You know Epictetus? An old gentleman, said Stephen coarsely, who said that the soul is very like a bucketful of water He tells us in his homely way, the dean went on, that he put an iron lamp before a statue of one of the gods and that a thief stole the lamp. What did the philosopher do? He reflected that it was in the character of a thief to steal and determined to buy an earthen lamp next day instead of the iron lamp A smell of molten tallow came up from the dean's candle butts and fused itself in Stephen's consciousness with the jingle of the words, bucket and lamp and lamp and bucket. The priest's voice, too, had a hard jingling tone. Stephen's mind halted by instinct, checked by the strange tone and the imagery and by the priest's face which seemed like an unlit lamp or a reflector hung in a false focus. What lay behind it or within it? A dull torpor of the soul or the dullness of the thundercloud, charged with intellection and capable of the gloom of God? I meant a different kind of lamp, sir, said Stephen Undoubtedly, said the dean One difficulty, said Stephen, in esthetic discussion is to know whether words are being used according to the literary tradition or according to the tradition of the marketplace. I remember a sentence of Newman's in which he says of the Blessed Virgin that she was detained in the full company of the saints. The use of the word in the marketplace is quite different. I HOPE I AM NOT DETAINING YOU Not in the least, said the dean politely No, no, said Stephen, smiling, I mean Yes, yes I see, said the dean quickly, I quite catch the point DETAIN He thrust forward his under jaw and uttered a dry short cough To return to the lamp, he said, the feeding of it is also a nice problem. You must choose the pure oil and you must be careful when you pour it in not to overflow it, not to pour in more than the funnel can hold What funnel? asked Stephen The funnel through which you pour the oil into your lamp That? said Stephen. Is that called a funnel? Is it not a tundish? What is a tundish? That. The... funnel Is that called a tundish in Ireland? asked the dean. I never heard the word in my life It is called a tundish in Lower Drumcondra, said Stephen, laughing, where they speak the best English A tundish, said the dean reflectively. That is a most interesting word. I must look that word up. Upon my word I must His courtesy of manner rang a little false and Stephen looked at the English convert with the same eyes as the elder brother in the parable may have turned on the prodigal. A humble follower in the wake of clamorous conversions, a poor Englishman in Ireland, he seemed to have entered on the stage of jesuit history when that strange play of intrigue and suffering and envy and struggle and indignity had been all but given througha late-comer, a tardy spirit. From what had he set out? Perhaps he had been born and bred among serious dissenters, seeing salvation in Jesus only and abhorring the vain pomps of the establishment. Had he felt the need of an implicit faith amid the welter of sectarianism and the jargon of its turbulent schisms, six principle men, peculiar people, seed and snake baptists, supralapsarian dogmatists? Had he found the true church all of a sudden in winding up to the end like a reel of cotton some fine-spun line of reasoning upon insufflation on the imposition of hands or the procession of the Holy Ghost? Or had Lord Christ touched him and bidden him follow, like that disciple who had sat at the receipt of custom, as he sat by the door of some zinc-roofed chapel, yawning and telling over his church pence? The dean repeated the word yet again Tundish! Well now, that is interesting! The question you asked me a moment ago seems to me more interesting. What is that beauty which the artist struggles to express from lumps of earth, said Stephen coldly The little word seemed to have turned a rapier point of his sensitiveness against this courteous and vigilant foe. He felt with a smart of dejection that the man to whom he was speaking was a countryman of Ben Jonson. He thought The language in which we are speaking is his before it is mine. How different are the words HOME, CHRIST, ALE, MASTER, on his lips and on mine! I cannot speak or write these words without unrest of spirit. His language, so familiar and so foreign, will always be for me an acquired speech. I have not made or accepted its words. My voice holds them at bay. My soul frets in the shadow of his language And to distinguish between the beautiful and the sublime, the dean added, to distinguish between moral beauty and material beauty. And to inquire what kind of beauty is proper to each of the various arts. These are some interesting points we might take up Stephen, disheartened suddenly by the dean's firm, dry tone, was silent and through the silence a distant noise of many boots and confused voices came up the staircase In pursuing these speculations, said the dean conclusively, there is, however, the danger of perishing of inanition. First you must take your degree. Set that before you as your first aim. Then, little by little, you will see your way. I mean in every sense, your way in life and in thinking. It may be uphill pedalling at first. Take Mr Moonan. He was a long time before he got to the top. But he got there I may not have his talent, said Stephen quietly You never know, said the dean brightly. We never can say what is in us. I most certainly should not be despondent. PER ASPERA AD ASTRA He left the hearth quickly and went towards the landing to oversee the arrival of the first arts' class Leaning against the fireplace Stephen heard him greet briskly and impartially every Student of the class and could almost see the frank smiles of the coarser students. A desolating pity began to fall like dew upon his easily embittered heart for this faithful serving-man of the knightly Loyola, for this half-brother of the clergy, more venal than they in speech, more steadfast of soul than they, one whom he would never call his ghostly father and he thought how this man and his companions had earned the name of worldlings at the hands not of the unworldly only but of the worldly also for having pleaded, during all their history, at the bar of God's justice for the souls of the lax and the lukewarm and the prudent The entry of the professor was signalled by a few rounds of Kentish fire from the heavy boots of those students who sat on the highest tier of the gloomy theatre under the grey cobwebbed windows. The calling of the roll began and the responses to the names were given out in all tones until the name of Peter Byrne was reached Here! A deep bass note in response came from the upper tier, followed by coughs of protest along the other benches The professor paused i</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Gaël Faye</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Zanzibar</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>Les miroirs nous dévorent, les glaces nous effacent La nuit on s'endort sous des masses d'angoisses À recompter les heures de l'existence qui passe Le couilles et le cur, paraît que tout ça casse Je laisserai peu de traces, quelques mots à la marge Des chansons sur la plage, un bout d'sucre à la tasse Je retourne la terr des souvenirs à la houe Mon nfance c'est la traîne d'une mariée dans la boue Si tu plies, reste pas, fuis cette vie à la con Va marcher, ce sera mieux que la file à la pompe Trouve l'il du cyclone pour braver son iris Débusque l'illusion dont nos rêves se nourrissent L'argent et la gloire sont des courses qui épuisent On remporte pas les trônes sans leurs couronnes d'épines Pars au loin, au hasard Au large, Zanzibar On s'emmène en bagage même au loin de nos rives À l'autre bout du monde nos miroirs nous poursuivent Inutile de tenter de tromper l'invisible La conscience, l'il ouvert qui la nuit nous visite Je ne crains pas l'ami que mes rêves vieillissent Car le cur n'a pas d'rides, n'a que des cicatrices Etranger à soi-même, au reflet dans la vitre Se connaître et s'aimer ça peut prendre la vie J'ai délaissé les routes cent mille fois empruntées Je me frotte à des doutes, des chemins escarpés Les routines m'enferment, me tuent, m'atténuent Les miradors m'encerclent, je me heurte à des murs De mes prisons mentales, je m'échappe, mets les voiles Que les vents nous emportent comme des boutres en bois Que leur fraîcheur s'engouffre dans ces ruelles blanches Où des chats indolents à l'ombre se retranchent On ment pas aux miroirs, autant feindre son ombre On court après des gloires, on veut se faire un nom Avoir une preuve de soi, qu'on est passé par là Alors on tague des mammouths la nuit sur des parois Dis-moi, toi tu fais quoi du temps qui reste à vivre ? On se répare comment de tout c'qui nous abîme ? Les poèmes des parpaings pour fabriquer des dômes Et l'enfance ne part pas, c'est ma douleur fantôme Je dérive en rêveries du crépuscule à l'aube À faire l'tour du cadran pour quelques jolis mots Des astres brillants dans le chaos des chiens Quelques poussières d'étoiles dans un tas de déchets Il faut chercher en soi ce que son âme recèle Des prières, des mantras, ce que la vie enseigne Avant qu'nos corps ne cèdent comme des statues de sel Dansons sous les lumières du ciel Eh yo Je rêve mon ami de Stone Town</t>
         </is>
